--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A4A2A8-562C-854C-948C-F645565E869C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72DF6F-C88E-A943-A724-315E69D97C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="17540" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
-    <sheet name="电器家具明细" sheetId="4" r:id="rId2"/>
-    <sheet name="商家详细信息" sheetId="3" r:id="rId3"/>
-    <sheet name="饮食交通开支" sheetId="2" r:id="rId4"/>
+    <sheet name="主材工具费用明细" sheetId="6" r:id="rId2"/>
+    <sheet name="电器家具明细" sheetId="4" r:id="rId3"/>
+    <sheet name="商家详细信息" sheetId="3" r:id="rId4"/>
+    <sheet name="饮食交通开支" sheetId="2" r:id="rId5"/>
+    <sheet name="进度记录" sheetId="5" r:id="rId6"/>
+    <sheet name="产权费用明细" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断桥铝，73型材(本地永顺岐山)，双层玻璃，单层玻璃厚5mm，四分格形态，内嵌海绵棒，北阳台全钢化，南阳台非钢化，明合页带定位器，无内导，外阳台台面内倾斜渗水各加一块钢板放渗漏，五金403不锈钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收费方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,30 +89,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水路改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品诺装饰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包干价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>——</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预付款400【已支付】+尾款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户北次卧隔断墙+客厅回字形隔断墙+餐厅北阳台窗正下方墙垛+南次卧窗正下方墙垛+主卧飘窗+门洞抬高10厘米全屋拉平（门洞包括两个卫生间+厨房门+四个卧室门）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +138,6 @@
   </si>
   <si>
     <t>380*7.52+3.6*50+300*2+100*2 = 3837.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预付款650【已支付】+尾款3180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,358 +184,593 @@
     <t>https://aiqicha.baidu.com/company_detail_91131019584325?rq=ef&amp;pd=ee&amp;from=ps</t>
   </si>
   <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃隔断门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃隔断门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶扶手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机洗漱台台面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层置物架（镜柜左侧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储物柜（电热水器下方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱台一体（台盆，柜体，柜镜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸烤一体机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立式空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动晾衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边几1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边几2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁挂灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，松下冰箱京东自营旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸（宽，深，高），mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下（Panasonic）303升三门冰箱 一级能效 小京鱼智能 银离子抗菌 自动制冰宽幅变温NR-JS30AX1-W 白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100007742413.html#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600，650，1900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米电视4A 60英寸 L60M5-4A 4K超高清 HDR 内置小爱 2GB+8GB 教育电视 人工智能语音网络液晶平板电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100012354238.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，美的京东自营官方旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的（Midea）新一级 智行 智能变频冷暖 3匹客厅圆柱空调立式柜机 KFR-72LW/BP3DN8Y-YH200(1) 【新一级爆款】第四代智清洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100007626997.html#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【室内机】405，405，1775【室外机】940，342，673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁挂空调1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100013853386.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的（Midea）新一级 i青春II 智能控制 变频冷暖 大 1匹壁挂式空调挂机KFR-26GW/N8XHB1【新一级爆款】第四代智清洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【室内机】880，195，295 【室外机】857，328，555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100012295086.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔（Haier）滚筒洗衣机全自动 高温除菌 微蒸汽除螨防皱10KG洗烘一体变频EG100HB129S【微蒸汽空气洗蒸衣塑型】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>595，650，850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，海尔京东自营旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100013700218.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的（Midea）J58+Q70-T 油烟机 侧吸抽油烟机 烟灶套装 WiFi智控 家用吸油烟机 燃气灶 （天然气）【20㎡挥手烟机5.0KW六爪灶-天】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100003859066.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔（Haier）60升电热水器3000W变频速热6倍增容一级能效智能手机APP控制遥控预约EC6003-JT1(U1)京品家电【3000W变频】智能抑菌 6倍增容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>810，440，490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电热毛巾架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米电视Redmi A55 55英寸4KHDR超高清人工智能网络液晶教育平板电视红米 L55R6-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100008697687.html#crumb-wrap</t>
+  </si>
+  <si>
+    <t>京东，小米京东自营旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【含边框，不含底座】1237.8，63.9，715.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的（Midea）8套 嵌入式 家用洗碗机 WIFI智控 银离子抑菌 20min超快洗 台式刷碗机D18【8套台嵌两用】20min超快洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100012006210.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550，500，590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【外形尺寸】595，525，454【开孔尺寸】560，550，450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有通风孔和底座通风孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/4315566.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的（Midea）伯爵 蒸汽烤箱 嵌入式电蒸箱电烤箱 家用大容量蒸烤一体机TQN34FBJ-SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油烟机+灶台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【抽油烟机】-【机体尺寸】898，404，636（429+207）【安装尺寸】宽915             【灶台】-【面板尺寸】760，445，145 【开孔尺寸】645，340，R20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>入户北次卧隔断墙+客厅回字形隔断墙+餐厅北阳台窗正下方墙垛+南次卧窗正下方墙垛+主卧飘窗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+门洞抬高10厘米全屋拉平（门洞包括两个卫生间+厨房门+四个卧室门）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸墙+清渣（不涉及瓦工，因此不包含抹灰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期, h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸旧门窗，砸墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸旧门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/7，14：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 冬季使用废旧塑料布短时间临时封补窗口保护地暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3MX5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下文具店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收废品负责卸载和回收，收入+180元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电路改造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋浴花洒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长卫生间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方卫生间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选购说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃隔断门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃隔断门2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶扶手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机洗漱台台面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多层置物架（镜柜左侧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储物柜（电热水器下方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台一体（台盆，柜体，柜镜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸烤一体机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗碗机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多人沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单人沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立式空调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动晾衣架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边几1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边几2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壁挂灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东，松下冰箱京东自营旗舰店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸（宽，深，高），mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松下（Panasonic）303升三门冰箱 一级能效 小京鱼智能 银离子抗菌 自动制冰宽幅变温NR-JS30AX1-W 白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100007742413.html#none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600，650，1900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米电视4A 60英寸 L60M5-4A 4K超高清 HDR 内置小爱 2GB+8GB 教育电视 人工智能语音网络液晶平板电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100012354238.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【含边框，不含底座】1357.2，80.1，786</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东，美的京东自营官方旗舰店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的（Midea）新一级 智行 智能变频冷暖 3匹客厅圆柱空调立式柜机 KFR-72LW/BP3DN8Y-YH200(1) 【新一级爆款】第四代智清洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100007626997.html#none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【室内机】405，405，1775【室外机】940，342，673</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壁挂空调1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100013853386.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的（Midea）新一级 i青春II 智能控制 变频冷暖 大 1匹壁挂式空调挂机KFR-26GW/N8XHB1【新一级爆款】第四代智清洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【室内机】880，195，295 【室外机】857，328，555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100012295086.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海尔（Haier）滚筒洗衣机全自动 高温除菌 微蒸汽除螨防皱10KG洗烘一体变频EG100HB129S【微蒸汽空气洗蒸衣塑型】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>595，650，850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东，海尔京东自营旗舰店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100013700218.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的（Midea）J58+Q70-T 油烟机 侧吸抽油烟机 烟灶套装 WiFi智控 家用吸油烟机 燃气灶 （天然气）【20㎡挥手烟机5.0KW六爪灶-天】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100003859066.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海尔（Haier）60升电热水器3000W变频速热6倍增容一级能效智能手机APP控制遥控预约EC6003-JT1(U1)京品家电【3000W变频】智能抑菌 6倍增容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>810，440，490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电热毛巾架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米电视Redmi A55 55英寸4KHDR超高清人工智能网络液晶教育平板电视红米 L55R6-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100008697687.html#crumb-wrap</t>
-  </si>
-  <si>
-    <t>京东，小米京东自营旗舰店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【含边框，不含底座】1237.8，63.9，715.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的（Midea）8套 嵌入式 家用洗碗机 WIFI智控 银离子抑菌 20min超快洗 台式刷碗机D18【8套台嵌两用】20min超快洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/100012006210.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>550，500，590</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【外形尺寸】595，525，454【开孔尺寸】560，550，450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有通风孔和底座通风孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/4315566.html#crumb-wrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的（Midea）伯爵 蒸汽烤箱 嵌入式电蒸箱电烤箱 家用大容量蒸烤一体机TQN34FBJ-SA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽油烟机+灶台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【抽油烟机】-【机体尺寸】898，404，636（429+207）【安装尺寸】宽915             【灶台】-【面板尺寸】760，445，145 【开孔尺寸】645，340，R20</t>
+    <t>断桥铝，73型材(本地永顺岐山)，双层玻璃，单层玻璃厚5mm，四分格形态，内嵌海绵棒，北阳台全钢化，南阳台非钢化，明合页带定位器，无内导，外阳台台面内倾斜渗水各加一块钢板防渗漏，五金304不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款400【已支付】+尾款600【已支付】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 门洞上扩会破坏本身的门梁，全部上扩后还需要根据要求重新建梁，所以取消该项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表箱到入户段换线，6方换成10方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家电网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不产权申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售楼处二楼财务处领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需填写，找贷款银行代办时再处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产权测绘图纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五一路317号万水千山测绘公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在乱收费问题，留存收据待查证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 不要破坏公共走廊地砖、入户门、地暖、管道、承重墙；② 冬季使用废旧塑料布短时间临时封补窗口保护地暖；③拆卸下来的钢筋可以卖，2块钱/公斤；④外墙变内墙后应该要求同时铲掉原外墙保温层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/8，14：00-17：00；2020/12/9，08:00-10：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹灰，铲遗留下来的外墙保温棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款650【已支付】+尾款3180【已支付】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/9，10：30-11：30；2020/12/9，14：30-16：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午先装窗框和挡水板，发泡剂填充，打胶固定；下午等发泡和胶干了之后装玻璃，胶封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24小时之后可以看看开关窗看是否牢固，有无安装问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工人作业速度非常快，没有时间仔细确认①断桥铝材质的厚度是否满足1.4mm ②实际测量发现窗扇厚度73mm，窗框厚度64mm，经过邻居和商家反复确认，觉得可能存在欺诈，已录音备用 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①装好后不要立即清扫，以免扬灰影响胶封；②装好后应等待24小时再去检查已免蹭到未干的胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>包含砸墙、清渣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和抹灰(单独砸墙无瓦工)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；出售拆卸下来的钢筋，收入+30元</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,6 +847,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -670,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,46 +932,79 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,12 +1777,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -1532,7 +1793,7 @@
     <col min="4" max="16384" width="27.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="22">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,13 +1816,16 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="220">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="220">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1572,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1581,52 +1845,59 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="I2" s="5">
         <v>3830</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="176">
+      <c r="J2" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="176">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="E3" s="5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="22">
+        <v>150</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="44">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>148</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="22">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1636,12 +1907,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="16384" width="18" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="25">
+        <v>278</v>
+      </c>
+      <c r="E2" s="25">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25">
+        <f>D2*E2</f>
+        <v>556</v>
+      </c>
+      <c r="G2" s="25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="25">
+        <v>64</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25">
+        <f>D3*E3</f>
+        <v>128</v>
+      </c>
+      <c r="G3" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25">
+        <f>D4*E4</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="27" customFormat="1">
+      <c r="A5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="27">
+        <f>SUM(G2:G4)</f>
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -1649,103 +2044,106 @@
     <col min="1" max="1" width="40.5" style="5" customWidth="1"/>
     <col min="2" max="3" width="16.33203125" style="5"/>
     <col min="4" max="4" width="33.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="15" customWidth="1"/>
     <col min="7" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="22">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="132">
-      <c r="A2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="21">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="132">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="20">
         <v>1499</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>2</v>
       </c>
-      <c r="J2" s="21">
-        <f>H2*I2</f>
+      <c r="J2" s="20">
+        <f t="shared" ref="J2:J36" si="0">H2*I2</f>
         <v>2998</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" ht="110">
+      <c r="K2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="110">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>123</v>
+        <v>39</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5">
         <v>2999</v>
@@ -1753,34 +2151,34 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="21">
-        <f>H3*I3</f>
+      <c r="J3" s="20">
+        <f t="shared" si="0"/>
         <v>2999</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>102</v>
+      <c r="K3" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" ht="88">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="88">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>123</v>
+        <v>56</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H4" s="5">
         <v>4390</v>
@@ -1788,34 +2186,34 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="21">
-        <f>H4*I4</f>
+      <c r="J4" s="20">
+        <f t="shared" si="0"/>
         <v>4390</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>87</v>
+      <c r="K4" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" s="21" customFormat="1" ht="179" customHeight="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="179" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
-        <v>129</v>
+        <v>99</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H5" s="5">
         <v>2399</v>
@@ -1823,34 +2221,34 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="21">
-        <f>H5*I5</f>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
         <v>2399</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>106</v>
+      <c r="K5" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="88">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="88">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H6" s="5">
         <v>3499</v>
@@ -1858,36 +2256,36 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="21">
-        <f>H6*I6</f>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
         <v>3499</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>126</v>
+      <c r="K6" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="21" customFormat="1" ht="110">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="110">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>123</v>
+        <v>62</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
-        <v>121</v>
+        <v>111</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H7" s="5">
         <v>2999</v>
@@ -1895,34 +2293,34 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="21">
-        <f>H7*I7</f>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
         <v>2999</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>120</v>
+      <c r="K7" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="21" customFormat="1" ht="88">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="88">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>123</v>
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H8" s="5">
         <v>2399</v>
@@ -1930,34 +2328,34 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="21">
-        <f>H8*I8</f>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
         <v>2399</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="88">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="21" customFormat="1" ht="88">
-      <c r="A9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>123</v>
+      <c r="C9" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H9" s="5">
         <v>1988</v>
@@ -1965,34 +2363,34 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="21">
-        <f>H9*I9</f>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>116</v>
+      <c r="K9" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" s="21" customFormat="1" ht="132">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="132">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>123</v>
+        <v>73</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H10" s="5">
         <v>5799</v>
@@ -2000,34 +2398,34 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="21">
-        <f>H10*I10</f>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
         <v>5799</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>95</v>
+      <c r="K10" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" s="21" customFormat="1" ht="110">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="110">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H11" s="5">
         <v>2199</v>
@@ -2035,434 +2433,434 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="21">
-        <f>H11*I11</f>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
         <v>2199</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>99</v>
+      <c r="K11" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" s="21" customFormat="1" ht="22">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5">
-        <f>H12*I12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" s="21" customFormat="1" ht="22">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="22">
+      <c r="A13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="22">
+      <c r="A14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="22">
+      <c r="A15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" ht="22">
+      <c r="A17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="22" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="22">
+      <c r="A19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20">
+        <v>2</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="22">
+      <c r="A20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
+        <v>2</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="21" customHeight="1">
+      <c r="A22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="J13" s="5">
-        <f>H13*I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:12" s="21" customFormat="1" ht="22">
-      <c r="A14" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="J14" s="5">
-        <f>H14*I14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="21" customFormat="1" ht="22">
-      <c r="A15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="J15" s="21">
-        <f>H15*I15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="24" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21">
-        <f>H16*I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="22">
-      <c r="A17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21">
+      <c r="B22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" ht="22">
+      <c r="A23" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20">
         <v>2</v>
       </c>
-      <c r="J17" s="21">
-        <f>H17*I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" ht="22" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21">
-        <v>2</v>
-      </c>
-      <c r="J18" s="21">
-        <f>H18*I18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="22">
-      <c r="A19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21">
-        <v>2</v>
-      </c>
-      <c r="J19" s="21">
-        <f>H19*I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" ht="22">
-      <c r="A20" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21">
-        <v>2</v>
-      </c>
-      <c r="J20" s="21">
-        <f>H20*I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="24" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="21">
-        <f>H21*I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="21" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21">
-        <f>H22*I22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" ht="22">
-      <c r="A23" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21">
-        <v>2</v>
-      </c>
-      <c r="J23" s="21">
-        <f>H23*I23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="J23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="51" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21">
-        <f>H24*I24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="A24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="22">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="21">
-        <f>H25*I25</f>
+        <v>39</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="22">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="21">
-        <f>H26*I26</f>
+        <v>56</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="22">
       <c r="A27" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="21">
-        <f>H27*I27</f>
+        <v>56</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="22">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="21">
-        <f>H28*I28</f>
+        <v>62</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="22">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="21">
-        <f>H29*I29</f>
+        <v>73</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="22" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I30" s="5">
         <v>2</v>
       </c>
-      <c r="J30" s="21">
-        <f>H30*I30</f>
+      <c r="J30" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="22">
       <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="21">
-        <f>H31*I31</f>
+      <c r="J31" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="22">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="21">
-        <f>H32*I32</f>
+        <v>73</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="22">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="21">
-        <f>H33*I33</f>
+        <v>73</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="22">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="21">
-        <f>H34*I34</f>
+        <v>73</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="22">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="21">
-        <f>H35*I35</f>
+        <v>73</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="21">
-        <f>H36*I36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="18" customFormat="1" ht="22">
-      <c r="A37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="J37" s="21">
+        <v>73</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="J37" s="20">
         <f>SUM(J2:J36)</f>
         <v>31669</v>
       </c>
@@ -2488,7 +2886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7191D9C8-28F9-4B4B-848D-0A0BF1EBDEF6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2504,31 +2902,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>38</v>
+      <c r="A3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2544,14 +2942,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -2565,28 +2963,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -2634,11 +3032,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G12" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G19" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2737,7 +3135,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2860,55 +3258,432 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="22">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7">
-        <f>SUM(B2:B12)</f>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>44168</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22">
+      <c r="A14" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5">
+        <v>64.2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>105.2</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>44173</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5">
+        <v>57</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>49.2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>43</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="22">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <f>SUM(B2:B19)</f>
         <v>100</v>
       </c>
-      <c r="C13" s="7">
-        <f t="shared" ref="C13:G13" si="1">SUM(C2:C12)</f>
+      <c r="C20" s="7">
+        <f>SUM(C2:C19)</f>
         <v>26</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="1"/>
-        <v>283.28000000000003</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>334</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="1"/>
+      <c r="D20" s="7">
+        <f>SUM(D2:D19)</f>
+        <v>453.48</v>
+      </c>
+      <c r="E20" s="7">
+        <f>SUM(E2:E19)</f>
+        <v>564.29999999999995</v>
+      </c>
+      <c r="F20" s="7">
+        <f>SUM(F2:F19)</f>
         <v>6</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>749.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="G20" s="7">
+        <f>SUM(G2:G19)</f>
+        <v>1149.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="2" width="20" style="11"/>
+    <col min="3" max="3" width="37.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20" style="29"/>
+    <col min="5" max="16384" width="20" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="22">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="24">
+        <v>44167</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="88">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="286">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="132">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22">
+      <c r="E8" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80050F6-DCA8-6F49-85E6-701F85802663}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="16384" width="18.1640625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
+      <c r="A1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="66">
+      <c r="A2" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="66">
+      <c r="A3" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="33">
+        <v>100</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="34" customFormat="1" ht="22">
+      <c r="A4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="34">
+        <f>SUM(C2:C3)</f>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72DF6F-C88E-A943-A724-315E69D97C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B9E63-5D2E-714C-B683-3677406F2A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="27760" windowHeight="17540" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
-    <sheet name="主材工具费用明细" sheetId="6" r:id="rId2"/>
+    <sheet name="主材辅材工具费用明细" sheetId="6" r:id="rId2"/>
     <sheet name="电器家具明细" sheetId="4" r:id="rId3"/>
     <sheet name="商家详细信息" sheetId="3" r:id="rId4"/>
     <sheet name="饮食交通开支" sheetId="2" r:id="rId5"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,10 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卫生间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,9 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.jd.com/100008697687.html#crumb-wrap</t>
-  </si>
-  <si>
     <t>京东，小米京东自营旗舰店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,10 +501,6 @@
   </si>
   <si>
     <t>【外形尺寸】595，525，454【开孔尺寸】560，550，450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有通风孔和底座通风孔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,10 +637,6 @@
   </si>
   <si>
     <t>电路改造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断桥铝，73型材(本地永顺岐山)，双层玻璃，单层玻璃厚5mm，四分格形态，内嵌海绵棒，北阳台全钢化，南阳台非钢化，明合页带定位器，无内导，外阳台台面内倾斜渗水各加一块钢板防渗漏，五金304不锈钢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -771,6 +756,66 @@
       </rPr>
       <t>；出售拆卸下来的钢筋，收入+30元</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断桥铝，73型材(营口永顺断桥铝)，双层玻璃，单层玻璃厚5mm，四分格形态，内嵌海绵棒，北阳台全钢化，南阳台非钢化，明合页带定位器，无内导，外阳台台面内倾斜渗水各加一块钢板防渗漏，五金304不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/100008697687.html#crumb-wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有通风孔和底座通风孔；                                   【双十二】-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-100*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小厨宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暖浴霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房用品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,12 +1034,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,6 +1044,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1822,7 +1867,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220">
@@ -1836,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1848,13 +1893,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I2" s="5">
         <v>3830</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="176">
@@ -1862,13 +1907,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E3" s="5">
         <v>1000</v>
@@ -1880,24 +1925,24 @@
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I3" s="5">
         <v>1000</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="44">
       <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +1957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -1931,30 +1976,30 @@
         <v>74</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="25">
         <v>278</v>
@@ -1972,13 +2017,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="25">
         <v>64</v>
@@ -1996,10 +2041,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="25">
         <v>5</v>
@@ -2032,11 +2077,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -2046,10 +2091,12 @@
     <col min="4" max="4" width="33.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" style="14" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="16.33203125" style="5"/>
+    <col min="7" max="11" width="16.33203125" style="5"/>
+    <col min="12" max="12" width="26.1640625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="22">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
@@ -2078,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>76</v>
@@ -2087,25 +2134,28 @@
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="132">
+        <v>171</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="132">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>97</v>
@@ -2123,9 +2173,11 @@
       <c r="K2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="110">
+      <c r="L2" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="110">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -2133,7 +2185,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>95</v>
@@ -2158,9 +2210,11 @@
       <c r="K3" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" ht="88">
+      <c r="L3" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="20" customFormat="1" ht="88">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -2168,7 +2222,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>79</v>
@@ -2193,24 +2247,26 @@
       <c r="K4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" ht="179" customHeight="1">
+      <c r="L4" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" ht="179" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>85</v>
@@ -2228,9 +2284,11 @@
       <c r="K5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="20" customFormat="1" ht="88">
+      <c r="L5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1" ht="88">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -2238,14 +2296,14 @@
         <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>85</v>
@@ -2261,13 +2319,13 @@
         <v>3499</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="20" customFormat="1" ht="110">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="110">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -2275,14 +2333,14 @@
         <v>62</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>85</v>
@@ -2298,11 +2356,13 @@
         <v>2999</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="88">
+        <v>110</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1" ht="88">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -2310,34 +2370,36 @@
         <v>73</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H8" s="5">
         <v>2399</v>
       </c>
       <c r="I8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" si="0"/>
-        <v>2399</v>
+        <v>0</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="20" customFormat="1" ht="88">
+      <c r="L8" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1" ht="88">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2345,34 +2407,36 @@
         <v>90</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H9" s="5">
         <v>1988</v>
       </c>
       <c r="I9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="0"/>
-        <v>1988</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="132">
+        <v>172</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="20" customFormat="1" ht="132">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -2380,7 +2444,7 @@
         <v>73</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>86</v>
@@ -2405,9 +2469,11 @@
       <c r="K10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="110">
+      <c r="L10" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="20" customFormat="1" ht="110">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -2415,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>92</v>
@@ -2440,9 +2506,11 @@
       <c r="K11" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" ht="22">
+      <c r="L11" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="20" customFormat="1" ht="22">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -2463,7 +2531,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1" ht="22">
+    <row r="13" spans="1:14" s="20" customFormat="1" ht="22">
       <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
@@ -2478,7 +2546,7 @@
       </c>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1" ht="22">
+    <row r="14" spans="1:14" s="20" customFormat="1" ht="22">
       <c r="A14" s="20" t="s">
         <v>53</v>
       </c>
@@ -2492,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1" ht="22">
+    <row r="15" spans="1:14" s="20" customFormat="1" ht="22">
       <c r="A15" s="20" t="s">
         <v>52</v>
       </c>
@@ -2506,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    <row r="16" spans="1:14" ht="24" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -2532,7 +2600,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -2555,7 +2623,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -2578,9 +2646,11 @@
         <v>45</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
@@ -2601,7 +2671,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2621,10 +2691,10 @@
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -2665,10 +2735,10 @@
     </row>
     <row r="23" spans="1:12" ht="22">
       <c r="A23" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2801,6 +2871,9 @@
       <c r="B32" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C32" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2854,20 +2927,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="17" customFormat="1" ht="22">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:10" ht="24" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="24" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="J37" s="20">
-        <f>SUM(J2:J36)</f>
-        <v>31669</v>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="J39" s="20">
+        <f>SUM(J2:J38)</f>
+        <v>27282</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L37">
-    <sortCondition ref="C2:C37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
+    <sortCondition ref="C2:C39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2880,9 +2984,10 @@
     <hyperlink ref="K7" r:id="rId7" location="crumb-wrap" xr:uid="{D8613EAC-622E-994F-8E0A-8DF3EB7ACB4F}"/>
     <hyperlink ref="K6" r:id="rId8" location="crumb-wrap" xr:uid="{5F7E93BD-2ED9-2848-8C2F-43BAA389E323}"/>
     <hyperlink ref="K5" r:id="rId9" location="crumb-wrap" xr:uid="{697E496D-055D-D643-BF57-A496A4AD67DE}"/>
+    <hyperlink ref="K9" r:id="rId10" location="crumb-wrap" xr:uid="{D9C13EFA-64F5-1546-8A22-F489440E29D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2912,10 +3017,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2923,8 +3028,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3306,7 +3411,7 @@
         <v>105.2</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3434,27 +3539,27 @@
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <f>SUM(B2:B19)</f>
+        <f t="shared" ref="B20:G20" si="1">SUM(B2:B19)</f>
         <v>100</v>
       </c>
       <c r="C20" s="7">
-        <f>SUM(C2:C19)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D20" s="7">
-        <f>SUM(D2:D19)</f>
+        <f t="shared" si="1"/>
         <v>453.48</v>
       </c>
       <c r="E20" s="7">
-        <f>SUM(E2:E19)</f>
+        <f t="shared" si="1"/>
         <v>564.29999999999995</v>
       </c>
       <c r="F20" s="7">
-        <f>SUM(F2:F19)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G20" s="7">
-        <f>SUM(G2:G19)</f>
+        <f t="shared" si="1"/>
         <v>1149.78</v>
       </c>
     </row>
@@ -3507,22 +3612,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
@@ -3530,16 +3635,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" s="24">
         <v>44167</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="88">
@@ -3547,19 +3652,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="29">
         <v>0.33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="286">
@@ -3570,19 +3675,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D4" s="29">
         <v>5.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="132">
@@ -3590,27 +3695,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" s="29">
         <v>2.5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22">
       <c r="E8" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3630,57 +3735,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="16384" width="18.1640625" style="33"/>
+    <col min="1" max="16384" width="18.1640625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="66">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="66">
+      <c r="A3" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C3" s="31">
+        <v>100</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="33">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="66">
-      <c r="A3" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="33">
-        <v>100</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="34" customFormat="1" ht="22">
-      <c r="A4" s="34" t="s">
+    </row>
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="22">
+      <c r="A4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <f>SUM(C2:C3)</f>
         <v>100</v>
       </c>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B9E63-5D2E-714C-B683-3677406F2A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA554AD-AA99-D247-B4F5-43DBF97E1962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="27600" windowHeight="17540" activeTab="6" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="242">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,14 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电表箱到入户段换线，6方换成10方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家电网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +693,6 @@
   </si>
   <si>
     <t>2020/12/8，14：00-17：00；2020/12/9，08:00-10：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹灰，铲遗留下来的外墙保温棉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重点参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.jd.com/100008697687.html#crumb-wrap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【双十二】-600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【双十二】-100*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,6 +796,290 @@
   </si>
   <si>
     <t>厨房用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲保温墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北阳台封窗后变为内阳台，需要铲掉保温层扩大一点空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 这一步应该包含在砸墙中，当时忘记了。为了节约成本，就自己铲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业吸尘器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰诺JS-308S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭火器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙星干粉灭火器4公斤 手提式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修保护膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩弘2.4m*15m 两卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击钻电锤电镐两用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国沃克莱夫混凝土工业级电钻套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛，3m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲保温层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①应该包含在砸墙环节②最好用角磨机、撬棍等工具效率更高③做好防护，包括降噪耳罩、防尘口罩、眼罩、面罩等，保温岩棉的碎屑容易进入呼吸道、沾皮肤后发痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送三年延保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格美居GEMJU家用折叠人字梯铝合金加厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔BCD-335WLHFD78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640，674，1775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，海尔大洋专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机一年，主件三年，晒单送十年电机延保卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的RX10Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600，581，775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝，美的合易美专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机保修一年，主要零部件（控制面板、电机、电控板、水泵）保修三年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双十二】-600，3790可以拿下；赠品回血：-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅电器设计规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨斗+墨汁*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩防尘罩10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光水平仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太JQD6T+HT8BE.S(天然气)油烟机燃气灶20大风量一键启动巨焰大火力新灶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修5年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费，辅材按实际情况收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请田孟吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去宜家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/11，10：30-12：30；2020/12/11，14：30-17：30；2020/12/15，10：30-12：30；2020/12/15，14：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保温层包括保温岩棉、挂网、水泥砂浆，使用锤子、剪刀、电锤、电镐进行铲除、以及清渣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抹灰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，铲遗留下来的外墙保温棉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了两瓶眼药水舒缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/17，10：30-12：00；2020/12/17，14：30-17：30；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆开发商提供的电线盒看具体走线和是否能重用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆掉插座、开关、报警器、强弱电箱、网口、TV口、白炽灯线盒，查看每个节点的进出火、零、地线的情况并录像，配合物业提供的室内走电参考图，还原目前电路路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①注意用电安全，一定要断开强电箱总开关再进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/16，14：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用保护膜保护目前室内所有北面的窗户，留南向窗通风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①购买的静电吸附防护膜单层覆盖防护飞溅的水泥强度不够，需多层覆盖或者最好换无纺布防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南向窗必要时实施保护；如果两层防护不够，考虑更换无纺布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>窗户附近铲除后需再次挂网抹水泥砂浆以及后续操作；铲除后发现新封的窗钉大部分穿保温层固定，咨询卖窗商家答复没有安全隐患，但是会沿保温层渗水，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续需要使用防水专用水泥砂浆对全屋类似情况的窗户都进行封堵和加固，再辅以防水层提高防水性能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开发商的线路不可用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出全屋重新走线图和具体施工</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +1090,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -906,13 +1170,82 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -943,7 +1276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1378,69 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1076,13 +1472,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>430670</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1645920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1126,13 +1522,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1955498</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1276,13 +1672,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2499433</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1920240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1376,13 +1772,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1236251</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1426,13 +1822,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1321292</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1097280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1476,13 +1872,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1845876</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>640080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1822,12 +2218,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -1867,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220">
@@ -1881,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1893,13 +2289,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I2" s="5">
         <v>3830</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="176">
@@ -1934,15 +2330,50 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="44">
+    <row r="4" spans="1:10" ht="88">
       <c r="A4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22">
+      <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>149</v>
+    </row>
+    <row r="6" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="17">
+        <f>SUM(I2:I5)</f>
+        <v>4830</v>
       </c>
     </row>
   </sheetData>
@@ -1953,16 +2384,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="16384" width="18" style="25"/>
+    <col min="1" max="1" width="24.1640625" style="25" customWidth="1"/>
+    <col min="2" max="16384" width="18" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="26" customFormat="1">
@@ -1988,7 +2420,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2008,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="25">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F15" si="0">D2*E2</f>
         <v>556</v>
       </c>
       <c r="G2" s="25">
@@ -2032,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="25">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="G3" s="25">
@@ -2053,23 +2485,282 @@
         <v>2</v>
       </c>
       <c r="F4" s="25">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G4" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="27" customFormat="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="25">
+        <v>318</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="G5" s="54">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66">
+      <c r="A6" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="25">
+        <v>53.9</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>53.9</v>
+      </c>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:8" ht="44">
+      <c r="A7" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="25">
+        <v>39.9</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="66">
+      <c r="A8" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="25">
+        <v>188</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="G8" s="35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22">
+      <c r="A9" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="25">
+        <v>35</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="66">
+      <c r="A10" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="25">
+        <v>258</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="G10" s="35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22">
+      <c r="A11" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="25">
+        <v>22</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G11" s="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22">
+      <c r="A12" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="25">
+        <v>11.2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="G12" s="36">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22">
+      <c r="A13" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="25">
+        <v>89</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="G13" s="36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22">
+      <c r="A14" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="25">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22">
+      <c r="A15" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="25">
+        <v>287.5</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="0"/>
+        <v>287.5</v>
+      </c>
+      <c r="G15" s="36">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="27" customFormat="1">
+      <c r="A16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="27">
-        <f>SUM(G2:G4)</f>
-        <v>534</v>
+      <c r="G16" s="27">
+        <f>SUM(G2:G15)</f>
+        <v>1737.7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:G7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2077,11 +2768,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -2092,11 +2783,11 @@
     <col min="5" max="5" width="49.33203125" style="14" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="15" customWidth="1"/>
     <col min="7" max="11" width="16.33203125" style="5"/>
-    <col min="12" max="12" width="26.1640625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="16.33203125" style="5"/>
+    <col min="12" max="13" width="26.1640625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="22">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2134,13 +2825,16 @@
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="132">
+        <v>197</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="132">
       <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
@@ -2167,17 +2861,17 @@
         <v>2</v>
       </c>
       <c r="J2" s="20">
-        <f t="shared" ref="J2:J36" si="0">H2*I2</f>
+        <f t="shared" ref="J2:J39" si="0">H2*I2</f>
         <v>2998</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>100</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="110">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="110">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -2211,179 +2905,188 @@
         <v>94</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="20" customFormat="1" ht="88">
-      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" s="40" customFormat="1" ht="88">
+      <c r="A4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="39">
         <v>4390</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="39">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="45" customFormat="1" ht="88">
+      <c r="A5" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="45">
+        <v>3999</v>
+      </c>
+      <c r="I5" s="45">
         <v>1</v>
       </c>
-      <c r="J4" s="20">
-        <f t="shared" si="0"/>
-        <v>4390</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" ht="179" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="45">
+        <v>3299</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="40" customFormat="1" ht="179" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="44">
         <v>2399</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="44">
         <v>1</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J6" s="40">
         <f t="shared" si="0"/>
         <v>2399</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K6" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" ht="88">
-      <c r="A6" s="5" t="s">
+      <c r="L6" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" s="49" customFormat="1" ht="179" customHeight="1">
+      <c r="A7" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="49">
+        <v>3599</v>
+      </c>
+      <c r="I7" s="49">
+        <v>1</v>
+      </c>
+      <c r="J7" s="49">
+        <v>3599</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="M7" s="49">
+        <v>3599</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="20" customFormat="1" ht="88">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3499</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20">
-        <f t="shared" si="0"/>
-        <v>3499</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="110">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2999</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="0"/>
-        <v>2999</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="20" customFormat="1" ht="88">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H8" s="5">
-        <v>2399</v>
+        <v>3499</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -2393,282 +3096,337 @@
         <v>0</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" ht="88">
-      <c r="A9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" s="40" customFormat="1" ht="110">
+      <c r="A9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="44">
+        <v>2999</v>
+      </c>
+      <c r="I9" s="44">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="0"/>
+        <v>2999</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" s="45" customFormat="1" ht="154">
+      <c r="A10" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="45">
+        <v>3699</v>
+      </c>
+      <c r="I10" s="45">
+        <v>1</v>
+      </c>
+      <c r="J10" s="45">
+        <f t="shared" si="0"/>
+        <v>3699</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="45">
+        <v>2729</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="O10" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="20" customFormat="1" ht="88">
+      <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1988</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="20" customFormat="1" ht="132">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5799</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" si="0"/>
-        <v>5799</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="20" customFormat="1" ht="110">
-      <c r="A11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2399</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" s="20" customFormat="1" ht="88">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1988</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" s="20" customFormat="1" ht="132">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5799</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" s="20" customFormat="1" ht="110">
+      <c r="A14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H14" s="5">
         <v>2199</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" si="0"/>
-        <v>2199</v>
-      </c>
-      <c r="K11" s="16" t="s">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="20" customFormat="1" ht="22">
-      <c r="A12" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="20" customFormat="1" ht="22">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" s="20" customFormat="1" ht="22">
-      <c r="A13" s="20" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" s="20" customFormat="1" ht="22">
+      <c r="A16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:14" s="20" customFormat="1" ht="22">
-      <c r="A14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="20" customFormat="1" ht="22">
-      <c r="A15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="J15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" ht="22">
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A17" s="20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+        <v>40</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20">
-        <v>2</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" ht="22" customHeight="1">
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A18" s="20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+        <v>39</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20">
-        <v>2</v>
-      </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" ht="22">
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>181</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="20">
-        <v>2</v>
-      </c>
+      <c r="I19" s="20"/>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" ht="22">
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" ht="22">
       <c r="A20" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>102</v>
@@ -2688,10 +3446,11 @@
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" ht="24" customHeight="1">
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" ht="22" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>102</v>
@@ -2711,31 +3470,37 @@
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" ht="21" customHeight="1">
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="22">
       <c r="A22" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20">
+        <v>2</v>
+      </c>
       <c r="J22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" ht="22">
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" ht="22">
       <c r="A23" s="20" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>102</v>
@@ -2755,13 +3520,14 @@
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12" ht="51" customHeight="1">
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -2769,131 +3535,163 @@
       <c r="F24" s="22"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20">
+        <v>2</v>
+      </c>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" ht="22">
-      <c r="A25" s="5" t="s">
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="22">
+      <c r="A26" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20">
+        <v>2</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13" ht="51" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" ht="22">
+      <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="22">
-      <c r="A26" s="5" t="s">
+      <c r="J28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="22">
+      <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="22">
-      <c r="A27" s="5" t="s">
+      <c r="J29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="22">
-      <c r="A28" s="5" t="s">
+      <c r="J30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22">
+      <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="22">
-      <c r="A29" s="5" t="s">
+      <c r="J31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="22">
+      <c r="A32" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="22" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="22">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="22">
-      <c r="A32" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="22">
+    <row r="33" spans="1:13" ht="22" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
       <c r="J33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="22">
+    <row r="34" spans="1:13" ht="22">
       <c r="A34" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>73</v>
@@ -2903,21 +3701,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="22">
+    <row r="35" spans="1:13" ht="22">
       <c r="A35" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C35" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="J35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1">
+    <row r="36" spans="1:13" ht="22">
       <c r="A36" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>73</v>
@@ -2927,64 +3728,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1">
+    <row r="37" spans="1:13" ht="22">
       <c r="A37" s="5" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="22">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="24" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="24" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I40" s="5">
         <v>1</v>
       </c>
-      <c r="J37" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="J40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="24" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="C41" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="5">
         <v>1</v>
       </c>
-      <c r="J38" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="17" customFormat="1" ht="22">
-      <c r="A39" s="17" t="s">
+      <c r="J41" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="17" customFormat="1" ht="22">
+      <c r="A42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="J39" s="20">
-        <f>SUM(J2:J38)</f>
-        <v>27282</v>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="J42" s="38">
+        <f>SUM(J2:J41)</f>
+        <v>18693</v>
+      </c>
+      <c r="M42" s="17">
+        <f>SUM(M2:M41)</f>
+        <v>9627</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
-    <sortCondition ref="C2:C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
+    <sortCondition ref="C2:C42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" location="none" xr:uid="{44F77E9A-1FEF-BA4E-A64D-801080BEC1AB}"/>
-    <hyperlink ref="K8" r:id="rId2" xr:uid="{C75A80B3-10B5-D343-BEFE-AF0CB407219F}"/>
-    <hyperlink ref="K10" r:id="rId3" location="none" xr:uid="{A96F843D-460D-1444-95F7-D66882355794}"/>
-    <hyperlink ref="K11" r:id="rId4" location="crumb-wrap" xr:uid="{272C40F1-6BDD-A843-99ED-828D5D445AEF}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{C75A80B3-10B5-D343-BEFE-AF0CB407219F}"/>
+    <hyperlink ref="K13" r:id="rId3" location="none" xr:uid="{A96F843D-460D-1444-95F7-D66882355794}"/>
+    <hyperlink ref="K14" r:id="rId4" location="crumb-wrap" xr:uid="{272C40F1-6BDD-A843-99ED-828D5D445AEF}"/>
     <hyperlink ref="K3" r:id="rId5" location="crumb-wrap" xr:uid="{9A4AB8E5-23AA-A447-BF31-603A5738D213}"/>
     <hyperlink ref="K2" r:id="rId6" xr:uid="{46C53AC9-79FA-5B49-B558-90FF2AECB54E}"/>
-    <hyperlink ref="K7" r:id="rId7" location="crumb-wrap" xr:uid="{D8613EAC-622E-994F-8E0A-8DF3EB7ACB4F}"/>
-    <hyperlink ref="K6" r:id="rId8" location="crumb-wrap" xr:uid="{5F7E93BD-2ED9-2848-8C2F-43BAA389E323}"/>
-    <hyperlink ref="K5" r:id="rId9" location="crumb-wrap" xr:uid="{697E496D-055D-D643-BF57-A496A4AD67DE}"/>
-    <hyperlink ref="K9" r:id="rId10" location="crumb-wrap" xr:uid="{D9C13EFA-64F5-1546-8A22-F489440E29D5}"/>
+    <hyperlink ref="K9" r:id="rId7" location="crumb-wrap" xr:uid="{D8613EAC-622E-994F-8E0A-8DF3EB7ACB4F}"/>
+    <hyperlink ref="K8" r:id="rId8" location="crumb-wrap" xr:uid="{5F7E93BD-2ED9-2848-8C2F-43BAA389E323}"/>
+    <hyperlink ref="K6" r:id="rId9" location="crumb-wrap" xr:uid="{697E496D-055D-D643-BF57-A496A4AD67DE}"/>
+    <hyperlink ref="K12" r:id="rId10" location="crumb-wrap" xr:uid="{D9C13EFA-64F5-1546-8A22-F489440E29D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>
@@ -3017,10 +3858,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3028,8 +3869,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3049,12 +3890,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -3137,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G19" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G27" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -3462,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>44172</v>
       </c>
@@ -3486,7 +4327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>44173</v>
       </c>
@@ -3510,7 +4351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>44174</v>
       </c>
@@ -3534,55 +4375,258 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="22">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>110.5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>84.65</v>
+      </c>
+      <c r="E21" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>137.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>44177</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22">
+      <c r="A23" s="3">
+        <v>44178</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>77.8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>96.3</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22">
+      <c r="A25" s="3">
+        <v>44180</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>63.2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>204</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>267.2</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <f>17.2+43.2</f>
+        <v>60.400000000000006</v>
+      </c>
+      <c r="E26" s="5">
+        <v>43</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22">
+      <c r="A27" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <f>20.3</f>
+        <v>20.3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>46.9</v>
+      </c>
+      <c r="F27" s="5">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>91.2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
-        <f t="shared" ref="B20:G20" si="1">SUM(B2:B19)</f>
-        <v>100</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="1"/>
+      <c r="B28" s="7">
+        <f>SUM(B2:B21)</f>
+        <v>120</v>
+      </c>
+      <c r="C28" s="7">
+        <f>SUM(C2:C21)</f>
         <v>26</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
-        <v>453.48</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="1"/>
-        <v>564.29999999999995</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>1149.78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
+      <c r="D28" s="7">
+        <f>SUM(D2:D21)</f>
+        <v>555.93000000000006</v>
+      </c>
+      <c r="E28" s="7">
+        <f>SUM(E2:E21)</f>
+        <v>727.3</v>
+      </c>
+      <c r="F28" s="7">
+        <f>SUM(F2:F27)</f>
+        <v>30</v>
+      </c>
+      <c r="G28" s="7">
+        <f>SUM(G2:G27)</f>
+        <v>1993.3300000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3592,11 +4636,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -3604,7 +4648,10 @@
     <col min="1" max="2" width="20" style="11"/>
     <col min="3" max="3" width="37.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="20" style="29"/>
-    <col min="5" max="16384" width="20" style="11"/>
+    <col min="5" max="5" width="31.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60" style="11" customWidth="1"/>
+    <col min="7" max="7" width="40.1640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="20" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="22">
@@ -3647,7 +4694,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88">
+    <row r="3" spans="1:7" ht="44">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -3667,7 +4714,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="286">
+    <row r="4" spans="1:7" ht="154">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -3675,22 +4722,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="29">
         <v>5.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="132">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="88">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -3698,23 +4745,89 @@
         <v>133</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="29">
         <v>2.5</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="22">
+    </row>
+    <row r="6" spans="1:7" ht="171" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="29">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="37" customFormat="1" ht="66">
+      <c r="A7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="154">
+      <c r="A8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="E8" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22">
+      <c r="E9" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3728,9 +4841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80050F6-DCA8-6F49-85E6-701F85802663}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
@@ -3740,13 +4853,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -3755,30 +4868,30 @@
     </row>
     <row r="2" spans="1:10" ht="66">
       <c r="A2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66">
       <c r="A3" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="31">
         <v>100</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="22">

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA554AD-AA99-D247-B4F5-43DBF97E1962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F641BA4-4B42-9140-A5A8-E06B895F22E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="27600" windowHeight="17540" activeTab="6" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="271">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,10 +633,6 @@
   </si>
   <si>
     <t>收废品负责卸载和回收，收入+180元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路改造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -811,10 +807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工业吸尘器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +1007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/12/17，10：30-12：00；2020/12/17，14：30-17：30；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆开发商提供的电线盒看具体走线和是否能重用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,6 +1036,14 @@
   </si>
   <si>
     <t>南向窗必要时实施保护；如果两层防护不够，考虑更换无纺布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买调料做鱿鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/17，10：30-12：00；2020/12/17，14：30-17：30；2020/12/19，10：30-11：30；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1062,13 +1058,129 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>后续需要使用防水专用水泥砂浆对全屋类似情况的窗户都进行封堵和加固，再辅以防水层提高防水性能</t>
+      <t>后续考虑使用防水专用水泥砂浆对全屋类似情况的窗户都进行封堵和加固，再辅以防水层提高防水性能</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>抹灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砌墙抹灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砌主卧门洞+飘窗、南次卧阳台、餐厅阳台抹灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 主卧门洞为红砖墙，左右宽15cm，厚12cm，高220cm，门洞上方加钢梁，两根长1.25m横截面4cm*6cm的钢梁拼接，新旧墙体衔接处刮去批荡层并挂网；抹灰部分，飘窗窗台正下方和南次卧阳台左墙加2cm厚保温板，新旧保温板均以胶钉固定，再加胶泥挂网和水泥砂浆抹平，其它部分以水泥砂浆抹平；定工人单人单日工期，剩余部分自己学着做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用防水专用水泥，后续靠窗部分均需要做防水涂层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9期便民建材批发商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 = (0.5/块+0.1/块上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50kg/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 = (25/袋+1/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河沙，40kg/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保温板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 = (4/袋+1/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120cmx60cm/块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长1.25m, 横截面4cm*6cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工+业主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买，共440, 人工费450/天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440+450 = 890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 师傅干一天我们跟着学，让师傅尽量把难做的部分做完，余下简单的活我们自己干完，可以省一天人工费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>开发商的线路不可用，</t>
+      <t>开发商的线路可靠性存疑(主卧卫生间灯跳闸一次)，</t>
     </r>
     <r>
       <rPr>
@@ -1080,6 +1192,10 @@
       </rPr>
       <t>出全屋重新走线图和具体施工</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/19，16：30-17：30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1267,6 +1383,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1276,7 +1401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,18 +1477,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,12 +1495,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,14 +1546,26 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2220,10 +2339,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -2263,7 +2382,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220">
@@ -2277,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2289,13 +2408,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="5">
         <v>3830</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="176">
@@ -2321,24 +2440,24 @@
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="5">
         <v>1000</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="88">
       <c r="A4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2359,12 +2478,39 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="22">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="110">
       <c r="A5" s="5" t="s">
-        <v>145</v>
+        <v>240</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5">
+        <v>890</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="17" customFormat="1" ht="22">
@@ -2373,7 +2519,7 @@
       </c>
       <c r="I6" s="17">
         <f>SUM(I2:I5)</f>
-        <v>4830</v>
+        <v>5720</v>
       </c>
     </row>
   </sheetData>
@@ -2384,377 +2530,552 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="25" customWidth="1"/>
-    <col min="2" max="16384" width="18" style="25"/>
+    <col min="1" max="1" width="24.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18" style="30"/>
+    <col min="3" max="3" width="18" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="18" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" s="51" customFormat="1" ht="22">
+      <c r="A1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="H1" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22">
+      <c r="A2" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="30">
         <v>278</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="30">
         <f t="shared" ref="F2:F15" si="0">D2*E2</f>
         <v>556</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="30">
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:8" ht="22">
+      <c r="A3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="30">
         <v>64</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="30">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="30">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:8" ht="22">
+      <c r="A4" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="30">
         <v>5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:8" ht="22">
+      <c r="A5" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="30">
+        <v>318</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="G5" s="52">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66">
+      <c r="A6" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C6" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="25">
-        <v>318</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D6" s="30">
+        <v>53.9</v>
+      </c>
+      <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
-        <f t="shared" si="0"/>
-        <v>318</v>
-      </c>
-      <c r="G5" s="54">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="25" t="s">
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>53.9</v>
+      </c>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:8" ht="44">
+      <c r="A7" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="25">
-        <v>53.9</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D7" s="30">
+        <v>39.9</v>
+      </c>
+      <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F6" s="25">
-        <f t="shared" si="0"/>
-        <v>53.9</v>
-      </c>
-      <c r="G6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" ht="44">
-      <c r="A7" s="25" t="s">
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:8" ht="66">
+      <c r="A8" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="25">
-        <v>39.9</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D8" s="30">
+        <v>188</v>
+      </c>
+      <c r="E8" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="25">
-        <f t="shared" si="0"/>
-        <v>39.9</v>
-      </c>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" ht="66">
-      <c r="A8" s="34" t="s">
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="G8" s="53">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22">
+      <c r="A9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C9" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="30">
+        <v>35</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="66">
+      <c r="A10" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="25">
-        <v>188</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D10" s="30">
+        <v>258</v>
+      </c>
+      <c r="E10" s="30">
         <v>1</v>
       </c>
-      <c r="F8" s="25">
-        <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="G8" s="35">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22">
-      <c r="A9" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="25">
-        <v>35</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="G10" s="53">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22">
+      <c r="A11" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="30">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="F9" s="25">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G9" s="35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G11" s="53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22">
+      <c r="A12" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D12" s="30">
+        <v>11.2</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="G12" s="53">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22">
+      <c r="A13" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="30">
+        <v>89</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="G13" s="53">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22">
+      <c r="A14" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="30">
+        <v>30</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="50" customFormat="1" ht="22">
+      <c r="A15" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="50">
+        <v>287.5</v>
+      </c>
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
+      <c r="F15" s="50">
+        <f t="shared" si="0"/>
+        <v>287.5</v>
+      </c>
+      <c r="G15" s="50">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="44">
+      <c r="A16" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="30">
+        <v>80</v>
+      </c>
+      <c r="F16" s="30">
+        <v>48</v>
+      </c>
+      <c r="G16" s="53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="44">
+      <c r="A17" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="30">
+        <v>3</v>
+      </c>
+      <c r="F17" s="30">
+        <v>78</v>
+      </c>
+      <c r="G17" s="53">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="44">
+      <c r="A18" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="30">
+        <v>20</v>
+      </c>
+      <c r="F18" s="30">
+        <v>100</v>
+      </c>
+      <c r="G18" s="53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="44">
+      <c r="A19" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="30">
+        <v>4</v>
+      </c>
+      <c r="E19" s="30">
+        <v>7</v>
+      </c>
+      <c r="F19" s="30">
+        <v>28</v>
+      </c>
+      <c r="G19" s="53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="44">
+      <c r="A20" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
+        <v>30</v>
+      </c>
+      <c r="F20" s="30">
+        <v>30</v>
+      </c>
+      <c r="G20" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="44">
+      <c r="A21" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="30">
+        <v>2</v>
+      </c>
+      <c r="F21" s="30">
+        <v>52</v>
+      </c>
+      <c r="G21" s="53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="44">
+      <c r="A22" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="30">
+        <v>2</v>
+      </c>
+      <c r="E22" s="30">
+        <v>20</v>
+      </c>
+      <c r="F22" s="30">
+        <v>40</v>
+      </c>
+      <c r="G22" s="53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="44">
+      <c r="A23" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="G10" s="35">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22">
-      <c r="A11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="25">
-        <v>22</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G11" s="36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22">
-      <c r="A12" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="G12" s="36">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="22">
-      <c r="A13" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="25">
-        <v>89</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="G13" s="36">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22">
-      <c r="A14" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="25">
-        <v>30</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G14" s="36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22">
-      <c r="A15" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="25">
-        <v>287.5</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" si="0"/>
-        <v>287.5</v>
-      </c>
-      <c r="G15" s="36">
-        <v>287.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="27" customFormat="1">
-      <c r="A16" s="28" t="s">
+      <c r="B23" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="30">
+        <v>62</v>
+      </c>
+      <c r="G23" s="53">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="54" customFormat="1" ht="22">
+      <c r="A24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="27">
-        <f>SUM(G2:G15)</f>
-        <v>1737.7</v>
+      <c r="G24" s="54">
+        <f>SUM(G2:G23)</f>
+        <v>2171.6999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
@@ -2828,10 +3149,10 @@
         <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="132">
@@ -2868,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="20" customFormat="1" ht="110">
@@ -2905,164 +3226,164 @@
         <v>94</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:15" s="40" customFormat="1" ht="88">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:15" s="34" customFormat="1" ht="88">
+      <c r="A4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="33">
         <v>4390</v>
       </c>
-      <c r="I4" s="39">
-        <v>0</v>
-      </c>
-      <c r="J4" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="43" t="s">
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="39">
-        <v>0</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="45" customFormat="1" ht="88">
-      <c r="A5" s="45" t="s">
+      <c r="L4" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="33">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="39" customFormat="1" ht="88">
+      <c r="A5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="H5" s="39">
+        <v>3999</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="M5" s="39">
+        <v>3299</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="45">
-        <v>3999</v>
-      </c>
-      <c r="I5" s="45">
+    </row>
+    <row r="6" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="38">
+        <v>2399</v>
+      </c>
+      <c r="I6" s="38">
         <v>1</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" s="45">
-        <v>3299</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="40" customFormat="1" ht="179" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="J6" s="34">
+        <f t="shared" si="0"/>
+        <v>2399</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:15" s="43" customFormat="1" ht="179" customHeight="1">
+      <c r="A7" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B7" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C7" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="44">
-        <v>2399</v>
-      </c>
-      <c r="I6" s="44">
+      <c r="D7" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="43">
+        <v>3599</v>
+      </c>
+      <c r="I7" s="43">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
-        <f t="shared" si="0"/>
-        <v>2399</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" s="49" customFormat="1" ht="179" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="50" t="s">
+      <c r="J7" s="43">
+        <v>3599</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="M7" s="43">
+        <v>3599</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="O7" s="44" t="s">
         <v>221</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="49">
-        <v>3599</v>
-      </c>
-      <c r="I7" s="49">
-        <v>1</v>
-      </c>
-      <c r="J7" s="49">
-        <v>3599</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="M7" s="49">
-        <v>3599</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="20" customFormat="1" ht="88">
@@ -3099,89 +3420,89 @@
         <v>115</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="40" customFormat="1" ht="110">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:15" s="34" customFormat="1" ht="110">
+      <c r="A9" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="38">
         <v>2999</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="34">
         <f t="shared" si="0"/>
         <v>2999</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:15" s="45" customFormat="1" ht="154">
-      <c r="A10" s="45" t="s">
+      <c r="L9" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" s="39" customFormat="1" ht="154">
+      <c r="A10" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47" t="s">
+      <c r="H10" s="39">
+        <v>3699</v>
+      </c>
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="0"/>
+        <v>3699</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="M10" s="39">
+        <v>2729</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="45">
-        <v>3699</v>
-      </c>
-      <c r="I10" s="45">
-        <v>1</v>
-      </c>
-      <c r="J10" s="45">
-        <f t="shared" si="0"/>
-        <v>3699</v>
-      </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="M10" s="45">
-        <v>2729</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="O10" s="45">
+      <c r="O10" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3219,7 +3540,7 @@
         <v>83</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -3254,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -3295,7 +3616,7 @@
         <v>87</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -3333,7 +3654,7 @@
         <v>91</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M14" s="5"/>
     </row>
@@ -3480,7 +3801,7 @@
         <v>102</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -3570,7 +3891,7 @@
     </row>
     <row r="26" spans="1:13" ht="22">
       <c r="A26" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>102</v>
@@ -3766,7 +4087,7 @@
     </row>
     <row r="40" spans="1:13" ht="24" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>62</v>
@@ -3780,13 +4101,13 @@
     </row>
     <row r="41" spans="1:13" ht="24" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -3801,7 +4122,7 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="19"/>
-      <c r="J42" s="38">
+      <c r="J42" s="32">
         <f>SUM(J2:J41)</f>
         <v>18693</v>
       </c>
@@ -3858,10 +4179,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="48" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3869,8 +4190,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3890,12 +4211,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -3978,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G27" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G29" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4471,7 +4792,7 @@
         <v>96.3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4522,7 +4843,7 @@
         <v>267.2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4575,43 +4896,90 @@
         <v>91.2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A28" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="22">
+      <c r="A28" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <f>17+38.72</f>
+        <v>55.72</v>
+      </c>
+      <c r="E29" s="5">
+        <f>1+11+45</f>
+        <v>57</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>112.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="7">
-        <f>SUM(B2:B21)</f>
+      <c r="B30" s="7">
+        <f>SUM(B2:B29)</f>
         <v>120</v>
       </c>
-      <c r="C28" s="7">
-        <f>SUM(C2:C21)</f>
+      <c r="C30" s="7">
+        <f>SUM(C2:C29)</f>
         <v>26</v>
       </c>
-      <c r="D28" s="7">
-        <f>SUM(D2:D21)</f>
-        <v>555.93000000000006</v>
-      </c>
-      <c r="E28" s="7">
-        <f>SUM(E2:E21)</f>
-        <v>727.3</v>
-      </c>
-      <c r="F28" s="7">
-        <f>SUM(F2:F27)</f>
-        <v>30</v>
-      </c>
-      <c r="G28" s="7">
-        <f>SUM(G2:G27)</f>
-        <v>1993.3300000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3"/>
+      <c r="D30" s="7">
+        <f>SUM(D2:D29)</f>
+        <v>774.05000000000007</v>
+      </c>
+      <c r="E30" s="7">
+        <f>SUM(E2:E29)</f>
+        <v>1156</v>
+      </c>
+      <c r="F30" s="7">
+        <f>SUM(F2:F29)</f>
+        <v>40.9</v>
+      </c>
+      <c r="G30" s="7">
+        <f>SUM(G2:G29)</f>
+        <v>2116.9500000000003</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3"/>
@@ -4627,6 +4995,12 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4638,16 +5012,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="20" style="11"/>
     <col min="3" max="3" width="37.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20" style="29"/>
+    <col min="4" max="4" width="20" style="25"/>
     <col min="5" max="5" width="31.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="60" style="11" customWidth="1"/>
     <col min="7" max="7" width="40.1640625" style="11" customWidth="1"/>
@@ -4687,7 +5061,7 @@
       <c r="C2" s="24">
         <v>44167</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -4704,7 +5078,7 @@
       <c r="C3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="25">
         <v>0.33</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -4722,19 +5096,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="29">
+        <v>158</v>
+      </c>
+      <c r="D4" s="25">
         <v>5.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>228</v>
+        <v>165</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="88">
@@ -4745,19 +5119,19 @@
         <v>133</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="171" customHeight="1">
@@ -4765,70 +5139,85 @@
         <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="29">
+        <v>224</v>
+      </c>
+      <c r="D6" s="25">
         <v>9.5</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="37" customFormat="1" ht="66">
-      <c r="A7" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="31" customFormat="1" ht="66">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>235</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="154">
       <c r="A8" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="C8" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="330">
+      <c r="A9" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22">
+      <c r="B9" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>135</v>
+        <v>243</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4839,66 +5228,71 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80050F6-DCA8-6F49-85E6-701F85802663}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="16384" width="18.1640625" style="31"/>
+    <col min="1" max="16384" width="18.1640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="30"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="66">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="66">
+      <c r="A3" s="27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="66">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="27">
+        <v>100</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="31">
-        <v>100</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="32" customFormat="1" ht="22">
-      <c r="A4" s="32" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="22">
+      <c r="A4" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="28" customFormat="1" ht="22">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C5" s="28">
         <f>SUM(C2:C3)</f>
         <v>100</v>
       </c>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F641BA4-4B42-9140-A5A8-E06B895F22E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A8D4F-3C43-D849-996E-4B8F5849BCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="297">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小厨宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卫浴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1075,14 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 主卧门洞为红砖墙，左右宽15cm，厚12cm，高220cm，门洞上方加钢梁，两根长1.25m横截面4cm*6cm的钢梁拼接，新旧墙体衔接处刮去批荡层并挂网；抹灰部分，飘窗窗台正下方和南次卧阳台左墙加2cm厚保温板，新旧保温板均以胶钉固定，再加胶泥挂网和水泥砂浆抹平，其它部分以水泥砂浆抹平；定工人单人单日工期，剩余部分自己学着做完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未用防水专用水泥，后续靠窗部分均需要做防水涂层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,14 +1148,6 @@
   </si>
   <si>
     <t>业主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料量按散工要求购买，共440, 人工费450/天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440+450 = 890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1195,7 +1175,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020/12/19，16：30-17：30</t>
+    <t>塑料盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8期楼下便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色一盒，彩色一盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹灰泥板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹灰抹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买错了，看能否退换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 主卧门洞为红砖墙，左右宽15cm，厚12cm，高220cm，门洞上方加钢梁，两根长1.25m横截面4cm*6cm的钢梁拼接，新旧墙体衔接处每隔40cm左右掏一个洞，长砖嵌入，砌好后直接水泥砂浆抹平；抹灰部分，南次卧阳台左墙窗户缝隙处填水泥砂浆，然后铺2cm厚保温板，以胶钉固定，再加胶泥挂网和水泥砂浆抹平，顶部有掉落倾向的原挂网打一两个胶钉固定；厨房餐厅顶部有掉落倾向的原挂网打一个胶钉固定，胶泥抹平，定工人单人单日工期，剩余部分自己学着做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人户口页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fesco借出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390，160，600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，海尔热水器隆阳专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房室内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔燃气热水器JSQ31-16R5BW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以延迟送货，保价30天，整机八年保修，免费上门，免费换零件，服务电话4006-999-999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买，共485, 人工费450/天,师傅喝水2块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻墙续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携免洗洗手液+前置滤水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①飘窗窗台正下方加2cm厚保温板，以胶钉固定，再加胶泥挂网抹平    ②南次卧阳台右侧顶待胶泥干透后补两个胶钉  ③南次卧阳台剩下墙面师傅建议在刮大白的时候直接用石膏挂网抹平，建议咨询大白师傅 ④餐厅阳台剩下有保温棉的墙面挂网胶泥抹平，之后和其它墙面一起其它部分以水泥砂浆抹平    ⑤未用防水专用水泥，后续靠窗部分均需要做防水涂层⑥师傅门洞没有砌平砌垂直，需要再来修补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①21号第一天砌墙的时候比较相信师傅，门洞不平不垂直没有及时发现，22号发现，23号疫情做核酸检测，24号师傅中午和晚上才有空过来做修补，严重拖慢了工期；一定不要轻易相信散工的人品，你以为的默认的标准只要不明说不强调，散工就会随便糊弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/12/19，16：30-17：30（找师傅）                 2020/12/20，10：30-11：30（上料）                                       2020/12/21，8：30-11：30         2020/12/21，13：30-17：30      2020/12/24，12：00-13：00       2020/12/24，17：30-18：10       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/25，10：00-13：30         2020/12/25，15：30-18：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①，②没有补，但是在餐厅阳台顶面补了一个，修补师傅遗留下来的明显裂缝，补砸墙遗留下来的缺角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③④⑤⑥（有所改善，但是门洞内外墙面有倾斜角，如果要做窄边框一定需要再找平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅真敷衍，真烦人！孟师傅-电话13942626713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米大厦房管局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首套1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房本工本费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给崔涛大概1月25号可以问下进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金500（待还）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,25 +1650,61 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1591,13 +1731,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>430670</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1645920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,13 +1781,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1955498</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1691,13 +1831,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>21802</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>957902</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1305560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1741,13 +1881,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>468307</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1097280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1791,13 +1931,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2499433</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1920240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1891,13 +2031,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1236251</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1941,13 +2081,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1321292</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1097280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1991,13 +2131,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1845876</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>640080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2340,9 +2480,9 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -2451,13 +2591,13 @@
     </row>
     <row r="4" spans="1:10" ht="88">
       <c r="A4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2478,21 +2618,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="110">
       <c r="A5" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
@@ -2500,17 +2640,18 @@
       <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>266</v>
+      <c r="G5" s="5">
+        <f>485+450+2</f>
+        <v>937</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5">
-        <v>890</v>
+        <v>937</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="17" customFormat="1" ht="22">
@@ -2519,7 +2660,7 @@
       </c>
       <c r="I6" s="17">
         <f>SUM(I2:I5)</f>
-        <v>5720</v>
+        <v>5767</v>
       </c>
     </row>
   </sheetData>
@@ -2530,11 +2671,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -2545,29 +2686,29 @@
     <col min="4" max="16384" width="18" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="51" customFormat="1" ht="22">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:8" s="49" customFormat="1" ht="22">
+      <c r="A1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2642,10 +2783,10 @@
     </row>
     <row r="5" spans="1:8" ht="22">
       <c r="A5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>182</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>183</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>139</v>
@@ -2660,16 +2801,16 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="53">
         <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
       <c r="A6" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>184</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>185</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>139</v>
@@ -2684,14 +2825,14 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="44">
       <c r="A7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>139</v>
@@ -2706,14 +2847,14 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="66">
       <c r="A8" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>139</v>
@@ -2728,19 +2869,19 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="50">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22">
       <c r="A9" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>192</v>
       </c>
       <c r="D9" s="30">
         <v>35</v>
@@ -2752,16 +2893,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="50">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="66">
       <c r="A10" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>197</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>198</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>139</v>
@@ -2776,13 +2917,13 @@
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="50">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22">
       <c r="A11" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>139</v>
@@ -2797,13 +2938,13 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="50">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22">
       <c r="A12" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>139</v>
@@ -2818,16 +2959,16 @@
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="50">
         <v>11.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22">
       <c r="A13" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>213</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>214</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>139</v>
@@ -2842,16 +2983,16 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="50">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22">
       <c r="A14" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>139</v>
@@ -2866,46 +3007,46 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="50">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="50" customFormat="1" ht="22">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:8" s="48" customFormat="1" ht="22">
+      <c r="A15" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="48">
         <v>287.5</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="48">
         <v>1</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="48">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="48">
         <v>287.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="44">
       <c r="A16" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>245</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>248</v>
       </c>
       <c r="E16" s="30">
         <v>80</v>
@@ -2913,22 +3054,22 @@
       <c r="F16" s="30">
         <v>48</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="50">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="44">
+    <row r="17" spans="1:8" ht="44">
       <c r="A17" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E17" s="30">
         <v>3</v>
@@ -2936,22 +3077,22 @@
       <c r="F17" s="30">
         <v>78</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="50">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="44">
+    <row r="18" spans="1:8" ht="44">
       <c r="A18" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E18" s="30">
         <v>20</v>
@@ -2959,19 +3100,19 @@
       <c r="F18" s="30">
         <v>100</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="50">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="44">
+    <row r="19" spans="1:8" ht="44">
       <c r="A19" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D19" s="30">
         <v>4</v>
@@ -2982,56 +3123,56 @@
       <c r="F19" s="30">
         <v>28</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="50">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="44">
+    <row r="20" spans="1:8" ht="44">
       <c r="A20" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D20" s="30">
         <v>1</v>
       </c>
       <c r="E20" s="30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F20" s="30">
-        <v>30</v>
-      </c>
-      <c r="G20" s="53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="44">
+        <v>50</v>
+      </c>
+      <c r="G20" s="50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="44">
       <c r="A21" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E21" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="30">
-        <v>52</v>
-      </c>
-      <c r="G21" s="53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="44">
+        <v>78</v>
+      </c>
+      <c r="G21" s="50">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="44">
       <c r="A22" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D22" s="30">
         <v>2</v>
@@ -3042,22 +3183,22 @@
       <c r="F22" s="30">
         <v>40</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="50">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="44">
+    <row r="23" spans="1:8" ht="44">
       <c r="A23" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>261</v>
-      </c>
       <c r="C23" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E23" s="30">
         <v>2.5</v>
@@ -3065,17 +3206,103 @@
       <c r="F23" s="30">
         <v>62</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="50">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="54" customFormat="1" ht="22">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:8" ht="44">
+      <c r="A24" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="30">
+        <v>15</v>
+      </c>
+      <c r="E24" s="30">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30">
+        <v>15</v>
+      </c>
+      <c r="G24" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="44">
+      <c r="A25" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="30">
+        <v>3</v>
+      </c>
+      <c r="E25" s="30">
+        <v>2</v>
+      </c>
+      <c r="F25" s="30">
+        <v>6</v>
+      </c>
+      <c r="G25" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="44">
+      <c r="A26" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="30">
+        <v>10</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30">
+        <v>10</v>
+      </c>
+      <c r="G26" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="44">
+      <c r="A27" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="30">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30">
+        <v>10</v>
+      </c>
+      <c r="G27" s="50">
+        <v>10</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="51" customFormat="1" ht="22">
+      <c r="A28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="54">
-        <f>SUM(G2:G23)</f>
-        <v>2171.6999999999998</v>
+      <c r="G28" s="51">
+        <f>SUM(G2:G27)</f>
+        <v>2257.6999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3091,9 +3318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -3149,423 +3376,425 @@
         <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="132">
-      <c r="A2" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="33" customFormat="1" ht="132">
+      <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="34">
         <v>1499</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="34">
         <v>2</v>
       </c>
-      <c r="J2" s="20">
-        <f t="shared" ref="J2:J39" si="0">H2*I2</f>
+      <c r="J2" s="34">
+        <f t="shared" ref="J2:J40" si="0">H2*I2</f>
         <v>2998</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="110">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
+    <row r="3" spans="1:15" s="63" customFormat="1" ht="198">
+      <c r="A3" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>279</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="60">
+        <v>2999</v>
+      </c>
+      <c r="I3" s="60">
+        <v>1</v>
+      </c>
+      <c r="J3" s="60">
+        <v>2999</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" s="63">
+        <v>2799</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="20" customFormat="1" ht="110">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>2999</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J4" s="20">
         <f t="shared" si="0"/>
         <v>2999</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" s="34" customFormat="1" ht="88">
-      <c r="A4" s="33" t="s">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="34" customFormat="1" ht="88">
+      <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H5" s="33">
         <v>4390</v>
       </c>
-      <c r="I4" s="33">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="37" t="s">
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="M4" s="33">
-        <v>0</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="39" customFormat="1" ht="88">
-      <c r="A5" s="39" t="s">
+      <c r="L5" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="39" customFormat="1" ht="88">
+      <c r="A6" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C6" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D6" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="H6" s="39">
+        <v>3999</v>
+      </c>
+      <c r="I6" s="39">
+        <v>1</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="L6" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="39">
-        <v>3999</v>
-      </c>
-      <c r="I5" s="39">
+      <c r="M6" s="39">
+        <v>3299</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="38">
+        <v>2399</v>
+      </c>
+      <c r="I7" s="38">
         <v>1</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" s="39">
-        <v>3299</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="J7" s="34">
+        <f t="shared" si="0"/>
+        <v>2399</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" s="43" customFormat="1" ht="179" customHeight="1">
+      <c r="A8" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="43">
+        <v>3599</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1</v>
+      </c>
+      <c r="J8" s="43">
+        <v>3599</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="M8" s="43">
+        <v>3599</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="20" customFormat="1" ht="88">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3499</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="34" customFormat="1" ht="110">
+      <c r="A10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="38">
+        <v>2999</v>
+      </c>
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="34">
+        <f t="shared" si="0"/>
+        <v>2999</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" s="39" customFormat="1" ht="154">
+      <c r="A11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="38">
-        <v>2399</v>
-      </c>
-      <c r="I6" s="38">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="39">
+        <v>3699</v>
+      </c>
+      <c r="I11" s="39">
         <v>1</v>
       </c>
-      <c r="J6" s="34">
-        <f t="shared" si="0"/>
-        <v>2399</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" s="43" customFormat="1" ht="179" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="43">
-        <v>3599</v>
-      </c>
-      <c r="I7" s="43">
-        <v>1</v>
-      </c>
-      <c r="J7" s="43">
-        <v>3599</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="M7" s="43">
-        <v>3599</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="O7" s="44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="20" customFormat="1" ht="88">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3499</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="34" customFormat="1" ht="110">
-      <c r="A9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="38">
-        <v>2999</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="34">
-        <f t="shared" si="0"/>
-        <v>2999</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" s="39" customFormat="1" ht="154">
-      <c r="A10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="39" t="s">
+      <c r="J11" s="39">
+        <f t="shared" si="0"/>
+        <v>3699</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="39">
-        <v>3699</v>
-      </c>
-      <c r="I10" s="39">
-        <v>1</v>
-      </c>
-      <c r="J10" s="39">
-        <f t="shared" si="0"/>
-        <v>3699</v>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="39" t="s">
+      <c r="M11" s="39">
+        <v>2729</v>
+      </c>
+      <c r="N11" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="39">
-        <v>2729</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="O10" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="20" customFormat="1" ht="88">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2399</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" s="5"/>
+      <c r="O11" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" s="20" customFormat="1" ht="88">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="5">
-        <v>1988</v>
+        <v>2399</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -3575,35 +3804,35 @@
         <v>0</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:15" s="20" customFormat="1" ht="132">
+    <row r="13" spans="1:15" s="20" customFormat="1" ht="88">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H13" s="5">
-        <v>5799</v>
+        <v>1988</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -3613,91 +3842,114 @@
         <v>0</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>169</v>
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:15" s="20" customFormat="1" ht="110">
+    <row r="14" spans="1:15" s="20" customFormat="1" ht="132">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H14" s="5">
+        <v>5799</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" s="20" customFormat="1" ht="110">
+      <c r="A15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="5">
         <v>2199</v>
       </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="16" t="s">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" s="20" customFormat="1" ht="22">
-      <c r="A15" s="5" t="s">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" s="20" customFormat="1" ht="22">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" ht="22">
-      <c r="A16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A17" s="20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>40</v>
@@ -3708,49 +3960,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A18" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
-      <c r="J18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A19" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" ht="22">
+    </row>
+    <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -3758,9 +4003,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20">
-        <v>2</v>
-      </c>
+      <c r="I20" s="20"/>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3769,9 +4012,9 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" ht="22" customHeight="1">
+    <row r="21" spans="1:13" ht="22">
       <c r="A21" s="20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>102</v>
@@ -3793,16 +4036,14 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="22">
+    <row r="22" spans="1:13" ht="22" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
@@ -3821,12 +4062,14 @@
     </row>
     <row r="23" spans="1:13" ht="22">
       <c r="A23" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
@@ -3843,9 +4086,9 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:13" ht="22">
       <c r="A24" s="20" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>102</v>
@@ -3867,12 +4110,12 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1">
+    <row r="25" spans="1:13" ht="24" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -3880,7 +4123,9 @@
       <c r="F25" s="22"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20">
+        <v>2</v>
+      </c>
       <c r="J25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3889,12 +4134,12 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="1:13" ht="22">
+    <row r="26" spans="1:13" ht="21" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -3902,9 +4147,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20">
-        <v>2</v>
-      </c>
+      <c r="I26" s="20"/>
       <c r="J26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3913,12 +4156,12 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
     </row>
-    <row r="27" spans="1:13" ht="51" customHeight="1">
+    <row r="27" spans="1:13" ht="22">
       <c r="A27" s="20" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3926,7 +4169,9 @@
       <c r="F27" s="22"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20">
+        <v>2</v>
+      </c>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3935,24 +4180,34 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
     </row>
-    <row r="28" spans="1:13" ht="22">
-      <c r="A28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>39</v>
-      </c>
+    <row r="28" spans="1:13" ht="51" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" ht="22">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
@@ -3961,7 +4216,7 @@
     </row>
     <row r="30" spans="1:13" ht="22">
       <c r="A30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>56</v>
@@ -3973,10 +4228,10 @@
     </row>
     <row r="31" spans="1:13" ht="22">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
@@ -3985,38 +4240,38 @@
     </row>
     <row r="32" spans="1:13" ht="22">
       <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22">
+      <c r="A33" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="22" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="5">
-        <v>2</v>
-      </c>
       <c r="J33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="22">
+    <row r="34" spans="1:13" ht="22" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
       <c r="J34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4024,14 +4279,11 @@
     </row>
     <row r="35" spans="1:13" ht="22">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="J35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4039,11 +4291,14 @@
     </row>
     <row r="36" spans="1:13" ht="22">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C36" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="J36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4051,7 +4306,7 @@
     </row>
     <row r="37" spans="1:13" ht="22">
       <c r="A37" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>73</v>
@@ -4063,7 +4318,7 @@
     </row>
     <row r="38" spans="1:13" ht="22">
       <c r="A38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>73</v>
@@ -4073,9 +4328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="24" customHeight="1">
+    <row r="39" spans="1:13" ht="22">
       <c r="A39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>73</v>
@@ -4087,27 +4342,25 @@
     </row>
     <row r="40" spans="1:13" ht="24" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="5">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="J40" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="24" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -4124,11 +4377,11 @@
       <c r="F42" s="19"/>
       <c r="J42" s="32">
         <f>SUM(J2:J41)</f>
-        <v>18693</v>
+        <v>21692</v>
       </c>
       <c r="M42" s="17">
         <f>SUM(M2:M41)</f>
-        <v>9627</v>
+        <v>12426</v>
       </c>
     </row>
   </sheetData>
@@ -4137,16 +4390,16 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" location="none" xr:uid="{44F77E9A-1FEF-BA4E-A64D-801080BEC1AB}"/>
-    <hyperlink ref="K11" r:id="rId2" xr:uid="{C75A80B3-10B5-D343-BEFE-AF0CB407219F}"/>
-    <hyperlink ref="K13" r:id="rId3" location="none" xr:uid="{A96F843D-460D-1444-95F7-D66882355794}"/>
-    <hyperlink ref="K14" r:id="rId4" location="crumb-wrap" xr:uid="{272C40F1-6BDD-A843-99ED-828D5D445AEF}"/>
-    <hyperlink ref="K3" r:id="rId5" location="crumb-wrap" xr:uid="{9A4AB8E5-23AA-A447-BF31-603A5738D213}"/>
+    <hyperlink ref="K5" r:id="rId1" location="none" xr:uid="{44F77E9A-1FEF-BA4E-A64D-801080BEC1AB}"/>
+    <hyperlink ref="K12" r:id="rId2" xr:uid="{C75A80B3-10B5-D343-BEFE-AF0CB407219F}"/>
+    <hyperlink ref="K14" r:id="rId3" location="none" xr:uid="{A96F843D-460D-1444-95F7-D66882355794}"/>
+    <hyperlink ref="K15" r:id="rId4" location="crumb-wrap" xr:uid="{272C40F1-6BDD-A843-99ED-828D5D445AEF}"/>
+    <hyperlink ref="K4" r:id="rId5" location="crumb-wrap" xr:uid="{9A4AB8E5-23AA-A447-BF31-603A5738D213}"/>
     <hyperlink ref="K2" r:id="rId6" xr:uid="{46C53AC9-79FA-5B49-B558-90FF2AECB54E}"/>
-    <hyperlink ref="K9" r:id="rId7" location="crumb-wrap" xr:uid="{D8613EAC-622E-994F-8E0A-8DF3EB7ACB4F}"/>
-    <hyperlink ref="K8" r:id="rId8" location="crumb-wrap" xr:uid="{5F7E93BD-2ED9-2848-8C2F-43BAA389E323}"/>
-    <hyperlink ref="K6" r:id="rId9" location="crumb-wrap" xr:uid="{697E496D-055D-D643-BF57-A496A4AD67DE}"/>
-    <hyperlink ref="K12" r:id="rId10" location="crumb-wrap" xr:uid="{D9C13EFA-64F5-1546-8A22-F489440E29D5}"/>
+    <hyperlink ref="K10" r:id="rId7" location="crumb-wrap" xr:uid="{D8613EAC-622E-994F-8E0A-8DF3EB7ACB4F}"/>
+    <hyperlink ref="K9" r:id="rId8" location="crumb-wrap" xr:uid="{5F7E93BD-2ED9-2848-8C2F-43BAA389E323}"/>
+    <hyperlink ref="K7" r:id="rId9" location="crumb-wrap" xr:uid="{697E496D-055D-D643-BF57-A496A4AD67DE}"/>
+    <hyperlink ref="K13" r:id="rId10" location="crumb-wrap" xr:uid="{D9C13EFA-64F5-1546-8A22-F489440E29D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>
@@ -4179,10 +4432,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4190,8 +4443,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
@@ -4211,12 +4464,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -4299,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G29" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G36" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4792,7 +5045,7 @@
         <v>96.3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4843,7 +5096,7 @@
         <v>267.2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4896,7 +5149,7 @@
         <v>91.2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22">
@@ -4923,7 +5176,7 @@
         <v>10.9</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4952,55 +5205,243 @@
         <v>112.72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>44185</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <f>17.2+18.5</f>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E30" s="5">
+        <f>16+50</f>
+        <v>66</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <f>17.6+48</f>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E31" s="5">
+        <f>5.5+15.5</f>
+        <v>21</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22">
+      <c r="A33" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <f>28</f>
+        <v>28</v>
+      </c>
+      <c r="D33" s="5">
+        <f>27+35.5</f>
+        <v>62.5</v>
+      </c>
+      <c r="E33" s="5">
+        <f>34.9</f>
+        <v>34.9</v>
+      </c>
+      <c r="F33" s="5">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>155.4</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f>39.91</f>
+        <v>39.909999999999997</v>
+      </c>
+      <c r="E34" s="5">
+        <f>12.3</f>
+        <v>12.3</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>52.209999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <f>17.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="E35" s="5">
+        <f>1+11+51</f>
+        <v>63</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="44">
+      <c r="A36" s="3">
+        <v>44191</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f>11.5+34.5</f>
+        <v>46</v>
+      </c>
+      <c r="F36" s="5">
+        <f>18.4+269</f>
+        <v>287.39999999999998</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>337.4</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="7">
-        <f>SUM(B2:B29)</f>
+      <c r="B37" s="7">
+        <f>SUM(B2:B36)</f>
         <v>120</v>
       </c>
-      <c r="C30" s="7">
-        <f>SUM(C2:C29)</f>
-        <v>26</v>
-      </c>
-      <c r="D30" s="7">
-        <f>SUM(D2:D29)</f>
-        <v>774.05000000000007</v>
-      </c>
-      <c r="E30" s="7">
-        <f>SUM(E2:E29)</f>
-        <v>1156</v>
-      </c>
-      <c r="F30" s="7">
-        <f>SUM(F2:F29)</f>
-        <v>40.9</v>
-      </c>
-      <c r="G30" s="7">
-        <f>SUM(G2:G29)</f>
-        <v>2116.9500000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
+      <c r="C37" s="7">
+        <f>SUM(C2:C36)</f>
+        <v>58</v>
+      </c>
+      <c r="D37" s="7">
+        <f>SUM(D2:D36)</f>
+        <v>995.2600000000001</v>
+      </c>
+      <c r="E37" s="7">
+        <f>SUM(E2:E36)</f>
+        <v>1399.2</v>
+      </c>
+      <c r="F37" s="7">
+        <f>SUM(F2:F36)</f>
+        <v>358.29999999999995</v>
+      </c>
+      <c r="G37" s="7">
+        <f>SUM(G2:G36)</f>
+        <v>2930.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5010,11 +5451,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -5022,7 +5463,7 @@
     <col min="1" max="2" width="20" style="11"/>
     <col min="3" max="3" width="37.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="20" style="25"/>
-    <col min="5" max="5" width="31.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="60" style="11" customWidth="1"/>
     <col min="7" max="7" width="40.1640625" style="11" customWidth="1"/>
     <col min="8" max="16384" width="20" style="11"/>
@@ -5105,13 +5546,13 @@
         <v>165</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="88">
+    <row r="5" spans="1:7" ht="66">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -5139,22 +5580,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="25">
         <v>9.5</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="31" customFormat="1" ht="66">
@@ -5162,62 +5603,91 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="D7" s="25">
         <v>2.5</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="154">
+    </row>
+    <row r="8" spans="1:7" ht="110">
       <c r="A8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="25">
         <v>5.5</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="330">
       <c r="A9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>270</v>
+        <v>287</v>
+      </c>
+      <c r="D9" s="25">
+        <v>10.5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>244</v>
+        <v>285</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="66">
+      <c r="A10" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="25">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5228,11 +5698,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80050F6-DCA8-6F49-85E6-701F85802663}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
@@ -5283,18 +5753,52 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22">
+    <row r="4" spans="1:10" ht="44">
       <c r="A4" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="28" customFormat="1" ht="22">
-      <c r="A5" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="27">
+        <v>33292.050000000003</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="44">
+      <c r="A5" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="66">
+      <c r="A6" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="28" customFormat="1" ht="22">
+      <c r="A7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28">
-        <f>SUM(C2:C3)</f>
-        <v>100</v>
+      <c r="C7" s="28">
+        <f>SUM(C2:C6)</f>
+        <v>33472.050000000003</v>
       </c>
     </row>
   </sheetData>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/住宅/zx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A8D4F-3C43-D849-996E-4B8F5849BCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154C731-C100-0C40-8466-DE6631E7AFAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="318">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>砸墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品诺装饰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玻璃隔断门2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马桶扶手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,10 +245,6 @@
   </si>
   <si>
     <t>多层置物架（镜柜左侧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储物柜（电热水器下方）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -871,26 +859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海尔BCD-335WLHFD78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>640，674，1775</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东，海尔大洋专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【双十二】-700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整机一年，主件三年，晒单送十年电机延保卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美的RX10Pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1159,6 +1127,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>塑料盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8期楼下便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色一盒，彩色一盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹灰泥板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 主卧门洞为红砖墙，左右宽15cm，厚12cm，高220cm，门洞上方加钢梁，两根长1.25m横截面4cm*6cm的钢梁拼接，新旧墙体衔接处每隔40cm左右掏一个洞，长砖嵌入，砌好后直接水泥砂浆抹平；抹灰部分，南次卧阳台左墙窗户缝隙处填水泥砂浆，然后铺2cm厚保温板，以胶钉固定，再加胶泥挂网和水泥砂浆抹平，顶部有掉落倾向的原挂网打一两个胶钉固定；厨房餐厅顶部有掉落倾向的原挂网打一个胶钉固定，胶泥抹平，定工人单人单日工期，剩余部分自己学着做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人户口页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fesco借出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390，160，600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，海尔热水器隆阳专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房室内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔燃气热水器JSQ31-16R5BW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买，共485, 人工费450/天,师傅喝水2块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻墙续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携免洗洗手液+前置滤水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①飘窗窗台正下方加2cm厚保温板，以胶钉固定，再加胶泥挂网抹平    ②南次卧阳台右侧顶待胶泥干透后补两个胶钉  ③南次卧阳台剩下墙面师傅建议在刮大白的时候直接用石膏挂网抹平，建议咨询大白师傅 ④餐厅阳台剩下有保温棉的墙面挂网胶泥抹平，之后和其它墙面一起其它部分以水泥砂浆抹平    ⑤未用防水专用水泥，后续靠窗部分均需要做防水涂层⑥师傅门洞没有砌平砌垂直，需要再来修补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/12/19，16：30-17：30（找师傅）                 2020/12/20，10：30-11：30（上料）                                       2020/12/21，8：30-11：30         2020/12/21，13：30-17：30      2020/12/24，12：00-13：00       2020/12/24，17：30-18：10       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/25，10：00-13：30         2020/12/25，15：30-18：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①，②没有补，但是在餐厅阳台顶面补了一个，修补师傅遗留下来的明显裂缝，补砸墙遗留下来的缺角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③④⑤⑥（有所改善，但是门洞内外墙面有倾斜角，如果要做窄边框一定需要再找平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米大厦房管局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首套1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房本工本费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给崔涛大概1月25号可以问下进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: 收货好评返200， 晒单赠品三选一(海尔熨烫机，红三角电饭锅，美菱电炒锅)，师傅上门安装时退还设计费30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东，海尔家电智选旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: 收货晒图送赠品（茶吧机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟送货（需要时提前联系商家），保价360天，整机一年，主件三年，送十年电机延保卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟送货（3月15号），保价30天，整机八年保修，免费上门，免费换零件，服务电话4006-999-999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700，675，1775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔冰箱十字对开门风冷无霜四门冰箱双变频大容量冰箱405升新国标一级能效阻氧干湿分储母婴专属空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴缸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹灰抹子（光面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验孕棒15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 要根据自己定好的点位图纸和实际画线仔细对应，我们标识的已经很仔细了，但是实际画线中发现的问题：a) 主卧室进门的照明开关给画在了新砌的门边上，这样开槽势必会截断部分钢梁, 已调整为原墙面开槽 b) 燃气热水器的冷热水管没有按照实际管距开槽，选款冷热管距20.9cm, 实际开槽15cm, 还好问了海尔售后说不影响安装，燃气热水器的电热防冻插座要距离机器10cm左右，这里也让师傅调整了一下距离 ② 施工不规范：a) 给线盒打发泡(跟师傅说改水泥砂浆、胶泥或者石膏，但是他为了省工人费用不同意，看看能不能自己搞一下)，b) 冷热水管紧贴着走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买，料费用4045（=4045+（空开））, 人工费3500, 水钻眼440(460=13x30+70，实付440)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日工结束支付全款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳岳手机充值50，验孕棒15，喜家德118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳岳生日蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/04，7：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场沟通水电点位给报价，定师傅，下料和订购，联系水钻工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/31，10：00-18：00 2021/01/01，10：30-12：00  2021/01/03，11：30-17：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从不同渠道联系到5个水电工，单独约实地沟通水电计划让师傅出报价（走水and/or走电，包工or包工包料），选择权重 价格&gt;是否容易沟通&gt;渠道信赖度选师傅，让师傅下料，去购买施工材料，联系水钻工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅（孟师傅-电话13942626713）砌墙敷衍！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据我们出的图纸画线（工人用的是水平尺+记号笔，没有用弹线），开槽，打水钻眼，布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①21号第一天砌墙的时候比较相信师傅，门洞不平不垂直没有及时发现，22号发现，23号疫情做核酸检测，24号师傅中午和晚上才有空过来做修补，严重拖慢了工期；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一定不要轻易相信散工的人品，你以为的默认的标准只要不明说不强调，散工就会随便糊弄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①安全起见，厨房燃气管左侧的插座不保留 ②已走的冷热水管需要拉开一点距离，没有走的冷热水管不可以再紧贴，尽量留有一点距离 ③ 做卫生间马桶下水移位，根据地面的实际高度差决定是否要做外部地面抬高，决定入户卧室的插座要不要走活线 ④ 空气开关由下进上出改为通用做法上进下出 ⑤ 线盒发泡抠出来改为水泥砂浆 ⑥不需要的点位能抽空就抽空 ⑦ 全屋水电走完拍照留底，保留详细尺寸 ⑧ 验收（约伟星打压，验证电路各项回路和安装）⑨未使用完的完整耗材可以退，其它多余耗材卖二手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①涉及到燃气管路附近的用电要慎重，跟燃气公司确认燃气管路经过洗碗机是否可行，燃气表挂的位置等，及时约燃气公司的人上门查看 ②其它工地上看到的不规范工艺一定要提前跟工人说，不说他们就会默认怎么方便怎么来（比如这次的线盒用发泡固定）③上料一定要仔细核对，不论大小件全部数好，少了让卖家及时补齐 ④抽出来的废弃电线自己收好，可以卖钱，不然就被工人带走了⑤打眼的活能干的都让师傅一起干了，可以省一些钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金500（待还，1月20号之前去还）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>开发商的线路可靠性存疑(主卧卫生间灯跳闸一次)，</t>
     </r>
@@ -1170,136 +1358,44 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>出全屋重新走线图和具体施工</t>
+      <t>要么全屋换线要么电改完之后仔细验收</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>塑料盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8期楼下便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色一盒，彩色一盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹灰泥板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹灰抹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买错了，看能否退换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 主卧门洞为红砖墙，左右宽15cm，厚12cm，高220cm，门洞上方加钢梁，两根长1.25m横截面4cm*6cm的钢梁拼接，新旧墙体衔接处每隔40cm左右掏一个洞，长砖嵌入，砌好后直接水泥砂浆抹平；抹灰部分，南次卧阳台左墙窗户缝隙处填水泥砂浆，然后铺2cm厚保温板，以胶钉固定，再加胶泥挂网和水泥砂浆抹平，顶部有掉落倾向的原挂网打一两个胶钉固定；厨房餐厅顶部有掉落倾向的原挂网打一个胶钉固定，胶泥抹平，定工人单人单日工期，剩余部分自己学着做完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人户口页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fesco借出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃气热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>390，160，600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东，海尔热水器隆阳专卖店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房室内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海尔燃气热水器JSQ31-16R5BW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以延迟送货，保价30天，整机八年保修，免费上门，免费换零件，服务电话4006-999-999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料量按散工要求购买，共485, 人工费450/天,师傅喝水2块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻墙续费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便携免洗洗手液+前置滤水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①飘窗窗台正下方加2cm厚保温板，以胶钉固定，再加胶泥挂网抹平    ②南次卧阳台右侧顶待胶泥干透后补两个胶钉  ③南次卧阳台剩下墙面师傅建议在刮大白的时候直接用石膏挂网抹平，建议咨询大白师傅 ④餐厅阳台剩下有保温棉的墙面挂网胶泥抹平，之后和其它墙面一起其它部分以水泥砂浆抹平    ⑤未用防水专用水泥，后续靠窗部分均需要做防水涂层⑥师傅门洞没有砌平砌垂直，需要再来修补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①21号第一天砌墙的时候比较相信师傅，门洞不平不垂直没有及时发现，22号发现，23号疫情做核酸检测，24号师傅中午和晚上才有空过来做修补，严重拖慢了工期；一定不要轻易相信散工的人品，你以为的默认的标准只要不明说不强调，散工就会随便糊弄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2020/12/19，16：30-17：30（找师傅）                 2020/12/20，10：30-11：30（上料）                                       2020/12/21，8：30-11：30         2020/12/21，13：30-17：30      2020/12/24，12：00-13：00       2020/12/24，17：30-18：10       </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/12/25，10：00-13：30         2020/12/25，15：30-18：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①，②没有补，但是在餐厅阳台顶面补了一个，修补师傅遗留下来的明显裂缝，补砸墙遗留下来的缺角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>③④⑤⑥（有所改善，但是门洞内外墙面有倾斜角，如果要做窄边框一定需要再找平）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅真敷衍，真烦人！孟师傅-电话13942626713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳米大厦房管局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首套1.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房本工本费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给崔涛大概1月25号可以问下进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金500（待还）</t>
+    <t>砌墙师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品诺装饰（砸墙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水钻打眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳威，15241464419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水：从厕所走进水到两个卫生间，主冷水管6分，进两个卫生间6变4，卫生间和厨房内部都是4分管，燃气热水器回水和热水都是4分，只做主管回水；电：分8个回路（①全屋（不含厨房和卫生间）照明，②主次卫生间，③厨房，④全屋（不含厨房和卫生间）插座，⑤冰箱，⑥客厅柜机空调，⑦北卧室挂机空调，⑧南卧室挂机空调），换强电空开，不做全屋换线；水钻眼：共13个穿梁眼（10个40走水，3个走电），1个燃气热水器排气管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1505,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,44 +1764,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2477,20 +2564,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="5"/>
+    <col min="2" max="2" width="40.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="27.6640625" style="5"/>
+    <col min="4" max="9" width="27.6640625" style="5"/>
+    <col min="10" max="10" width="53" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="27.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
@@ -2519,10 +2608,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220">
@@ -2536,7 +2625,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2545,16 +2634,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I2" s="5">
         <v>3830</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="176">
@@ -2562,42 +2651,42 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3" s="5">
         <v>1000</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5">
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="5">
         <v>1000</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="88">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2618,49 +2707,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="110">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="66">
       <c r="A5" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5">
         <f>485+450+2</f>
         <v>937</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="I5" s="5">
         <v>937</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="17" customFormat="1" ht="22">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="17">
-        <f>SUM(I2:I5)</f>
-        <v>5767</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="308">
+      <c r="A6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <f>3500+4045+460</f>
+        <v>8005</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7985</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="17">
+        <f>SUM(I2:I6)</f>
+        <v>13752</v>
       </c>
     </row>
   </sheetData>
@@ -2671,11 +2790,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -2688,39 +2807,39 @@
   <sheetData>
     <row r="1" spans="1:8" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22">
       <c r="A2" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D2" s="30">
         <v>278</v>
@@ -2738,13 +2857,13 @@
     </row>
     <row r="3" spans="1:8" ht="22">
       <c r="A3" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="30">
         <v>64</v>
@@ -2762,10 +2881,10 @@
     </row>
     <row r="4" spans="1:8" ht="22">
       <c r="A4" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="30">
         <v>5</v>
@@ -2783,13 +2902,13 @@
     </row>
     <row r="5" spans="1:8" ht="22">
       <c r="A5" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="30">
         <v>318</v>
@@ -2801,19 +2920,19 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="59">
         <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66">
       <c r="A6" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="30">
         <v>53.9</v>
@@ -2825,17 +2944,17 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="44">
       <c r="A7" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="30">
         <v>39.9</v>
@@ -2847,17 +2966,17 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="66">
       <c r="A8" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D8" s="30">
         <v>188</v>
@@ -2875,13 +2994,13 @@
     </row>
     <row r="9" spans="1:8" ht="22">
       <c r="A9" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" s="30">
         <v>35</v>
@@ -2899,13 +3018,13 @@
     </row>
     <row r="10" spans="1:8" ht="66">
       <c r="A10" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" s="30">
         <v>258</v>
@@ -2923,10 +3042,10 @@
     </row>
     <row r="11" spans="1:8" ht="22">
       <c r="A11" s="30" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D11" s="30">
         <v>22</v>
@@ -2944,10 +3063,10 @@
     </row>
     <row r="12" spans="1:8" ht="22">
       <c r="A12" s="30" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="30">
         <v>11.2</v>
@@ -2965,13 +3084,13 @@
     </row>
     <row r="13" spans="1:8" ht="22">
       <c r="A13" s="30" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" s="30">
         <v>89</v>
@@ -2989,13 +3108,13 @@
     </row>
     <row r="14" spans="1:8" ht="22">
       <c r="A14" s="30" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D14" s="30">
         <v>30</v>
@@ -3013,13 +3132,13 @@
     </row>
     <row r="15" spans="1:8" s="48" customFormat="1" ht="22">
       <c r="A15" s="48" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D15" s="48">
         <v>287.5</v>
@@ -3037,16 +3156,16 @@
     </row>
     <row r="16" spans="1:8" ht="44">
       <c r="A16" s="30" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E16" s="30">
         <v>80</v>
@@ -3058,18 +3177,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="44">
+    <row r="17" spans="1:7" ht="44">
       <c r="A17" s="30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E17" s="30">
         <v>3</v>
@@ -3081,18 +3200,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="44">
+    <row r="18" spans="1:7" ht="44">
       <c r="A18" s="30" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E18" s="30">
         <v>20</v>
@@ -3104,15 +3223,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="44">
+    <row r="19" spans="1:7" ht="44">
       <c r="A19" s="30" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D19" s="30">
         <v>4</v>
@@ -3127,12 +3246,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="44">
+    <row r="20" spans="1:7" ht="44">
       <c r="A20" s="30" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D20" s="30">
         <v>1</v>
@@ -3147,15 +3266,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="44">
+    <row r="21" spans="1:7" ht="44">
       <c r="A21" s="30" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E21" s="30">
         <v>3</v>
@@ -3167,12 +3286,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="44">
+    <row r="22" spans="1:7" ht="44">
       <c r="A22" s="30" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D22" s="30">
         <v>2</v>
@@ -3187,18 +3306,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="44">
+    <row r="23" spans="1:7" ht="44">
       <c r="A23" s="30" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E23" s="30">
         <v>2.5</v>
@@ -3210,12 +3329,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="44">
+    <row r="24" spans="1:7" ht="44">
       <c r="A24" s="30" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D24" s="30">
         <v>15</v>
@@ -3230,15 +3349,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="44">
+    <row r="25" spans="1:7" ht="44">
       <c r="A25" s="30" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="30">
         <v>3</v>
@@ -3253,12 +3372,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="44">
+    <row r="26" spans="1:7" ht="44">
       <c r="A26" s="30" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D26" s="30">
         <v>10</v>
@@ -3273,34 +3392,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="44">
-      <c r="A27" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" s="30">
+    <row r="27" spans="1:7" s="48" customFormat="1" ht="44">
+      <c r="A27" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="48">
         <v>10</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="48">
         <v>1</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="48">
         <v>10</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="48">
         <v>10</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="51" customFormat="1" ht="22">
-      <c r="A28" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="51">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" s="51" customFormat="1" ht="22">
+      <c r="A29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="51">
         <f>SUM(G2:G27)</f>
         <v>2257.6999999999998</v>
       </c>
@@ -3316,11 +3435,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -3337,70 +3456,70 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="33" customFormat="1" ht="132">
       <c r="A2" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>100</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="34">
         <v>1499</v>
@@ -3409,75 +3528,76 @@
         <v>2</v>
       </c>
       <c r="J2" s="34">
-        <f t="shared" ref="J2:J40" si="0">H2*I2</f>
+        <f t="shared" ref="J2:J39" si="0">H2*I2</f>
         <v>2998</v>
       </c>
-      <c r="K2" s="58" t="s">
-        <v>100</v>
+      <c r="K2" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="63" customFormat="1" ht="198">
-      <c r="A3" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="60">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="43" customFormat="1" ht="198">
+      <c r="A3" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="43">
         <v>2999</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="43">
         <v>1</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="43">
         <v>2999</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="M3" s="63">
-        <v>2799</v>
-      </c>
-      <c r="N3" s="65" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="44" t="s">
         <v>281</v>
+      </c>
+      <c r="M3" s="43">
+        <f>2999+30</f>
+        <v>3029</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="20" customFormat="1" ht="110">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="5">
         <v>2999</v>
@@ -3490,32 +3610,32 @@
         <v>2999</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:15" s="34" customFormat="1" ht="88">
       <c r="A5" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H5" s="33">
         <v>4390</v>
@@ -3528,74 +3648,74 @@
         <v>0</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M5" s="33">
         <v>0</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="39" customFormat="1" ht="88">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="39" customFormat="1" ht="198">
       <c r="A6" s="39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="H6" s="39">
-        <v>3999</v>
+        <v>3499</v>
       </c>
       <c r="I6" s="39">
         <v>1</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="39" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="M6" s="39">
-        <v>3299</v>
+        <v>3489</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="38">
         <v>2399</v>
@@ -3608,30 +3728,30 @@
         <v>2399</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:15" s="43" customFormat="1" ht="179" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="46"/>
       <c r="G8" s="44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H8" s="43">
         <v>3599</v>
@@ -3647,69 +3767,69 @@
         <v>3599</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="20" customFormat="1" ht="88">
-      <c r="A9" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="34" customFormat="1" ht="88">
+      <c r="A9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="38">
         <v>3499</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="M9" s="5"/>
+      <c r="I9" s="38">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:15" s="34" customFormat="1" ht="110">
       <c r="A10" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" s="38">
         <v>2999</v>
@@ -3722,32 +3842,32 @@
         <v>2999</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:15" s="39" customFormat="1" ht="154">
       <c r="A11" s="39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H11" s="39">
         <v>3699</v>
@@ -3761,13 +3881,13 @@
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="39" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M11" s="39">
         <v>2729</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O11" s="39">
         <v>0</v>
@@ -3775,23 +3895,23 @@
     </row>
     <row r="12" spans="1:15" s="20" customFormat="1" ht="88">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H12" s="5">
         <v>2399</v>
@@ -3804,32 +3924,32 @@
         <v>0</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:15" s="20" customFormat="1" ht="88">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H13" s="5">
         <v>1988</v>
@@ -3842,32 +3962,32 @@
         <v>0</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:15" s="20" customFormat="1" ht="132">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="5">
         <v>5799</v>
@@ -3880,32 +4000,32 @@
         <v>0</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:15" s="20" customFormat="1" ht="110">
       <c r="A15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" s="5">
         <v>2199</v>
@@ -3918,19 +4038,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" ht="22">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3949,10 +4069,10 @@
     </row>
     <row r="17" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A17" s="20" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
@@ -3964,38 +4084,46 @@
     </row>
     <row r="18" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A18" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
-      <c r="J18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" ht="22">
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" ht="22">
       <c r="A20" s="20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -4003,7 +4131,9 @@
       <c r="F20" s="22"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20">
+        <v>2</v>
+      </c>
       <c r="J20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4012,12 +4142,12 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" ht="22">
+    <row r="21" spans="1:13" ht="22" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -4036,14 +4166,16 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="22" customHeight="1">
+    <row r="22" spans="1:13" ht="22">
       <c r="A22" s="20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
@@ -4062,14 +4194,12 @@
     </row>
     <row r="23" spans="1:13" ht="22">
       <c r="A23" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>174</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
@@ -4086,12 +4216,12 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="22">
+    <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -4110,12 +4240,12 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:13" ht="21" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -4123,9 +4253,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20">
-        <v>2</v>
-      </c>
+      <c r="I25" s="20"/>
       <c r="J25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4134,12 +4262,12 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1">
+    <row r="26" spans="1:13" ht="22">
       <c r="A26" s="20" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -4147,7 +4275,9 @@
       <c r="F26" s="22"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20">
+        <v>2</v>
+      </c>
       <c r="J26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4156,12 +4286,12 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
     </row>
-    <row r="27" spans="1:13" ht="22">
+    <row r="27" spans="1:13" ht="51" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -4169,9 +4299,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20">
-        <v>2</v>
-      </c>
+      <c r="I27" s="20"/>
       <c r="J27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4180,34 +4308,24 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
     </row>
-    <row r="28" spans="1:13" ht="51" customHeight="1">
-      <c r="A28" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+    <row r="28" spans="1:13" ht="22">
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="J28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" ht="22">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
@@ -4216,10 +4334,10 @@
     </row>
     <row r="30" spans="1:13" ht="22">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" si="0"/>
@@ -4228,10 +4346,10 @@
     </row>
     <row r="31" spans="1:13" ht="22">
       <c r="A31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
@@ -4240,37 +4358,37 @@
     </row>
     <row r="32" spans="1:13" ht="22">
       <c r="A32" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="22">
-      <c r="A33" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="22" customHeight="1">
+    <row r="34" spans="1:13" ht="22">
       <c r="A34" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="5">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" si="0"/>
@@ -4279,10 +4397,13 @@
     </row>
     <row r="35" spans="1:13" ht="22">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" si="0"/>
@@ -4291,13 +4412,10 @@
     </row>
     <row r="36" spans="1:13" ht="22">
       <c r="A36" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" si="0"/>
@@ -4306,10 +4424,10 @@
     </row>
     <row r="37" spans="1:13" ht="22">
       <c r="A37" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" si="0"/>
@@ -4318,22 +4436,22 @@
     </row>
     <row r="38" spans="1:13" ht="22">
       <c r="A38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="J38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="22">
+    <row r="39" spans="1:13" ht="24" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" si="0"/>
@@ -4342,51 +4460,39 @@
     </row>
     <row r="40" spans="1:13" ht="24" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
       </c>
       <c r="J40" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="24" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-      <c r="J41" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="17" customFormat="1" ht="22">
-      <c r="A42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="J42" s="32">
-        <f>SUM(J2:J41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="17" customFormat="1" ht="22">
+      <c r="A41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="J41" s="32">
+        <f>SUM(J2:J40)</f>
         <v>21692</v>
       </c>
-      <c r="M42" s="17">
-        <f>SUM(M2:M41)</f>
-        <v>12426</v>
+      <c r="M41" s="17">
+        <f>SUM(M2:M40)</f>
+        <v>12846</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
-    <sortCondition ref="C2:C42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
+    <sortCondition ref="C2:C41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4408,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7191D9C8-28F9-4B4B-848D-0A0BF1EBDEF6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -4420,33 +4526,72 @@
     <col min="2" max="16384" width="43.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22" customHeight="1">
+      <c r="A3" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="9">
+        <v>13942626713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15140436656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="9">
+        <v>13840916589</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4464,12 +4609,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -4483,28 +4628,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -4552,11 +4697,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G36" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G44" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4655,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4826,7 +4971,7 @@
         <v>105.2</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5045,7 +5190,7 @@
         <v>96.3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5096,7 +5241,7 @@
         <v>267.2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5149,7 +5294,7 @@
         <v>91.2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22">
@@ -5176,7 +5321,7 @@
         <v>10.9</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5308,7 +5453,7 @@
         <v>155.4</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5390,58 +5535,291 @@
         <v>337.4</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="7">
-        <f>SUM(B2:B36)</f>
-        <v>120</v>
-      </c>
-      <c r="C37" s="7">
-        <f>SUM(C2:C36)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="22">
+      <c r="A37" s="3">
+        <v>44192</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>44193</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>19</v>
+      </c>
+      <c r="E38" s="5">
+        <f>1+66</f>
+        <v>67</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="22">
+      <c r="A39" s="3">
+        <v>44194</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <f>28.8+24.8+15</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E39" s="5">
+        <f>63.8</f>
+        <v>63.8</v>
+      </c>
+      <c r="F39" s="5">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>147.39999999999998</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <f>37.8+49.33</f>
+        <v>87.13</v>
+      </c>
+      <c r="E40" s="5">
+        <f>64+1</f>
+        <v>65</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>152.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <f>18+12.4</f>
+        <v>30.4</v>
+      </c>
+      <c r="E41" s="5">
+        <f>62+1</f>
+        <v>63</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="22">
+      <c r="A43" s="3">
+        <v>44198</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>195</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="44">
+      <c r="A44" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5">
+        <f>6+10.9</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F44" s="5">
+        <f>50+15+118</f>
+        <v>183</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>242.9</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>44200</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <f>40+39.3</f>
+        <v>79.3</v>
+      </c>
+      <c r="E45" s="5">
+        <f>57+16.9</f>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="7">
+        <f>SUM(B2:B45)</f>
+        <v>220</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" ref="B46:F46" si="1">SUM(C2:C45)</f>
         <v>58</v>
       </c>
-      <c r="D37" s="7">
-        <f>SUM(D2:D36)</f>
-        <v>995.2600000000001</v>
-      </c>
-      <c r="E37" s="7">
-        <f>SUM(E2:E36)</f>
-        <v>1399.2</v>
-      </c>
-      <c r="F37" s="7">
-        <f>SUM(F2:F36)</f>
-        <v>358.29999999999995</v>
-      </c>
-      <c r="G37" s="7">
-        <f>SUM(G2:G36)</f>
-        <v>2930.76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3"/>
+      <c r="D46" s="7">
+        <f t="shared" si="1"/>
+        <v>1322.6900000000003</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="1"/>
+        <v>1748.8000000000002</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="1"/>
+        <v>761.3</v>
+      </c>
+      <c r="G46" s="7">
+        <f>SUM(G2:G45)</f>
+        <v>3957.5900000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5451,11 +5829,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -5474,22 +5852,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
@@ -5497,16 +5875,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="24">
         <v>44167</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44">
@@ -5514,19 +5892,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="25">
         <v>0.33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="154">
@@ -5537,19 +5915,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D4" s="25">
         <v>5.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66">
@@ -5557,22 +5935,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" s="25">
         <v>2.5</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="171" customHeight="1">
@@ -5580,22 +5958,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D6" s="25">
         <v>9.5</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="31" customFormat="1" ht="66">
@@ -5603,91 +5981,128 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D7" s="25">
         <v>2.5</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="110">
       <c r="A8" s="11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D8" s="25">
         <v>5.5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="330">
       <c r="A9" s="11" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D9" s="25">
         <v>10.5</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66">
       <c r="A10" s="52" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D10" s="25">
         <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="54" customFormat="1" ht="154">
+      <c r="A11" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="25">
+        <v>13.5</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="308">
+      <c r="A12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5702,7 +6117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
@@ -5712,81 +6127,81 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="66">
       <c r="A2" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="27">
         <v>0</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66">
       <c r="A3" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="27">
         <v>100</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="44">
       <c r="A4" s="27" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C4" s="27">
         <v>33292.050000000003</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="44">
+      <c r="D4" s="58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="66">
       <c r="A5" s="27" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C5" s="27">
         <v>0</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66">
       <c r="A6" s="27" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C6" s="27">
         <v>80</v>
@@ -5794,7 +6209,7 @@
     </row>
     <row r="7" spans="1:10" s="28" customFormat="1" ht="22">
       <c r="A7" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="28">
         <f>SUM(C2:C6)</f>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154C731-C100-0C40-8466-DE6631E7AFAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DF779-1D2B-E147-98C2-5B8C8C6A3861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="419">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,10 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50kg/袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26 = (25/袋+1/袋上料)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1179,10 +1175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>料量按散工要求购买，共485, 人工费450/天,师傅喝水2块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翻墙续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1275,10 +1267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>料量按散工要求购买，料费用4045（=4045+（空开））, 人工费3500, 水钻眼440(460=13x30+70，实付440)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日工结束支付全款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1292,10 +1280,6 @@
   </si>
   <si>
     <t>施工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/04，7：30-17：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,14 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>①安全起见，厨房燃气管左侧的插座不保留 ②已走的冷热水管需要拉开一点距离，没有走的冷热水管不可以再紧贴，尽量留有一点距离 ③ 做卫生间马桶下水移位，根据地面的实际高度差决定是否要做外部地面抬高，决定入户卧室的插座要不要走活线 ④ 空气开关由下进上出改为通用做法上进下出 ⑤ 线盒发泡抠出来改为水泥砂浆 ⑥不需要的点位能抽空就抽空 ⑦ 全屋水电走完拍照留底，保留详细尺寸 ⑧ 验收（约伟星打压，验证电路各项回路和安装）⑨未使用完的完整耗材可以退，其它多余耗材卖二手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①涉及到燃气管路附近的用电要慎重，跟燃气公司确认燃气管路经过洗碗机是否可行，燃气表挂的位置等，及时约燃气公司的人上门查看 ②其它工地上看到的不规范工艺一定要提前跟工人说，不说他们就会默认怎么方便怎么来（比如这次的线盒用发泡固定）③上料一定要仔细核对，不论大小件全部数好，少了让卖家及时补齐 ④抽出来的废弃电线自己收好，可以卖钱，不然就被工人带走了⑤打眼的活能干的都让师傅一起干了，可以省一些钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>押金500（待还，1月20号之前去还）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1398,15 +1374,541 @@
     <t>水：从厕所走进水到两个卫生间，主冷水管6分，进两个卫生间6变4，卫生间和厨房内部都是4分管，燃气热水器回水和热水都是4分，只做主管回水；电：分8个回路（①全屋（不含厨房和卫生间）照明，②主次卫生间，③厨房，④全屋（不含厨房和卫生间）插座，⑤冰箱，⑥客厅柜机空调，⑦北卧室挂机空调，⑧南卧室挂机空调），换强电空开，不做全屋换线；水钻眼：共13个穿梁眼（10个40走水，3个走电），1个燃气热水器排气管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>幸福家居建材市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下水管隔音棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砌墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单项合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买，共479, 人工费450/天,师傅喝水2块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50kg/袋，小野田425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.5=(25/袋+1.5/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5=(4/袋+1.5/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5/块，共20上料费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5cm厚，7.5米长，1米宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80一卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜、炒板栗、fresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水丙纶布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小比利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包管找坡防水贴砖找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分ppr 45°弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分ppr弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分ppr管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分ppr 直接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6变4ppr三通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6变4ppr直接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6变4ppr弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分保温棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6分球阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分ppr管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分ppr弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分ppr三通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分ppr 45°弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分内丝弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分ppr内丝三通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分连体弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料丝堵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打压用角阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分管古（内螺纹直接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打压用长软管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分红色保温棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分蓝色保温棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分管夹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1寸管夹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生料带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100扁管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50直接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50单口弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50下水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下水胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造-下水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造-生活用水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4平方线红、蓝、花（黄绿双色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5平方线红、蓝、白、绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3分线管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3分线管接头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3分线盒活结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体线盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发泡胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开槽锯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割铁锯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇皮螺纹管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3分线夹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造-电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9期便民建材批发商店</t>
+  </si>
+  <si>
+    <t>35/根，每根4米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/根，每根4米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100扁移位器一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50三通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222/捆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145/捆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六类线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯头+200瓦灯泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50管45°弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60/根，每根4米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1寸吊夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买4170(=4015-15(抹零)+45+60+50+15)，余料退货退款497，实际用料总费用 3673(=4170-497) , 水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堵漏王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是退款的时候识别错误</t>
+  </si>
+  <si>
+    <t>可能是退款的时候识别错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/04，7：30-17：00          2021/01/05，7：00-18：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①安全起见，厨房燃气管左侧的插座不保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>②已走的冷热水管需要拉开一点距离，没有走的冷热水管不可以再紧贴，尽量留有一点距离 ③ 卫生间马桶下水使用扁管移位没有带来地面高度的提升 ④ 空气开关由下进上出改为通用做法上进下出，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">更换空开 ⑤ 线盒发泡抠出来改为水泥砂浆 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⑥不需要的点位能抽空就抽空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ⑦ 全屋水电走完拍照留底，保留详细尺寸，标注未走活线的路径(入户卧室，客厅灯、厨房阳台灯、南次卧阳台灯) ⑧ 验收（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约伟星打压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，验证电路各项回路和安装）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⑨未使用完的完整耗材可以退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，其它多余耗材卖二手 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①涉及到燃气管路附近的用电要慎重，跟洗碗机商家确认洗碗机为前置散热，跟燃气公司确认可以沿墙角走燃气管路 ②其它工地上看到的不规范工艺一定要提前跟工人说，不说他们就会默认怎么方便怎么来（比如这次的线盒用发泡固定）③上料一定要仔细核对，不论大小件全部数好，少了让卖家及时补齐 ④抽出来的废弃电线自己收好，可以卖钱，不然就被工人带走了⑤打眼的活能干的都让师傅一起干了，可以省一些钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1688+淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色初23+意大利米兰27+恒志13+玛喆20+方拓12+德胜居18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1549,6 +2051,21 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1564,7 +2081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1592,6 +2109,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1601,7 +2127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1761,9 +2287,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1782,16 +2305,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2564,12 +3120,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -2646,7 +3202,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="176">
+    <row r="3" spans="1:10" ht="132">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2678,7 +3234,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="88">
+    <row r="4" spans="1:10" ht="44">
       <c r="A4" s="5" t="s">
         <v>175</v>
       </c>
@@ -2686,7 +3242,7 @@
         <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2718,10 +3274,10 @@
         <v>233</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -2730,17 +3286,17 @@
         <v>14</v>
       </c>
       <c r="G5" s="5">
-        <f>485+450+2</f>
-        <v>937</v>
+        <f>479+450+2</f>
+        <v>931</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I5" s="5">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="308">
@@ -2748,13 +3304,13 @@
         <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -2763,23 +3319,23 @@
         <v>14</v>
       </c>
       <c r="G6" s="5">
-        <f>3500+4045+460</f>
-        <v>8005</v>
+        <f>3673+3500+440+20</f>
+        <v>7633</v>
       </c>
       <c r="I6" s="5">
-        <v>7985</v>
+        <v>7633</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" ht="22">
-      <c r="A7" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I9" s="17">
         <f>SUM(I2:I6)</f>
-        <v>13752</v>
+        <v>13394</v>
       </c>
     </row>
   </sheetData>
@@ -2790,643 +3346,2246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18" style="30"/>
-    <col min="3" max="3" width="18" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="18" style="30"/>
+    <col min="1" max="2" width="18" style="30"/>
+    <col min="3" max="3" width="24.1640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18" style="30"/>
+    <col min="5" max="5" width="18" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="18" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="49" customFormat="1" ht="22">
+    <row r="1" spans="1:10" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="G1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22">
+    <row r="2" spans="1:10" ht="22">
       <c r="A2" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="30">
+      <c r="F2" s="30">
         <v>278</v>
       </c>
-      <c r="E2" s="30">
+      <c r="G2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="30">
-        <f t="shared" ref="F2:F15" si="0">D2*E2</f>
+      <c r="H2" s="30">
+        <f t="shared" ref="H2:H15" si="0">F2*G2</f>
         <v>556</v>
       </c>
-      <c r="G2" s="30">
+      <c r="I2" s="30">
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:10" ht="22">
+      <c r="C3" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="30">
+      <c r="F3" s="30">
         <v>64</v>
       </c>
-      <c r="E3" s="30">
+      <c r="G3" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="H3" s="30">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="G3" s="30">
+      <c r="I3" s="30">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:10" ht="22">
+      <c r="C4" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="E4" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="30">
+      <c r="F4" s="30">
         <v>5</v>
       </c>
-      <c r="E4" s="30">
+      <c r="G4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="30">
+      <c r="H4" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G4" s="30">
+      <c r="I4" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:10" ht="22">
+      <c r="C5" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="30">
+      <c r="F5" s="30">
         <v>318</v>
       </c>
-      <c r="E5" s="30">
+      <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="30">
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="G5" s="59">
+      <c r="I5" s="61">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" ht="66">
+      <c r="C6" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="30">
+      <c r="F6" s="30">
         <v>53.9</v>
       </c>
-      <c r="E6" s="30">
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="F6" s="30">
+      <c r="H6" s="30">
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" ht="44">
-      <c r="A7" s="30" t="s">
+      <c r="I6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" ht="44">
+      <c r="C7" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="30">
+      <c r="F7" s="30">
         <v>39.9</v>
       </c>
-      <c r="E7" s="30">
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="30">
+      <c r="H7" s="30">
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" ht="66">
-      <c r="A8" s="30" t="s">
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="66">
+      <c r="C8" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="30">
+      <c r="F8" s="30">
         <v>188</v>
       </c>
-      <c r="E8" s="30">
+      <c r="G8" s="30">
         <v>1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="H8" s="30">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="G8" s="50">
+      <c r="I8" s="50">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:10" ht="22">
+      <c r="C9" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="30">
+      <c r="F9" s="30">
         <v>35</v>
       </c>
-      <c r="E9" s="30">
+      <c r="G9" s="30">
         <v>1</v>
       </c>
-      <c r="F9" s="30">
+      <c r="H9" s="30">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G9" s="50">
+      <c r="I9" s="50">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" ht="66">
+      <c r="C10" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30">
+      <c r="F10" s="30">
         <v>258</v>
       </c>
-      <c r="E10" s="30">
+      <c r="G10" s="30">
         <v>1</v>
       </c>
-      <c r="F10" s="30">
+      <c r="H10" s="30">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="G10" s="50">
+      <c r="I10" s="50">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:10" ht="22">
+      <c r="C11" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="30">
+      <c r="F11" s="30">
         <v>22</v>
       </c>
-      <c r="E11" s="30">
+      <c r="G11" s="30">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="H11" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G11" s="50">
+      <c r="I11" s="50">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:10" ht="22">
+      <c r="C12" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="E12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="30">
+      <c r="F12" s="30">
         <v>11.2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="G12" s="30">
         <v>1</v>
       </c>
-      <c r="F12" s="30">
+      <c r="H12" s="30">
         <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
-      <c r="G12" s="50">
+      <c r="I12" s="50">
         <v>11.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:10" ht="22">
+      <c r="C13" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="D13" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="E13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="30">
+      <c r="F13" s="30">
         <v>89</v>
       </c>
-      <c r="E13" s="30">
+      <c r="G13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="30">
+      <c r="H13" s="30">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="G13" s="50">
+      <c r="I13" s="50">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:10" ht="22">
+      <c r="C14" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="D14" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="E14" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="30">
+      <c r="F14" s="30">
         <v>30</v>
       </c>
-      <c r="E14" s="30">
+      <c r="G14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="H14" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G14" s="50">
+      <c r="I14" s="50">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="48" customFormat="1" ht="22">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:10" s="58" customFormat="1" ht="22">
+      <c r="C15" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="D15" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="E15" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="48">
+      <c r="F15" s="58">
         <v>287.5</v>
       </c>
-      <c r="E15" s="48">
+      <c r="G15" s="58">
         <v>1</v>
       </c>
-      <c r="F15" s="48">
+      <c r="H15" s="58">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
-      <c r="G15" s="48">
+      <c r="I15" s="58">
         <v>287.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="44">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:10" ht="44">
+      <c r="C16" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="30">
+        <v>15</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30">
+        <v>15</v>
+      </c>
+      <c r="I16" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="44">
+      <c r="C17" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="30">
+        <v>3</v>
+      </c>
+      <c r="G17" s="30">
+        <v>2</v>
+      </c>
+      <c r="H17" s="30">
+        <v>6</v>
+      </c>
+      <c r="I17" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="44">
+      <c r="C18" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="30">
+        <v>10</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1</v>
+      </c>
+      <c r="H18" s="30">
+        <v>10</v>
+      </c>
+      <c r="I18" s="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="48" customFormat="1" ht="44">
+      <c r="C19" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="48">
+        <v>10</v>
+      </c>
+      <c r="G19" s="48">
+        <v>1</v>
+      </c>
+      <c r="H19" s="48">
+        <v>10</v>
+      </c>
+      <c r="I19" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="51" customFormat="1" ht="22">
+      <c r="A20" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="I20" s="51">
+        <f>SUM(I2:I19)</f>
+        <v>1778.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="44">
+      <c r="A21" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="65">
+        <f>SUM(I21:I28)</f>
+        <v>479</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="F21" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="30">
+      <c r="G21" s="30">
         <v>80</v>
       </c>
-      <c r="F16" s="30">
+      <c r="H21" s="30">
         <v>48</v>
       </c>
-      <c r="G16" s="50">
+      <c r="I21" s="50">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="44">
-      <c r="A17" s="30" t="s">
+    <row r="22" spans="1:9" ht="44">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="D22" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="G22" s="30">
+        <v>3</v>
+      </c>
+      <c r="H22" s="30">
+        <v>78</v>
+      </c>
+      <c r="I22" s="50">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="44">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="F23" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="30">
+        <v>20</v>
+      </c>
+      <c r="H23" s="30">
+        <v>100</v>
+      </c>
+      <c r="I23" s="50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="44">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="30">
+        <v>4</v>
+      </c>
+      <c r="G24" s="30">
+        <v>7</v>
+      </c>
+      <c r="H24" s="30">
+        <v>28</v>
+      </c>
+      <c r="I24" s="50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="44">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="30">
+        <v>50</v>
+      </c>
+      <c r="H25" s="30">
+        <v>50</v>
+      </c>
+      <c r="I25" s="50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="44">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="30">
+        <v>3</v>
+      </c>
+      <c r="H26" s="30">
+        <v>78</v>
+      </c>
+      <c r="I26" s="50">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="44">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="30">
+        <v>2</v>
+      </c>
+      <c r="G27" s="30">
+        <v>20</v>
+      </c>
+      <c r="H27" s="30">
+        <v>40</v>
+      </c>
+      <c r="I27" s="50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="44">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="48">
+        <v>62</v>
+      </c>
+      <c r="I28" s="48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="44">
+      <c r="A29" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="67">
+        <f>SUM(I29:I54)</f>
+        <v>2021</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="30">
+        <v>5</v>
+      </c>
+      <c r="H29" s="30">
+        <f>60*5</f>
+        <v>300</v>
+      </c>
+      <c r="I29" s="58">
+        <f>H29</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="44">
+      <c r="A30" s="64"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="30">
+        <v>7</v>
+      </c>
+      <c r="G30" s="30">
+        <f>30-19</f>
+        <v>11</v>
+      </c>
+      <c r="H30" s="30">
+        <f>F30*G30</f>
+        <v>77</v>
+      </c>
+      <c r="I30" s="58">
+        <f t="shared" ref="I30:I82" si="1">H30</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="44">
+      <c r="A31" s="64"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="30">
+        <v>7</v>
+      </c>
+      <c r="G31" s="30">
+        <v>10</v>
+      </c>
+      <c r="H31" s="30">
+        <f>F31*G31</f>
+        <v>70</v>
+      </c>
+      <c r="I31" s="58">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="44">
+      <c r="A32" s="64"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="30">
+        <v>6</v>
+      </c>
+      <c r="G32" s="30">
+        <v>4</v>
+      </c>
+      <c r="H32" s="30">
+        <f t="shared" ref="H32:H35" si="2">F32*G32</f>
+        <v>24</v>
+      </c>
+      <c r="I32" s="58">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="44">
+      <c r="A33" s="64"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="30">
+        <v>5</v>
+      </c>
+      <c r="G33" s="30">
+        <f>6-7</f>
+        <v>-1</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="44">
+      <c r="A34" s="64"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F34" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="30">
+        <f>4-2</f>
+        <v>2</v>
+      </c>
+      <c r="H34" s="30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I34" s="58">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="44">
+      <c r="A35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="30">
+        <v>2</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I35" s="58">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="44">
+      <c r="A36" s="64"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="G36" s="30">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="H36" s="30">
+        <v>44</v>
+      </c>
+      <c r="I36" s="58">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="44">
+      <c r="A37" s="64"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="30">
+        <v>115</v>
+      </c>
+      <c r="G37" s="30">
+        <v>1</v>
+      </c>
+      <c r="H37" s="30">
+        <f>115</f>
+        <v>115</v>
+      </c>
+      <c r="I37" s="58">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="44">
+      <c r="A38" s="64"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="G38" s="30">
+        <f>18+1</f>
+        <v>19</v>
+      </c>
+      <c r="H38" s="30">
+        <f>35*19</f>
+        <v>665</v>
+      </c>
+      <c r="I38" s="58">
+        <f t="shared" si="1"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="44">
+      <c r="A39" s="64"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F39" s="30">
+        <v>4</v>
+      </c>
+      <c r="G39" s="30">
+        <f>60-30</f>
+        <v>30</v>
+      </c>
+      <c r="H39" s="30">
+        <f>F39*G39</f>
+        <v>120</v>
+      </c>
+      <c r="I39" s="58">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="44">
+      <c r="A40" s="64"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" s="30">
+        <v>3</v>
+      </c>
+      <c r="G40" s="30">
+        <f>15-10</f>
+        <v>5</v>
+      </c>
+      <c r="H40" s="30">
+        <f t="shared" ref="H40:H47" si="3">F40*G40</f>
+        <v>15</v>
+      </c>
+      <c r="I40" s="58">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="44">
+      <c r="A41" s="64"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="30">
+        <v>4</v>
+      </c>
+      <c r="G41" s="30">
+        <f>15-8</f>
+        <v>7</v>
+      </c>
+      <c r="H41" s="30">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I41" s="58">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="44">
+      <c r="A42" s="64"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F42" s="30">
+        <v>3</v>
+      </c>
+      <c r="G42" s="30">
+        <v>6</v>
+      </c>
+      <c r="H42" s="30">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I42" s="58">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="44">
+      <c r="A43" s="64"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" s="30">
+        <v>18</v>
+      </c>
+      <c r="G43" s="30">
+        <v>12</v>
+      </c>
+      <c r="H43" s="30">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="I43" s="58">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="44">
+      <c r="A44" s="64"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="30">
+        <v>18</v>
+      </c>
+      <c r="G44" s="30">
+        <v>3</v>
+      </c>
+      <c r="H44" s="30">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="I44" s="58">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="44">
+      <c r="A45" s="64"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="30">
+        <v>40</v>
+      </c>
+      <c r="G45" s="30">
+        <v>2</v>
+      </c>
+      <c r="H45" s="30">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I45" s="58">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="44">
+      <c r="A46" s="64"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" s="30">
+        <v>1</v>
+      </c>
+      <c r="G46" s="30">
+        <f>12-5</f>
+        <v>7</v>
+      </c>
+      <c r="H46" s="30">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I46" s="58">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="44">
+      <c r="A47" s="64"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="30">
+        <v>12</v>
+      </c>
+      <c r="G47" s="30">
+        <v>3</v>
+      </c>
+      <c r="H47" s="30">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I47" s="58">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="44">
+      <c r="A48" s="64"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" s="30">
+        <v>2</v>
+      </c>
+      <c r="H48" s="30">
+        <f>10*2</f>
+        <v>20</v>
+      </c>
+      <c r="I48" s="58">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="44">
+      <c r="A49" s="64"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" s="30">
+        <f>13+8+3</f>
+        <v>24</v>
+      </c>
+      <c r="H49" s="30">
+        <f>3*24</f>
+        <v>72</v>
+      </c>
+      <c r="I49" s="58">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="44">
+      <c r="A50" s="64"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" s="30">
+        <f>13-4</f>
+        <v>9</v>
+      </c>
+      <c r="H50" s="30">
+        <f>3*9</f>
+        <v>27</v>
+      </c>
+      <c r="I50" s="58">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="44">
+      <c r="A51" s="64"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" s="30">
+        <v>1</v>
+      </c>
+      <c r="H51" s="30">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="I51" s="58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="44">
+      <c r="A52" s="64"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" s="30">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="H52" s="30">
+        <f>6*2</f>
+        <v>12</v>
+      </c>
+      <c r="I52" s="58">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="44">
+      <c r="A53" s="64"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" s="30">
+        <v>0</v>
+      </c>
+      <c r="H53" s="30">
+        <v>0</v>
+      </c>
+      <c r="I53" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="44">
+      <c r="A54" s="64"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="30">
+        <v>3</v>
+      </c>
+      <c r="G54" s="30">
+        <v>1</v>
+      </c>
+      <c r="H54" s="30">
+        <f>F54*G54</f>
+        <v>3</v>
+      </c>
+      <c r="I54" s="58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="44">
+      <c r="A55" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B55" s="67">
+        <f>SUM(I55:I64)</f>
+        <v>78</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F55" s="30">
+        <v>15</v>
+      </c>
+      <c r="G55" s="30">
+        <v>1</v>
+      </c>
+      <c r="H55" s="30">
+        <f>F55*G55</f>
+        <v>15</v>
+      </c>
+      <c r="I55" s="58">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="44">
+      <c r="A56" s="64"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H56" s="30">
+        <v>3</v>
+      </c>
+      <c r="I56" s="58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="44">
+      <c r="A57" s="64"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F57" s="30">
+        <v>2</v>
+      </c>
+      <c r="G57" s="30">
+        <v>1</v>
+      </c>
+      <c r="H57" s="30">
+        <f t="shared" ref="H57:H81" si="4">F57*G57</f>
+        <v>2</v>
+      </c>
+      <c r="I57" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="44">
+      <c r="A58" s="64"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="30">
+        <v>2</v>
+      </c>
+      <c r="G58" s="30">
+        <v>1</v>
+      </c>
+      <c r="H58" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I58" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="44">
+      <c r="A59" s="64"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="30">
+        <v>2</v>
+      </c>
+      <c r="G59" s="30">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="H59" s="30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I59" s="58">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="44">
+      <c r="A60" s="64"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" s="30">
+        <v>3</v>
+      </c>
+      <c r="G60" s="30">
+        <v>1</v>
+      </c>
+      <c r="H60" s="30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I60" s="58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="44">
+      <c r="A61" s="64"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="G61" s="30">
+        <v>3</v>
+      </c>
+      <c r="H61" s="30">
+        <f>6*3</f>
+        <v>18</v>
+      </c>
+      <c r="I61" s="58">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="44">
+      <c r="A62" s="64"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" s="30">
+        <v>2</v>
+      </c>
+      <c r="G62" s="30">
+        <v>1</v>
+      </c>
+      <c r="H62" s="30">
+        <f>F62*G62</f>
+        <v>2</v>
+      </c>
+      <c r="I62" s="58">
+        <f>H62</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="44">
+      <c r="A63" s="64"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" s="30">
+        <f>1-1</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="30">
+        <v>0</v>
+      </c>
+      <c r="I63" s="58">
+        <f>H63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="44">
+      <c r="A64" s="64"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G64" s="30">
+        <v>1</v>
+      </c>
+      <c r="H64" s="30">
+        <v>25</v>
+      </c>
+      <c r="I64" s="58">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="44">
+      <c r="A65" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" s="67">
+        <f>SUM(I65:I82)</f>
+        <v>1612</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="G65" s="30">
+        <v>3</v>
+      </c>
+      <c r="H65" s="30">
+        <f>222*3</f>
+        <v>666</v>
+      </c>
+      <c r="I65" s="58">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="44">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="G66" s="30">
+        <v>4</v>
+      </c>
+      <c r="H66" s="30">
+        <f>145*4</f>
+        <v>580</v>
+      </c>
+      <c r="I66" s="58">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="44">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="G67" s="30">
+        <v>25</v>
+      </c>
+      <c r="H67" s="30">
+        <f>75</f>
+        <v>75</v>
+      </c>
+      <c r="I67" s="58">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="44">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F68" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="G68" s="30">
+        <v>40</v>
+      </c>
+      <c r="H68" s="30">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I68" s="58">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="44">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F69" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="G69" s="30">
+        <f>150-90</f>
+        <v>60</v>
+      </c>
+      <c r="H69" s="30">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="I69" s="58">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="44">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F70" s="30">
+        <v>1</v>
+      </c>
+      <c r="G70" s="30">
+        <f>30+10</f>
+        <v>40</v>
+      </c>
+      <c r="H70" s="30">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I70" s="58">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="44">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F71" s="30">
+        <v>1</v>
+      </c>
+      <c r="G71" s="30">
+        <v>50</v>
+      </c>
+      <c r="H71" s="30">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I71" s="58">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="44">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="30">
+        <v>10</v>
+      </c>
+      <c r="H72" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I72" s="58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="44">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F73" s="30">
+        <v>15</v>
+      </c>
+      <c r="G73" s="30">
+        <f>3-2</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="30">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I73" s="58">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="44">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F74" s="30">
+        <v>15</v>
+      </c>
+      <c r="G74" s="30">
+        <v>2</v>
+      </c>
+      <c r="H74" s="30">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="I74" s="58">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="44">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F75" s="30">
+        <v>2</v>
+      </c>
+      <c r="G75" s="30">
+        <f>2-1</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I75" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="44">
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="G76" s="30">
+        <v>11</v>
+      </c>
+      <c r="H76" s="30">
+        <v>10</v>
+      </c>
+      <c r="I76" s="58">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="44">
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F77" s="30">
+        <v>5</v>
+      </c>
+      <c r="G77" s="30">
+        <f>5+3</f>
+        <v>8</v>
+      </c>
+      <c r="H77" s="30">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I77" s="58">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="44">
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="G78" s="30">
+        <v>35</v>
+      </c>
+      <c r="H78" s="30">
+        <v>9</v>
+      </c>
+      <c r="I78" s="58">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="44">
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="G79" s="30">
+        <v>10</v>
+      </c>
+      <c r="H79" s="30">
+        <f>1*10</f>
+        <v>10</v>
+      </c>
+      <c r="I79" s="58">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="44">
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F80" s="30">
+        <v>5</v>
+      </c>
+      <c r="G80" s="30">
+        <v>4</v>
+      </c>
+      <c r="H80" s="30">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I80" s="58">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="44">
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F81" s="30">
+        <v>0</v>
+      </c>
+      <c r="G81" s="30">
+        <v>1</v>
+      </c>
+      <c r="H81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="44">
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E82" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G82" s="48">
+        <v>4</v>
+      </c>
+      <c r="H82" s="48">
+        <f>5*4</f>
+        <v>20</v>
+      </c>
+      <c r="I82" s="48">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="58" customFormat="1" ht="110">
+      <c r="A83" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" s="65">
+        <f>SUM(I83:I90)</f>
+        <v>988</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="E83" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="F83" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="H83" s="58">
+        <f>23+27+13+20+12+18</f>
+        <v>113</v>
+      </c>
+      <c r="I83" s="58">
+        <f>H83</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="44">
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" s="30">
+        <v>1</v>
+      </c>
+      <c r="H84" s="30">
+        <v>80</v>
+      </c>
+      <c r="I84" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="44">
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G85" s="30">
+        <v>10</v>
+      </c>
+      <c r="H85" s="30">
+        <v>265</v>
+      </c>
+      <c r="I85" s="58">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="44">
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="30">
-        <v>3</v>
-      </c>
-      <c r="F17" s="30">
-        <v>78</v>
-      </c>
-      <c r="G17" s="50">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="44">
-      <c r="A18" s="30" t="s">
+      <c r="D86" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="E86" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="30">
+      <c r="F86" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G86" s="30">
         <v>20</v>
       </c>
-      <c r="F18" s="30">
-        <v>100</v>
-      </c>
-      <c r="G18" s="50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="44">
-      <c r="A19" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="H86" s="30">
+        <v>110</v>
+      </c>
+      <c r="I86" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="44">
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E87" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="30">
-        <v>4</v>
-      </c>
-      <c r="E19" s="30">
-        <v>7</v>
-      </c>
-      <c r="F19" s="30">
-        <v>28</v>
-      </c>
-      <c r="G19" s="50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="44">
-      <c r="A20" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="F87" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" s="30">
+        <v>50</v>
+      </c>
+      <c r="H87" s="30">
+        <v>50</v>
+      </c>
+      <c r="I87" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="44">
+      <c r="A88" s="67"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="E88" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="30">
-        <v>1</v>
-      </c>
-      <c r="E20" s="30">
-        <v>50</v>
-      </c>
-      <c r="F20" s="30">
-        <v>50</v>
-      </c>
-      <c r="G20" s="50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="44">
-      <c r="A21" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="F88" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G88" s="30">
+        <v>60</v>
+      </c>
+      <c r="H88" s="30">
+        <v>300</v>
+      </c>
+      <c r="I88" s="58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="I89" s="58"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="44">
+      <c r="A90" s="72"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="E90" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="30">
-        <v>3</v>
-      </c>
-      <c r="F21" s="30">
-        <v>78</v>
-      </c>
-      <c r="G21" s="50">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="44">
-      <c r="A22" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="30">
-        <v>2</v>
-      </c>
-      <c r="E22" s="30">
-        <v>20</v>
-      </c>
-      <c r="F22" s="30">
-        <v>40</v>
-      </c>
-      <c r="G22" s="50">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="44">
-      <c r="A23" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="30">
-        <v>62</v>
-      </c>
-      <c r="G23" s="50">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="44">
-      <c r="A24" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="30">
-        <v>15</v>
-      </c>
-      <c r="E24" s="30">
-        <v>1</v>
-      </c>
-      <c r="F24" s="30">
-        <v>15</v>
-      </c>
-      <c r="G24" s="50">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="44">
-      <c r="A25" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="30">
-        <v>3</v>
-      </c>
-      <c r="E25" s="30">
-        <v>2</v>
-      </c>
-      <c r="F25" s="30">
-        <v>6</v>
-      </c>
-      <c r="G25" s="50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="44">
-      <c r="A26" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="30">
-        <v>10</v>
-      </c>
-      <c r="E26" s="30">
-        <v>1</v>
-      </c>
-      <c r="F26" s="30">
-        <v>10</v>
-      </c>
-      <c r="G26" s="50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="48" customFormat="1" ht="44">
-      <c r="A27" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="48">
-        <v>10</v>
-      </c>
-      <c r="E27" s="48">
-        <v>1</v>
-      </c>
-      <c r="F27" s="48">
-        <v>10</v>
-      </c>
-      <c r="G27" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7" s="51" customFormat="1" ht="22">
-      <c r="A29" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="51">
-        <f>SUM(G2:G27)</f>
-        <v>2257.6999999999998</v>
-      </c>
+      <c r="F90" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G90" s="48">
+        <v>5</v>
+      </c>
+      <c r="H90" s="48">
+        <v>70</v>
+      </c>
+      <c r="I90" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="58" customFormat="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G5:G7"/>
+  <mergeCells count="11">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B29:B54"/>
+    <mergeCell ref="A29:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="A65:A82"/>
+    <mergeCell ref="B65:B82"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="A83:A90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3438,7 +5597,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -3514,8 +5673,8 @@
       <c r="D2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="34" t="s">
@@ -3531,7 +5690,7 @@
         <f t="shared" ref="J2:J39" si="0">H2*I2</f>
         <v>2998</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>97</v>
       </c>
       <c r="L2" s="33" t="s">
@@ -3540,23 +5699,23 @@
     </row>
     <row r="3" spans="1:15" s="43" customFormat="1" ht="198">
       <c r="A3" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="44" t="s">
         <v>265</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>266</v>
       </c>
       <c r="H3" s="43">
         <v>2999</v>
@@ -3569,14 +5728,14 @@
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M3" s="43">
         <f>2999+30</f>
         <v>3029</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="20" customFormat="1" ht="110">
@@ -3671,14 +5830,14 @@
         <v>110</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H6" s="39">
         <v>3499</v>
@@ -3688,13 +5847,13 @@
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M6" s="39">
         <v>3489</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
@@ -4069,7 +6228,7 @@
     </row>
     <row r="17" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A17" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>39</v>
@@ -4517,7 +6676,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -4537,14 +6696,14 @@
         <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4552,18 +6711,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="61"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C5" s="9">
         <v>13942626713</v>
@@ -4574,7 +6733,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C6" s="9">
         <v>15140436656</v>
@@ -4582,16 +6741,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C7" s="9">
         <v>13840916589</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4609,19 +6768,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="5"/>
     <col min="2" max="2" width="18.83203125" style="4"/>
-    <col min="3" max="7" width="18.83203125" style="5"/>
+    <col min="3" max="6" width="18.83203125" style="5"/>
+    <col min="7" max="7" width="18.83203125" style="69"/>
     <col min="8" max="8" width="25.83203125" style="5" customWidth="1"/>
     <col min="9" max="16384" width="18.83203125" style="5"/>
   </cols>
@@ -4645,7 +6805,7 @@
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4672,7 +6832,7 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="69">
         <f>SUM(B2:F2)</f>
         <v>148.5</v>
       </c>
@@ -4696,8 +6856,8 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G44" si="0">SUM(B3:F3)</f>
+      <c r="G3" s="69">
+        <f t="shared" ref="G3:G42" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -4723,7 +6883,7 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -4747,7 +6907,7 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="69">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -4771,7 +6931,7 @@
       <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="69">
         <f t="shared" si="0"/>
         <v>113.4</v>
       </c>
@@ -4795,7 +6955,7 @@
       <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="69">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4822,7 +6982,7 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4846,7 +7006,7 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="69">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4870,7 +7030,7 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="69">
         <f t="shared" si="0"/>
         <v>90.28</v>
       </c>
@@ -4894,7 +7054,7 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="69">
         <f t="shared" si="0"/>
         <v>61.6</v>
       </c>
@@ -4918,7 +7078,7 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="69">
         <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
@@ -4942,7 +7102,7 @@
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4966,7 +7126,7 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="69">
         <f t="shared" si="0"/>
         <v>105.2</v>
       </c>
@@ -4993,7 +7153,7 @@
       <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="69">
         <f t="shared" si="0"/>
         <v>66.099999999999994</v>
       </c>
@@ -5017,7 +7177,7 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5041,7 +7201,7 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="69">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -5065,7 +7225,7 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="69">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -5089,7 +7249,7 @@
       <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="69">
         <f t="shared" si="0"/>
         <v>92.2</v>
       </c>
@@ -5113,7 +7273,7 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="69">
         <f t="shared" si="0"/>
         <v>148.30000000000001</v>
       </c>
@@ -5137,7 +7297,7 @@
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="69">
         <f t="shared" si="0"/>
         <v>137.15</v>
       </c>
@@ -5161,7 +7321,7 @@
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5185,7 +7345,7 @@
       <c r="F23" s="5">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="69">
         <f t="shared" si="0"/>
         <v>96.3</v>
       </c>
@@ -5212,7 +7372,7 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5236,7 +7396,7 @@
       <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="69">
         <f t="shared" si="0"/>
         <v>267.2</v>
       </c>
@@ -5264,7 +7424,7 @@
       <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="69">
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
@@ -5289,7 +7449,7 @@
       <c r="F27" s="5">
         <v>24</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="69">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
@@ -5316,7 +7476,7 @@
       <c r="F28" s="5">
         <v>10.9</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="69">
         <f t="shared" si="0"/>
         <v>10.9</v>
       </c>
@@ -5345,7 +7505,7 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="69">
         <f t="shared" si="0"/>
         <v>112.72</v>
       </c>
@@ -5371,7 +7531,7 @@
       <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="69">
         <f t="shared" si="0"/>
         <v>101.7</v>
       </c>
@@ -5397,7 +7557,7 @@
       <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="69">
         <f t="shared" si="0"/>
         <v>86.6</v>
       </c>
@@ -5421,7 +7581,7 @@
       <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5448,12 +7608,12 @@
       <c r="F33" s="5">
         <v>30</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="69">
         <f t="shared" si="0"/>
         <v>155.4</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5477,7 +7637,7 @@
       <c r="F34" s="5">
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="69">
         <f t="shared" si="0"/>
         <v>52.209999999999994</v>
       </c>
@@ -5503,7 +7663,7 @@
       <c r="F35" s="5">
         <v>0</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="69">
         <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
@@ -5530,12 +7690,12 @@
         <f>18.4+269</f>
         <v>287.39999999999998</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="69">
         <f t="shared" si="0"/>
         <v>337.4</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22">
@@ -5557,12 +7717,12 @@
       <c r="F37" s="5">
         <v>10</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="69">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5585,7 +7745,7 @@
       <c r="F38" s="5">
         <v>0</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="69">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -5611,12 +7771,12 @@
       <c r="F39" s="5">
         <v>15</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="69">
         <f t="shared" si="0"/>
         <v>147.39999999999998</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5640,7 +7800,7 @@
       <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="69">
         <f t="shared" si="0"/>
         <v>152.13</v>
       </c>
@@ -5666,7 +7826,7 @@
       <c r="F41" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="69">
         <f t="shared" si="0"/>
         <v>93.4</v>
       </c>
@@ -5690,7 +7850,7 @@
       <c r="F42" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5714,12 +7874,12 @@
       <c r="F43" s="5">
         <v>195</v>
       </c>
-      <c r="G43" s="4">
-        <f t="shared" si="0"/>
+      <c r="G43" s="69">
+        <f>SUM(B43:F43)</f>
         <v>195</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="44">
@@ -5743,12 +7903,12 @@
         <f>50+15+118</f>
         <v>183</v>
       </c>
-      <c r="G44" s="4">
-        <f t="shared" si="0"/>
+      <c r="G44" s="69">
+        <f t="shared" ref="G44:G54" si="1">SUM(B44:F44)</f>
         <v>242.9</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5769,57 +7929,292 @@
         <f>57+16.9</f>
         <v>73.900000000000006</v>
       </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A46" s="6" t="s">
+      <c r="G45" s="69">
+        <f t="shared" si="1"/>
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <f>36.9+38+36.74</f>
+        <v>111.64000000000001</v>
+      </c>
+      <c r="E46" s="5">
+        <f>7+54</f>
+        <v>61</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="69">
+        <f t="shared" si="1"/>
+        <v>172.64000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>44203</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <f>52.91+46.7</f>
+        <v>99.61</v>
+      </c>
+      <c r="E48" s="5">
+        <f>46+11+1</f>
+        <v>58</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="69">
+        <f t="shared" si="1"/>
+        <v>157.61000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>44204</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <f>40+26</f>
+        <v>66</v>
+      </c>
+      <c r="E49" s="5">
+        <f>12+54</f>
+        <v>66</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="69">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="22">
+      <c r="A50" s="3">
+        <v>44205</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <f>24.3</f>
+        <v>24.3</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <f>42+23.3+698</f>
+        <v>763.3</v>
+      </c>
+      <c r="G50" s="69">
+        <f t="shared" si="1"/>
+        <v>787.59999999999991</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>44206</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f>36.9</f>
+        <v>36.9</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="69">
+        <f t="shared" si="1"/>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <f>17.2+36.5</f>
+        <v>53.7</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="69">
+        <f>SUM(B52:F52)</f>
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>44208</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <f>38.1+19+43.8</f>
+        <v>100.9</v>
+      </c>
+      <c r="E53" s="5">
+        <f>12.5+42.5</f>
+        <v>55</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="69">
+        <f t="shared" si="1"/>
+        <v>155.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <f>2+60</f>
+        <v>62</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="69">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="7">
-        <f>SUM(B2:B45)</f>
+      <c r="B55" s="7">
+        <f>SUM(B2:B54)</f>
         <v>220</v>
       </c>
-      <c r="C46" s="7">
-        <f t="shared" ref="B46:F46" si="1">SUM(C2:C45)</f>
+      <c r="C55" s="7">
+        <f>SUM(C2:C54)</f>
         <v>58</v>
       </c>
-      <c r="D46" s="7">
-        <f t="shared" si="1"/>
-        <v>1322.6900000000003</v>
-      </c>
-      <c r="E46" s="7">
-        <f t="shared" si="1"/>
-        <v>1748.8000000000002</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="1"/>
-        <v>761.3</v>
-      </c>
-      <c r="G46" s="7">
-        <f>SUM(G2:G45)</f>
-        <v>3957.5900000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3"/>
+      <c r="D55" s="7">
+        <f>SUM(D2:D54)</f>
+        <v>1778.8400000000004</v>
+      </c>
+      <c r="E55" s="7">
+        <f>SUM(E2:E54)</f>
+        <v>2087.7000000000003</v>
+      </c>
+      <c r="F55" s="7">
+        <f>SUM(F2:F54)</f>
+        <v>1524.6</v>
+      </c>
+      <c r="G55" s="70">
+        <f>SUM(G2:G54)</f>
+        <v>5669.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5829,11 +8224,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -6016,7 +8411,7 @@
         <v>221</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>222</v>
@@ -6030,19 +8425,19 @@
         <v>233</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="25">
         <v>10.5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66">
@@ -6053,36 +8448,36 @@
         <v>121</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" s="25">
         <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="54" customFormat="1" ht="154">
-      <c r="A11" s="54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="53" customFormat="1" ht="154">
+      <c r="A11" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>300</v>
+      <c r="B11" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>296</v>
       </c>
       <c r="D11" s="25">
         <v>13.5</v>
       </c>
-      <c r="E11" s="54" t="s">
-        <v>301</v>
+      <c r="E11" s="53" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="308">
@@ -6090,19 +8485,27 @@
         <v>218</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>298</v>
+        <v>412</v>
+      </c>
+      <c r="D12" s="25">
+        <v>20.5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22">
+      <c r="A13" s="11" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -6117,7 +8520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
@@ -6170,38 +8573,38 @@
     </row>
     <row r="4" spans="1:10" ht="44">
       <c r="A4" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="27">
         <v>33292.050000000003</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>278</v>
+      <c r="D4" s="57" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66">
       <c r="A5" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>263</v>
-      </c>
       <c r="C5" s="27">
         <v>0</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66">
       <c r="A6" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="27">
         <v>80</v>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DF779-1D2B-E147-98C2-5B8C8C6A3861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7747C8F3-F181-784D-B2CF-E16CD4780EC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="477">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1319,10 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>押金500（待还，1月20号之前去还）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>开发商的线路可靠性存疑(主卧卫生间灯跳闸一次)，</t>
     </r>
@@ -1751,10 +1747,6 @@
   </si>
   <si>
     <t>20/袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料量按散工要求购买4170(=4015-15(抹零)+45+60+50+15)，余料退货退款497，实际用料总费用 3673(=4170-497) , 水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1896,7 +1888,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>色初23+意大利米兰27+恒志13+玛喆20+方拓12+德胜居18</t>
+    <t>地板样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州市木佳伊木业16+大自然8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市陶域建材有限公司，H6101M通体中灰哑光600*600，6701Z通体深灰哑光600*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房墙地：H6101M，80块卫生间墙地：6701Z，156块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色初23+意大利米兰27+恒志13+玛喆20+方拓12+德胜居18+乐鑫20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6101M 20/块，6701Z 23/块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7594 =（7444（=瓷砖5188+加工费756+运费1500）+ 上楼搬运费 150）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6650=（6500=（瓷砖4500+加工费500+运费1500）+上楼搬运费 150）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖缝十字架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①瓷砖是附送瓷砖缝十字架的，但是店家没有1.5mm的，所以一起另买了 ②购买总面积为5平，实际铺设面积为77平，余量为10%，如果考虑到橱柜遮挡部分用杂砖，总体费用能更便宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北浩哥塑料制品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mm 5包，2.0mm 5包，2.5mm 10包，每包100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖背胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德高，低吸水率玻化砖专用背胶，强效瓷砖背胶耐水型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方渠道验证真伪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背胶滚筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200/桶，规格5KG, 理论施工45平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴旺望建材商行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26=(25/袋+1/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=(4/袋+1/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6=(0.5/块，0.1/上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂浆防水剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳亚尔1:50浓缩型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35/桶，规格500ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A锯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金500（以退还）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥沙子上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/26，10：20-11：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭水试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/21，08：30-10：00（蓄水）                                  2021/01/23，11：00-13：30（放水）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭水试验（蓄水），买绝味鸭脖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭水试验（放水），晚上打车去医大二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖到货，买酒精消毒湿巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始贴砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始做防水，给瓦工孙女买了一杯奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子水泥上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/15，10：00-11：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耐德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏, 止逆阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置上门费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还户口，去金三角看木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工费200/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工费600/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间下水包管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房卫生间贴瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工费50/平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅卧室走廊地面找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工费25/平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡水条/过门石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环氧彩砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买4170(=4015-15(抹零)+45+60+50+15)，余料退货退款497，实际用料总费用 3673(=4170-497) , 空开856.87，水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +2138,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2127,7 +2359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2314,14 +2546,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2329,25 +2573,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3120,12 +3361,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -3277,7 +3518,7 @@
         <v>251</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3304,13 +3545,13 @@
         <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3319,23 +3560,94 @@
         <v>14</v>
       </c>
       <c r="G6" s="5">
-        <f>3673+3500+440+20</f>
-        <v>7633</v>
+        <f>3673+856.87+3500+440+20</f>
+        <v>8489.869999999999</v>
       </c>
       <c r="I6" s="5">
-        <v>7633</v>
+        <v>8489.8700000000008</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" ht="22">
-      <c r="A9" s="17" t="s">
+    <row r="7" spans="1:10" ht="22">
+      <c r="A7" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>400</v>
+      </c>
+      <c r="I7" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22">
+      <c r="B8" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22">
+      <c r="B9" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" s="5">
+        <v>76.7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3835</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22">
+      <c r="B10" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="5">
+        <v>77.7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1942.5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1942.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="17">
-        <f>SUM(I2:I6)</f>
-        <v>13394</v>
+      <c r="I11" s="17">
+        <f>SUM(I2:I10)</f>
+        <v>21593.370000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3346,11 +3658,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -3362,12 +3674,12 @@
     <col min="6" max="16384" width="18" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="49" customFormat="1" ht="22">
+    <row r="1" spans="1:11" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>34</v>
@@ -3393,10 +3705,13 @@
       <c r="J1" s="49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="22">
+      <c r="K1" s="49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22">
       <c r="A2" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>134</v>
@@ -3421,7 +3736,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22">
+    <row r="3" spans="1:11" ht="22">
       <c r="C3" s="30" t="s">
         <v>137</v>
       </c>
@@ -3445,7 +3760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22">
+    <row r="4" spans="1:11" ht="22">
       <c r="C4" s="30" t="s">
         <v>139</v>
       </c>
@@ -3466,7 +3781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22">
+    <row r="5" spans="1:11" ht="22">
       <c r="C5" s="30" t="s">
         <v>178</v>
       </c>
@@ -3486,11 +3801,11 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="68">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="66">
+    <row r="6" spans="1:11" ht="66">
       <c r="C6" s="30" t="s">
         <v>180</v>
       </c>
@@ -3510,9 +3825,9 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="I6" s="61"/>
-    </row>
-    <row r="7" spans="1:10" ht="44">
+      <c r="I6" s="68"/>
+    </row>
+    <row r="7" spans="1:11" ht="44">
       <c r="C7" s="30" t="s">
         <v>182</v>
       </c>
@@ -3532,9 +3847,9 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="I7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" ht="66">
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="1:11" ht="66">
       <c r="C8" s="30" t="s">
         <v>184</v>
       </c>
@@ -3558,7 +3873,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="22">
+    <row r="9" spans="1:11" ht="22">
       <c r="C9" s="30" t="s">
         <v>186</v>
       </c>
@@ -3582,7 +3897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="66">
+    <row r="10" spans="1:11" ht="66">
       <c r="C10" s="30" t="s">
         <v>193</v>
       </c>
@@ -3606,7 +3921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22">
+    <row r="11" spans="1:11" ht="22">
       <c r="C11" s="30" t="s">
         <v>202</v>
       </c>
@@ -3627,7 +3942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22">
+    <row r="12" spans="1:11" ht="22">
       <c r="C12" s="30" t="s">
         <v>203</v>
       </c>
@@ -3648,7 +3963,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="22">
+    <row r="13" spans="1:11" ht="22">
       <c r="C13" s="30" t="s">
         <v>204</v>
       </c>
@@ -3672,7 +3987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="22">
+    <row r="14" spans="1:11" ht="22">
       <c r="C14" s="30" t="s">
         <v>207</v>
       </c>
@@ -3696,7 +4011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="58" customFormat="1" ht="22">
+    <row r="15" spans="1:11" s="58" customFormat="1" ht="22">
       <c r="C15" s="58" t="s">
         <v>208</v>
       </c>
@@ -3720,7 +4035,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="44">
+    <row r="16" spans="1:11" ht="44">
       <c r="C16" s="30" t="s">
         <v>255</v>
       </c>
@@ -3814,10 +4129,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="44">
-      <c r="A21" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="65">
+      <c r="A21" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="69">
         <f>SUM(I21:I28)</f>
         <v>479</v>
       </c>
@@ -3844,13 +4159,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="44">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="30" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>235</v>
@@ -3869,8 +4184,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="44">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="30" t="s">
         <v>240</v>
       </c>
@@ -3894,8 +4209,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="44">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="30" t="s">
         <v>242</v>
       </c>
@@ -3919,8 +4234,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="44">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="30" t="s">
         <v>243</v>
       </c>
@@ -3941,8 +4256,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="44">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="30" t="s">
         <v>244</v>
       </c>
@@ -3963,8 +4278,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="44">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="30" t="s">
         <v>245</v>
       </c>
@@ -3985,8 +4300,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="48" t="s">
         <v>246</v>
       </c>
@@ -4010,24 +4325,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="44">
-      <c r="A29" s="64" t="s">
-        <v>365</v>
-      </c>
-      <c r="B29" s="67">
+      <c r="A29" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="70">
         <f>SUM(I29:I54)</f>
         <v>2021</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G29" s="30">
         <v>5</v>
@@ -4042,13 +4357,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="44">
-      <c r="A30" s="64"/>
-      <c r="B30" s="67"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>235</v>
@@ -4065,21 +4380,21 @@
         <v>77</v>
       </c>
       <c r="I30" s="58">
-        <f t="shared" ref="I30:I82" si="1">H30</f>
+        <f t="shared" ref="I30:I83" si="1">H30</f>
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="44">
-      <c r="A31" s="64"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F31" s="30">
         <v>7</v>
@@ -4097,16 +4412,16 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="44">
-      <c r="A32" s="64"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F32" s="30">
         <v>6</v>
@@ -4124,16 +4439,16 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="44">
-      <c r="A33" s="64"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F33" s="30">
         <v>5</v>
@@ -4150,21 +4465,21 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J33" s="71" t="s">
-        <v>410</v>
+      <c r="J33" s="66" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="44">
-      <c r="A34" s="64"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F34" s="30">
         <v>4.5</v>
@@ -4183,16 +4498,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="44">
-      <c r="A35" s="64"/>
-      <c r="B35" s="67"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F35" s="30">
         <v>4.5</v>
@@ -4210,16 +4525,16 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="44">
-      <c r="A36" s="64"/>
-      <c r="B36" s="67"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G36" s="30">
         <f>5+6</f>
@@ -4234,16 +4549,16 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="44">
-      <c r="A37" s="64"/>
-      <c r="B37" s="67"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F37" s="30">
         <v>115</v>
@@ -4261,19 +4576,19 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="44">
-      <c r="A38" s="64"/>
-      <c r="B38" s="67"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E38" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F38" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="G38" s="30">
         <f>18+1</f>
@@ -4289,16 +4604,16 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="44">
-      <c r="A39" s="64"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F39" s="30">
         <v>4</v>
@@ -4317,16 +4632,16 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="44">
-      <c r="A40" s="64"/>
-      <c r="B40" s="67"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F40" s="30">
         <v>3</v>
@@ -4344,20 +4659,20 @@
         <v>15</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="44">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F41" s="30">
         <v>4</v>
@@ -4376,16 +4691,16 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="44">
-      <c r="A42" s="64"/>
-      <c r="B42" s="67"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F42" s="30">
         <v>3</v>
@@ -4403,16 +4718,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="44">
-      <c r="A43" s="64"/>
-      <c r="B43" s="67"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F43" s="30">
         <v>18</v>
@@ -4430,16 +4745,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="44">
-      <c r="A44" s="64"/>
-      <c r="B44" s="67"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F44" s="30">
         <v>18</v>
@@ -4457,16 +4772,16 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="44">
-      <c r="A45" s="64"/>
-      <c r="B45" s="67"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F45" s="30">
         <v>40</v>
@@ -4484,13 +4799,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="44">
-      <c r="A46" s="64"/>
-      <c r="B46" s="67"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F46" s="30">
         <v>1</v>
@@ -4509,13 +4824,13 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="44">
-      <c r="A47" s="64"/>
-      <c r="B47" s="67"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F47" s="30">
         <v>12</v>
@@ -4533,16 +4848,16 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="44">
-      <c r="A48" s="64"/>
-      <c r="B48" s="67"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G48" s="30">
         <v>2</v>
@@ -4557,16 +4872,16 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="44">
-      <c r="A49" s="64"/>
-      <c r="B49" s="67"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G49" s="30">
         <f>13+8+3</f>
@@ -4582,16 +4897,16 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="44">
-      <c r="A50" s="64"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G50" s="30">
         <f>13-4</f>
@@ -4607,16 +4922,16 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="44">
-      <c r="A51" s="64"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G51" s="30">
         <v>1</v>
@@ -4631,16 +4946,16 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="44">
-      <c r="A52" s="64"/>
-      <c r="B52" s="67"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G52" s="30">
         <f>1+1</f>
@@ -4656,17 +4971,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="44">
-      <c r="A53" s="64"/>
-      <c r="B53" s="67"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F53" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>406</v>
-      </c>
       <c r="G53" s="30">
         <v>0</v>
       </c>
@@ -4678,13 +4993,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="44">
-      <c r="A54" s="64"/>
-      <c r="B54" s="67"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F54" s="30">
         <v>3</v>
@@ -4702,18 +5017,18 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="44">
-      <c r="A55" s="64" t="s">
-        <v>364</v>
-      </c>
-      <c r="B55" s="67">
+      <c r="A55" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" s="70">
         <f>SUM(I55:I64)</f>
         <v>78</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F55" s="30">
         <v>15</v>
@@ -4731,16 +5046,16 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="44">
-      <c r="A56" s="64"/>
-      <c r="B56" s="67"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G56" s="30">
         <v>0.2</v>
@@ -4754,13 +5069,13 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="44">
-      <c r="A57" s="64"/>
-      <c r="B57" s="67"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F57" s="30">
         <v>2</v>
@@ -4769,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="30">
-        <f t="shared" ref="H57:H81" si="4">F57*G57</f>
+        <f t="shared" ref="H57:H82" si="4">F57*G57</f>
         <v>2</v>
       </c>
       <c r="I57" s="58">
@@ -4778,13 +5093,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="44">
-      <c r="A58" s="64"/>
-      <c r="B58" s="67"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" s="30">
         <v>2</v>
@@ -4802,13 +5117,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="44">
-      <c r="A59" s="64"/>
-      <c r="B59" s="67"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F59" s="30">
         <v>2</v>
@@ -4827,10 +5142,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="44">
-      <c r="A60" s="64"/>
-      <c r="B60" s="67"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>235</v>
@@ -4851,16 +5166,16 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="44">
-      <c r="A61" s="64"/>
-      <c r="B61" s="67"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G61" s="30">
         <v>3</v>
@@ -4875,13 +5190,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="44">
-      <c r="A62" s="64"/>
-      <c r="B62" s="67"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F62" s="30">
         <v>2</v>
@@ -4899,16 +5214,16 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="44">
-      <c r="A63" s="64"/>
-      <c r="B63" s="67"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G63" s="30">
         <f>1-1</f>
@@ -4923,16 +5238,16 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="44">
-      <c r="A64" s="64"/>
-      <c r="B64" s="67"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G64" s="30">
         <v>1</v>
@@ -4945,647 +5260,944 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="44">
-      <c r="A65" s="67" t="s">
+    <row r="65" spans="1:9" ht="22">
+      <c r="A65" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" s="70">
+        <f>SUM(I65:I83)</f>
+        <v>2468.87</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="58">
+        <v>856.87</v>
+      </c>
+      <c r="I65" s="61">
+        <v>856.87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="44">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B65" s="67">
-        <f>SUM(I65:I82)</f>
-        <v>1612</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="G65" s="30">
+      <c r="F66" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G66" s="30">
         <v>3</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H66" s="30">
         <f>222*3</f>
         <v>666</v>
       </c>
-      <c r="I65" s="58">
+      <c r="I66" s="58">
         <f t="shared" si="1"/>
         <v>666</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="44">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="G66" s="30">
+    <row r="67" spans="1:9" ht="44">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="G67" s="30">
         <v>4</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H67" s="30">
         <f>145*4</f>
         <v>580</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I67" s="58">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="44">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="G67" s="30">
+    <row r="68" spans="1:9" ht="44">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="G68" s="30">
         <v>25</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H68" s="30">
         <f>75</f>
         <v>75</v>
       </c>
-      <c r="I67" s="58">
+      <c r="I68" s="58">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="44">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F68" s="30">
+    <row r="69" spans="1:9" ht="44">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F69" s="30">
         <v>0.4</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G69" s="30">
         <v>40</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H69" s="30">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I69" s="58">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="44">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F69" s="30">
+    <row r="70" spans="1:9" ht="44">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F70" s="30">
         <v>0.4</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G70" s="30">
         <f>150-90</f>
         <v>60</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H70" s="30">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I69" s="58">
+      <c r="I70" s="58">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="44">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F70" s="30">
+    <row r="71" spans="1:9" ht="44">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F71" s="30">
         <v>1</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G71" s="30">
         <f>30+10</f>
         <v>40</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H71" s="30">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I71" s="58">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="44">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F71" s="30">
+    <row r="72" spans="1:9" ht="44">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F72" s="30">
         <v>1</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G72" s="30">
         <v>50</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H72" s="30">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="I71" s="58">
+      <c r="I72" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="44">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F72" s="30">
+    <row r="73" spans="1:9" ht="44">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F73" s="30">
         <v>0.5</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G73" s="30">
         <v>10</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H73" s="30">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I72" s="58">
+      <c r="I73" s="58">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="44">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F73" s="30">
+    <row r="74" spans="1:9" ht="44">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" s="30">
         <v>15</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G74" s="30">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="H73" s="30">
+      <c r="H74" s="30">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I73" s="58">
+      <c r="I74" s="58">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="44">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F74" s="30">
+    <row r="75" spans="1:9" ht="44">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F75" s="30">
         <v>15</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G75" s="30">
         <v>2</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H75" s="30">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I74" s="58">
+      <c r="I75" s="58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="44">
-      <c r="A75" s="67"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F75" s="30">
+    <row r="76" spans="1:9" ht="44">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F76" s="30">
         <v>2</v>
       </c>
-      <c r="G75" s="30">
+      <c r="G76" s="30">
         <f>2-1</f>
         <v>1</v>
       </c>
-      <c r="H75" s="30">
+      <c r="H76" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I75" s="58">
+      <c r="I76" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="44">
-      <c r="A76" s="67"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="G76" s="30">
+    <row r="77" spans="1:9" ht="44">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="G77" s="30">
         <v>11</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H77" s="30">
         <v>10</v>
       </c>
-      <c r="I76" s="58">
+      <c r="I77" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="44">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F77" s="30">
+    <row r="78" spans="1:9" ht="44">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F78" s="30">
         <v>5</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G78" s="30">
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H78" s="30">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I77" s="58">
+      <c r="I78" s="58">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="44">
-      <c r="A78" s="67"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F78" s="30" t="s">
+    <row r="79" spans="1:9" ht="44">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="G78" s="30">
+      <c r="E79" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="G79" s="30">
         <v>35</v>
       </c>
-      <c r="H78" s="30">
+      <c r="H79" s="30">
         <v>9</v>
       </c>
-      <c r="I78" s="58">
+      <c r="I79" s="58">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="44">
-      <c r="A79" s="67"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="G79" s="30">
+    <row r="80" spans="1:9" ht="44">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="G80" s="30">
         <v>10</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H80" s="30">
         <f>1*10</f>
         <v>10</v>
       </c>
-      <c r="I79" s="58">
+      <c r="I80" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="44">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F80" s="30">
+    <row r="81" spans="1:10" ht="44">
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F81" s="30">
         <v>5</v>
       </c>
-      <c r="G80" s="30">
+      <c r="G81" s="30">
         <v>4</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H81" s="30">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I80" s="58">
+      <c r="I81" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="44">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="30" t="s">
+    <row r="82" spans="1:10" ht="44">
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="F82" s="30">
+        <v>0</v>
+      </c>
+      <c r="G82" s="30">
+        <v>1</v>
+      </c>
+      <c r="H82" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="48" customFormat="1" ht="44">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F81" s="30">
-        <v>0</v>
-      </c>
-      <c r="G81" s="30">
-        <v>1</v>
-      </c>
-      <c r="H81" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="E82" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="F82" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="G82" s="48">
+      <c r="E83" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F83" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G83" s="48">
         <v>4</v>
       </c>
-      <c r="H82" s="48">
+      <c r="H83" s="48">
         <f>5*4</f>
         <v>20</v>
       </c>
-      <c r="I82" s="48">
+      <c r="I83" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="58" customFormat="1" ht="110">
-      <c r="A83" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="B83" s="65">
-        <f>SUM(I83:I90)</f>
-        <v>988</v>
-      </c>
-      <c r="C83" s="58" t="s">
+    <row r="84" spans="1:10" s="58" customFormat="1" ht="110">
+      <c r="A84" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" s="70">
+        <f>SUM(I86:I104)+SUM(I84)+6650</f>
+        <v>9586.6</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="H84" s="58">
+        <f>23+27+13+20+12+18+20</f>
+        <v>133</v>
+      </c>
+      <c r="I84" s="58">
+        <f>H84</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="61" customFormat="1" ht="308">
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85" s="75">
+        <v>1688</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="I85" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="61" customFormat="1" ht="88">
+      <c r="A86" s="70"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="D86" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="E86" s="75">
+        <v>1688</v>
+      </c>
+      <c r="G86" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="H86" s="61">
+        <v>3.6</v>
+      </c>
+      <c r="I86" s="61">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="61" customFormat="1" ht="88">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E87" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="G87" s="61">
+        <v>1</v>
+      </c>
+      <c r="H87" s="61">
+        <v>200</v>
+      </c>
+      <c r="I87" s="61">
+        <v>200</v>
+      </c>
+      <c r="J87" s="61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="61" customFormat="1" ht="44">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="E88" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="F88" s="61">
+        <v>5</v>
+      </c>
+      <c r="G88" s="61">
+        <v>1</v>
+      </c>
+      <c r="H88" s="61">
+        <v>5</v>
+      </c>
+      <c r="I88" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="61" customFormat="1" ht="22">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="E89" s="75"/>
+    </row>
+    <row r="90" spans="1:10" s="61" customFormat="1" ht="22">
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="E90" s="75"/>
+    </row>
+    <row r="91" spans="1:10" s="61" customFormat="1" ht="44">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="E91" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="61">
+        <v>25</v>
+      </c>
+      <c r="G91" s="61">
+        <v>3</v>
+      </c>
+      <c r="H91" s="61">
+        <v>75</v>
+      </c>
+      <c r="I91" s="61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="61" customFormat="1" ht="66">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="E83" s="58" t="s">
+      <c r="E92" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="F92" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="F83" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="H83" s="58">
-        <f>23+27+13+20+12+18</f>
-        <v>113</v>
-      </c>
-      <c r="I83" s="58">
-        <f>H83</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="44">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="G92" s="61">
+        <v>2</v>
+      </c>
+      <c r="H92" s="61">
+        <v>24</v>
+      </c>
+      <c r="I92" s="61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="44">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F93" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E84" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="G84" s="30">
+      <c r="G93" s="30">
         <v>1</v>
       </c>
-      <c r="H84" s="30">
+      <c r="H93" s="30">
         <v>80</v>
       </c>
-      <c r="I84" s="58">
+      <c r="I93" s="58">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="44">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="30" t="s">
+    <row r="94" spans="1:10" ht="44">
+      <c r="A94" s="70"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D94" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="G94" s="30">
+        <v>10</v>
+      </c>
+      <c r="H94" s="30">
+        <v>265</v>
+      </c>
+      <c r="I94" s="58">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="44">
+      <c r="A95" s="70"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="G95" s="30">
+        <v>20</v>
+      </c>
+      <c r="H95" s="30">
+        <v>520</v>
+      </c>
+      <c r="I95" s="61">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="44">
+      <c r="A96" s="70"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F96" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="G85" s="30">
+      <c r="G96" s="30">
+        <v>20</v>
+      </c>
+      <c r="H96" s="30">
+        <v>110</v>
+      </c>
+      <c r="I96" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="44">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G97" s="30">
+        <v>120</v>
+      </c>
+      <c r="H97" s="30">
+        <v>600</v>
+      </c>
+      <c r="I97" s="61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="44">
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G98" s="30">
+        <v>50</v>
+      </c>
+      <c r="H98" s="30">
+        <v>50</v>
+      </c>
+      <c r="I98" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="44">
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="G99" s="30">
+        <v>20</v>
+      </c>
+      <c r="H99" s="30">
+        <v>12</v>
+      </c>
+      <c r="I99" s="61">
         <v>10</v>
       </c>
-      <c r="H85" s="30">
-        <v>265</v>
-      </c>
-      <c r="I85" s="58">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="44">
-      <c r="A86" s="67"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="30" t="s">
+    </row>
+    <row r="100" spans="1:9" ht="44">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E100" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F86" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G86" s="30">
-        <v>20</v>
-      </c>
-      <c r="H86" s="30">
-        <v>110</v>
-      </c>
-      <c r="I86" s="58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="44">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E87" s="30" t="s">
+      <c r="F100" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G100" s="30">
+        <v>60</v>
+      </c>
+      <c r="H100" s="30">
+        <v>300</v>
+      </c>
+      <c r="I100" s="58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="44">
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E101" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F87" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G87" s="30">
-        <v>50</v>
-      </c>
-      <c r="H87" s="30">
-        <v>50</v>
-      </c>
-      <c r="I87" s="58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="44">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="30" t="s">
+      <c r="F101" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G101" s="30">
+        <v>4</v>
+      </c>
+      <c r="H101" s="30">
+        <v>140</v>
+      </c>
+      <c r="I101" s="58">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="61" customFormat="1" ht="44">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="D88" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="E88" s="30" t="s">
+      <c r="E102" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="F88" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="G88" s="30">
-        <v>60</v>
-      </c>
-      <c r="H88" s="30">
-        <v>300</v>
-      </c>
-      <c r="I88" s="58">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="67"/>
-      <c r="B89" s="67"/>
-      <c r="I89" s="58"/>
-    </row>
-    <row r="90" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="48" t="s">
+      <c r="F102" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="D90" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F90" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="G90" s="48">
+      <c r="G102" s="61">
         <v>5</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H102" s="61">
         <v>70</v>
       </c>
-      <c r="I90" s="48">
+      <c r="I102" s="61">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="58" customFormat="1">
-      <c r="A91" s="66"/>
-      <c r="B91" s="66"/>
+    <row r="103" spans="1:9" s="61" customFormat="1" ht="22">
+      <c r="A103" s="70"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="D103" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="E103" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H103" s="61">
+        <v>356</v>
+      </c>
+      <c r="I103" s="61">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="58" customFormat="1">
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+    </row>
+    <row r="105" spans="1:9" ht="22">
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="30" t="s">
+        <v>472</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="A84:A105"/>
+    <mergeCell ref="B84:B105"/>
+    <mergeCell ref="B65:B83"/>
+    <mergeCell ref="A65:A83"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B29:B54"/>
     <mergeCell ref="A29:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A65:A82"/>
-    <mergeCell ref="B65:B82"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="A83:A90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5596,9 +6208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -6673,10 +7285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7191D9C8-28F9-4B4B-848D-0A0BF1EBDEF6}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -6696,14 +7308,14 @@
         <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -6711,18 +7323,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="63"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="C5" s="9">
         <v>13942626713</v>
@@ -6733,7 +7345,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="9">
         <v>15140436656</v>
@@ -6741,16 +7353,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="C7" s="9">
         <v>13840916589</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="9">
+        <v>13604281790</v>
       </c>
     </row>
   </sheetData>
@@ -6768,12 +7391,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -6781,7 +7404,7 @@
     <col min="1" max="1" width="18.83203125" style="5"/>
     <col min="2" max="2" width="18.83203125" style="4"/>
     <col min="3" max="6" width="18.83203125" style="5"/>
-    <col min="7" max="7" width="18.83203125" style="69"/>
+    <col min="7" max="7" width="18.83203125" style="64"/>
     <col min="8" max="8" width="25.83203125" style="5" customWidth="1"/>
     <col min="9" max="16384" width="18.83203125" style="5"/>
   </cols>
@@ -6805,7 +7428,7 @@
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -6832,7 +7455,7 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="64">
         <f>SUM(B2:F2)</f>
         <v>148.5</v>
       </c>
@@ -6856,7 +7479,7 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="64">
         <f t="shared" ref="G3:G42" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
@@ -6883,7 +7506,7 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -6907,7 +7530,7 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="64">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -6931,7 +7554,7 @@
       <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="64">
         <f t="shared" si="0"/>
         <v>113.4</v>
       </c>
@@ -6955,7 +7578,7 @@
       <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -6982,7 +7605,7 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7006,7 +7629,7 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="64">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -7030,7 +7653,7 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="64">
         <f t="shared" si="0"/>
         <v>90.28</v>
       </c>
@@ -7054,7 +7677,7 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="64">
         <f t="shared" si="0"/>
         <v>61.6</v>
       </c>
@@ -7078,7 +7701,7 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="64">
         <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
@@ -7102,7 +7725,7 @@
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7126,7 +7749,7 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="64">
         <f t="shared" si="0"/>
         <v>105.2</v>
       </c>
@@ -7153,7 +7776,7 @@
       <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="64">
         <f t="shared" si="0"/>
         <v>66.099999999999994</v>
       </c>
@@ -7177,7 +7800,7 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7201,7 +7824,7 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="64">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -7225,7 +7848,7 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="64">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -7249,7 +7872,7 @@
       <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="64">
         <f t="shared" si="0"/>
         <v>92.2</v>
       </c>
@@ -7273,7 +7896,7 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="64">
         <f t="shared" si="0"/>
         <v>148.30000000000001</v>
       </c>
@@ -7297,7 +7920,7 @@
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="69">
+      <c r="G21" s="64">
         <f t="shared" si="0"/>
         <v>137.15</v>
       </c>
@@ -7321,7 +7944,7 @@
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7345,7 +7968,7 @@
       <c r="F23" s="5">
         <v>0</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="64">
         <f t="shared" si="0"/>
         <v>96.3</v>
       </c>
@@ -7372,7 +7995,7 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7396,7 +8019,7 @@
       <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="64">
         <f t="shared" si="0"/>
         <v>267.2</v>
       </c>
@@ -7424,7 +8047,7 @@
       <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="64">
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
@@ -7449,7 +8072,7 @@
       <c r="F27" s="5">
         <v>24</v>
       </c>
-      <c r="G27" s="69">
+      <c r="G27" s="64">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
@@ -7476,7 +8099,7 @@
       <c r="F28" s="5">
         <v>10.9</v>
       </c>
-      <c r="G28" s="69">
+      <c r="G28" s="64">
         <f t="shared" si="0"/>
         <v>10.9</v>
       </c>
@@ -7505,7 +8128,7 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="64">
         <f t="shared" si="0"/>
         <v>112.72</v>
       </c>
@@ -7531,7 +8154,7 @@
       <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="69">
+      <c r="G30" s="64">
         <f t="shared" si="0"/>
         <v>101.7</v>
       </c>
@@ -7557,7 +8180,7 @@
       <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="69">
+      <c r="G31" s="64">
         <f t="shared" si="0"/>
         <v>86.6</v>
       </c>
@@ -7581,7 +8204,7 @@
       <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7608,7 +8231,7 @@
       <c r="F33" s="5">
         <v>30</v>
       </c>
-      <c r="G33" s="69">
+      <c r="G33" s="64">
         <f t="shared" si="0"/>
         <v>155.4</v>
       </c>
@@ -7637,7 +8260,7 @@
       <c r="F34" s="5">
         <v>0</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G34" s="64">
         <f t="shared" si="0"/>
         <v>52.209999999999994</v>
       </c>
@@ -7663,7 +8286,7 @@
       <c r="F35" s="5">
         <v>0</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="64">
         <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
@@ -7690,7 +8313,7 @@
         <f>18.4+269</f>
         <v>287.39999999999998</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="64">
         <f t="shared" si="0"/>
         <v>337.4</v>
       </c>
@@ -7717,7 +8340,7 @@
       <c r="F37" s="5">
         <v>10</v>
       </c>
-      <c r="G37" s="69">
+      <c r="G37" s="64">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -7745,7 +8368,7 @@
       <c r="F38" s="5">
         <v>0</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="64">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -7771,7 +8394,7 @@
       <c r="F39" s="5">
         <v>15</v>
       </c>
-      <c r="G39" s="69">
+      <c r="G39" s="64">
         <f t="shared" si="0"/>
         <v>147.39999999999998</v>
       </c>
@@ -7800,7 +8423,7 @@
       <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="69">
+      <c r="G40" s="64">
         <f t="shared" si="0"/>
         <v>152.13</v>
       </c>
@@ -7826,7 +8449,7 @@
       <c r="F41" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="69">
+      <c r="G41" s="64">
         <f t="shared" si="0"/>
         <v>93.4</v>
       </c>
@@ -7850,7 +8473,7 @@
       <c r="F42" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="69">
+      <c r="G42" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7874,7 +8497,7 @@
       <c r="F43" s="5">
         <v>195</v>
       </c>
-      <c r="G43" s="69">
+      <c r="G43" s="64">
         <f>SUM(B43:F43)</f>
         <v>195</v>
       </c>
@@ -7903,8 +8526,8 @@
         <f>50+15+118</f>
         <v>183</v>
       </c>
-      <c r="G44" s="69">
-        <f t="shared" ref="G44:G54" si="1">SUM(B44:F44)</f>
+      <c r="G44" s="64">
+        <f t="shared" ref="G44:G68" si="1">SUM(B44:F44)</f>
         <v>242.9</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -7929,7 +8552,7 @@
         <f>57+16.9</f>
         <v>73.900000000000006</v>
       </c>
-      <c r="G45" s="69">
+      <c r="G45" s="64">
         <f t="shared" si="1"/>
         <v>153.19999999999999</v>
       </c>
@@ -7955,7 +8578,7 @@
       <c r="F46" s="5">
         <v>0</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="64">
         <f t="shared" si="1"/>
         <v>172.64000000000001</v>
       </c>
@@ -7979,7 +8602,7 @@
       <c r="F47" s="5">
         <v>0</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8005,7 +8628,7 @@
       <c r="F48" s="5">
         <v>0</v>
       </c>
-      <c r="G48" s="69">
+      <c r="G48" s="64">
         <f t="shared" si="1"/>
         <v>157.61000000000001</v>
       </c>
@@ -8031,7 +8654,7 @@
       <c r="F49" s="5">
         <v>0</v>
       </c>
-      <c r="G49" s="69">
+      <c r="G49" s="64">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -8057,12 +8680,12 @@
         <f>42+23.3+698</f>
         <v>763.3</v>
       </c>
-      <c r="G50" s="69">
+      <c r="G50" s="64">
         <f t="shared" si="1"/>
         <v>787.59999999999991</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8085,7 +8708,7 @@
       <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G51" s="69">
+      <c r="G51" s="64">
         <f t="shared" si="1"/>
         <v>36.9</v>
       </c>
@@ -8110,7 +8733,7 @@
       <c r="F52" s="5">
         <v>0</v>
       </c>
-      <c r="G52" s="69">
+      <c r="G52" s="64">
         <f>SUM(B52:F52)</f>
         <v>53.7</v>
       </c>
@@ -8136,7 +8759,7 @@
       <c r="F53" s="5">
         <v>0</v>
       </c>
-      <c r="G53" s="69">
+      <c r="G53" s="64">
         <f t="shared" si="1"/>
         <v>155.9</v>
       </c>
@@ -8161,60 +8784,439 @@
       <c r="F54" s="5">
         <v>0</v>
       </c>
-      <c r="G54" s="69">
+      <c r="G54" s="64">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <f>23.4</f>
+        <v>23.4</v>
+      </c>
+      <c r="E55" s="5">
+        <f>58.5</f>
+        <v>58.5</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="64">
+        <f t="shared" si="1"/>
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22">
+      <c r="A56" s="3">
+        <v>44211</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <f>44.6+18.4</f>
+        <v>63</v>
+      </c>
+      <c r="E56" s="5">
+        <f>11+52.5</f>
+        <v>63.5</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="64">
+        <f t="shared" si="1"/>
+        <v>126.5</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="22">
+      <c r="A57" s="3">
+        <v>44212</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>30</v>
+      </c>
+      <c r="G57" s="64">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="44">
+      <c r="A58" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <f>41.2</f>
+        <v>41.2</v>
+      </c>
+      <c r="E58" s="5">
+        <f>10+50.5</f>
+        <v>60.5</v>
+      </c>
+      <c r="F58" s="5">
+        <v>13</v>
+      </c>
+      <c r="G58" s="64">
+        <f t="shared" si="1"/>
+        <v>114.7</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3">
+        <v>44214</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <f>41.51+17.8</f>
+        <v>59.31</v>
+      </c>
+      <c r="E59" s="5">
+        <f>37+70</f>
+        <v>107</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="64">
+        <f t="shared" si="1"/>
+        <v>166.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="44">
+      <c r="A60" s="3">
+        <v>44215</v>
+      </c>
+      <c r="B60" s="4">
+        <v>100</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <f>32.5</f>
+        <v>32.5</v>
+      </c>
+      <c r="E60" s="5">
+        <f>49.5</f>
+        <v>49.5</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="64">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3">
+        <v>44216</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="44">
+      <c r="A62" s="3">
+        <v>44217</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f>47.1</f>
+        <v>47.1</v>
+      </c>
+      <c r="E62" s="5">
+        <f>32</f>
+        <v>32</v>
+      </c>
+      <c r="F62" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="G62" s="64">
+        <f t="shared" si="1"/>
+        <v>100.89999999999999</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>44218</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="44">
+      <c r="A64" s="3">
+        <v>44219</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f>40+44.6</f>
+        <v>84.6</v>
+      </c>
+      <c r="E64" s="5">
+        <f>18+35.9</f>
+        <v>53.9</v>
+      </c>
+      <c r="F64" s="5">
+        <f>24.51+25.5</f>
+        <v>50.010000000000005</v>
+      </c>
+      <c r="G64" s="64">
+        <f t="shared" si="1"/>
+        <v>188.51</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3">
+        <v>44220</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3">
+        <v>44221</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="44">
+      <c r="A67" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>14</v>
+      </c>
+      <c r="D67" s="5">
+        <f>40.9+23.9</f>
+        <v>64.8</v>
+      </c>
+      <c r="E67" s="5">
+        <f>2+68</f>
+        <v>70</v>
+      </c>
+      <c r="F67" s="5">
+        <v>4</v>
+      </c>
+      <c r="G67" s="64">
+        <f t="shared" si="1"/>
+        <v>152.80000000000001</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="22">
+      <c r="A68" s="3">
+        <v>44223</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <f>17.6+39.51</f>
+        <v>57.11</v>
+      </c>
+      <c r="E68" s="5">
+        <f>38+42+15.6</f>
+        <v>95.6</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="64">
+        <f t="shared" si="1"/>
+        <v>152.70999999999998</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="7">
-        <f>SUM(B2:B54)</f>
+      <c r="B69" s="7">
+        <f t="shared" ref="B69:G69" si="2">SUM(B2:B54)</f>
         <v>220</v>
       </c>
-      <c r="C55" s="7">
-        <f>SUM(C2:C54)</f>
+      <c r="C69" s="7">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="D55" s="7">
-        <f>SUM(D2:D54)</f>
+      <c r="D69" s="7">
+        <f t="shared" si="2"/>
         <v>1778.8400000000004</v>
       </c>
-      <c r="E55" s="7">
-        <f>SUM(E2:E54)</f>
+      <c r="E69" s="7">
+        <f t="shared" si="2"/>
         <v>2087.7000000000003</v>
       </c>
-      <c r="F55" s="7">
-        <f>SUM(F2:F54)</f>
+      <c r="F69" s="7">
+        <f t="shared" si="2"/>
         <v>1524.6</v>
       </c>
-      <c r="G55" s="70">
-        <f>SUM(G2:G54)</f>
-        <v>5669.14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3"/>
+      <c r="G69" s="65">
+        <f>SUM(G2:G68)</f>
+        <v>6965.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8224,11 +9226,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -8411,7 +9413,7 @@
         <v>221</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>222</v>
@@ -8488,7 +9490,7 @@
         <v>294</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D12" s="25">
         <v>20.5</v>
@@ -8496,16 +9498,39 @@
       <c r="E12" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F12" s="73" t="s">
-        <v>413</v>
+      <c r="F12" s="67" t="s">
+        <v>411</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22">
       <c r="A13" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="62" customFormat="1" ht="88">
+      <c r="B14" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="22">
+      <c r="B15" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -8520,7 +9545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="21"/>
@@ -8585,7 +9610,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="66">
+    <row r="5" spans="1:10" ht="44">
       <c r="A5" s="27" t="s">
         <v>261</v>
       </c>
@@ -8596,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>301</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="66">

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7747C8F3-F181-784D-B2CF-E16CD4780EC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEE209-E2AB-8444-9181-068B6A56C9F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="17540" activeTab="5" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="504">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1179,10 +1179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>便携免洗洗手液+前置滤水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>①飘窗窗台正下方加2cm厚保温板，以胶钉固定，再加胶泥挂网抹平    ②南次卧阳台右侧顶待胶泥干透后补两个胶钉  ③南次卧阳台剩下墙面师傅建议在刮大白的时候直接用石膏挂网抹平，建议咨询大白师傅 ④餐厅阳台剩下有保温棉的墙面挂网胶泥抹平，之后和其它墙面一起其它部分以水泥砂浆抹平    ⑤未用防水专用水泥，后续靠窗部分均需要做防水涂层⑥师傅门洞没有砌平砌垂直，需要再来修补</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,10 +1208,6 @@
   </si>
   <si>
     <t>房本工本费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给崔涛大概1月25号可以问下进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,10 +1327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>砌墙师傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,10 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80一卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买菜、炒板栗、fresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1444,10 +1428,6 @@
   </si>
   <si>
     <t>14/袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包管找坡防水贴砖找平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1876,10 +1856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厨卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓷砖样品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2000,26 +1976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金500（以退还）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥沙子上料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖上料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/26，10：20-11：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闭水试验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2044,18 +2000,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始做防水，给瓦工孙女买了一杯奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙子水泥上料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/01/15，10：00-11：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2068,10 +2016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地漏, 止逆阀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置上门费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2080,55 +2024,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工费200/个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工费600/个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间防水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间下水包管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房卫生间贴瓷砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工费50/平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客餐厅卧室走廊地面找平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工费25/平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挡水条/过门石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瓷砖美缝剂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环氧彩砂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>料量按散工要求购买4170(=4015-15(抹零)+45+60+50+15)，余料退货退款497，实际用料总费用 3673(=4170-497) , 空开856.87，水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金500（已退还）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月25号农行春柳支行提交材料和工本费；2月4号农行周水子支行提交取房本申请；2月9号农行周水子支行取房本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携免洗洗手液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买一瓶洗洁精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦工结束后打扫卫生，买襄阳牛杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦工结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买两袋牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﹣130=(沙子退货﹣200元+搬运费70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线盒盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取挡水条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买化妆棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山0.1克高精准电子秤厨房秤EK813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-电子秤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-海绵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车擦车海绵块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取环氧彩砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马贝环氧彩砂，5kg装，131：120调色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡水条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯黑色人造石U型非实心1.68m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间防水：第一层墙面直接涂稀释好的劳亚尔防水剂，第二层胶粉兑水泥砂浆贴防水布，第三层水泥砂浆保护层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3（一个湿区，两个干区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间下水包管：隔音棉和透明胶带包管，然后用红砖水泥包平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5/块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房卫生间贴瓷砖：厨房不用墙地对缝，卫生间三面墙地对缝，厨卫窗户不做倒角和阳角条直接拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅卧室走廊地面找平：地面使用胶粉兑水浇湿，水泥砂浆找高度约2~3厘米（预留1.6cm的地板厚度），表面撒水泥抹光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工+业主（涂瓷砖背胶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工+业主（隔音棉包管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-刮刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-刮板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-勾缝刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需退两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料费12071.77+人工费7342.5（包一个管200人工费*2+一个卫生间防水600人工费*2+贴瓷砖50一平*76.7平+地面找平25一平*77.7平-抹零35）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包管找坡防水贴砖找平美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙*学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13604281790，辽B D23B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完活日当天结束支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始做包管防水，给瓦工孙女买了一杯奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/17，08：00-17：00      2021/01/18，08：00-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴厨卫瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/26，10：20-11：00（上料）                                     2021/01/27-2021/02/01，07：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束贴砖，水泥沙子上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/02/03-2021/02/04，07：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥砂浆红砖包管和防水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2359,7 +2467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2567,16 +2675,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2585,10 +2708,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3363,10 +3483,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -3518,7 +3638,7 @@
         <v>251</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3531,7 +3651,7 @@
         <v>931</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I5" s="5">
         <v>931</v>
@@ -3545,13 +3665,13 @@
         <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3563,83 +3683,107 @@
         <f>3673+856.87+3500+440+20</f>
         <v>8489.869999999999</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="I6" s="5">
         <v>8489.8700000000008</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="22">
-      <c r="A7" s="5" t="s">
-        <v>443</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="154" customHeight="1">
+      <c r="A7" s="72" t="s">
+        <v>437</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>464</v>
+        <v>477</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
-        <v>400</v>
-      </c>
-      <c r="I7" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="22">
+      <c r="G7" s="72">
+        <f>12071.77+7342.5</f>
+        <v>19414.27</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>494</v>
+      </c>
+      <c r="I7" s="72">
+        <f>G7</f>
+        <v>19414.27</v>
+      </c>
+      <c r="J7" s="72"/>
+    </row>
+    <row r="8" spans="1:10" ht="88">
+      <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>465</v>
+        <v>473</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="71" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="22">
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="1:10" ht="88">
+      <c r="A9" s="72"/>
       <c r="B9" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>469</v>
+        <v>482</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="71" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="5">
         <v>76.7</v>
       </c>
-      <c r="G9" s="5">
-        <v>3835</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="22">
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" ht="88">
+      <c r="A10" s="80"/>
       <c r="B10" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>471</v>
+        <v>483</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="71" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="5">
         <v>77.7</v>
       </c>
-      <c r="G10" s="5">
-        <v>1942.5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1942.5</v>
-      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" ht="22">
       <c r="A11" s="17" t="s">
@@ -3647,10 +3791,18 @@
       </c>
       <c r="I11" s="17">
         <f>SUM(I2:I10)</f>
-        <v>21593.370000000003</v>
+        <v>33665.14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="J7:J10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3658,11 +3810,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -3676,10 +3828,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>313</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>316</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>34</v>
@@ -3706,12 +3858,12 @@
         <v>144</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22">
       <c r="A2" s="30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>134</v>
@@ -3801,7 +3953,7 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="75">
         <v>412</v>
       </c>
     </row>
@@ -3825,7 +3977,7 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="44">
       <c r="C7" s="30" t="s">
@@ -3847,7 +3999,7 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="66">
       <c r="C8" s="30" t="s">
@@ -4100,7 +4252,7 @@
     </row>
     <row r="19" spans="1:9" s="48" customFormat="1" ht="44">
       <c r="C19" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>235</v>
@@ -4129,10 +4281,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="44">
-      <c r="A21" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="69">
+      <c r="A21" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="76">
         <f>SUM(I21:I28)</f>
         <v>479</v>
       </c>
@@ -4159,13 +4311,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="44">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="30" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>235</v>
@@ -4184,8 +4336,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="44">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="30" t="s">
         <v>240</v>
       </c>
@@ -4209,8 +4361,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="44">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="30" t="s">
         <v>242</v>
       </c>
@@ -4234,8 +4386,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="44">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="30" t="s">
         <v>243</v>
       </c>
@@ -4256,8 +4408,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="44">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="30" t="s">
         <v>244</v>
       </c>
@@ -4278,8 +4430,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="44">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="30" t="s">
         <v>245</v>
       </c>
@@ -4300,8 +4452,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="48" t="s">
         <v>246</v>
       </c>
@@ -4325,24 +4477,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="44">
-      <c r="A29" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="70">
+      <c r="A29" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" s="74">
         <f>SUM(I29:I54)</f>
         <v>2021</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G29" s="30">
         <v>5</v>
@@ -4357,13 +4509,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="44">
-      <c r="A30" s="72"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="30" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>235</v>
@@ -4385,16 +4537,16 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="44">
-      <c r="A31" s="72"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="30" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F31" s="30">
         <v>7</v>
@@ -4412,16 +4564,16 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="44">
-      <c r="A32" s="72"/>
-      <c r="B32" s="70"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F32" s="30">
         <v>6</v>
@@ -4439,16 +4591,16 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="44">
-      <c r="A33" s="72"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F33" s="30">
         <v>5</v>
@@ -4466,20 +4618,20 @@
         <v>-5</v>
       </c>
       <c r="J33" s="66" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="44">
-      <c r="A34" s="72"/>
-      <c r="B34" s="70"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F34" s="30">
         <v>4.5</v>
@@ -4498,16 +4650,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="44">
-      <c r="A35" s="72"/>
-      <c r="B35" s="70"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="30" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F35" s="30">
         <v>4.5</v>
@@ -4525,16 +4677,16 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="44">
-      <c r="A36" s="72"/>
-      <c r="B36" s="70"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="30" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G36" s="30">
         <f>5+6</f>
@@ -4549,16 +4701,16 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="44">
-      <c r="A37" s="72"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="30" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F37" s="30">
         <v>115</v>
@@ -4576,19 +4728,19 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="44">
-      <c r="A38" s="72"/>
-      <c r="B38" s="70"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="30" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G38" s="30">
         <f>18+1</f>
@@ -4604,16 +4756,16 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="44">
-      <c r="A39" s="72"/>
-      <c r="B39" s="70"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="30" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F39" s="30">
         <v>4</v>
@@ -4632,16 +4784,16 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="44">
-      <c r="A40" s="72"/>
-      <c r="B40" s="70"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="30" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F40" s="30">
         <v>3</v>
@@ -4659,20 +4811,20 @@
         <v>15</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="44">
-      <c r="A41" s="72"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="30" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F41" s="30">
         <v>4</v>
@@ -4691,16 +4843,16 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="44">
-      <c r="A42" s="72"/>
-      <c r="B42" s="70"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="30" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F42" s="30">
         <v>3</v>
@@ -4718,16 +4870,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="44">
-      <c r="A43" s="72"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="30" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F43" s="30">
         <v>18</v>
@@ -4745,16 +4897,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="44">
-      <c r="A44" s="72"/>
-      <c r="B44" s="70"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="30" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F44" s="30">
         <v>18</v>
@@ -4772,16 +4924,16 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="44">
-      <c r="A45" s="72"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F45" s="30">
         <v>40</v>
@@ -4799,13 +4951,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="44">
-      <c r="A46" s="72"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="30" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F46" s="30">
         <v>1</v>
@@ -4824,13 +4976,13 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="44">
-      <c r="A47" s="72"/>
-      <c r="B47" s="70"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="30" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F47" s="30">
         <v>12</v>
@@ -4848,16 +5000,16 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="44">
-      <c r="A48" s="72"/>
-      <c r="B48" s="70"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="30" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G48" s="30">
         <v>2</v>
@@ -4872,16 +5024,16 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="44">
-      <c r="A49" s="72"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="30" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G49" s="30">
         <f>13+8+3</f>
@@ -4897,16 +5049,16 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="44">
-      <c r="A50" s="72"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="30" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G50" s="30">
         <f>13-4</f>
@@ -4922,16 +5074,16 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="44">
-      <c r="A51" s="72"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="30" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G51" s="30">
         <v>1</v>
@@ -4946,16 +5098,16 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="44">
-      <c r="A52" s="72"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="30" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E52" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" s="30" t="s">
         <v>383</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>388</v>
       </c>
       <c r="G52" s="30">
         <f>1+1</f>
@@ -4971,16 +5123,16 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="44">
-      <c r="A53" s="72"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="30" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G53" s="30">
         <v>0</v>
@@ -4993,13 +5145,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="44">
-      <c r="A54" s="72"/>
-      <c r="B54" s="70"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="30" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F54" s="30">
         <v>3</v>
@@ -5017,18 +5169,18 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="44">
-      <c r="A55" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="B55" s="70">
+      <c r="A55" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55" s="74">
         <f>SUM(I55:I64)</f>
         <v>78</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F55" s="30">
         <v>15</v>
@@ -5046,16 +5198,16 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="44">
-      <c r="A56" s="72"/>
-      <c r="B56" s="70"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="30" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G56" s="30">
         <v>0.2</v>
@@ -5069,13 +5221,13 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="44">
-      <c r="A57" s="72"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="30" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F57" s="30">
         <v>2</v>
@@ -5093,13 +5245,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="44">
-      <c r="A58" s="72"/>
-      <c r="B58" s="70"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="30" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F58" s="30">
         <v>2</v>
@@ -5117,13 +5269,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="44">
-      <c r="A59" s="72"/>
-      <c r="B59" s="70"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="74"/>
       <c r="C59" s="30" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F59" s="30">
         <v>2</v>
@@ -5142,10 +5294,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="44">
-      <c r="A60" s="72"/>
-      <c r="B60" s="70"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="30" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>235</v>
@@ -5166,16 +5318,16 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="44">
-      <c r="A61" s="72"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="30" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G61" s="30">
         <v>3</v>
@@ -5190,13 +5342,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="44">
-      <c r="A62" s="72"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="30" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F62" s="30">
         <v>2</v>
@@ -5214,16 +5366,16 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="44">
-      <c r="A63" s="72"/>
-      <c r="B63" s="70"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="30" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G63" s="30">
         <f>1-1</f>
@@ -5238,16 +5390,16 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="44">
-      <c r="A64" s="72"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="30" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G64" s="30">
         <v>1</v>
@@ -5261,18 +5413,18 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="22">
-      <c r="A65" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="B65" s="70">
+      <c r="A65" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="B65" s="74">
         <f>SUM(I65:I83)</f>
         <v>2468.87</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>136</v>
@@ -5285,16 +5437,16 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="44">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="30" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G66" s="30">
         <v>3</v>
@@ -5309,16 +5461,16 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="44">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="30" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G67" s="30">
         <v>4</v>
@@ -5333,16 +5485,16 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="44">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="30" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G68" s="30">
         <v>25</v>
@@ -5357,13 +5509,13 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="44">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
       <c r="C69" s="30" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F69" s="30">
         <v>0.4</v>
@@ -5381,13 +5533,13 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="44">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="30" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F70" s="30">
         <v>0.4</v>
@@ -5406,13 +5558,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="44">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="30" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F71" s="30">
         <v>1</v>
@@ -5431,13 +5583,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="44">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="30" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F72" s="30">
         <v>1</v>
@@ -5455,13 +5607,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="44">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="30" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F73" s="30">
         <v>0.5</v>
@@ -5479,13 +5631,13 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="44">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="30" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F74" s="30">
         <v>15</v>
@@ -5504,13 +5656,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="44">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="30" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F75" s="30">
         <v>15</v>
@@ -5528,13 +5680,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="44">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="30" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F76" s="30">
         <v>2</v>
@@ -5553,16 +5705,16 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="44">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="30" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G77" s="30">
         <v>11</v>
@@ -5576,13 +5728,13 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="44">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="30" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F78" s="30">
         <v>5</v>
@@ -5601,19 +5753,19 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="44">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
+      <c r="A79" s="74"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="E79" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="D79" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>383</v>
-      </c>
       <c r="F79" s="30" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G79" s="30">
         <v>35</v>
@@ -5627,16 +5779,16 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="44">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
+      <c r="A80" s="74"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="30" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G80" s="30">
         <v>10</v>
@@ -5651,13 +5803,13 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="44">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
+      <c r="A81" s="74"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F81" s="30">
         <v>5</v>
@@ -5675,13 +5827,13 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="44">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="30" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F82" s="30">
         <v>0</v>
@@ -5699,16 +5851,16 @@
       </c>
     </row>
     <row r="83" spans="1:10" s="48" customFormat="1" ht="44">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="48" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G83" s="48">
         <v>4</v>
@@ -5723,21 +5875,21 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="58" customFormat="1" ht="110">
-      <c r="A84" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="B84" s="70">
-        <f>SUM(I86:I104)+SUM(I84)+6650</f>
-        <v>9586.6</v>
+      <c r="A84" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="B84" s="74">
+        <f>SUM(I86:I113)+SUM(I84)+6650</f>
+        <v>12071.77</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E84" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84" s="58" t="s">
         <v>415</v>
-      </c>
-      <c r="F84" s="58" t="s">
-        <v>421</v>
       </c>
       <c r="H84" s="58">
         <f>23+27+13+20+12+18+20</f>
@@ -5749,47 +5901,47 @@
       </c>
     </row>
     <row r="85" spans="1:10" s="61" customFormat="1" ht="308">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
+      <c r="A85" s="74"/>
+      <c r="B85" s="74"/>
       <c r="C85" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="D85" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="E85" s="70">
+        <v>1688</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="I85" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="D85" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="E85" s="75">
+      <c r="J85" s="61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="61" customFormat="1" ht="88">
+      <c r="A86" s="74"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D86" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="E86" s="70">
         <v>1688</v>
       </c>
-      <c r="F85" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="H85" s="61" t="s">
+      <c r="G86" s="61" t="s">
         <v>423</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="J85" s="61" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="61" customFormat="1" ht="88">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="61" t="s">
-        <v>426</v>
-      </c>
-      <c r="D86" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="E86" s="75">
-        <v>1688</v>
-      </c>
-      <c r="G86" s="61" t="s">
-        <v>429</v>
       </c>
       <c r="H86" s="61">
         <v>3.6</v>
@@ -5799,19 +5951,19 @@
       </c>
     </row>
     <row r="87" spans="1:10" s="61" customFormat="1" ht="88">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
+      <c r="A87" s="74"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="61" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D87" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="E87" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" s="70" t="s">
         <v>235</v>
       </c>
       <c r="F87" s="61" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G87" s="61">
         <v>1</v>
@@ -5823,16 +5975,16 @@
         <v>200</v>
       </c>
       <c r="J87" s="61" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="61" customFormat="1" ht="44">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="E88" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="E88" s="70" t="s">
         <v>235</v>
       </c>
       <c r="F88" s="61">
@@ -5848,356 +6000,633 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="61" customFormat="1" ht="22">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
+    <row r="89" spans="1:10" s="61" customFormat="1" ht="66">
+      <c r="A89" s="74"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="61" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="E89" s="75"/>
-    </row>
-    <row r="90" spans="1:10" s="61" customFormat="1" ht="22">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
+        <v>469</v>
+      </c>
+      <c r="E89" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G89" s="61">
+        <v>2</v>
+      </c>
+      <c r="H89" s="61">
+        <v>1600</v>
+      </c>
+      <c r="I89" s="61">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="61" customFormat="1" ht="66">
+      <c r="A90" s="74"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="E90" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="61">
+        <v>59</v>
+      </c>
+      <c r="G90" s="61">
+        <v>1</v>
+      </c>
+      <c r="H90" s="61">
+        <v>59</v>
+      </c>
+      <c r="I90" s="61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="68" customFormat="1" ht="44">
+      <c r="A91" s="74"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="E91" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="68">
+        <v>20</v>
+      </c>
+      <c r="G91" s="68">
+        <v>1</v>
+      </c>
+      <c r="H91" s="68">
+        <v>20</v>
+      </c>
+      <c r="I91" s="68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="68" customFormat="1" ht="22">
+      <c r="A92" s="74"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="E92" s="70">
+        <v>1688</v>
+      </c>
+      <c r="F92" s="68">
+        <v>8.86</v>
+      </c>
+      <c r="G92" s="68">
+        <v>1</v>
+      </c>
+      <c r="H92" s="68">
+        <v>8.86</v>
+      </c>
+      <c r="I92" s="68">
+        <f>H92</f>
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="68" customFormat="1" ht="22">
+      <c r="A93" s="74"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="68" t="s">
+        <v>487</v>
+      </c>
+      <c r="E93" s="70">
+        <v>1688</v>
+      </c>
+      <c r="F93" s="68">
+        <v>13</v>
+      </c>
+      <c r="G93" s="68">
+        <v>1</v>
+      </c>
+      <c r="H93" s="68">
+        <v>13</v>
+      </c>
+      <c r="I93" s="68">
+        <f t="shared" ref="I93:I94" si="5">H93</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="68" customFormat="1" ht="44">
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="68" t="s">
+        <v>488</v>
+      </c>
+      <c r="E94" s="70">
+        <v>1688</v>
+      </c>
+      <c r="F94" s="68">
+        <v>9.31</v>
+      </c>
+      <c r="G94" s="68">
+        <v>1</v>
+      </c>
+      <c r="H94" s="68">
+        <v>9.31</v>
+      </c>
+      <c r="I94" s="68">
+        <f t="shared" si="5"/>
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="61" customFormat="1" ht="44">
+      <c r="A95" s="74"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="E95" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F95" s="61">
+        <v>25</v>
+      </c>
+      <c r="G95" s="61">
+        <v>3</v>
+      </c>
+      <c r="H95" s="61">
+        <v>75</v>
+      </c>
+      <c r="I95" s="61">
+        <v>75</v>
+      </c>
+      <c r="J95" s="61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="61" customFormat="1" ht="66">
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="E96" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="F96" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G96" s="61">
+        <v>2</v>
+      </c>
+      <c r="H96" s="61">
+        <v>24</v>
+      </c>
+      <c r="I96" s="61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="44">
+      <c r="A97" s="74"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="G97" s="30">
+        <v>1</v>
+      </c>
+      <c r="H97" s="30">
+        <v>80</v>
+      </c>
+      <c r="I97" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="44">
+      <c r="A98" s="74"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G98" s="30">
+        <v>1</v>
+      </c>
+      <c r="H98" s="30">
+        <v>7</v>
+      </c>
+      <c r="I98" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="44">
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G99" s="30">
+        <v>10</v>
+      </c>
+      <c r="H99" s="30">
+        <v>265</v>
+      </c>
+      <c r="I99" s="58">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="44">
+      <c r="A100" s="74"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="G100" s="30">
+        <v>20</v>
+      </c>
+      <c r="H100" s="30">
+        <v>520</v>
+      </c>
+      <c r="I100" s="61">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="44">
+      <c r="A101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="G101" s="30">
+        <v>15</v>
+      </c>
+      <c r="H101" s="30">
+        <v>390</v>
+      </c>
+      <c r="I101" s="68">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="44">
+      <c r="A102" s="74"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G102" s="30">
+        <v>20</v>
+      </c>
+      <c r="H102" s="30">
+        <v>110</v>
+      </c>
+      <c r="I102" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="44">
+      <c r="A103" s="74"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G103" s="30">
+        <v>120</v>
+      </c>
+      <c r="H103" s="30">
+        <v>600</v>
+      </c>
+      <c r="I103" s="61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="44">
+      <c r="A104" s="74"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G104" s="30">
+        <v>100</v>
+      </c>
+      <c r="H104" s="30">
+        <v>500</v>
+      </c>
+      <c r="I104" s="68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="66">
+      <c r="A105" s="74"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G105" s="30">
+        <v>63</v>
+      </c>
+      <c r="H105" s="30">
+        <v>-130</v>
+      </c>
+      <c r="I105" s="68">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="44">
+      <c r="A106" s="74"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="G106" s="30">
+        <v>50</v>
+      </c>
+      <c r="H106" s="30">
+        <v>50</v>
+      </c>
+      <c r="I106" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="44">
+      <c r="A107" s="74"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="G107" s="30">
+        <v>20</v>
+      </c>
+      <c r="H107" s="30">
+        <v>12</v>
+      </c>
+      <c r="I107" s="61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="44">
+      <c r="A108" s="74"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="G108" s="30">
+        <v>4</v>
+      </c>
+      <c r="H108" s="30">
+        <v>2</v>
+      </c>
+      <c r="I108" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="44">
+      <c r="A109" s="74"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G109" s="30">
+        <v>60</v>
+      </c>
+      <c r="H109" s="30">
+        <v>300</v>
+      </c>
+      <c r="I109" s="58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="44">
+      <c r="A110" s="74"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F110" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G110" s="30">
+        <v>4</v>
+      </c>
+      <c r="H110" s="30">
+        <v>140</v>
+      </c>
+      <c r="I110" s="58">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="61" customFormat="1" ht="44">
+      <c r="A111" s="74"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="E111" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="F111" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G111" s="61">
+        <f>5+3</f>
+        <v>8</v>
+      </c>
+      <c r="H111" s="61">
+        <f>70+42</f>
+        <v>112</v>
+      </c>
+      <c r="I111" s="61">
+        <f>H111</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="61" customFormat="1" ht="66">
+      <c r="A112" s="74"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="E90" s="75"/>
-    </row>
-    <row r="91" spans="1:10" s="61" customFormat="1" ht="44">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="E91" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="F91" s="61">
-        <v>25</v>
-      </c>
-      <c r="G91" s="61">
-        <v>3</v>
-      </c>
-      <c r="H91" s="61">
-        <v>75</v>
-      </c>
-      <c r="I91" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="61" customFormat="1" ht="66">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="E92" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="F92" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="G92" s="61">
-        <v>2</v>
-      </c>
-      <c r="H92" s="61">
-        <v>24</v>
-      </c>
-      <c r="I92" s="61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="44">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="30" t="s">
+      <c r="D112" s="61" t="s">
+        <v>446</v>
+      </c>
+      <c r="E112" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G112" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="H112" s="61">
+        <f>356+38-82</f>
         <v>312</v>
       </c>
-      <c r="D93" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="G93" s="30">
+      <c r="I112" s="61">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="58" customFormat="1" ht="44">
+      <c r="A113" s="74"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="E113" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F113" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="G113" s="58">
+        <v>20</v>
+      </c>
+      <c r="H113" s="58">
+        <v>10</v>
+      </c>
+      <c r="I113" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="66">
+      <c r="A114" s="74"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F114" s="30">
+        <v>130</v>
+      </c>
+      <c r="G114" s="30">
         <v>1</v>
       </c>
-      <c r="H93" s="30">
-        <v>80</v>
-      </c>
-      <c r="I93" s="58">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="44">
-      <c r="A94" s="70"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="D94" s="76" t="s">
-        <v>318</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="G94" s="30">
-        <v>10</v>
-      </c>
-      <c r="H94" s="30">
-        <v>265</v>
-      </c>
-      <c r="I94" s="58">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="44">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="G95" s="30">
-        <v>20</v>
-      </c>
-      <c r="H95" s="30">
-        <v>520</v>
-      </c>
-      <c r="I95" s="61">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="44">
-      <c r="A96" s="70"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="D96" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="G96" s="30">
-        <v>20</v>
-      </c>
-      <c r="H96" s="30">
-        <v>110</v>
-      </c>
-      <c r="I96" s="58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="44">
-      <c r="A97" s="70"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="G97" s="30">
-        <v>120</v>
-      </c>
-      <c r="H97" s="30">
-        <v>600</v>
-      </c>
-      <c r="I97" s="61">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="44">
-      <c r="A98" s="70"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G98" s="30">
-        <v>50</v>
-      </c>
-      <c r="H98" s="30">
-        <v>50</v>
-      </c>
-      <c r="I98" s="58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="44">
-      <c r="A99" s="70"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="G99" s="30">
-        <v>20</v>
-      </c>
-      <c r="H99" s="30">
-        <v>12</v>
-      </c>
-      <c r="I99" s="61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="44">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="G100" s="30">
-        <v>60</v>
-      </c>
-      <c r="H100" s="30">
-        <v>300</v>
-      </c>
-      <c r="I100" s="58">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="44">
-      <c r="A101" s="70"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="G101" s="30">
-        <v>4</v>
-      </c>
-      <c r="H101" s="30">
-        <v>140</v>
-      </c>
-      <c r="I101" s="58">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="61" customFormat="1" ht="44">
-      <c r="A102" s="70"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="D102" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="E102" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="F102" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="G102" s="61">
-        <v>5</v>
-      </c>
-      <c r="H102" s="61">
-        <v>70</v>
-      </c>
-      <c r="I102" s="61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="61" customFormat="1" ht="22">
-      <c r="A103" s="70"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="61" t="s">
-        <v>461</v>
-      </c>
-      <c r="D103" s="61" t="s">
-        <v>459</v>
-      </c>
-      <c r="E103" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="H103" s="61">
-        <v>356</v>
-      </c>
-      <c r="I103" s="61">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="58" customFormat="1">
-      <c r="A104" s="70"/>
-      <c r="B104" s="70"/>
-    </row>
-    <row r="105" spans="1:9" ht="22">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="30" t="s">
-        <v>472</v>
+      <c r="H114" s="30">
+        <v>130</v>
+      </c>
+      <c r="I114" s="30">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A84:A105"/>
-    <mergeCell ref="B84:B105"/>
-    <mergeCell ref="B65:B83"/>
-    <mergeCell ref="A65:A83"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B29:B54"/>
     <mergeCell ref="A29:A54"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="A84:A114"/>
+    <mergeCell ref="B84:B114"/>
+    <mergeCell ref="B65:B83"/>
+    <mergeCell ref="A65:A83"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6208,9 +6637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -6340,14 +6769,14 @@
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M3" s="43">
         <f>2999+30</f>
         <v>3029</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="20" customFormat="1" ht="110">
@@ -6442,14 +6871,14 @@
         <v>110</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6" s="39">
         <v>3499</v>
@@ -6459,13 +6888,13 @@
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M6" s="39">
         <v>3489</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
@@ -6840,7 +7269,7 @@
     </row>
     <row r="17" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A17" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>39</v>
@@ -7243,7 +7672,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="20">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="M40" s="5">
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="17" customFormat="1" ht="22">
@@ -7254,11 +7686,11 @@
       <c r="F41" s="19"/>
       <c r="J41" s="32">
         <f>SUM(J2:J40)</f>
-        <v>21692</v>
+        <v>21961</v>
       </c>
       <c r="M41" s="17">
         <f>SUM(M2:M40)</f>
-        <v>12846</v>
+        <v>13115</v>
       </c>
     </row>
   </sheetData>
@@ -7288,7 +7720,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -7308,14 +7740,14 @@
         <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -7323,18 +7755,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="74"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C5" s="9">
         <v>13942626713</v>
@@ -7345,7 +7777,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" s="9">
         <v>15140436656</v>
@@ -7353,27 +7785,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C7" s="9">
         <v>13840916589</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="9">
-        <v>13604281790</v>
+        <v>492</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -7391,12 +7823,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -8291,7 +8723,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="44">
+    <row r="36" spans="1:8" ht="22">
       <c r="A36" s="3">
         <v>44191</v>
       </c>
@@ -8310,15 +8742,15 @@
         <v>46</v>
       </c>
       <c r="F36" s="5">
-        <f>18.4+269</f>
-        <v>287.39999999999998</v>
+        <f>18.4</f>
+        <v>18.399999999999999</v>
       </c>
       <c r="G36" s="64">
         <f t="shared" si="0"/>
-        <v>337.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>269</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22">
@@ -8345,7 +8777,7 @@
         <v>110</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8399,7 +8831,7 @@
         <v>147.39999999999998</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8502,7 +8934,7 @@
         <v>195</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="44">
@@ -8531,7 +8963,7 @@
         <v>242.9</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8685,7 +9117,7 @@
         <v>787.59999999999991</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8841,7 +9273,7 @@
         <v>126.5</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22">
@@ -8868,10 +9300,10 @@
         <v>30</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="44">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="66">
       <c r="A58" s="3">
         <v>44213</v>
       </c>
@@ -8897,7 +9329,7 @@
         <v>114.7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8952,7 +9384,7 @@
         <v>182</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -9005,7 +9437,7 @@
         <v>100.89999999999999</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -9059,7 +9491,7 @@
         <v>188.51</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9136,7 +9568,7 @@
         <v>152.80000000000001</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22">
@@ -9161,62 +9593,346 @@
         <v>0</v>
       </c>
       <c r="G68" s="64">
-        <f t="shared" si="1"/>
+        <f>SUM(B68:F68)</f>
         <v>152.70999999999998</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A69" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="71" customFormat="1">
+      <c r="A69" s="3">
+        <v>44224</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="71">
+        <v>0</v>
+      </c>
+      <c r="D69" s="71">
+        <f>38.8+10+38.93</f>
+        <v>87.72999999999999</v>
+      </c>
+      <c r="E69" s="71">
+        <f>30+70.5</f>
+        <v>100.5</v>
+      </c>
+      <c r="F69" s="71">
+        <v>0</v>
+      </c>
+      <c r="G69" s="64">
+        <f t="shared" ref="G69:G78" si="2">SUM(B69:F69)</f>
+        <v>188.23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A70" s="3">
+        <v>44225</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="71">
+        <v>0</v>
+      </c>
+      <c r="D70" s="71">
+        <f>20.76+38.3</f>
+        <v>59.06</v>
+      </c>
+      <c r="E70" s="71">
+        <f>62.5+1</f>
+        <v>63.5</v>
+      </c>
+      <c r="F70" s="71">
+        <v>0</v>
+      </c>
+      <c r="G70" s="64">
+        <f t="shared" si="2"/>
+        <v>122.56</v>
+      </c>
+      <c r="H70" s="71" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A71" s="3">
+        <v>44226</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="71">
+        <f>37.7</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E71" s="71">
+        <f>1+50+18.5</f>
+        <v>69.5</v>
+      </c>
+      <c r="F71" s="71">
+        <v>42.9</v>
+      </c>
+      <c r="G71" s="64">
+        <f t="shared" si="2"/>
+        <v>150.1</v>
+      </c>
+      <c r="H71" s="71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A72" s="3">
+        <v>44227</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="71">
+        <v>0</v>
+      </c>
+      <c r="D72" s="71">
+        <f>37+20.79+40.5</f>
+        <v>98.289999999999992</v>
+      </c>
+      <c r="E72" s="71">
+        <v>101</v>
+      </c>
+      <c r="F72" s="71">
+        <v>0</v>
+      </c>
+      <c r="G72" s="64">
+        <f t="shared" si="2"/>
+        <v>199.29</v>
+      </c>
+      <c r="H72" s="71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="71" customFormat="1" ht="44">
+      <c r="A73" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="71">
+        <v>0</v>
+      </c>
+      <c r="D73" s="71">
+        <f>19.1+38</f>
+        <v>57.1</v>
+      </c>
+      <c r="E73" s="71">
+        <f>12+47.5</f>
+        <v>59.5</v>
+      </c>
+      <c r="F73" s="71">
+        <v>0</v>
+      </c>
+      <c r="G73" s="64">
+        <f t="shared" si="2"/>
+        <v>116.6</v>
+      </c>
+      <c r="H73" s="71" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A74" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="71">
+        <v>0</v>
+      </c>
+      <c r="D74" s="71">
+        <f>36+17.6+18.4</f>
+        <v>72</v>
+      </c>
+      <c r="E74" s="71">
+        <v>66.5</v>
+      </c>
+      <c r="F74" s="71">
+        <v>0</v>
+      </c>
+      <c r="G74" s="64">
+        <f t="shared" si="2"/>
+        <v>138.5</v>
+      </c>
+      <c r="H74" s="71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A75" s="3">
+        <v>44230</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="71">
+        <v>0</v>
+      </c>
+      <c r="D75" s="71">
+        <f>17.6+39.51</f>
+        <v>57.11</v>
+      </c>
+      <c r="E75" s="71">
+        <f>2.5+21+5+21</f>
+        <v>49.5</v>
+      </c>
+      <c r="F75" s="71">
+        <v>0</v>
+      </c>
+      <c r="G75" s="64">
+        <f t="shared" si="2"/>
+        <v>106.61</v>
+      </c>
+      <c r="H75" s="71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A76" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="71">
+        <v>0</v>
+      </c>
+      <c r="D76" s="71">
+        <v>0</v>
+      </c>
+      <c r="E76" s="71">
+        <v>0</v>
+      </c>
+      <c r="F76" s="71">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G76" s="64">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H76" s="71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="71" customFormat="1" ht="44">
+      <c r="A77" s="3">
+        <v>44232</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="71">
+        <v>0</v>
+      </c>
+      <c r="D77" s="71">
+        <f>17.7</f>
+        <v>17.7</v>
+      </c>
+      <c r="E77" s="71">
+        <f>39</f>
+        <v>39</v>
+      </c>
+      <c r="F77" s="71">
+        <v>46.9</v>
+      </c>
+      <c r="G77" s="64">
+        <f t="shared" si="2"/>
+        <v>103.6</v>
+      </c>
+      <c r="H77" s="71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="A78" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="71">
+        <v>0</v>
+      </c>
+      <c r="D78" s="71">
+        <f>33.42</f>
+        <v>33.42</v>
+      </c>
+      <c r="E78" s="71">
+        <f>4+17+42</f>
+        <v>63</v>
+      </c>
+      <c r="F78" s="71">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="G78" s="64">
+        <f t="shared" si="2"/>
+        <v>101.42</v>
+      </c>
+      <c r="H78" s="71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="7">
-        <f t="shared" ref="B69:G69" si="2">SUM(B2:B54)</f>
-        <v>220</v>
-      </c>
-      <c r="C69" s="7">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="D69" s="7">
-        <f t="shared" si="2"/>
-        <v>1778.8400000000004</v>
-      </c>
-      <c r="E69" s="7">
-        <f t="shared" si="2"/>
-        <v>2087.7000000000003</v>
-      </c>
-      <c r="F69" s="7">
-        <f t="shared" si="2"/>
-        <v>1524.6</v>
-      </c>
-      <c r="G69" s="65">
-        <f>SUM(G2:G68)</f>
-        <v>6965.47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="3"/>
+      <c r="B79" s="7">
+        <f>SUM(B2:B78)</f>
+        <v>320</v>
+      </c>
+      <c r="C79" s="7">
+        <f>SUM(C2:C78)</f>
+        <v>72</v>
+      </c>
+      <c r="D79" s="7">
+        <f>SUM(D2:D78)</f>
+        <v>2771.9700000000003</v>
+      </c>
+      <c r="E79" s="7">
+        <f>SUM(E2:E78)</f>
+        <v>3290.2000000000003</v>
+      </c>
+      <c r="F79" s="7">
+        <f>SUM(F2:F78)</f>
+        <v>1473.81</v>
+      </c>
+      <c r="G79" s="65">
+        <f>SUM(G2:G75)</f>
+        <v>7718.3599999999988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9226,10 +9942,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -9413,7 +10129,7 @@
         <v>221</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>222</v>
@@ -9427,7 +10143,7 @@
         <v>233</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D9" s="25">
         <v>10.5</v>
@@ -9436,10 +10152,10 @@
         <v>260</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66">
@@ -9450,19 +10166,19 @@
         <v>121</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="25">
         <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>274</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="53" customFormat="1" ht="154">
@@ -9470,16 +10186,16 @@
         <v>218</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D11" s="25">
         <v>13.5</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="308">
@@ -9487,53 +10203,68 @@
         <v>218</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D12" s="25">
         <v>20.5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22">
-      <c r="A13" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>457</v>
-      </c>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="69" customFormat="1" ht="44">
+      <c r="A13" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:7" s="62" customFormat="1" ht="88">
+      <c r="A14" s="79"/>
       <c r="B14" s="62" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="22">
+    <row r="15" spans="1:7" ht="88">
+      <c r="A15" s="79"/>
       <c r="B15" s="11" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>448</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="44">
+      <c r="A16" s="79"/>
+      <c r="B16" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9601,13 +10332,13 @@
         <v>254</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="27">
         <v>33292.050000000003</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="44">
@@ -9621,15 +10352,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="66">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="198">
       <c r="A6" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="C6" s="27">
         <v>80</v>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEE209-E2AB-8444-9181-068B6A56C9F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55F302C-26C2-4749-A7E4-8F4FC3C4FCFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="17540" activeTab="5" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="17540" activeTab="6" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="530">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,10 +1291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据我们出的图纸画线（工人用的是水平尺+记号笔，没有用弹线），开槽，打水钻眼，布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>①21号第一天砌墙的时候比较相信师傅，门洞不平不垂直没有及时发现，22号发现，23号疫情做核酸检测，24号师傅中午和晚上才有空过来做修补，严重拖慢了工期；</t>
     </r>
@@ -1745,7 +1741,510 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/01/04，7：30-17：00          2021/01/05，7：00-18：00</t>
+    <t>①涉及到燃气管路附近的用电要慎重，跟洗碗机商家确认洗碗机为前置散热，跟燃气公司确认可以沿墙角走燃气管路 ②其它工地上看到的不规范工艺一定要提前跟工人说，不说他们就会默认怎么方便怎么来（比如这次的线盒用发泡固定）③上料一定要仔细核对，不论大小件全部数好，少了让卖家及时补齐 ④抽出来的废弃电线自己收好，可以卖钱，不然就被工人带走了⑤打眼的活能干的都让师傅一起干了，可以省一些钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1688+淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州市木佳伊木业16+大自然8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市陶域建材有限公司，H6101M通体中灰哑光600*600，6701Z通体深灰哑光600*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房墙地：H6101M，80块卫生间墙地：6701Z，156块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色初23+意大利米兰27+恒志13+玛喆20+方拓12+德胜居18+乐鑫20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6101M 20/块，6701Z 23/块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7594 =（7444（=瓷砖5188+加工费756+运费1500）+ 上楼搬运费 150）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6650=（6500=（瓷砖4500+加工费500+运费1500）+上楼搬运费 150）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖缝十字架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①瓷砖是附送瓷砖缝十字架的，但是店家没有1.5mm的，所以一起另买了 ②购买总面积为5平，实际铺设面积为77平，余量为10%，如果考虑到橱柜遮挡部分用杂砖，总体费用能更便宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北浩哥塑料制品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mm 5包，2.0mm 5包，2.5mm 10包，每包100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖背胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德高，低吸水率玻化砖专用背胶，强效瓷砖背胶耐水型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方渠道验证真伪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背胶滚筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200/桶，规格5KG, 理论施工45平米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴旺望建材商行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26=(25/袋+1/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=(4/袋+1/袋上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6=(0.5/块，0.1/上料)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂浆防水剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳亚尔1:50浓缩型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35/桶，规格500ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A锯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭水试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/21，08：30-10：00（蓄水）                                  2021/01/23，11：00-13：30（放水）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖到货，买酒精消毒湿巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子水泥上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耐德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置上门费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还户口，去金三角看木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金500（已退还）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月25号农行春柳支行提交材料和工本费；2月4号农行周水子支行提交取房本申请；2月9号农行周水子支行取房本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便携免洗洗手液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买一瓶洗洁精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦工结束后打扫卫生，买襄阳牛杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买两袋牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﹣130=(沙子退货﹣200元+搬运费70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线盒盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5/个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取挡水条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买化妆棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山0.1克高精准电子秤厨房秤EK813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-电子秤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-海绵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗车擦车海绵块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取环氧彩砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马贝环氧彩砂，5kg装，131：120调色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡水条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯黑色人造石U型非实心1.68m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间防水：第一层墙面直接涂稀释好的劳亚尔防水剂，第二层胶粉兑水泥砂浆贴防水布，第三层水泥砂浆保护层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3（一个湿区，两个干区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间下水包管：隔音棉和透明胶带包管，然后用红砖水泥包平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5/块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明胶带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房卫生间贴瓷砖：厨房不用墙地对缝，卫生间三面墙地对缝，厨卫窗户不做倒角和阳角条直接拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅卧室走廊地面找平：地面使用胶粉兑水浇湿，水泥砂浆找高度约2~3厘米（预留1.6cm的地板厚度），表面撒水泥抹光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工+业主（涂瓷砖背胶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工+业主（隔音棉包管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-刮刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-刮板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖美缝工具-勾缝刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需退两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料费12071.77+人工费7342.5（包一个管200人工费*2+一个卫生间防水600人工费*2+贴瓷砖50一平*76.7平+地面找平25一平*77.7平-抹零35）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包管找坡防水贴砖找平美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙*学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13604281790，辽B D23B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完活日当天结束支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/17，08：00-17：00      2021/01/18，08：00-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴厨卫瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/26，10：20-11：00（上料）                                     2021/01/27-2021/02/01，07：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/02/03-2021/02/04，07：30-17：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥砂浆红砖包管和防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据我们出的图纸画线（工人用的是水平尺+记号笔，没有用弹线），开槽，打水钻眼，布线，换空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下建材店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买4175(=4015-15(抹零)+45+60+50+15+5)，余料退货退款497，实际用料总费用 3678(=4175-497) , 空开856.87，水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节休息，年三十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节休息，年初一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节休息，年初二，去东港玩儿吃港式茶餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节休息，买菜准备过年，吃荆楚人家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始贴砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;闭水试验（蓄水），买绝味鸭脖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;闭水试验（放水），晚上打车去医大二院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;结束贴砖，水泥沙子上料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始找平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;瓦工结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始瓦工，做包管防水，给瓦工孙女买了一杯奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始换空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;换空开结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;结束清砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始清砖（面+缝）买验孕棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始填缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵节休息，买饺子皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成次卫墙地填缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/01/04，7：30-17：00          2021/01/05，7：00-18：00         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换空开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查漏补缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021/02/08，10：30-17：00          2021/02/09，10：30-17：00         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照设计更换强电箱中的空气开关，初步验证所有回路按照设计方案连接正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥沙子干铺压实，水泥素灰抹平，线盒线槽水泥砂浆填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>④⑤完成，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⑧初步验证没有问题，后续安装插座后再仔细验证</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1777,7 +2276,7 @@
         <family val="4"/>
         <charset val="134"/>
       </rPr>
-      <t>②已走的冷热水管需要拉开一点距离，没有走的冷热水管不可以再紧贴，尽量留有一点距离 ③ 卫生间马桶下水使用扁管移位没有带来地面高度的提升 ④ 空气开关由下进上出改为通用做法上进下出，</t>
+      <t>②已走的冷热水管需要拉开一点距离，没有走的冷热水管不可以再紧贴，尽量留有一点距离 ③ 卫生间马桶下水使用扁管移位没有带来地面高度的提升 ④ 空气开关由下进上出改为通用做法上进下出，更换空开 ⑤ 线盒发泡抠出来改为水泥砂浆</t>
     </r>
     <r>
       <rPr>
@@ -1787,7 +2286,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">更换空开 ⑤ 线盒发泡抠出来改为水泥砂浆 </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1852,391 +2351,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>①涉及到燃气管路附近的用电要慎重，跟洗碗机商家确认洗碗机为前置散热，跟燃气公司确认可以沿墙角走燃气管路 ②其它工地上看到的不规范工艺一定要提前跟工人说，不说他们就会默认怎么方便怎么来（比如这次的线盒用发泡固定）③上料一定要仔细核对，不论大小件全部数好，少了让卖家及时补齐 ④抽出来的废弃电线自己收好，可以卖钱，不然就被工人带走了⑤打眼的活能干的都让师傅一起干了，可以省一些钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖样品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1688+淘宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板样品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州市木佳伊木业16+大自然8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市陶域建材有限公司，H6101M通体中灰哑光600*600，6701Z通体深灰哑光600*600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房墙地：H6101M，80块卫生间墙地：6701Z，156块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色初23+意大利米兰27+恒志13+玛喆20+方拓12+德胜居18+乐鑫20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H6101M 20/块，6701Z 23/块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7594 =（7444（=瓷砖5188+加工费756+运费1500）+ 上楼搬运费 150）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6650=（6500=（瓷砖4500+加工费500+运费1500）+上楼搬运费 150）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖缝十字架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①瓷砖是附送瓷砖缝十字架的，但是店家没有1.5mm的，所以一起另买了 ②购买总面积为5平，实际铺设面积为77平，余量为10%，如果考虑到橱柜遮挡部分用杂砖，总体费用能更便宜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北浩哥塑料制品有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5mm 5包，2.0mm 5包，2.5mm 10包，每包100个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖背胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德高，低吸水率玻化砖专用背胶，强效瓷砖背胶耐水型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方渠道验证真伪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背胶滚筒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200/桶，规格5KG, 理论施工45平米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴旺望建材商行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26=(25/袋+1/袋上料)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5=(4/袋+1/袋上料)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6=(0.5/块，0.1/上料)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砂浆防水剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳亚尔1:50浓缩型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35/桶，规格500ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5A锯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭水试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/21，08：30-10：00（蓄水）                                  2021/01/23，11：00-13：30（放水）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭水试验（蓄水），买绝味鸭脖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭水试验（放水），晚上打车去医大二院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖到货，买酒精消毒湿巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始贴砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙子水泥上料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜水艇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施耐德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置上门费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还户口，去金三角看木地板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料量按散工要求购买4170(=4015-15(抹零)+45+60+50+15)，余料退货退款497，实际用料总费用 3673(=4170-497) , 空开856.87，水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金500（已退还）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月25号农行春柳支行提交材料和工本费；2月4号农行周水子支行提交取房本申请；2月9号农行周水子支行取房本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便携免洗洗手液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买一瓶洗洁精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦工结束后打扫卫生，买襄阳牛杂面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦工结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买两袋牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﹣130=(沙子退货﹣200元+搬运费70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线盒盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5/个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取挡水条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买化妆棉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香山0.1克高精准电子秤厨房秤EK813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝工具-电子秤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝工具-海绵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗车擦车海绵块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取环氧彩砂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马贝环氧彩砂，5kg装，131：120调色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800/桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挡水条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯黑色人造石U型非实心1.68m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间防水：第一层墙面直接涂稀释好的劳亚尔防水剂，第二层胶粉兑水泥砂浆贴防水布，第三层水泥砂浆保护层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3（一个湿区，两个干区）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间下水包管：隔音棉和透明胶带包管，然后用红砖水泥包平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5/块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明胶带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80/卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房卫生间贴瓷砖：厨房不用墙地对缝，卫生间三面墙地对缝，厨卫窗户不做倒角和阳角条直接拼接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客餐厅卧室走廊地面找平：地面使用胶粉兑水浇湿，水泥砂浆找高度约2~3厘米（预留1.6cm的地板厚度），表面撒水泥抹光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散工+业主（涂瓷砖背胶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散工+业主（隔音棉包管）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝工具-刮刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝工具-刮板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖美缝工具-勾缝刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需退两个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料费12071.77+人工费7342.5（包一个管200人工费*2+一个卫生间防水600人工费*2+贴瓷砖50一平*76.7平+地面找平25一平*77.7平-抹零35）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包管找坡防水贴砖找平美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙*学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13604281790，辽B D23B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完活日当天结束支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始做包管防水，给瓦工孙女买了一杯奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/17，08：00-17：00      2021/01/18，08：00-17：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴厨卫瓷砖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始找平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/26，10：20-11：00（上料）                                     2021/01/27-2021/02/01，07：30-17：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面找平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束贴砖，水泥沙子上料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/02/03-2021/02/04，07：30-17：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥砂浆红砖包管和防水</t>
+    <t>①美缝结束后放水测试卫生间坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①厨卫瓷砖颜色相近，边角处有少量贴错，好在不影响大面 ②哑光毛边瓷砖蹭上水泥和瓷砖背胶后不及时清理很难擦除干净，可以使用水泥克星按照水：水泥克星= 2200ml：280ml 左右的比例稀释后擦除 ③阴角缝隙留的不一致，贴砖平整度不高，影响后期美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>①找平施工完毕后一致保持地暖全部关闭和门窗紧闭两周直至2月18日开地暖并依然保持门窗紧闭，这期间地面出现了很多小裂纹，找平衔接处裂纹较大约1-2mm，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待地板方评估是否需要修复</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2467,7 +2602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2687,11 +2822,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2699,16 +2840,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3483,10 +3627,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -3638,7 +3782,7 @@
         <v>251</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3665,13 +3809,13 @@
         <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3680,11 +3824,11 @@
         <v>14</v>
       </c>
       <c r="G6" s="5">
-        <f>3673+856.87+3500+440+20</f>
-        <v>8489.869999999999</v>
+        <f>3678+856.87+3500+440+20</f>
+        <v>8494.869999999999</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="I6" s="5">
         <v>8489.8700000000008</v>
@@ -3694,17 +3838,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="154" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>437</v>
+      <c r="A7" s="75" t="s">
+        <v>434</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>490</v>
+      <c r="D7" s="75" t="s">
+        <v>482</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>14</v>
@@ -3712,78 +3856,78 @@
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="75">
         <f>12071.77+7342.5</f>
         <v>19414.27</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>494</v>
-      </c>
-      <c r="I7" s="72">
+      <c r="H7" s="75" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" s="75">
         <f>G7</f>
         <v>19414.27</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" spans="1:10" ht="88">
-      <c r="A8" s="72"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="72"/>
+        <v>466</v>
+      </c>
+      <c r="D8" s="75"/>
       <c r="E8" s="71" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="88">
-      <c r="A9" s="72"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="72"/>
+        <v>476</v>
+      </c>
+      <c r="D9" s="75"/>
       <c r="E9" s="71" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="5">
         <v>76.7</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:10" ht="88">
-      <c r="A10" s="80"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="D10" s="80"/>
+        <v>466</v>
+      </c>
+      <c r="D10" s="76"/>
       <c r="E10" s="71" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="5">
         <v>77.7</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" ht="22">
       <c r="A11" s="17" t="s">
@@ -3796,12 +3940,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J7:J10"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3810,11 +3954,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -3828,10 +3972,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>34</v>
@@ -3858,12 +4002,12 @@
         <v>144</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22">
       <c r="A2" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>134</v>
@@ -3953,7 +4097,7 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="77">
         <v>412</v>
       </c>
     </row>
@@ -3977,7 +4121,7 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="I6" s="75"/>
+      <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:11" ht="44">
       <c r="C7" s="30" t="s">
@@ -3999,7 +4143,7 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="I7" s="75"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:11" ht="66">
       <c r="C8" s="30" t="s">
@@ -4281,10 +4425,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="44">
-      <c r="A21" s="76" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="76">
+      <c r="A21" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="78">
         <f>SUM(I21:I28)</f>
         <v>479</v>
       </c>
@@ -4311,13 +4455,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="44">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="30" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>235</v>
@@ -4336,8 +4480,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="44">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="30" t="s">
         <v>240</v>
       </c>
@@ -4361,8 +4505,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="44">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="30" t="s">
         <v>242</v>
       </c>
@@ -4386,8 +4530,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="44">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="30" t="s">
         <v>243</v>
       </c>
@@ -4408,8 +4552,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="44">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="30" t="s">
         <v>244</v>
       </c>
@@ -4430,8 +4574,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="44">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="30" t="s">
         <v>245</v>
       </c>
@@ -4452,8 +4596,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="48" t="s">
         <v>246</v>
       </c>
@@ -4477,24 +4621,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="44">
-      <c r="A29" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="B29" s="74">
+      <c r="A29" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="79">
         <f>SUM(I29:I54)</f>
         <v>2021</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G29" s="30">
         <v>5</v>
@@ -4509,13 +4653,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="44">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>235</v>
@@ -4532,21 +4676,21 @@
         <v>77</v>
       </c>
       <c r="I30" s="58">
-        <f t="shared" ref="I30:I83" si="1">H30</f>
+        <f t="shared" ref="I30:I84" si="1">H30</f>
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="44">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F31" s="30">
         <v>7</v>
@@ -4564,16 +4708,16 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="44">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F32" s="30">
         <v>6</v>
@@ -4591,16 +4735,16 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="44">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F33" s="30">
         <v>5</v>
@@ -4618,20 +4762,20 @@
         <v>-5</v>
       </c>
       <c r="J33" s="66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="44">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F34" s="30">
         <v>4.5</v>
@@ -4650,16 +4794,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="44">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F35" s="30">
         <v>4.5</v>
@@ -4677,16 +4821,16 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="44">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G36" s="30">
         <f>5+6</f>
@@ -4701,16 +4845,16 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="44">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F37" s="30">
         <v>115</v>
@@ -4728,19 +4872,19 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="44">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E38" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F38" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>379</v>
       </c>
       <c r="G38" s="30">
         <f>18+1</f>
@@ -4756,16 +4900,16 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="44">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F39" s="30">
         <v>4</v>
@@ -4784,16 +4928,16 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="44">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F40" s="30">
         <v>3</v>
@@ -4811,20 +4955,20 @@
         <v>15</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="44">
-      <c r="A41" s="73"/>
-      <c r="B41" s="74"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F41" s="30">
         <v>4</v>
@@ -4843,16 +4987,16 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="44">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F42" s="30">
         <v>3</v>
@@ -4870,16 +5014,16 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="44">
-      <c r="A43" s="73"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F43" s="30">
         <v>18</v>
@@ -4897,16 +5041,16 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="44">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F44" s="30">
         <v>18</v>
@@ -4924,16 +5068,16 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="44">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F45" s="30">
         <v>40</v>
@@ -4951,13 +5095,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="44">
-      <c r="A46" s="73"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F46" s="30">
         <v>1</v>
@@ -4976,13 +5120,13 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="44">
-      <c r="A47" s="73"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F47" s="30">
         <v>12</v>
@@ -5000,16 +5144,16 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="44">
-      <c r="A48" s="73"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G48" s="30">
         <v>2</v>
@@ -5024,16 +5168,16 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="44">
-      <c r="A49" s="73"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G49" s="30">
         <f>13+8+3</f>
@@ -5049,16 +5193,16 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="44">
-      <c r="A50" s="73"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="79"/>
       <c r="C50" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G50" s="30">
         <f>13-4</f>
@@ -5074,16 +5218,16 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="44">
-      <c r="A51" s="73"/>
-      <c r="B51" s="74"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="79"/>
       <c r="C51" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G51" s="30">
         <v>1</v>
@@ -5098,16 +5242,16 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="44">
-      <c r="A52" s="73"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="79"/>
       <c r="C52" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G52" s="30">
         <f>1+1</f>
@@ -5123,17 +5267,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="44">
-      <c r="A53" s="73"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="79"/>
       <c r="C53" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F53" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>400</v>
-      </c>
       <c r="G53" s="30">
         <v>0</v>
       </c>
@@ -5145,13 +5289,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="44">
-      <c r="A54" s="73"/>
-      <c r="B54" s="74"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="79"/>
       <c r="C54" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F54" s="30">
         <v>3</v>
@@ -5169,18 +5313,18 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="44">
-      <c r="A55" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="B55" s="74">
+      <c r="A55" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="79">
         <f>SUM(I55:I64)</f>
         <v>78</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F55" s="30">
         <v>15</v>
@@ -5198,16 +5342,16 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="44">
-      <c r="A56" s="73"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="79"/>
       <c r="C56" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G56" s="30">
         <v>0.2</v>
@@ -5221,13 +5365,13 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="44">
-      <c r="A57" s="73"/>
-      <c r="B57" s="74"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="79"/>
       <c r="C57" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F57" s="30">
         <v>2</v>
@@ -5236,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="30">
-        <f t="shared" ref="H57:H82" si="4">F57*G57</f>
+        <f t="shared" ref="H57:H83" si="4">F57*G57</f>
         <v>2</v>
       </c>
       <c r="I57" s="58">
@@ -5245,13 +5389,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="44">
-      <c r="A58" s="73"/>
-      <c r="B58" s="74"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="79"/>
       <c r="C58" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F58" s="30">
         <v>2</v>
@@ -5269,13 +5413,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="44">
-      <c r="A59" s="73"/>
-      <c r="B59" s="74"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="79"/>
       <c r="C59" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F59" s="30">
         <v>2</v>
@@ -5294,10 +5438,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="44">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="79"/>
       <c r="C60" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>235</v>
@@ -5318,16 +5462,16 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="44">
-      <c r="A61" s="73"/>
-      <c r="B61" s="74"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="79"/>
       <c r="C61" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="30">
         <v>3</v>
@@ -5342,13 +5486,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="44">
-      <c r="A62" s="73"/>
-      <c r="B62" s="74"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="79"/>
       <c r="C62" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F62" s="30">
         <v>2</v>
@@ -5366,16 +5510,16 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="44">
-      <c r="A63" s="73"/>
-      <c r="B63" s="74"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="79"/>
       <c r="C63" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F63" s="30" t="s">
         <v>401</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>402</v>
       </c>
       <c r="G63" s="30">
         <f>1-1</f>
@@ -5390,16 +5534,16 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="44">
-      <c r="A64" s="73"/>
-      <c r="B64" s="74"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="79"/>
       <c r="C64" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G64" s="30">
         <v>1</v>
@@ -5413,18 +5557,18 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="22">
-      <c r="A65" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="B65" s="74">
-        <f>SUM(I65:I83)</f>
-        <v>2468.87</v>
+      <c r="A65" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="79">
+        <f>SUM(I65:I84)</f>
+        <v>2473.87</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>136</v>
@@ -5437,16 +5581,16 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="44">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
       <c r="C66" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G66" s="30">
         <v>3</v>
@@ -5461,16 +5605,16 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="44">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="79"/>
       <c r="C67" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G67" s="30">
         <v>4</v>
@@ -5485,16 +5629,16 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="44">
-      <c r="A68" s="74"/>
-      <c r="B68" s="74"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="79"/>
       <c r="C68" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G68" s="30">
         <v>25</v>
@@ -5509,13 +5653,13 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="44">
-      <c r="A69" s="74"/>
-      <c r="B69" s="74"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="79"/>
       <c r="C69" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F69" s="30">
         <v>0.4</v>
@@ -5533,13 +5677,13 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="44">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
       <c r="C70" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F70" s="30">
         <v>0.4</v>
@@ -5558,13 +5702,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="44">
-      <c r="A71" s="74"/>
-      <c r="B71" s="74"/>
+      <c r="A71" s="79"/>
+      <c r="B71" s="79"/>
       <c r="C71" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F71" s="30">
         <v>1</v>
@@ -5583,13 +5727,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="44">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="79"/>
       <c r="C72" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F72" s="30">
         <v>1</v>
@@ -5607,13 +5751,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="44">
-      <c r="A73" s="74"/>
-      <c r="B73" s="74"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F73" s="30">
         <v>0.5</v>
@@ -5631,13 +5775,13 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="44">
-      <c r="A74" s="74"/>
-      <c r="B74" s="74"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
       <c r="C74" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F74" s="30">
         <v>15</v>
@@ -5656,13 +5800,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="44">
-      <c r="A75" s="74"/>
-      <c r="B75" s="74"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="79"/>
       <c r="C75" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F75" s="30">
         <v>15</v>
@@ -5680,13 +5824,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="44">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="79"/>
       <c r="C76" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F76" s="30">
         <v>2</v>
@@ -5705,16 +5849,16 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="44">
-      <c r="A77" s="74"/>
-      <c r="B77" s="74"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
       <c r="C77" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G77" s="30">
         <v>11</v>
@@ -5728,13 +5872,14 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="44">
-      <c r="A78" s="74"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="30" t="s">
-        <v>372</v>
-      </c>
+      <c r="A78" s="79"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" s="81"/>
       <c r="E78" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F78" s="30">
         <v>5</v>
@@ -5752,881 +5897,904 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="44">
-      <c r="A79" s="74"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>394</v>
-      </c>
+    <row r="79" spans="1:9" ht="22">
+      <c r="A79" s="79"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="81"/>
       <c r="E79" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F79" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="F79" s="30">
+        <v>5</v>
+      </c>
+      <c r="G79" s="30">
+        <v>1</v>
+      </c>
+      <c r="H79" s="30">
+        <v>5</v>
+      </c>
+      <c r="I79" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="44">
+      <c r="A80" s="79"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="G79" s="30">
+      <c r="E80" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="30">
         <v>35</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H80" s="30">
         <v>9</v>
       </c>
-      <c r="I79" s="58">
+      <c r="I80" s="58">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="44">
-      <c r="A80" s="74"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="G80" s="30">
+    <row r="81" spans="1:10" ht="44">
+      <c r="A81" s="79"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="G81" s="30">
         <v>10</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H81" s="30">
         <f>1*10</f>
         <v>10</v>
       </c>
-      <c r="I80" s="58">
+      <c r="I81" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="44">
-      <c r="A81" s="74"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F81" s="30">
+    <row r="82" spans="1:10" ht="44">
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F82" s="30">
         <v>5</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G82" s="30">
         <v>4</v>
       </c>
-      <c r="H81" s="30">
+      <c r="H82" s="30">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I81" s="58">
+      <c r="I82" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="44">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="30" t="s">
+    <row r="83" spans="1:10" ht="44">
+      <c r="A83" s="79"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F83" s="30">
+        <v>0</v>
+      </c>
+      <c r="G83" s="30">
+        <v>1</v>
+      </c>
+      <c r="H83" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="48" customFormat="1" ht="44">
+      <c r="A84" s="79"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="F82" s="30">
-        <v>0</v>
-      </c>
-      <c r="G82" s="30">
-        <v>1</v>
-      </c>
-      <c r="H82" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="48" customFormat="1" ht="44">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E83" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="F83" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="G83" s="48">
+      <c r="E84" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="48">
         <v>4</v>
       </c>
-      <c r="H83" s="48">
+      <c r="H84" s="48">
         <f>5*4</f>
         <v>20</v>
       </c>
-      <c r="I83" s="48">
+      <c r="I84" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="58" customFormat="1" ht="110">
-      <c r="A84" s="74" t="s">
-        <v>491</v>
-      </c>
-      <c r="B84" s="74">
-        <f>SUM(I86:I113)+SUM(I84)+6650</f>
+    <row r="85" spans="1:10" s="58" customFormat="1" ht="110">
+      <c r="A85" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="B85" s="79">
+        <f>SUM(I87:I114)+SUM(I85)+6650</f>
         <v>12071.77</v>
       </c>
-      <c r="C84" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="E84" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="F84" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="H84" s="58">
+      <c r="C85" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="F85" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="H85" s="58">
         <f>23+27+13+20+12+18+20</f>
         <v>133</v>
       </c>
-      <c r="I84" s="58">
-        <f>H84</f>
+      <c r="I85" s="58">
+        <f>H85</f>
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="61" customFormat="1" ht="308">
-      <c r="A85" s="74"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="D85" s="61" t="s">
-        <v>413</v>
-      </c>
-      <c r="E85" s="70">
-        <v>1688</v>
-      </c>
-      <c r="F85" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="H85" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>418</v>
-      </c>
-      <c r="J85" s="61" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="61" customFormat="1" ht="88">
-      <c r="A86" s="74"/>
-      <c r="B86" s="74"/>
+    <row r="86" spans="1:10" s="61" customFormat="1" ht="308">
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
       <c r="C86" s="61" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D86" s="61" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E86" s="70">
         <v>1688</v>
       </c>
+      <c r="F86" s="61" t="s">
+        <v>413</v>
+      </c>
       <c r="G86" s="61" t="s">
-        <v>423</v>
-      </c>
-      <c r="H86" s="61">
+        <v>411</v>
+      </c>
+      <c r="H86" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="I86" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="J86" s="61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="61" customFormat="1" ht="88">
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" s="70">
+        <v>1688</v>
+      </c>
+      <c r="G87" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="H87" s="61">
         <v>3.6</v>
       </c>
-      <c r="I86" s="61">
+      <c r="I87" s="61">
         <v>3.6</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="61" customFormat="1" ht="88">
-      <c r="A87" s="74"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="D87" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="E87" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F87" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="G87" s="61">
-        <v>1</v>
-      </c>
-      <c r="H87" s="61">
-        <v>200</v>
-      </c>
-      <c r="I87" s="61">
-        <v>200</v>
-      </c>
-      <c r="J87" s="61" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="61" customFormat="1" ht="44">
-      <c r="A88" s="74"/>
-      <c r="B88" s="74"/>
+    <row r="88" spans="1:10" s="61" customFormat="1" ht="88">
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
       <c r="C88" s="61" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="D88" s="61" t="s">
+        <v>422</v>
       </c>
       <c r="E88" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="F88" s="61">
-        <v>5</v>
+      <c r="F88" s="61" t="s">
+        <v>425</v>
       </c>
       <c r="G88" s="61">
         <v>1</v>
       </c>
       <c r="H88" s="61">
+        <v>200</v>
+      </c>
+      <c r="I88" s="61">
+        <v>200</v>
+      </c>
+      <c r="J88" s="61" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="61" customFormat="1" ht="44">
+      <c r="A89" s="79"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="61">
         <v>5</v>
       </c>
-      <c r="I88" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="61" customFormat="1" ht="66">
-      <c r="A89" s="74"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="D89" s="61" t="s">
-        <v>469</v>
-      </c>
-      <c r="E89" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>470</v>
-      </c>
       <c r="G89" s="61">
+        <v>1</v>
+      </c>
+      <c r="H89" s="61">
+        <v>5</v>
+      </c>
+      <c r="I89" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="61" customFormat="1" ht="66">
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="E90" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="F90" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="G90" s="61">
         <v>2</v>
       </c>
-      <c r="H89" s="61">
+      <c r="H90" s="61">
         <v>1600</v>
       </c>
-      <c r="I89" s="61">
+      <c r="I90" s="61">
         <v>1600</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="61" customFormat="1" ht="66">
-      <c r="A90" s="74"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="D90" s="61" t="s">
-        <v>464</v>
-      </c>
-      <c r="E90" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="F90" s="61">
-        <v>59</v>
-      </c>
-      <c r="G90" s="61">
-        <v>1</v>
-      </c>
-      <c r="H90" s="61">
-        <v>59</v>
-      </c>
-      <c r="I90" s="61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="68" customFormat="1" ht="44">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="68" t="s">
-        <v>466</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>467</v>
+    <row r="91" spans="1:10" s="61" customFormat="1" ht="66">
+      <c r="A91" s="79"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>456</v>
       </c>
       <c r="E91" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="68">
+      <c r="F91" s="61">
+        <v>59</v>
+      </c>
+      <c r="G91" s="61">
+        <v>1</v>
+      </c>
+      <c r="H91" s="61">
+        <v>59</v>
+      </c>
+      <c r="I91" s="61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="68" customFormat="1" ht="44">
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="E92" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="68">
         <v>20</v>
-      </c>
-      <c r="G91" s="68">
-        <v>1</v>
-      </c>
-      <c r="H91" s="68">
-        <v>20</v>
-      </c>
-      <c r="I91" s="68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="68" customFormat="1" ht="22">
-      <c r="A92" s="74"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="68" t="s">
-        <v>486</v>
-      </c>
-      <c r="E92" s="70">
-        <v>1688</v>
-      </c>
-      <c r="F92" s="68">
-        <v>8.86</v>
       </c>
       <c r="G92" s="68">
         <v>1</v>
       </c>
       <c r="H92" s="68">
-        <v>8.86</v>
+        <v>20</v>
       </c>
       <c r="I92" s="68">
-        <f>H92</f>
-        <v>8.86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="68" customFormat="1" ht="22">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="79"/>
       <c r="C93" s="68" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E93" s="70">
         <v>1688</v>
       </c>
       <c r="F93" s="68">
-        <v>13</v>
+        <v>8.86</v>
       </c>
       <c r="G93" s="68">
         <v>1</v>
       </c>
       <c r="H93" s="68">
-        <v>13</v>
+        <v>8.86</v>
       </c>
       <c r="I93" s="68">
-        <f t="shared" ref="I93:I94" si="5">H93</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="68" customFormat="1" ht="44">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
+        <f>H93</f>
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="68" customFormat="1" ht="22">
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
       <c r="C94" s="68" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E94" s="70">
         <v>1688</v>
       </c>
       <c r="F94" s="68">
-        <v>9.31</v>
+        <v>13</v>
       </c>
       <c r="G94" s="68">
         <v>1</v>
       </c>
       <c r="H94" s="68">
+        <v>13</v>
+      </c>
+      <c r="I94" s="68">
+        <f t="shared" ref="I94:I95" si="5">H94</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="68" customFormat="1" ht="44">
+      <c r="A95" s="79"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="68" t="s">
+        <v>480</v>
+      </c>
+      <c r="E95" s="70">
+        <v>1688</v>
+      </c>
+      <c r="F95" s="68">
         <v>9.31</v>
       </c>
-      <c r="I94" s="68">
+      <c r="G95" s="68">
+        <v>1</v>
+      </c>
+      <c r="H95" s="68">
+        <v>9.31</v>
+      </c>
+      <c r="I95" s="68">
         <f t="shared" si="5"/>
         <v>9.31</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="61" customFormat="1" ht="44">
-      <c r="A95" s="74"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="61" t="s">
-        <v>436</v>
-      </c>
-      <c r="E95" s="70" t="s">
+    <row r="96" spans="1:10" s="61" customFormat="1" ht="44">
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="F95" s="61">
+      <c r="F96" s="61">
         <v>25</v>
       </c>
-      <c r="G95" s="61">
+      <c r="G96" s="61">
         <v>3</v>
       </c>
-      <c r="H95" s="61">
+      <c r="H96" s="61">
         <v>75</v>
       </c>
-      <c r="I95" s="61">
+      <c r="I96" s="61">
         <v>75</v>
       </c>
-      <c r="J95" s="61" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="61" customFormat="1" ht="66">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="E96" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="F96" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="G96" s="61">
+      <c r="J96" s="61" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="61" customFormat="1" ht="66">
+      <c r="A97" s="79"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="E97" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G97" s="61">
         <v>2</v>
       </c>
-      <c r="H96" s="61">
+      <c r="H97" s="61">
         <v>24</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I97" s="61">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="44">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="E97" s="30" t="s">
+    <row r="98" spans="1:9" ht="44">
+      <c r="A98" s="79"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="F97" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="G97" s="30">
-        <v>1</v>
-      </c>
-      <c r="H97" s="30">
-        <v>80</v>
-      </c>
-      <c r="I97" s="58">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="44">
-      <c r="A98" s="74"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="30" t="s">
-        <v>479</v>
+      <c r="D98" s="30" t="s">
+        <v>318</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G98" s="30">
         <v>1</v>
       </c>
       <c r="H98" s="30">
+        <v>80</v>
+      </c>
+      <c r="I98" s="58">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="44">
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="G99" s="30">
+        <v>1</v>
+      </c>
+      <c r="H99" s="30">
         <v>7</v>
       </c>
-      <c r="I98" s="68">
+      <c r="I99" s="68">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="44">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="72" t="s">
+    <row r="100" spans="1:9" ht="44">
+      <c r="A100" s="79"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="D99" s="72" t="s">
+      <c r="D100" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F100" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="G100" s="30">
+        <v>10</v>
+      </c>
+      <c r="H100" s="30">
+        <v>265</v>
+      </c>
+      <c r="I100" s="58">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="44">
+      <c r="A101" s="79"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="G101" s="30">
+        <v>20</v>
+      </c>
+      <c r="H101" s="30">
+        <v>520</v>
+      </c>
+      <c r="I101" s="61">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="44">
+      <c r="A102" s="79"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="G102" s="30">
+        <v>15</v>
+      </c>
+      <c r="H102" s="30">
+        <v>390</v>
+      </c>
+      <c r="I102" s="68">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="44">
+      <c r="A103" s="79"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D103" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F103" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="G99" s="30">
+      <c r="G103" s="30">
+        <v>20</v>
+      </c>
+      <c r="H103" s="30">
+        <v>110</v>
+      </c>
+      <c r="I103" s="58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="44">
+      <c r="A104" s="79"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="G104" s="30">
+        <v>120</v>
+      </c>
+      <c r="H104" s="30">
+        <v>600</v>
+      </c>
+      <c r="I104" s="61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="44">
+      <c r="A105" s="79"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="G105" s="30">
+        <v>100</v>
+      </c>
+      <c r="H105" s="30">
+        <v>500</v>
+      </c>
+      <c r="I105" s="68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="66">
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G106" s="30">
+        <v>63</v>
+      </c>
+      <c r="H106" s="30">
+        <v>-130</v>
+      </c>
+      <c r="I106" s="68">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="44">
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G107" s="30">
+        <v>50</v>
+      </c>
+      <c r="H107" s="30">
+        <v>50</v>
+      </c>
+      <c r="I107" s="58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="44">
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="75"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="G108" s="30">
+        <v>20</v>
+      </c>
+      <c r="H108" s="30">
+        <v>12</v>
+      </c>
+      <c r="I108" s="61">
         <v>10</v>
       </c>
-      <c r="H99" s="30">
-        <v>265</v>
-      </c>
-      <c r="I99" s="58">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="44">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="G100" s="30">
-        <v>20</v>
-      </c>
-      <c r="H100" s="30">
-        <v>520</v>
-      </c>
-      <c r="I100" s="61">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="44">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="G101" s="30">
-        <v>15</v>
-      </c>
-      <c r="H101" s="30">
-        <v>390</v>
-      </c>
-      <c r="I101" s="68">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="44">
-      <c r="A102" s="74"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="72" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="G102" s="30">
-        <v>20</v>
-      </c>
-      <c r="H102" s="30">
-        <v>110</v>
-      </c>
-      <c r="I102" s="58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="44">
-      <c r="A103" s="74"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="G103" s="30">
-        <v>120</v>
-      </c>
-      <c r="H103" s="30">
-        <v>600</v>
-      </c>
-      <c r="I103" s="61">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="44">
-      <c r="A104" s="74"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="G104" s="30">
-        <v>100</v>
-      </c>
-      <c r="H104" s="30">
-        <v>500</v>
-      </c>
-      <c r="I104" s="68">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="66">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="G105" s="30">
-        <v>63</v>
-      </c>
-      <c r="H105" s="30">
-        <v>-130</v>
-      </c>
-      <c r="I105" s="68">
-        <v>-130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="44">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="D106" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="G106" s="30">
-        <v>50</v>
-      </c>
-      <c r="H106" s="30">
-        <v>50</v>
-      </c>
-      <c r="I106" s="58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="44">
-      <c r="A107" s="74"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="G107" s="30">
-        <v>20</v>
-      </c>
-      <c r="H107" s="30">
-        <v>12</v>
-      </c>
-      <c r="I107" s="61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="44">
-      <c r="A108" s="74"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="G108" s="30">
-        <v>4</v>
-      </c>
-      <c r="H108" s="30">
-        <v>2</v>
-      </c>
-      <c r="I108" s="68">
-        <v>2</v>
-      </c>
     </row>
     <row r="109" spans="1:9" ht="44">
-      <c r="A109" s="74"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>322</v>
-      </c>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="75"/>
       <c r="E109" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="G109" s="30">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H109" s="30">
-        <v>300</v>
-      </c>
-      <c r="I109" s="58">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="I109" s="68">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="44">
-      <c r="A110" s="74"/>
-      <c r="B110" s="74"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
       <c r="C110" s="30" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>434</v>
+        <v>321</v>
       </c>
       <c r="E110" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="G110" s="30">
+        <v>60</v>
+      </c>
+      <c r="H110" s="30">
+        <v>300</v>
+      </c>
+      <c r="I110" s="58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="44">
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="G111" s="30">
         <v>4</v>
       </c>
-      <c r="H110" s="30">
+      <c r="H111" s="30">
         <v>140</v>
       </c>
-      <c r="I110" s="58">
+      <c r="I111" s="58">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="61" customFormat="1" ht="44">
-      <c r="A111" s="74"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="61" t="s">
+    <row r="112" spans="1:9" s="61" customFormat="1" ht="44">
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="D112" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="D111" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="E111" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="F111" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="G111" s="61">
+      <c r="G112" s="61">
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="H111" s="61">
+      <c r="H112" s="61">
         <f>70+42</f>
         <v>112</v>
       </c>
-      <c r="I111" s="61">
-        <f>H111</f>
+      <c r="I112" s="61">
+        <f>H112</f>
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="61" customFormat="1" ht="66">
-      <c r="A112" s="74"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" s="61" t="s">
-        <v>446</v>
-      </c>
-      <c r="E112" s="61" t="s">
+    <row r="113" spans="1:9" s="61" customFormat="1" ht="66">
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="D113" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="E113" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="H112" s="61">
+      <c r="G113" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="H113" s="61">
         <f>356+38-82</f>
         <v>312</v>
       </c>
-      <c r="I112" s="61">
+      <c r="I113" s="61">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="58" customFormat="1" ht="44">
-      <c r="A113" s="74"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="58" t="s">
-        <v>460</v>
-      </c>
-      <c r="E113" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="F113" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="G113" s="58">
+    <row r="114" spans="1:9" s="58" customFormat="1" ht="44">
+      <c r="A114" s="79"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="F114" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G114" s="58">
         <v>20</v>
       </c>
-      <c r="H113" s="58">
+      <c r="H114" s="58">
         <v>10</v>
       </c>
-      <c r="I113" s="58">
+      <c r="I114" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="66">
-      <c r="A114" s="74"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="F114" s="30">
+    <row r="115" spans="1:9" ht="66">
+      <c r="A115" s="79"/>
+      <c r="B115" s="79"/>
+      <c r="C115" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F115" s="30">
         <v>130</v>
       </c>
-      <c r="G114" s="30">
+      <c r="G115" s="30">
         <v>1</v>
       </c>
-      <c r="H114" s="30">
+      <c r="H115" s="30">
         <v>130</v>
       </c>
-      <c r="I114" s="30">
+      <c r="I115" s="30">
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="A85:A115"/>
+    <mergeCell ref="B85:B115"/>
+    <mergeCell ref="B65:B84"/>
+    <mergeCell ref="A65:A84"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B29:B54"/>
     <mergeCell ref="A29:A54"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A84:A114"/>
-    <mergeCell ref="B84:B114"/>
-    <mergeCell ref="B65:B83"/>
-    <mergeCell ref="A65:A83"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6637,8 +6805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -7717,10 +7885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7191D9C8-28F9-4B4B-848D-0A0BF1EBDEF6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -7740,14 +7908,14 @@
         <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -7755,18 +7923,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="79"/>
-      <c r="B4" s="78"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="9">
         <v>13942626713</v>
@@ -7777,7 +7945,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="9">
         <v>15140436656</v>
@@ -7785,27 +7953,32 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="C7" s="9">
         <v>13840916589</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>493</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7823,12 +7996,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -8750,7 +8923,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22">
@@ -8959,7 +9132,7 @@
         <v>183</v>
       </c>
       <c r="G44" s="64">
-        <f t="shared" ref="G44:G68" si="1">SUM(B44:F44)</f>
+        <f t="shared" ref="G44:G67" si="1">SUM(B44:F44)</f>
         <v>242.9</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -9117,7 +9290,7 @@
         <v>787.59999999999991</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9273,7 +9446,7 @@
         <v>126.5</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22">
@@ -9300,7 +9473,7 @@
         <v>30</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="66">
@@ -9329,7 +9502,7 @@
         <v>114.7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -9384,7 +9557,7 @@
         <v>182</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -9437,7 +9610,7 @@
         <v>100.89999999999999</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -9464,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="44">
+    <row r="64" spans="1:8" ht="66">
       <c r="A64" s="3">
         <v>44219</v>
       </c>
@@ -9491,7 +9664,7 @@
         <v>188.51</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9568,7 +9741,7 @@
         <v>152.80000000000001</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22">
@@ -9597,7 +9770,7 @@
         <v>152.70999999999998</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="71" customFormat="1">
@@ -9622,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="64">
-        <f t="shared" ref="G69:G78" si="2">SUM(B69:F69)</f>
+        <f t="shared" ref="G69:G99" si="2">SUM(B69:F69)</f>
         <v>188.23</v>
       </c>
     </row>
@@ -9652,7 +9825,7 @@
         <v>122.56</v>
       </c>
       <c r="H70" s="71" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="71" customFormat="1" ht="22">
@@ -9681,7 +9854,7 @@
         <v>150.1</v>
       </c>
       <c r="H71" s="71" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="71" customFormat="1" ht="22">
@@ -9709,7 +9882,7 @@
         <v>199.29</v>
       </c>
       <c r="H72" s="71" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="71" customFormat="1" ht="44">
@@ -9738,7 +9911,7 @@
         <v>116.6</v>
       </c>
       <c r="H73" s="71" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="71" customFormat="1" ht="22">
@@ -9766,7 +9939,7 @@
         <v>138.5</v>
       </c>
       <c r="H74" s="71" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="71" customFormat="1" ht="22">
@@ -9795,7 +9968,7 @@
         <v>106.61</v>
       </c>
       <c r="H75" s="71" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="71" customFormat="1" ht="22">
@@ -9822,7 +9995,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H76" s="71" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="71" customFormat="1" ht="44">
@@ -9851,7 +10024,7 @@
         <v>103.6</v>
       </c>
       <c r="H77" s="71" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="71" customFormat="1" ht="22">
@@ -9881,58 +10054,627 @@
         <v>101.42</v>
       </c>
       <c r="H78" s="71" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A79" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="72" customFormat="1">
+      <c r="A79" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B79" s="4">
+        <v>100</v>
+      </c>
+      <c r="C79" s="72">
+        <v>0</v>
+      </c>
+      <c r="D79" s="72">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="E79" s="72">
+        <f>50.5</f>
+        <v>50.5</v>
+      </c>
+      <c r="F79" s="72">
+        <v>0</v>
+      </c>
+      <c r="G79" s="64">
+        <f t="shared" si="2"/>
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="72" customFormat="1">
+      <c r="A80" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="72">
+        <v>0</v>
+      </c>
+      <c r="D80" s="72">
+        <f>17</f>
         <v>17</v>
       </c>
-      <c r="B79" s="7">
-        <f>SUM(B2:B78)</f>
-        <v>320</v>
-      </c>
-      <c r="C79" s="7">
-        <f>SUM(C2:C78)</f>
+      <c r="E80" s="72">
+        <f>2+66</f>
+        <v>68</v>
+      </c>
+      <c r="F80" s="72">
+        <v>0</v>
+      </c>
+      <c r="G80" s="64">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="72" customFormat="1">
+      <c r="A81" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="72">
+        <v>0</v>
+      </c>
+      <c r="D81" s="72">
+        <f>43+31.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="E81" s="72">
+        <f>64.5+5+6.5</f>
+        <v>76</v>
+      </c>
+      <c r="F81" s="72">
+        <v>0</v>
+      </c>
+      <c r="G81" s="64">
+        <f t="shared" si="2"/>
+        <v>150.69999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="72" customFormat="1" ht="44">
+      <c r="A82" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="72">
+        <v>0</v>
+      </c>
+      <c r="D82" s="72">
+        <v>0</v>
+      </c>
+      <c r="E82" s="72">
+        <f>11+1</f>
+        <v>12</v>
+      </c>
+      <c r="F82" s="72">
+        <f>25.6+101.4+14.5+187+35.3+75.3</f>
+        <v>439.1</v>
+      </c>
+      <c r="G82" s="64">
+        <f t="shared" si="2"/>
+        <v>451.1</v>
+      </c>
+      <c r="H82" s="72" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A83" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="72">
+        <v>0</v>
+      </c>
+      <c r="D83" s="72">
+        <v>0</v>
+      </c>
+      <c r="E83" s="72">
+        <v>0</v>
+      </c>
+      <c r="F83" s="72">
+        <v>0</v>
+      </c>
+      <c r="G83" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A84" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="72">
+        <v>0</v>
+      </c>
+      <c r="D84" s="72">
+        <v>0</v>
+      </c>
+      <c r="E84" s="72">
+        <v>0</v>
+      </c>
+      <c r="F84" s="72">
+        <v>0</v>
+      </c>
+      <c r="G84" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="72" customFormat="1" ht="66">
+      <c r="A85" s="3">
+        <v>44240</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="72">
+        <v>0</v>
+      </c>
+      <c r="D85" s="72">
+        <v>0</v>
+      </c>
+      <c r="E85" s="72">
+        <f>9.6+110</f>
+        <v>119.6</v>
+      </c>
+      <c r="F85" s="72">
+        <v>0</v>
+      </c>
+      <c r="G85" s="64">
+        <f t="shared" si="2"/>
+        <v>119.6</v>
+      </c>
+      <c r="H85" s="72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A86" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="72">
+        <v>0</v>
+      </c>
+      <c r="D86" s="72">
+        <f>33.99</f>
+        <v>33.99</v>
+      </c>
+      <c r="E86" s="72">
+        <f>64.5</f>
+        <v>64.5</v>
+      </c>
+      <c r="F86" s="72">
+        <v>0</v>
+      </c>
+      <c r="G86" s="64">
+        <f t="shared" si="2"/>
+        <v>98.490000000000009</v>
+      </c>
+      <c r="H86" s="72" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A87" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="72">
+        <v>0</v>
+      </c>
+      <c r="D87" s="72">
+        <v>39.49</v>
+      </c>
+      <c r="E87" s="72">
+        <v>62</v>
+      </c>
+      <c r="F87" s="72">
+        <v>0</v>
+      </c>
+      <c r="G87" s="64">
+        <f t="shared" si="2"/>
+        <v>101.49000000000001</v>
+      </c>
+      <c r="H87" s="72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="72" customFormat="1" ht="44">
+      <c r="A88" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="72">
+        <v>0</v>
+      </c>
+      <c r="D88" s="72">
+        <v>17</v>
+      </c>
+      <c r="E88" s="72">
+        <f>62.5+3.5</f>
+        <v>66</v>
+      </c>
+      <c r="F88" s="72">
+        <v>32.9</v>
+      </c>
+      <c r="G88" s="64">
+        <f t="shared" si="2"/>
+        <v>115.9</v>
+      </c>
+      <c r="H88" s="72" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="72" customFormat="1">
+      <c r="A89" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="72">
+        <v>0</v>
+      </c>
+      <c r="D89" s="72">
+        <f>16.14</f>
+        <v>16.14</v>
+      </c>
+      <c r="E89" s="72">
+        <f>2.5+49.5</f>
+        <v>52</v>
+      </c>
+      <c r="F89" s="72">
+        <v>0</v>
+      </c>
+      <c r="G89" s="64">
+        <f t="shared" si="2"/>
+        <v>68.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="72" customFormat="1">
+      <c r="A90" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="72">
+        <v>0</v>
+      </c>
+      <c r="D90" s="72">
+        <f>38.4</f>
+        <v>38.4</v>
+      </c>
+      <c r="E90" s="72">
+        <f>2+59.5</f>
+        <v>61.5</v>
+      </c>
+      <c r="F90" s="72">
+        <v>0</v>
+      </c>
+      <c r="G90" s="64">
+        <f t="shared" si="2"/>
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A91" s="3">
+        <v>44246</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="72">
+        <v>0</v>
+      </c>
+      <c r="D91" s="72">
+        <f>38.5</f>
+        <v>38.5</v>
+      </c>
+      <c r="E91" s="72">
+        <f>23+49.5</f>
+        <v>72.5</v>
+      </c>
+      <c r="F91" s="72">
+        <v>0</v>
+      </c>
+      <c r="G91" s="64">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="H91" s="72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A92" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="72">
+        <v>0</v>
+      </c>
+      <c r="D92" s="72">
+        <f>37</f>
+        <v>37</v>
+      </c>
+      <c r="E92" s="72">
+        <f>2+56</f>
+        <v>58</v>
+      </c>
+      <c r="F92" s="72">
+        <v>0</v>
+      </c>
+      <c r="G92" s="64">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H92" s="72" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="72" customFormat="1">
+      <c r="A93" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="72">
+        <v>0</v>
+      </c>
+      <c r="D93" s="72">
+        <v>38.75</v>
+      </c>
+      <c r="E93" s="72">
+        <f>25.5+35.5</f>
+        <v>61</v>
+      </c>
+      <c r="F93" s="72">
+        <v>0</v>
+      </c>
+      <c r="G93" s="64">
+        <f t="shared" si="2"/>
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A94" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="72">
+        <v>0</v>
+      </c>
+      <c r="D94" s="72">
+        <v>0</v>
+      </c>
+      <c r="E94" s="72">
+        <v>0</v>
+      </c>
+      <c r="F94" s="72">
+        <v>0</v>
+      </c>
+      <c r="G94" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="72" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="72" customFormat="1">
+      <c r="A95" s="3">
+        <v>44250</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="72">
+        <v>0</v>
+      </c>
+      <c r="D95" s="72">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="E95" s="72">
+        <f>51</f>
+        <v>51</v>
+      </c>
+      <c r="F95" s="72">
+        <v>0</v>
+      </c>
+      <c r="G95" s="64">
+        <f t="shared" si="2"/>
+        <v>86.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="72" customFormat="1">
+      <c r="A96" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B96" s="4">
+        <v>100</v>
+      </c>
+      <c r="C96" s="72">
+        <v>0</v>
+      </c>
+      <c r="D96" s="72">
+        <f>15.19</f>
+        <v>15.19</v>
+      </c>
+      <c r="E96" s="72">
+        <f>1+60</f>
+        <v>61</v>
+      </c>
+      <c r="F96" s="72">
+        <v>0</v>
+      </c>
+      <c r="G96" s="64">
+        <f t="shared" si="2"/>
+        <v>176.19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="A97" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="72">
+        <v>0</v>
+      </c>
+      <c r="D97" s="72">
+        <f>35.05</f>
+        <v>35.049999999999997</v>
+      </c>
+      <c r="E97" s="72">
+        <f>59.5</f>
+        <v>59.5</v>
+      </c>
+      <c r="F97" s="72">
+        <v>0</v>
+      </c>
+      <c r="G97" s="64">
+        <f t="shared" si="2"/>
+        <v>94.55</v>
+      </c>
+      <c r="H97" s="72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="72" customFormat="1" ht="44">
+      <c r="A98" s="3">
+        <v>44253</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="72">
+        <v>0</v>
+      </c>
+      <c r="D98" s="72">
+        <v>0</v>
+      </c>
+      <c r="E98" s="72">
+        <v>0</v>
+      </c>
+      <c r="F98" s="72">
+        <f>8.9</f>
+        <v>8.9</v>
+      </c>
+      <c r="G98" s="64">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="H98" s="72" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="72" customFormat="1">
+      <c r="A99" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="72">
+        <v>0</v>
+      </c>
+      <c r="D99" s="72">
+        <f>17.2</f>
+        <v>17.2</v>
+      </c>
+      <c r="E99" s="72">
+        <f>12+42.5</f>
+        <v>54.5</v>
+      </c>
+      <c r="F99" s="72">
+        <v>0</v>
+      </c>
+      <c r="G99" s="64">
+        <f t="shared" si="2"/>
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="7">
+        <f>SUM(B2:B99)</f>
+        <v>520</v>
+      </c>
+      <c r="C100" s="7">
+        <f>SUM(C2:C99)</f>
         <v>72</v>
       </c>
-      <c r="D79" s="7">
-        <f>SUM(D2:D78)</f>
-        <v>2771.9700000000003</v>
-      </c>
-      <c r="E79" s="7">
-        <f>SUM(E2:E78)</f>
-        <v>3290.2000000000003</v>
-      </c>
-      <c r="F79" s="7">
-        <f>SUM(F2:F78)</f>
-        <v>1473.81</v>
-      </c>
-      <c r="G79" s="65">
-        <f>SUM(G2:G75)</f>
-        <v>7718.3599999999988</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3"/>
+      <c r="D100" s="7">
+        <f>SUM(D2:D99)</f>
+        <v>3265.43</v>
+      </c>
+      <c r="E100" s="7">
+        <f>SUM(E2:E99)</f>
+        <v>4339.8</v>
+      </c>
+      <c r="F100" s="7">
+        <f>SUM(F2:F99)</f>
+        <v>1954.71</v>
+      </c>
+      <c r="G100" s="65">
+        <f>SUM(G2:G99)</f>
+        <v>10151.939999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9942,11 +10684,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -10129,7 +10871,7 @@
         <v>221</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>222</v>
@@ -10155,7 +10897,7 @@
         <v>269</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66">
@@ -10199,71 +10941,121 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="308">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="83" t="s">
         <v>218</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>405</v>
+        <v>516</v>
       </c>
       <c r="D12" s="25">
         <v>20.5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>297</v>
+        <v>493</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="69" customFormat="1" ht="44">
-      <c r="A13" s="79" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>496</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="74" customFormat="1" ht="66">
+      <c r="A13" s="83"/>
+      <c r="B13" s="74" t="s">
+        <v>517</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>522</v>
       </c>
       <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" s="62" customFormat="1" ht="88">
-      <c r="A14" s="79"/>
-      <c r="B14" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>439</v>
+      <c r="E13" s="74" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="69" customFormat="1" ht="44">
+      <c r="A14" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>487</v>
       </c>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="88">
-      <c r="A15" s="79"/>
-      <c r="B15" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="44">
-      <c r="A16" s="79"/>
+    <row r="15" spans="1:7" s="62" customFormat="1" ht="88">
+      <c r="A15" s="83"/>
+      <c r="B15" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="198">
+      <c r="A16" s="83"/>
       <c r="B16" s="11" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>502</v>
+        <v>489</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="88">
+      <c r="A17" s="83"/>
+      <c r="B17" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22">
+      <c r="A18" s="83" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22">
+      <c r="A19" s="83"/>
+      <c r="B19" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22">
+      <c r="A20" s="83"/>
+      <c r="B20" s="11" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:A16"/>
+  <mergeCells count="3">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10274,7 +11066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80050F6-DCA8-6F49-85E6-701F85802663}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -10352,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="198">
@@ -10360,7 +11152,7 @@
         <v>276</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C6" s="27">
         <v>80</v>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55F302C-26C2-4749-A7E4-8F4FC3C4FCFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4D9F4-7089-814B-88D3-5B40C94AC872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="17540" activeTab="6" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="17540" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="619">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>选购说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃隔断门1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1367,10 +1363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>砌墙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2049,15 +2041,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需退两个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材料费12071.77+人工费7342.5（包一个管200人工费*2+一个卫生间防水600人工费*2+贴瓷砖50一平*76.7平+地面找平25一平*77.7平-抹零35）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包管找坡防水贴砖找平美缝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2372,6 +2356,377 @@
       </rPr>
       <t>待地板方评估是否需要修复</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑凑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买绝味鸭脖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;买吊顶建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;定全屋定制，交订金(10,000)                                                        &gt;&gt;定卧室卫生间门，交订金(1,000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;定厨房拉门，交订金(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊吊顶：轻钢龙骨吊平顶遮住水电管线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料费770+运费80+人工费700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散工+业主(自己搬运上楼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77.7㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.7㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏局部找平，腻子，乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买多两个没法退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辅材明细（已含在硬装费用中，无需重复计入总价）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜居木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过门石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗台板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屋定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦工-包管找坡防水贴砖找平美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助工具（应计入总价）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木工-走廊平顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福家居建材市场-建鑫建材</t>
+  </si>
+  <si>
+    <t>幸福家居建材市场-建鑫建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻钢龙骨主骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻钢龙骨副骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻钢边条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊筋三件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可耐福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/张，规格1.5m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8钢排钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5自攻钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.5/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3/套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/捆，规格2.5cm×4cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量尺，定做颜色，地面自流平后铺装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董家工艺（同时提供自流平服务）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自流平包工包料+地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量尺，设计，安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自流平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董家工艺，颜色定制浅暖灰F05，规格910×146×18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三角居然之家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300/㎡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（包量尺安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜+其它柜体（包量尺设计安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间和卧室门量尺，安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房门量尺，安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放广场家饰城-意莱特滑动门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实木番龙眼木地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢脚线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收边条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南红星美凯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放广场家饰城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1099/扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1529/扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜居木门, 白色平板含标准五金(三合页、分体门把手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜居木门，白色平板带竖条钻石玻璃含标准五金(三合页、分体门把手)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意莱特滑动门，黑色，三扇手拉手，上下滑轨，2mm镁铝合金，8mm钢化玻璃，不含门套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2250/扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它柜体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;填缝结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/19，8：00-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自流平施工师傅上门看当前地面情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室和卫生间门量尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/11，下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/16，下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/15，下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/17，9：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计师上门量尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100(订金500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2602,7 +2957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2756,9 +3111,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2831,22 +3183,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2854,6 +3215,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3625,12 +3995,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -3672,7 +4042,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220">
@@ -3686,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -3698,13 +4068,13 @@
         <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I2" s="5">
         <v>3830</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="132">
@@ -3712,13 +4082,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="5">
         <v>1000</v>
@@ -3730,24 +4100,24 @@
         <v>1000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="5">
         <v>1000</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="44">
       <c r="A4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -3768,21 +4138,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -3795,27 +4165,27 @@
         <v>931</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="5">
         <v>931</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="308">
       <c r="A6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3828,118 +4198,234 @@
         <v>8494.869999999999</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I6" s="5">
         <v>8489.8700000000008</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="154" customHeight="1">
-      <c r="A7" s="75" t="s">
-        <v>434</v>
+      <c r="A7" s="79" t="s">
+        <v>432</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="86">
         <f>12071.77+7342.5</f>
         <v>19414.27</v>
       </c>
-      <c r="H7" s="75" t="s">
-        <v>486</v>
-      </c>
-      <c r="I7" s="75">
+      <c r="H7" s="86" t="s">
+        <v>482</v>
+      </c>
+      <c r="I7" s="86">
         <f>G7</f>
         <v>19414.27</v>
       </c>
-      <c r="J7" s="75"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" ht="88">
-      <c r="A8" s="75"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="70" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" ht="88">
-      <c r="A9" s="75"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>476</v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5">
-        <v>76.7</v>
-      </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-    </row>
-    <row r="10" spans="1:10" ht="88">
-      <c r="A10" s="76"/>
-      <c r="B10" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="71" t="s">
+      <c r="F9" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10" s="69" customFormat="1" ht="88">
+      <c r="A10" s="86"/>
+      <c r="B10" s="69" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5">
-        <v>77.7</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-    </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="22">
-      <c r="A11" s="17" t="s">
+      <c r="F10" s="69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10" s="69" customFormat="1" ht="66">
+      <c r="A11" s="69" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>533</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>534</v>
+      </c>
+      <c r="G11" s="69">
+        <f>770+80+700</f>
+        <v>1550</v>
+      </c>
+      <c r="I11" s="69">
+        <f>G11</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="69" customFormat="1" ht="22">
+      <c r="A12" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="69" customFormat="1" ht="88">
+      <c r="A13" s="69" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>580</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="69" customFormat="1" ht="22">
+      <c r="A14" s="86" t="s">
+        <v>553</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="69" customFormat="1" ht="66">
+      <c r="A15" s="86"/>
+      <c r="B15" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>591</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="69" customFormat="1" ht="44">
+      <c r="A16" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>587</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="69" customFormat="1" ht="22">
+      <c r="A17" s="69" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="69" customFormat="1" ht="22">
+      <c r="A18" s="69" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="17" customFormat="1" ht="22">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="17">
-        <f>SUM(I2:I10)</f>
-        <v>33665.14</v>
+      <c r="I19" s="17">
+        <f>SUM(I2:I16)</f>
+        <v>35215.14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="A7:A10"/>
@@ -3954,16 +4440,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="18" style="30"/>
+    <col min="1" max="1" width="18" style="30"/>
+    <col min="2" max="2" width="18" style="77"/>
     <col min="3" max="3" width="24.1640625" style="30" customWidth="1"/>
     <col min="4" max="4" width="18" style="30"/>
     <col min="5" max="5" width="18" style="30" customWidth="1"/>
@@ -3972,10 +4459,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>310</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>34</v>
@@ -3984,39 +4471,43 @@
         <v>36</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I1" s="49" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="22">
-      <c r="A2" s="30" t="s">
-        <v>310</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22" customHeight="1">
+      <c r="A2" s="81" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="81">
+        <f>SUM(I2:I19)</f>
+        <v>1778.7</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>136</v>
       </c>
       <c r="F2" s="30">
         <v>278</v>
@@ -4033,14 +4524,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="22">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>138</v>
-      </c>
       <c r="E3" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="30">
         <v>64</v>
@@ -4057,11 +4550,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="22">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>140</v>
       </c>
       <c r="F4" s="30">
         <v>5</v>
@@ -4078,14 +4573,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="22">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>179</v>
-      </c>
       <c r="E5" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="30">
         <v>318</v>
@@ -4097,19 +4594,21 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="82">
         <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="66">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>181</v>
-      </c>
       <c r="E6" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="30">
         <v>53.9</v>
@@ -4121,17 +4620,19 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:11" ht="44">
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>183</v>
-      </c>
       <c r="E7" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="30">
         <v>39.9</v>
@@ -4143,17 +4644,19 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="66">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>185</v>
-      </c>
       <c r="E8" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="30">
         <v>188</v>
@@ -4170,14 +4673,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="22">
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>187</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>188</v>
       </c>
       <c r="F9" s="30">
         <v>35</v>
@@ -4194,14 +4699,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="66">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>194</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="30">
         <v>258</v>
@@ -4218,11 +4725,13 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="22">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="30">
         <v>22</v>
@@ -4239,11 +4748,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="22">
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="30">
         <v>11.2</v>
@@ -4260,14 +4771,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="22">
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>205</v>
-      </c>
       <c r="E13" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="30">
         <v>89</v>
@@ -4284,14 +4797,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="22">
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="30">
         <v>30</v>
@@ -4307,36 +4822,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="58" customFormat="1" ht="22">
-      <c r="C15" s="58" t="s">
+    <row r="15" spans="1:11" s="57" customFormat="1" ht="22">
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="58">
+      <c r="E15" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="57">
         <v>287.5</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="57">
         <v>1</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="57">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="57">
         <v>287.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="44">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>255</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>256</v>
       </c>
       <c r="F16" s="30">
         <v>15</v>
@@ -4352,14 +4871,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="44">
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>258</v>
-      </c>
       <c r="E17" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="30">
         <v>3</v>
@@ -4375,11 +4896,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="44">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="30">
         <v>10</v>
@@ -4394,55 +4917,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="C19" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="48">
+    <row r="19" spans="1:9" s="75" customFormat="1" ht="44">
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="75">
         <v>10</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="75">
         <v>1</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="75">
         <v>10</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="75">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="51" customFormat="1" ht="22">
-      <c r="A20" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="I20" s="51">
-        <f>SUM(I2:I19)</f>
-        <v>1778.7</v>
-      </c>
+    <row r="20" spans="1:9" s="75" customFormat="1">
+      <c r="A20" s="87" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
     </row>
     <row r="21" spans="1:9" ht="44">
-      <c r="A21" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="78">
+      <c r="A21" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="81">
         <f>SUM(I21:I28)</f>
         <v>479</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="F21" s="30" t="s">
         <v>236</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>237</v>
       </c>
       <c r="G21" s="30">
         <v>80</v>
@@ -4455,19 +4983,19 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="44">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>238</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>239</v>
       </c>
       <c r="G22" s="30">
         <v>3</v>
@@ -4480,19 +5008,19 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="44">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>241</v>
-      </c>
       <c r="E23" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G23" s="30">
         <v>20</v>
@@ -4505,16 +5033,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="44">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F24" s="30">
         <v>4</v>
@@ -4530,13 +5058,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="44">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" s="30">
         <v>1</v>
@@ -4552,16 +5080,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="44">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G26" s="30">
         <v>3</v>
@@ -4574,13 +5102,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="44">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F27" s="30">
         <v>2</v>
@@ -4596,19 +5124,19 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D28" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="48" t="s">
         <v>249</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>250</v>
       </c>
       <c r="G28" s="48">
         <v>2.5</v>
@@ -4621,24 +5149,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="44">
-      <c r="A29" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="B29" s="79">
+      <c r="A29" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="81">
         <f>SUM(I29:I54)</f>
         <v>2021</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G29" s="30">
         <v>5</v>
@@ -4647,22 +5175,22 @@
         <f>60*5</f>
         <v>300</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="57">
         <f>H29</f>
         <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="44">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F30" s="30">
         <v>7</v>
@@ -4675,22 +5203,22 @@
         <f>F30*G30</f>
         <v>77</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <f t="shared" ref="I30:I84" si="1">H30</f>
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="44">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F31" s="30">
         <v>7</v>
@@ -4702,22 +5230,22 @@
         <f>F31*G31</f>
         <v>70</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="57">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="44">
-      <c r="A32" s="81"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F32" s="30">
         <v>6</v>
@@ -4729,22 +5257,22 @@
         <f t="shared" ref="H32:H35" si="2">F32*G32</f>
         <v>24</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="57">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="44">
-      <c r="A33" s="81"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F33" s="30">
         <v>5</v>
@@ -4757,25 +5285,25 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="57">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J33" s="66" t="s">
-        <v>402</v>
+      <c r="J33" s="65" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="44">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F34" s="30">
         <v>4.5</v>
@@ -4788,22 +5316,22 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I34" s="58">
+      <c r="I34" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="44">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F35" s="30">
         <v>4.5</v>
@@ -4815,22 +5343,22 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="44">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E36" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>377</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>379</v>
       </c>
       <c r="G36" s="30">
         <f>5+6</f>
@@ -4839,22 +5367,22 @@
       <c r="H36" s="30">
         <v>44</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="57">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="44">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F37" s="30">
         <v>115</v>
@@ -4866,25 +5394,25 @@
         <f>115</f>
         <v>115</v>
       </c>
-      <c r="I37" s="58">
+      <c r="I37" s="57">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="44">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G38" s="30">
         <f>18+1</f>
@@ -4894,22 +5422,22 @@
         <f>35*19</f>
         <v>665</v>
       </c>
-      <c r="I38" s="58">
+      <c r="I38" s="57">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="44">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F39" s="30">
         <v>4</v>
@@ -4922,22 +5450,22 @@
         <f>F39*G39</f>
         <v>120</v>
       </c>
-      <c r="I39" s="58">
+      <c r="I39" s="57">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="44">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F40" s="30">
         <v>3</v>
@@ -4950,25 +5478,25 @@
         <f t="shared" ref="H40:H47" si="3">F40*G40</f>
         <v>15</v>
       </c>
-      <c r="I40" s="58">
+      <c r="I40" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="44">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F41" s="30">
         <v>4</v>
@@ -4981,22 +5509,22 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I41" s="58">
+      <c r="I41" s="57">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="44">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F42" s="30">
         <v>3</v>
@@ -5008,22 +5536,22 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="44">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F43" s="30">
         <v>18</v>
@@ -5035,22 +5563,22 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="57">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="44">
-      <c r="A44" s="81"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F44" s="30">
         <v>18</v>
@@ -5062,22 +5590,22 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I44" s="58">
+      <c r="I44" s="57">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="44">
-      <c r="A45" s="81"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F45" s="30">
         <v>40</v>
@@ -5089,19 +5617,19 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="57">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="44">
-      <c r="A46" s="81"/>
-      <c r="B46" s="79"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F46" s="30">
         <v>1</v>
@@ -5114,19 +5642,19 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="44">
-      <c r="A47" s="81"/>
-      <c r="B47" s="79"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F47" s="30">
         <v>12</v>
@@ -5138,22 +5666,22 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="57">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="44">
-      <c r="A48" s="81"/>
-      <c r="B48" s="79"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G48" s="30">
         <v>2</v>
@@ -5162,22 +5690,22 @@
         <f>10*2</f>
         <v>20</v>
       </c>
-      <c r="I48" s="58">
+      <c r="I48" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="44">
-      <c r="A49" s="81"/>
-      <c r="B49" s="79"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G49" s="30">
         <f>13+8+3</f>
@@ -5187,22 +5715,22 @@
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I49" s="57">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="44">
-      <c r="A50" s="81"/>
-      <c r="B50" s="79"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G50" s="30">
         <f>13-4</f>
@@ -5212,22 +5740,22 @@
         <f>3*9</f>
         <v>27</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I50" s="57">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="44">
-      <c r="A51" s="81"/>
-      <c r="B51" s="79"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G51" s="30">
         <v>1</v>
@@ -5236,22 +5764,22 @@
         <f>5*1</f>
         <v>5</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="44">
-      <c r="A52" s="81"/>
-      <c r="B52" s="79"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G52" s="30">
         <f>1+1</f>
@@ -5261,22 +5789,22 @@
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="57">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="44">
-      <c r="A53" s="81"/>
-      <c r="B53" s="79"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G53" s="30">
         <v>0</v>
@@ -5284,18 +5812,18 @@
       <c r="H53" s="30">
         <v>0</v>
       </c>
-      <c r="I53" s="58">
+      <c r="I53" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="44">
-      <c r="A54" s="81"/>
-      <c r="B54" s="79"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F54" s="30">
         <v>3</v>
@@ -5307,24 +5835,24 @@
         <f>F54*G54</f>
         <v>3</v>
       </c>
-      <c r="I54" s="58">
+      <c r="I54" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="44">
-      <c r="A55" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="B55" s="79">
+      <c r="A55" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="81">
         <f>SUM(I55:I64)</f>
         <v>78</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F55" s="30">
         <v>15</v>
@@ -5336,22 +5864,22 @@
         <f>F55*G55</f>
         <v>15</v>
       </c>
-      <c r="I55" s="58">
+      <c r="I55" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="44">
-      <c r="A56" s="81"/>
-      <c r="B56" s="79"/>
+      <c r="A56" s="80"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G56" s="30">
         <v>0.2</v>
@@ -5359,19 +5887,19 @@
       <c r="H56" s="30">
         <v>3</v>
       </c>
-      <c r="I56" s="58">
+      <c r="I56" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="44">
-      <c r="A57" s="81"/>
-      <c r="B57" s="79"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="81"/>
       <c r="C57" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F57" s="30">
         <v>2</v>
@@ -5383,19 +5911,19 @@
         <f t="shared" ref="H57:H83" si="4">F57*G57</f>
         <v>2</v>
       </c>
-      <c r="I57" s="58">
+      <c r="I57" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="44">
-      <c r="A58" s="81"/>
-      <c r="B58" s="79"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F58" s="30">
         <v>2</v>
@@ -5407,19 +5935,19 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I58" s="58">
+      <c r="I58" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="44">
-      <c r="A59" s="81"/>
-      <c r="B59" s="79"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F59" s="30">
         <v>2</v>
@@ -5432,19 +5960,19 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I59" s="58">
+      <c r="I59" s="57">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="44">
-      <c r="A60" s="81"/>
-      <c r="B60" s="79"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F60" s="30">
         <v>3</v>
@@ -5456,22 +5984,22 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I60" s="58">
+      <c r="I60" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="44">
-      <c r="A61" s="81"/>
-      <c r="B61" s="79"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="81"/>
       <c r="C61" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G61" s="30">
         <v>3</v>
@@ -5480,19 +6008,19 @@
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="I61" s="58">
+      <c r="I61" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="44">
-      <c r="A62" s="81"/>
-      <c r="B62" s="79"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="81"/>
       <c r="C62" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F62" s="30">
         <v>2</v>
@@ -5504,22 +6032,22 @@
         <f>F62*G62</f>
         <v>2</v>
       </c>
-      <c r="I62" s="58">
+      <c r="I62" s="57">
         <f>H62</f>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="44">
-      <c r="A63" s="81"/>
-      <c r="B63" s="79"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="81"/>
       <c r="C63" s="30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G63" s="30">
         <f>1-1</f>
@@ -5528,22 +6056,22 @@
       <c r="H63" s="30">
         <v>0</v>
       </c>
-      <c r="I63" s="58">
+      <c r="I63" s="57">
         <f>H63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="44">
-      <c r="A64" s="81"/>
-      <c r="B64" s="79"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="81"/>
       <c r="C64" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G64" s="30">
         <v>1</v>
@@ -5551,46 +6079,46 @@
       <c r="H64" s="30">
         <v>25</v>
       </c>
-      <c r="I64" s="58">
+      <c r="I64" s="57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="22">
-      <c r="A65" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="B65" s="79">
+      <c r="A65" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="B65" s="81">
         <f>SUM(I65:I84)</f>
         <v>2473.87</v>
       </c>
       <c r="C65" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>441</v>
-      </c>
       <c r="E65" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" s="58">
+        <v>135</v>
+      </c>
+      <c r="H65" s="57">
         <v>856.87</v>
       </c>
-      <c r="I65" s="61">
+      <c r="I65" s="60">
         <v>856.87</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="44">
-      <c r="A66" s="79"/>
-      <c r="B66" s="79"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="81"/>
       <c r="C66" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G66" s="30">
         <v>3</v>
@@ -5599,22 +6127,22 @@
         <f>222*3</f>
         <v>666</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I66" s="57">
         <f t="shared" si="1"/>
         <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="44">
-      <c r="A67" s="79"/>
-      <c r="B67" s="79"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="81"/>
       <c r="C67" s="30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G67" s="30">
         <v>4</v>
@@ -5623,22 +6151,22 @@
         <f>145*4</f>
         <v>580</v>
       </c>
-      <c r="I67" s="58">
+      <c r="I67" s="57">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="44">
-      <c r="A68" s="79"/>
-      <c r="B68" s="79"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="81"/>
       <c r="C68" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G68" s="30">
         <v>25</v>
@@ -5647,19 +6175,19 @@
         <f>75</f>
         <v>75</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I68" s="57">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="44">
-      <c r="A69" s="79"/>
-      <c r="B69" s="79"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="81"/>
       <c r="C69" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F69" s="30">
         <v>0.4</v>
@@ -5671,19 +6199,19 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I69" s="58">
+      <c r="I69" s="57">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="44">
-      <c r="A70" s="79"/>
-      <c r="B70" s="79"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="81"/>
       <c r="C70" s="30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F70" s="30">
         <v>0.4</v>
@@ -5696,19 +6224,19 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I70" s="57">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="44">
-      <c r="A71" s="79"/>
-      <c r="B71" s="79"/>
+      <c r="A71" s="81"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F71" s="30">
         <v>1</v>
@@ -5721,19 +6249,19 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I71" s="58">
+      <c r="I71" s="57">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="44">
-      <c r="A72" s="79"/>
-      <c r="B72" s="79"/>
+      <c r="A72" s="81"/>
+      <c r="B72" s="81"/>
       <c r="C72" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F72" s="30">
         <v>1</v>
@@ -5745,19 +6273,19 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="I72" s="58">
+      <c r="I72" s="57">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="44">
-      <c r="A73" s="79"/>
-      <c r="B73" s="79"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="81"/>
       <c r="C73" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F73" s="30">
         <v>0.5</v>
@@ -5769,19 +6297,19 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I73" s="58">
+      <c r="I73" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="44">
-      <c r="A74" s="79"/>
-      <c r="B74" s="79"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="81"/>
       <c r="C74" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F74" s="30">
         <v>15</v>
@@ -5794,19 +6322,19 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I74" s="58">
+      <c r="I74" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="44">
-      <c r="A75" s="79"/>
-      <c r="B75" s="79"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F75" s="30">
         <v>15</v>
@@ -5818,19 +6346,19 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I75" s="58">
+      <c r="I75" s="57">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="44">
-      <c r="A76" s="79"/>
-      <c r="B76" s="79"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="81"/>
       <c r="C76" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F76" s="30">
         <v>2</v>
@@ -5843,22 +6371,22 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I76" s="58">
+      <c r="I76" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="44">
-      <c r="A77" s="79"/>
-      <c r="B77" s="79"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="81"/>
       <c r="C77" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G77" s="30">
         <v>11</v>
@@ -5866,20 +6394,20 @@
       <c r="H77" s="30">
         <v>10</v>
       </c>
-      <c r="I77" s="58">
+      <c r="I77" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="44">
-      <c r="A78" s="79"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="D78" s="81"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="80"/>
       <c r="E78" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F78" s="30">
         <v>5</v>
@@ -5892,18 +6420,18 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I78" s="58">
+      <c r="I78" s="57">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="22">
-      <c r="A79" s="79"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="81"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="80"/>
       <c r="E79" s="30" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F79" s="30">
         <v>5</v>
@@ -5914,24 +6442,24 @@
       <c r="H79" s="30">
         <v>5</v>
       </c>
-      <c r="I79" s="73">
+      <c r="I79" s="72">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="44">
-      <c r="A80" s="79"/>
-      <c r="B80" s="79"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="81"/>
       <c r="C80" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G80" s="30">
         <v>35</v>
@@ -5939,22 +6467,22 @@
       <c r="H80" s="30">
         <v>9</v>
       </c>
-      <c r="I80" s="58">
+      <c r="I80" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="44">
-      <c r="A81" s="79"/>
-      <c r="B81" s="79"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="81"/>
       <c r="C81" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G81" s="30">
         <v>10</v>
@@ -5963,19 +6491,19 @@
         <f>1*10</f>
         <v>10</v>
       </c>
-      <c r="I81" s="58">
+      <c r="I81" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="44">
-      <c r="A82" s="79"/>
-      <c r="B82" s="79"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="81"/>
       <c r="C82" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F82" s="30">
         <v>5</v>
@@ -5987,19 +6515,19 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I82" s="58">
+      <c r="I82" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="44">
-      <c r="A83" s="79"/>
-      <c r="B83" s="79"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="81"/>
       <c r="C83" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F83" s="30">
         <v>0</v>
@@ -6011,22 +6539,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I83" s="58">
+      <c r="I83" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="48" customFormat="1" ht="44">
-      <c r="A84" s="79"/>
-      <c r="B84" s="79"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="81"/>
       <c r="C84" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="E84" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="E84" s="48" t="s">
-        <v>377</v>
-      </c>
       <c r="F84" s="48" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G84" s="48">
         <v>4</v>
@@ -6040,337 +6568,337 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="58" customFormat="1" ht="110">
-      <c r="A85" s="79" t="s">
-        <v>483</v>
-      </c>
-      <c r="B85" s="79">
+    <row r="85" spans="1:10" s="57" customFormat="1" ht="110">
+      <c r="A85" s="81" t="s">
+        <v>551</v>
+      </c>
+      <c r="B85" s="81">
         <f>SUM(I87:I114)+SUM(I85)+6650</f>
         <v>12071.77</v>
       </c>
-      <c r="C85" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E85" s="58" t="s">
-        <v>406</v>
-      </c>
-      <c r="F85" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="H85" s="58">
+      <c r="C85" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="H85" s="57">
         <f>23+27+13+20+12+18+20</f>
         <v>133</v>
       </c>
-      <c r="I85" s="58">
+      <c r="I85" s="57">
         <f>H85</f>
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="61" customFormat="1" ht="308">
-      <c r="A86" s="79"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="61" t="s">
+    <row r="86" spans="1:10" s="60" customFormat="1" ht="308">
+      <c r="A86" s="81"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="E86" s="69">
+        <v>1688</v>
+      </c>
+      <c r="F86" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="G86" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="D86" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="E86" s="70">
+      <c r="H86" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="I86" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="J86" s="60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="60" customFormat="1" ht="88">
+      <c r="A87" s="81"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="D87" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="E87" s="69">
         <v>1688</v>
       </c>
-      <c r="F86" s="61" t="s">
-        <v>413</v>
-      </c>
-      <c r="G86" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="H86" s="61" t="s">
-        <v>414</v>
-      </c>
-      <c r="I86" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="J86" s="61" t="s">
+      <c r="G87" s="60" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" s="61" customFormat="1" ht="88">
-      <c r="A87" s="79"/>
-      <c r="B87" s="79"/>
-      <c r="C87" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D87" s="61" t="s">
+      <c r="H87" s="60">
+        <v>3.6</v>
+      </c>
+      <c r="I87" s="60">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="60" customFormat="1" ht="88">
+      <c r="A88" s="81"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="E87" s="70">
+      <c r="D88" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="E88" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="60" t="s">
+        <v>423</v>
+      </c>
+      <c r="G88" s="60">
+        <v>1</v>
+      </c>
+      <c r="H88" s="60">
+        <v>200</v>
+      </c>
+      <c r="I88" s="60">
+        <v>200</v>
+      </c>
+      <c r="J88" s="60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="60" customFormat="1" ht="44">
+      <c r="A89" s="81"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="E89" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" s="60">
+        <v>5</v>
+      </c>
+      <c r="G89" s="60">
+        <v>1</v>
+      </c>
+      <c r="H89" s="60">
+        <v>5</v>
+      </c>
+      <c r="I89" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="60" customFormat="1" ht="66">
+      <c r="A90" s="81"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="D90" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="E90" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="G90" s="60">
+        <v>2</v>
+      </c>
+      <c r="H90" s="60">
+        <v>1600</v>
+      </c>
+      <c r="I90" s="60">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="60" customFormat="1" ht="66">
+      <c r="A91" s="81"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="E91" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="60">
+        <v>59</v>
+      </c>
+      <c r="G91" s="60">
+        <v>1</v>
+      </c>
+      <c r="H91" s="60">
+        <v>59</v>
+      </c>
+      <c r="I91" s="60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="67" customFormat="1" ht="44">
+      <c r="A92" s="81"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="D92" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="E92" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="67">
+        <v>20</v>
+      </c>
+      <c r="G92" s="67">
+        <v>1</v>
+      </c>
+      <c r="H92" s="67">
+        <v>20</v>
+      </c>
+      <c r="I92" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="67" customFormat="1" ht="22">
+      <c r="A93" s="81"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="67" t="s">
+        <v>476</v>
+      </c>
+      <c r="E93" s="69">
         <v>1688</v>
       </c>
-      <c r="G87" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="H87" s="61">
-        <v>3.6</v>
-      </c>
-      <c r="I87" s="61">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="61" customFormat="1" ht="88">
-      <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="D88" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="E88" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F88" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="G88" s="61">
+      <c r="F93" s="67">
+        <v>8.86</v>
+      </c>
+      <c r="G93" s="67">
         <v>1</v>
       </c>
-      <c r="H88" s="61">
-        <v>200</v>
-      </c>
-      <c r="I88" s="61">
-        <v>200</v>
-      </c>
-      <c r="J88" s="61" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="61" customFormat="1" ht="44">
-      <c r="A89" s="79"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="E89" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F89" s="61">
-        <v>5</v>
-      </c>
-      <c r="G89" s="61">
-        <v>1</v>
-      </c>
-      <c r="H89" s="61">
-        <v>5</v>
-      </c>
-      <c r="I89" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="61" customFormat="1" ht="66">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="D90" s="61" t="s">
-        <v>461</v>
-      </c>
-      <c r="E90" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="F90" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="G90" s="61">
-        <v>2</v>
-      </c>
-      <c r="H90" s="61">
-        <v>1600</v>
-      </c>
-      <c r="I90" s="61">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="61" customFormat="1" ht="66">
-      <c r="A91" s="79"/>
-      <c r="B91" s="79"/>
-      <c r="C91" s="61" t="s">
-        <v>457</v>
-      </c>
-      <c r="D91" s="61" t="s">
-        <v>456</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="F91" s="61">
-        <v>59</v>
-      </c>
-      <c r="G91" s="61">
-        <v>1</v>
-      </c>
-      <c r="H91" s="61">
-        <v>59</v>
-      </c>
-      <c r="I91" s="61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="68" customFormat="1" ht="44">
-      <c r="A92" s="79"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="68" t="s">
-        <v>458</v>
-      </c>
-      <c r="D92" s="68" t="s">
-        <v>459</v>
-      </c>
-      <c r="E92" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="F92" s="68">
-        <v>20</v>
-      </c>
-      <c r="G92" s="68">
-        <v>1</v>
-      </c>
-      <c r="H92" s="68">
-        <v>20</v>
-      </c>
-      <c r="I92" s="68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="68" customFormat="1" ht="22">
-      <c r="A93" s="79"/>
-      <c r="B93" s="79"/>
-      <c r="C93" s="68" t="s">
-        <v>478</v>
-      </c>
-      <c r="E93" s="70">
-        <v>1688</v>
-      </c>
-      <c r="F93" s="68">
+      <c r="H93" s="67">
         <v>8.86</v>
       </c>
-      <c r="G93" s="68">
-        <v>1</v>
-      </c>
-      <c r="H93" s="68">
-        <v>8.86</v>
-      </c>
-      <c r="I93" s="68">
+      <c r="I93" s="67">
         <f>H93</f>
         <v>8.86</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="68" customFormat="1" ht="22">
-      <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
-      <c r="C94" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="E94" s="70">
+    <row r="94" spans="1:10" s="67" customFormat="1" ht="22">
+      <c r="A94" s="81"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="E94" s="69">
         <v>1688</v>
       </c>
-      <c r="F94" s="68">
+      <c r="F94" s="67">
         <v>13</v>
       </c>
-      <c r="G94" s="68">
+      <c r="G94" s="67">
         <v>1</v>
       </c>
-      <c r="H94" s="68">
+      <c r="H94" s="67">
         <v>13</v>
       </c>
-      <c r="I94" s="68">
+      <c r="I94" s="67">
         <f t="shared" ref="I94:I95" si="5">H94</f>
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="68" customFormat="1" ht="44">
-      <c r="A95" s="79"/>
-      <c r="B95" s="79"/>
-      <c r="C95" s="68" t="s">
-        <v>480</v>
-      </c>
-      <c r="E95" s="70">
+    <row r="95" spans="1:10" s="67" customFormat="1" ht="44">
+      <c r="A95" s="81"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" s="69">
         <v>1688</v>
       </c>
-      <c r="F95" s="68">
+      <c r="F95" s="67">
         <v>9.31</v>
       </c>
-      <c r="G95" s="68">
+      <c r="G95" s="67">
         <v>1</v>
       </c>
-      <c r="H95" s="68">
+      <c r="H95" s="67">
         <v>9.31</v>
       </c>
-      <c r="I95" s="68">
+      <c r="I95" s="67">
         <f t="shared" si="5"/>
         <v>9.31</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="61" customFormat="1" ht="44">
-      <c r="A96" s="79"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="E96" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F96" s="61">
+    <row r="96" spans="1:10" s="60" customFormat="1" ht="44">
+      <c r="A96" s="81"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="E96" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="60">
         <v>25</v>
       </c>
-      <c r="G96" s="61">
+      <c r="G96" s="60">
         <v>3</v>
       </c>
-      <c r="H96" s="61">
+      <c r="H96" s="60">
         <v>75</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="60">
         <v>75</v>
       </c>
-      <c r="J96" s="61" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="61" customFormat="1" ht="66">
-      <c r="A97" s="79"/>
-      <c r="B97" s="79"/>
-      <c r="C97" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E97" s="61" t="s">
+      <c r="J96" s="60" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="60" customFormat="1" ht="66">
+      <c r="A97" s="81"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="E97" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="F97" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="F97" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="G97" s="61">
+      <c r="G97" s="60">
         <v>2</v>
       </c>
-      <c r="H97" s="61">
+      <c r="H97" s="60">
         <v>24</v>
       </c>
-      <c r="I97" s="61">
+      <c r="I97" s="60">
         <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="44">
-      <c r="A98" s="79"/>
-      <c r="B98" s="79"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="81"/>
       <c r="C98" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G98" s="30">
         <v>1</v>
@@ -6378,21 +6906,21 @@
       <c r="H98" s="30">
         <v>80</v>
       </c>
-      <c r="I98" s="58">
+      <c r="I98" s="57">
         <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="44">
-      <c r="A99" s="79"/>
-      <c r="B99" s="79"/>
+      <c r="A99" s="81"/>
+      <c r="B99" s="81"/>
       <c r="C99" s="30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G99" s="30">
         <v>1</v>
@@ -6400,24 +6928,24 @@
       <c r="H99" s="30">
         <v>7</v>
       </c>
-      <c r="I99" s="68">
+      <c r="I99" s="67">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="44">
-      <c r="A100" s="79"/>
-      <c r="B100" s="79"/>
-      <c r="C100" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" s="75" t="s">
-        <v>314</v>
+      <c r="A100" s="81"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100" s="79" t="s">
+        <v>312</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G100" s="30">
         <v>10</v>
@@ -6425,20 +6953,20 @@
       <c r="H100" s="30">
         <v>265</v>
       </c>
-      <c r="I100" s="58">
+      <c r="I100" s="57">
         <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="44">
-      <c r="A101" s="79"/>
-      <c r="B101" s="79"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
+      <c r="A101" s="81"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
       <c r="E101" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G101" s="30">
         <v>20</v>
@@ -6446,20 +6974,20 @@
       <c r="H101" s="30">
         <v>520</v>
       </c>
-      <c r="I101" s="61">
+      <c r="I101" s="60">
         <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="44">
-      <c r="A102" s="79"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
+      <c r="A102" s="81"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
       <c r="E102" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G102" s="30">
         <v>15</v>
@@ -6467,24 +6995,24 @@
       <c r="H102" s="30">
         <v>390</v>
       </c>
-      <c r="I102" s="68">
+      <c r="I102" s="67">
         <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="44">
-      <c r="A103" s="79"/>
-      <c r="B103" s="79"/>
-      <c r="C103" s="75" t="s">
+      <c r="A103" s="81"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="D103" s="75" t="s">
-        <v>241</v>
-      </c>
       <c r="E103" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G103" s="30">
         <v>20</v>
@@ -6492,20 +7020,20 @@
       <c r="H103" s="30">
         <v>110</v>
       </c>
-      <c r="I103" s="58">
+      <c r="I103" s="57">
         <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="44">
-      <c r="A104" s="79"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="75"/>
-      <c r="D104" s="75"/>
+      <c r="A104" s="81"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
       <c r="E104" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="F104" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>428</v>
       </c>
       <c r="G104" s="30">
         <v>120</v>
@@ -6513,20 +7041,20 @@
       <c r="H104" s="30">
         <v>600</v>
       </c>
-      <c r="I104" s="61">
+      <c r="I104" s="60">
         <v>600</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="44">
-      <c r="A105" s="79"/>
-      <c r="B105" s="79"/>
-      <c r="C105" s="75"/>
-      <c r="D105" s="75"/>
+      <c r="A105" s="81"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
       <c r="E105" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>428</v>
       </c>
       <c r="G105" s="30">
         <v>100</v>
@@ -6534,20 +7062,20 @@
       <c r="H105" s="30">
         <v>500</v>
       </c>
-      <c r="I105" s="68">
+      <c r="I105" s="67">
         <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="66">
-      <c r="A106" s="79"/>
-      <c r="B106" s="79"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="75"/>
+      <c r="A106" s="81"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="79"/>
       <c r="E106" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G106" s="30">
         <v>63</v>
@@ -6555,24 +7083,24 @@
       <c r="H106" s="30">
         <v>-130</v>
       </c>
-      <c r="I106" s="68">
+      <c r="I106" s="67">
         <v>-130</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="44">
-      <c r="A107" s="79"/>
-      <c r="B107" s="79"/>
-      <c r="C107" s="75" t="s">
+      <c r="A107" s="81"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D107" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>235</v>
-      </c>
       <c r="F107" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G107" s="30">
         <v>50</v>
@@ -6580,20 +7108,20 @@
       <c r="H107" s="30">
         <v>50</v>
       </c>
-      <c r="I107" s="58">
+      <c r="I107" s="57">
         <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="44">
-      <c r="A108" s="79"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="75"/>
-      <c r="D108" s="75"/>
+      <c r="A108" s="81"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
       <c r="E108" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G108" s="30">
         <v>20</v>
@@ -6601,20 +7129,20 @@
       <c r="H108" s="30">
         <v>12</v>
       </c>
-      <c r="I108" s="61">
+      <c r="I108" s="60">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="44">
-      <c r="A109" s="79"/>
-      <c r="B109" s="79"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="75"/>
+      <c r="A109" s="81"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
       <c r="E109" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G109" s="30">
         <v>4</v>
@@ -6622,24 +7150,24 @@
       <c r="H109" s="30">
         <v>2</v>
       </c>
-      <c r="I109" s="68">
+      <c r="I109" s="67">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="44">
-      <c r="A110" s="79"/>
-      <c r="B110" s="79"/>
+      <c r="A110" s="81"/>
+      <c r="B110" s="81"/>
       <c r="C110" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F110" s="30" t="s">
         <v>320</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>322</v>
       </c>
       <c r="G110" s="30">
         <v>60</v>
@@ -6647,24 +7175,24 @@
       <c r="H110" s="30">
         <v>300</v>
       </c>
-      <c r="I110" s="58">
+      <c r="I110" s="57">
         <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="44">
-      <c r="A111" s="79"/>
-      <c r="B111" s="79"/>
+      <c r="A111" s="81"/>
+      <c r="B111" s="81"/>
       <c r="C111" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F111" s="30" t="s">
         <v>430</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>432</v>
       </c>
       <c r="G111" s="30">
         <v>4</v>
@@ -6672,94 +7200,94 @@
       <c r="H111" s="30">
         <v>140</v>
       </c>
-      <c r="I111" s="58">
+      <c r="I111" s="57">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="61" customFormat="1" ht="44">
-      <c r="A112" s="79"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" s="61" t="s">
+    <row r="112" spans="1:9" s="60" customFormat="1" ht="44">
+      <c r="A112" s="81"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="E112" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="F112" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="G112" s="61">
+      <c r="D112" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="G112" s="60">
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="H112" s="61">
+      <c r="H112" s="60">
         <f>70+42</f>
         <v>112</v>
       </c>
-      <c r="I112" s="61">
+      <c r="I112" s="60">
         <f>H112</f>
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="61" customFormat="1" ht="66">
-      <c r="A113" s="79"/>
-      <c r="B113" s="79"/>
-      <c r="C113" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="D113" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="E113" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" s="61" t="s">
-        <v>468</v>
-      </c>
-      <c r="H113" s="61">
+    <row r="113" spans="1:9" s="60" customFormat="1" ht="66">
+      <c r="A113" s="81"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="D113" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="E113" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G113" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="H113" s="60">
         <f>356+38-82</f>
         <v>312</v>
       </c>
-      <c r="I113" s="61">
+      <c r="I113" s="60">
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="58" customFormat="1" ht="44">
-      <c r="A114" s="79"/>
-      <c r="B114" s="79"/>
-      <c r="C114" s="58" t="s">
-        <v>452</v>
-      </c>
-      <c r="E114" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="F114" s="58" t="s">
-        <v>453</v>
-      </c>
-      <c r="G114" s="58">
+    <row r="114" spans="1:9" s="57" customFormat="1" ht="44">
+      <c r="A114" s="81"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="E114" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F114" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="G114" s="57">
         <v>20</v>
       </c>
-      <c r="H114" s="58">
+      <c r="H114" s="57">
         <v>10</v>
       </c>
-      <c r="I114" s="58">
+      <c r="I114" s="57">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="66">
-      <c r="A115" s="79"/>
-      <c r="B115" s="79"/>
+      <c r="A115" s="81"/>
+      <c r="B115" s="81"/>
       <c r="C115" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F115" s="30">
         <v>130</v>
@@ -6774,8 +7302,385 @@
         <v>130</v>
       </c>
     </row>
+    <row r="116" spans="1:9" ht="66">
+      <c r="A116" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="B116" s="80">
+        <v>770</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="G116" s="30">
+        <v>8</v>
+      </c>
+      <c r="H116" s="30">
+        <v>148</v>
+      </c>
+      <c r="I116" s="80">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="66">
+      <c r="A117" s="80"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="G117" s="30">
+        <v>20</v>
+      </c>
+      <c r="H117" s="30">
+        <v>240</v>
+      </c>
+      <c r="I117" s="80"/>
+    </row>
+    <row r="118" spans="1:9" ht="66">
+      <c r="A118" s="80"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="G118" s="30">
+        <v>10</v>
+      </c>
+      <c r="H118" s="30">
+        <v>90</v>
+      </c>
+      <c r="I118" s="80"/>
+    </row>
+    <row r="119" spans="1:9" ht="66">
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="G119" s="30">
+        <v>6</v>
+      </c>
+      <c r="H119" s="30">
+        <v>24</v>
+      </c>
+      <c r="I119" s="80"/>
+    </row>
+    <row r="120" spans="1:9" ht="66">
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D120" s="69"/>
+      <c r="E120" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="G120" s="30">
+        <v>50</v>
+      </c>
+      <c r="H120" s="30">
+        <v>15</v>
+      </c>
+      <c r="I120" s="80"/>
+    </row>
+    <row r="121" spans="1:9" ht="66">
+      <c r="A121" s="80"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="E121" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="F121" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="G121" s="30">
+        <v>2</v>
+      </c>
+      <c r="H121" s="30">
+        <v>30</v>
+      </c>
+      <c r="I121" s="80"/>
+    </row>
+    <row r="122" spans="1:9" ht="66">
+      <c r="A122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="E122" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="G122" s="30">
+        <v>2</v>
+      </c>
+      <c r="H122" s="30">
+        <v>30</v>
+      </c>
+      <c r="I122" s="80"/>
+    </row>
+    <row r="123" spans="1:9" ht="66">
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E123" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="F123" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="G123" s="30">
+        <v>1</v>
+      </c>
+      <c r="H123" s="30">
+        <v>12</v>
+      </c>
+      <c r="I123" s="80"/>
+    </row>
+    <row r="124" spans="1:9" ht="66">
+      <c r="A124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="E124" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="F124" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="G124" s="30">
+        <v>60</v>
+      </c>
+      <c r="H124" s="30">
+        <v>6</v>
+      </c>
+      <c r="I124" s="80"/>
+    </row>
+    <row r="125" spans="1:9" ht="66">
+      <c r="A125" s="80"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="E125" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="F125" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="G125" s="30">
+        <v>12</v>
+      </c>
+      <c r="H125" s="30">
+        <v>192</v>
+      </c>
+      <c r="I125" s="80"/>
+    </row>
+    <row r="126" spans="1:9" ht="88">
+      <c r="A126" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="B126" s="80"/>
+      <c r="C126" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="22">
+      <c r="A127" s="80"/>
+      <c r="B127" s="80"/>
+      <c r="C127" s="30" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="22">
+      <c r="A128" s="80"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="88">
+      <c r="A129" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="B129" s="80"/>
+      <c r="C129" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="G129" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="110">
+      <c r="A130" s="80"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="E130" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="F130" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="G130" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="154">
+      <c r="A131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E131" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="G131" s="30">
+        <v>1</v>
+      </c>
+      <c r="H131" s="30">
+        <v>2250</v>
+      </c>
+      <c r="I131" s="30">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="44">
+      <c r="A132" s="81" t="s">
+        <v>548</v>
+      </c>
+      <c r="B132" s="80"/>
+      <c r="C132" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="44">
+      <c r="A133" s="81"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="22">
+      <c r="A134" s="76" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="22">
+      <c r="A135" s="76" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="31">
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="I116:I125"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B29:B54"/>
+    <mergeCell ref="A29:A54"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="A85:A115"/>
+    <mergeCell ref="B85:B115"/>
+    <mergeCell ref="B65:B84"/>
+    <mergeCell ref="A65:A84"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="C103:C106"/>
@@ -6784,17 +7689,6 @@
     <mergeCell ref="D107:D109"/>
     <mergeCell ref="D100:D102"/>
     <mergeCell ref="C100:C102"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A85:A115"/>
-    <mergeCell ref="B85:B115"/>
-    <mergeCell ref="B65:B84"/>
-    <mergeCell ref="A65:A84"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B29:B54"/>
-    <mergeCell ref="A29:A54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6803,11 +7697,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M42" sqref="M42"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -6830,31 +7724,31 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>40</v>
@@ -6863,31 +7757,31 @@
         <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="33" customFormat="1" ht="132">
       <c r="A2" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
-        <v>100</v>
-      </c>
       <c r="G2" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="34">
         <v>1499</v>
@@ -6899,32 +7793,32 @@
         <f t="shared" ref="J2:J39" si="0">H2*I2</f>
         <v>2998</v>
       </c>
-      <c r="K2" s="56" t="s">
-        <v>97</v>
+      <c r="K2" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="43" customFormat="1" ht="198">
       <c r="A3" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="44" t="s">
         <v>264</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>265</v>
       </c>
       <c r="H3" s="43">
         <v>2999</v>
@@ -6937,35 +7831,35 @@
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M3" s="43">
         <f>2999+30</f>
         <v>3029</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="20" customFormat="1" ht="110">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H4" s="5">
         <v>2999</v>
@@ -6978,32 +7872,32 @@
         <v>2999</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:15" s="34" customFormat="1" ht="88">
       <c r="A5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>53</v>
-      </c>
       <c r="C5" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="33">
         <v>4390</v>
@@ -7016,37 +7910,37 @@
         <v>0</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5" s="33">
         <v>0</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="39" customFormat="1" ht="198">
       <c r="A6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H6" s="39">
         <v>3499</v>
@@ -7056,34 +7950,34 @@
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M6" s="39">
         <v>3489</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="179" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="38">
         <v>2399</v>
@@ -7096,30 +7990,30 @@
         <v>2399</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:15" s="43" customFormat="1" ht="179" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="46"/>
       <c r="G8" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="43">
         <v>3599</v>
@@ -7135,31 +8029,31 @@
         <v>3599</v>
       </c>
       <c r="N8" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>211</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="34" customFormat="1" ht="88">
       <c r="A9" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="38">
         <v>3499</v>
@@ -7172,32 +8066,32 @@
         <v>0</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:15" s="34" customFormat="1" ht="110">
       <c r="A10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>59</v>
-      </c>
       <c r="C10" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="38">
         <v>2999</v>
@@ -7210,32 +8104,32 @@
         <v>2999</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:15" s="39" customFormat="1" ht="154">
       <c r="A11" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>59</v>
-      </c>
       <c r="C11" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>196</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>197</v>
       </c>
       <c r="H11" s="39">
         <v>3699</v>
@@ -7249,13 +8143,13 @@
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M11" s="39">
         <v>2729</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O11" s="39">
         <v>0</v>
@@ -7263,23 +8157,23 @@
     </row>
     <row r="12" spans="1:15" s="20" customFormat="1" ht="88">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="5">
         <v>2399</v>
@@ -7292,32 +8186,32 @@
         <v>0</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:15" s="20" customFormat="1" ht="88">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="5">
         <v>1988</v>
@@ -7330,32 +8224,32 @@
         <v>0</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:15" s="20" customFormat="1" ht="132">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5">
         <v>5799</v>
@@ -7368,32 +8262,32 @@
         <v>0</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:15" s="20" customFormat="1" ht="110">
       <c r="A15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="C15" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="5">
         <v>2199</v>
@@ -7406,19 +8300,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" ht="22">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>606</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -7437,7 +8331,7 @@
     </row>
     <row r="17" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A17" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>39</v>
@@ -7452,7 +8346,7 @@
     </row>
     <row r="18" spans="1:13" s="20" customFormat="1" ht="22">
       <c r="A18" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>38</v>
@@ -7466,7 +8360,7 @@
     </row>
     <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>38</v>
@@ -7488,10 +8382,10 @@
     </row>
     <row r="20" spans="1:13" ht="22">
       <c r="A20" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -7515,7 +8409,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -7536,13 +8430,13 @@
     </row>
     <row r="22" spans="1:13" ht="22">
       <c r="A22" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
@@ -7562,10 +8456,10 @@
     </row>
     <row r="23" spans="1:13" ht="22">
       <c r="A23" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -7586,10 +8480,10 @@
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -7610,7 +8504,7 @@
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>38</v>
@@ -7632,10 +8526,10 @@
     </row>
     <row r="26" spans="1:13" ht="22">
       <c r="A26" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -7656,7 +8550,7 @@
     </row>
     <row r="27" spans="1:13" ht="51" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>39</v>
@@ -7678,7 +8572,7 @@
     </row>
     <row r="28" spans="1:13" ht="22">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>38</v>
@@ -7690,10 +8584,10 @@
     </row>
     <row r="29" spans="1:13" ht="22">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="0"/>
@@ -7702,10 +8596,10 @@
     </row>
     <row r="30" spans="1:13" ht="22">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" si="0"/>
@@ -7714,10 +8608,10 @@
     </row>
     <row r="31" spans="1:13" ht="22">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="0"/>
@@ -7726,10 +8620,10 @@
     </row>
     <row r="32" spans="1:13" ht="22">
       <c r="A32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="0"/>
@@ -7738,10 +8632,10 @@
     </row>
     <row r="33" spans="1:13" ht="22" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="5">
         <v>2</v>
@@ -7753,10 +8647,10 @@
     </row>
     <row r="34" spans="1:13" ht="22">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" si="0"/>
@@ -7765,13 +8659,13 @@
     </row>
     <row r="35" spans="1:13" ht="22">
       <c r="A35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" si="0"/>
@@ -7780,10 +8674,10 @@
     </row>
     <row r="36" spans="1:13" ht="22">
       <c r="A36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" si="0"/>
@@ -7792,10 +8686,10 @@
     </row>
     <row r="37" spans="1:13" ht="22">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" si="0"/>
@@ -7804,10 +8698,10 @@
     </row>
     <row r="38" spans="1:13" ht="22">
       <c r="A38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" si="0"/>
@@ -7816,10 +8710,10 @@
     </row>
     <row r="39" spans="1:13" ht="24" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" si="0"/>
@@ -7828,13 +8722,13 @@
     </row>
     <row r="40" spans="1:13" ht="24" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -7846,24 +8740,35 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="17" customFormat="1" ht="22">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:13" s="74" customFormat="1" ht="24" customHeight="1">
+      <c r="A41" s="74" t="s">
+        <v>607</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>608</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:13" s="17" customFormat="1" ht="22">
+      <c r="A42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="J41" s="32">
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="J42" s="32">
         <f>SUM(J2:J40)</f>
         <v>21961</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M42" s="17">
         <f>SUM(M2:M40)</f>
         <v>13115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
-    <sortCondition ref="C2:C41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L42">
+    <sortCondition ref="C2:C42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7888,7 +8793,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -7908,14 +8813,14 @@
         <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -7923,18 +8828,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="83"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="9">
         <v>13942626713</v>
@@ -7942,10 +8847,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="9">
         <v>15140436656</v>
@@ -7953,32 +8858,38 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="C7" s="9">
         <v>13840916589</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" s="9">
+        <v>19889959688</v>
       </c>
     </row>
   </sheetData>
@@ -7996,12 +8907,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -8009,8 +8920,8 @@
     <col min="1" max="1" width="18.83203125" style="5"/>
     <col min="2" max="2" width="18.83203125" style="4"/>
     <col min="3" max="6" width="18.83203125" style="5"/>
-    <col min="7" max="7" width="18.83203125" style="64"/>
-    <col min="8" max="8" width="25.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="63"/>
+    <col min="8" max="8" width="44.83203125" style="5" customWidth="1"/>
     <col min="9" max="16384" width="18.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -8033,7 +8944,7 @@
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -8060,7 +8971,7 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="63">
         <f>SUM(B2:F2)</f>
         <v>148.5</v>
       </c>
@@ -8084,7 +8995,7 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="63">
         <f t="shared" ref="G3:G42" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
@@ -8111,7 +9022,7 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -8135,7 +9046,7 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="63">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -8159,7 +9070,7 @@
       <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="63">
         <f t="shared" si="0"/>
         <v>113.4</v>
       </c>
@@ -8183,7 +9094,7 @@
       <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8210,7 +9121,7 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8234,7 +9145,7 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="63">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -8258,7 +9169,7 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="63">
         <f t="shared" si="0"/>
         <v>90.28</v>
       </c>
@@ -8282,7 +9193,7 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="63">
         <f t="shared" si="0"/>
         <v>61.6</v>
       </c>
@@ -8306,7 +9217,7 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="63">
         <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
@@ -8330,7 +9241,7 @@
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8354,12 +9265,12 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="63">
         <f t="shared" si="0"/>
         <v>105.2</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8381,7 +9292,7 @@
       <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="63">
         <f t="shared" si="0"/>
         <v>66.099999999999994</v>
       </c>
@@ -8405,7 +9316,7 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8429,7 +9340,7 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -8453,7 +9364,7 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="63">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -8477,7 +9388,7 @@
       <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="63">
         <f t="shared" si="0"/>
         <v>92.2</v>
       </c>
@@ -8501,7 +9412,7 @@
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="63">
         <f t="shared" si="0"/>
         <v>148.30000000000001</v>
       </c>
@@ -8525,7 +9436,7 @@
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="63">
         <f t="shared" si="0"/>
         <v>137.15</v>
       </c>
@@ -8549,7 +9460,7 @@
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8573,12 +9484,12 @@
       <c r="F23" s="5">
         <v>0</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="63">
         <f t="shared" si="0"/>
         <v>96.3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8600,7 +9511,7 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8624,12 +9535,12 @@
       <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="63">
         <f t="shared" si="0"/>
         <v>267.2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8652,7 +9563,7 @@
       <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="63">
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
@@ -8677,12 +9588,12 @@
       <c r="F27" s="5">
         <v>24</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="63">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="22">
@@ -8704,12 +9615,12 @@
       <c r="F28" s="5">
         <v>10.9</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="63">
         <f t="shared" si="0"/>
         <v>10.9</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -8733,7 +9644,7 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="63">
         <f t="shared" si="0"/>
         <v>112.72</v>
       </c>
@@ -8759,7 +9670,7 @@
       <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="63">
         <f t="shared" si="0"/>
         <v>101.7</v>
       </c>
@@ -8785,7 +9696,7 @@
       <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="63">
         <f t="shared" si="0"/>
         <v>86.6</v>
       </c>
@@ -8809,7 +9720,7 @@
       <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="64">
+      <c r="G32" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8836,12 +9747,12 @@
       <c r="F33" s="5">
         <v>30</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="63">
         <f t="shared" si="0"/>
         <v>155.4</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -8865,7 +9776,7 @@
       <c r="F34" s="5">
         <v>0</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="63">
         <f t="shared" si="0"/>
         <v>52.209999999999994</v>
       </c>
@@ -8891,7 +9802,7 @@
       <c r="F35" s="5">
         <v>0</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="63">
         <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
@@ -8918,12 +9829,12 @@
         <f>18.4</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="G36" s="64">
+      <c r="G36" s="63">
         <f t="shared" si="0"/>
         <v>68.400000000000006</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22">
@@ -8945,12 +9856,12 @@
       <c r="F37" s="5">
         <v>10</v>
       </c>
-      <c r="G37" s="64">
+      <c r="G37" s="63">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8973,7 +9884,7 @@
       <c r="F38" s="5">
         <v>0</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="63">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -8999,12 +9910,12 @@
       <c r="F39" s="5">
         <v>15</v>
       </c>
-      <c r="G39" s="64">
+      <c r="G39" s="63">
         <f t="shared" si="0"/>
         <v>147.39999999999998</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9028,7 +9939,7 @@
       <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="63">
         <f t="shared" si="0"/>
         <v>152.13</v>
       </c>
@@ -9054,7 +9965,7 @@
       <c r="F41" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="64">
+      <c r="G41" s="63">
         <f t="shared" si="0"/>
         <v>93.4</v>
       </c>
@@ -9078,7 +9989,7 @@
       <c r="F42" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9102,12 +10013,12 @@
       <c r="F43" s="5">
         <v>195</v>
       </c>
-      <c r="G43" s="64">
+      <c r="G43" s="63">
         <f>SUM(B43:F43)</f>
         <v>195</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="44">
@@ -9131,12 +10042,12 @@
         <f>50+15+118</f>
         <v>183</v>
       </c>
-      <c r="G44" s="64">
+      <c r="G44" s="63">
         <f t="shared" ref="G44:G67" si="1">SUM(B44:F44)</f>
         <v>242.9</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9157,7 +10068,7 @@
         <f>57+16.9</f>
         <v>73.900000000000006</v>
       </c>
-      <c r="G45" s="64">
+      <c r="G45" s="63">
         <f t="shared" si="1"/>
         <v>153.19999999999999</v>
       </c>
@@ -9183,7 +10094,7 @@
       <c r="F46" s="5">
         <v>0</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="63">
         <f t="shared" si="1"/>
         <v>172.64000000000001</v>
       </c>
@@ -9207,7 +10118,7 @@
       <c r="F47" s="5">
         <v>0</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9233,7 +10144,7 @@
       <c r="F48" s="5">
         <v>0</v>
       </c>
-      <c r="G48" s="64">
+      <c r="G48" s="63">
         <f t="shared" si="1"/>
         <v>157.61000000000001</v>
       </c>
@@ -9259,7 +10170,7 @@
       <c r="F49" s="5">
         <v>0</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="63">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -9285,12 +10196,12 @@
         <f>42+23.3+698</f>
         <v>763.3</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="63">
         <f t="shared" si="1"/>
         <v>787.59999999999991</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9313,7 +10224,7 @@
       <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G51" s="64">
+      <c r="G51" s="63">
         <f t="shared" si="1"/>
         <v>36.9</v>
       </c>
@@ -9338,7 +10249,7 @@
       <c r="F52" s="5">
         <v>0</v>
       </c>
-      <c r="G52" s="64">
+      <c r="G52" s="63">
         <f>SUM(B52:F52)</f>
         <v>53.7</v>
       </c>
@@ -9364,7 +10275,7 @@
       <c r="F53" s="5">
         <v>0</v>
       </c>
-      <c r="G53" s="64">
+      <c r="G53" s="63">
         <f t="shared" si="1"/>
         <v>155.9</v>
       </c>
@@ -9389,7 +10300,7 @@
       <c r="F54" s="5">
         <v>0</v>
       </c>
-      <c r="G54" s="64">
+      <c r="G54" s="63">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
@@ -9415,7 +10326,7 @@
       <c r="F55" s="5">
         <v>0</v>
       </c>
-      <c r="G55" s="64">
+      <c r="G55" s="63">
         <f t="shared" si="1"/>
         <v>81.900000000000006</v>
       </c>
@@ -9441,12 +10352,12 @@
       <c r="F56" s="5">
         <v>0</v>
       </c>
-      <c r="G56" s="64">
+      <c r="G56" s="63">
         <f t="shared" si="1"/>
         <v>126.5</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22">
@@ -9468,12 +10379,12 @@
       <c r="F57" s="5">
         <v>30</v>
       </c>
-      <c r="G57" s="64">
+      <c r="G57" s="63">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="66">
@@ -9497,12 +10408,12 @@
       <c r="F58" s="5">
         <v>13</v>
       </c>
-      <c r="G58" s="64">
+      <c r="G58" s="63">
         <f t="shared" si="1"/>
         <v>114.7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -9526,7 +10437,7 @@
       <c r="F59" s="5">
         <v>0</v>
       </c>
-      <c r="G59" s="64">
+      <c r="G59" s="63">
         <f t="shared" si="1"/>
         <v>166.31</v>
       </c>
@@ -9552,12 +10463,12 @@
       <c r="F60" s="5">
         <v>0</v>
       </c>
-      <c r="G60" s="64">
+      <c r="G60" s="63">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -9579,7 +10490,7 @@
       <c r="F61" s="5">
         <v>0</v>
       </c>
-      <c r="G61" s="64">
+      <c r="G61" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9605,12 +10516,12 @@
       <c r="F62" s="5">
         <v>21.8</v>
       </c>
-      <c r="G62" s="64">
+      <c r="G62" s="63">
         <f t="shared" si="1"/>
         <v>100.89999999999999</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -9632,7 +10543,7 @@
       <c r="F63" s="5">
         <v>0</v>
       </c>
-      <c r="G63" s="64">
+      <c r="G63" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9659,12 +10570,12 @@
         <f>24.51+25.5</f>
         <v>50.010000000000005</v>
       </c>
-      <c r="G64" s="64">
+      <c r="G64" s="63">
         <f t="shared" si="1"/>
         <v>188.51</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9686,7 +10597,7 @@
       <c r="F65" s="5">
         <v>0</v>
       </c>
-      <c r="G65" s="64">
+      <c r="G65" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9710,7 +10621,7 @@
       <c r="F66" s="5">
         <v>0</v>
       </c>
-      <c r="G66" s="64">
+      <c r="G66" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9736,12 +10647,12 @@
       <c r="F67" s="5">
         <v>4</v>
       </c>
-      <c r="G67" s="64">
+      <c r="G67" s="63">
         <f t="shared" si="1"/>
         <v>152.80000000000001</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22">
@@ -9765,916 +10676,1304 @@
       <c r="F68" s="5">
         <v>0</v>
       </c>
-      <c r="G68" s="64">
+      <c r="G68" s="63">
         <f>SUM(B68:F68)</f>
         <v>152.70999999999998</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="71" customFormat="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="70" customFormat="1">
       <c r="A69" s="3">
         <v>44224</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
       </c>
-      <c r="C69" s="71">
-        <v>0</v>
-      </c>
-      <c r="D69" s="71">
+      <c r="C69" s="70">
+        <v>0</v>
+      </c>
+      <c r="D69" s="70">
         <f>38.8+10+38.93</f>
         <v>87.72999999999999</v>
       </c>
-      <c r="E69" s="71">
+      <c r="E69" s="70">
         <f>30+70.5</f>
         <v>100.5</v>
       </c>
-      <c r="F69" s="71">
-        <v>0</v>
-      </c>
-      <c r="G69" s="64">
+      <c r="F69" s="70">
+        <v>0</v>
+      </c>
+      <c r="G69" s="63">
         <f t="shared" ref="G69:G99" si="2">SUM(B69:F69)</f>
         <v>188.23</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="71" customFormat="1" ht="22">
+    <row r="70" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A70" s="3">
         <v>44225</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
       </c>
-      <c r="C70" s="71">
-        <v>0</v>
-      </c>
-      <c r="D70" s="71">
+      <c r="C70" s="70">
+        <v>0</v>
+      </c>
+      <c r="D70" s="70">
         <f>20.76+38.3</f>
         <v>59.06</v>
       </c>
-      <c r="E70" s="71">
+      <c r="E70" s="70">
         <f>62.5+1</f>
         <v>63.5</v>
       </c>
-      <c r="F70" s="71">
-        <v>0</v>
-      </c>
-      <c r="G70" s="64">
+      <c r="F70" s="70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="63">
         <f t="shared" si="2"/>
         <v>122.56</v>
       </c>
-      <c r="H70" s="71" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="H70" s="70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A71" s="3">
         <v>44226</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
       </c>
-      <c r="C71" s="71">
-        <v>0</v>
-      </c>
-      <c r="D71" s="71">
+      <c r="C71" s="70">
+        <v>0</v>
+      </c>
+      <c r="D71" s="70">
         <f>37.7</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="E71" s="71">
+      <c r="E71" s="70">
         <f>1+50+18.5</f>
         <v>69.5</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="70">
         <v>42.9</v>
       </c>
-      <c r="G71" s="64">
+      <c r="G71" s="63">
         <f t="shared" si="2"/>
         <v>150.1</v>
       </c>
-      <c r="H71" s="71" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="H71" s="70" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A72" s="3">
         <v>44227</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
       </c>
-      <c r="C72" s="71">
-        <v>0</v>
-      </c>
-      <c r="D72" s="71">
+      <c r="C72" s="70">
+        <v>0</v>
+      </c>
+      <c r="D72" s="70">
         <f>37+20.79+40.5</f>
         <v>98.289999999999992</v>
       </c>
-      <c r="E72" s="71">
+      <c r="E72" s="70">
         <v>101</v>
       </c>
-      <c r="F72" s="71">
-        <v>0</v>
-      </c>
-      <c r="G72" s="64">
+      <c r="F72" s="70">
+        <v>0</v>
+      </c>
+      <c r="G72" s="63">
         <f t="shared" si="2"/>
         <v>199.29</v>
       </c>
-      <c r="H72" s="71" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="71" customFormat="1" ht="44">
+      <c r="H72" s="70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="70" customFormat="1" ht="44">
       <c r="A73" s="3">
         <v>44228</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
       </c>
-      <c r="C73" s="71">
-        <v>0</v>
-      </c>
-      <c r="D73" s="71">
+      <c r="C73" s="70">
+        <v>0</v>
+      </c>
+      <c r="D73" s="70">
         <f>19.1+38</f>
         <v>57.1</v>
       </c>
-      <c r="E73" s="71">
+      <c r="E73" s="70">
         <f>12+47.5</f>
         <v>59.5</v>
       </c>
-      <c r="F73" s="71">
-        <v>0</v>
-      </c>
-      <c r="G73" s="64">
+      <c r="F73" s="70">
+        <v>0</v>
+      </c>
+      <c r="G73" s="63">
         <f t="shared" si="2"/>
         <v>116.6</v>
       </c>
-      <c r="H73" s="71" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="H73" s="70" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A74" s="3">
         <v>44229</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
       </c>
-      <c r="C74" s="71">
-        <v>0</v>
-      </c>
-      <c r="D74" s="71">
+      <c r="C74" s="70">
+        <v>0</v>
+      </c>
+      <c r="D74" s="70">
         <f>36+17.6+18.4</f>
         <v>72</v>
       </c>
-      <c r="E74" s="71">
+      <c r="E74" s="70">
         <v>66.5</v>
       </c>
-      <c r="F74" s="71">
-        <v>0</v>
-      </c>
-      <c r="G74" s="64">
+      <c r="F74" s="70">
+        <v>0</v>
+      </c>
+      <c r="G74" s="63">
         <f t="shared" si="2"/>
         <v>138.5</v>
       </c>
-      <c r="H74" s="71" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="H74" s="70" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A75" s="3">
         <v>44230</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
       </c>
-      <c r="C75" s="71">
-        <v>0</v>
-      </c>
-      <c r="D75" s="71">
+      <c r="C75" s="70">
+        <v>0</v>
+      </c>
+      <c r="D75" s="70">
         <f>17.6+39.51</f>
         <v>57.11</v>
       </c>
-      <c r="E75" s="71">
+      <c r="E75" s="70">
         <f>2.5+21+5+21</f>
         <v>49.5</v>
       </c>
-      <c r="F75" s="71">
-        <v>0</v>
-      </c>
-      <c r="G75" s="64">
+      <c r="F75" s="70">
+        <v>0</v>
+      </c>
+      <c r="G75" s="63">
         <f t="shared" si="2"/>
         <v>106.61</v>
       </c>
-      <c r="H75" s="71" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="H75" s="70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A76" s="3">
         <v>44231</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
       </c>
-      <c r="C76" s="71">
-        <v>0</v>
-      </c>
-      <c r="D76" s="71">
-        <v>0</v>
-      </c>
-      <c r="E76" s="71">
-        <v>0</v>
-      </c>
-      <c r="F76" s="71">
+      <c r="C76" s="70">
+        <v>0</v>
+      </c>
+      <c r="D76" s="70">
+        <v>0</v>
+      </c>
+      <c r="E76" s="70">
+        <v>0</v>
+      </c>
+      <c r="F76" s="70">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="63">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="H76" s="71" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="71" customFormat="1" ht="44">
+      <c r="H76" s="70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="70" customFormat="1" ht="44">
       <c r="A77" s="3">
         <v>44232</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
       </c>
-      <c r="C77" s="71">
-        <v>0</v>
-      </c>
-      <c r="D77" s="71">
+      <c r="C77" s="70">
+        <v>0</v>
+      </c>
+      <c r="D77" s="70">
         <f>17.7</f>
         <v>17.7</v>
       </c>
-      <c r="E77" s="71">
+      <c r="E77" s="70">
         <f>39</f>
         <v>39</v>
       </c>
-      <c r="F77" s="71">
+      <c r="F77" s="70">
         <v>46.9</v>
       </c>
-      <c r="G77" s="64">
+      <c r="G77" s="63">
         <f t="shared" si="2"/>
         <v>103.6</v>
       </c>
-      <c r="H77" s="71" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="71" customFormat="1" ht="22">
+      <c r="H77" s="70" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A78" s="3">
         <v>44233</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
       </c>
-      <c r="C78" s="71">
-        <v>0</v>
-      </c>
-      <c r="D78" s="71">
+      <c r="C78" s="70">
+        <v>0</v>
+      </c>
+      <c r="D78" s="70">
         <f>33.42</f>
         <v>33.42</v>
       </c>
-      <c r="E78" s="71">
+      <c r="E78" s="70">
         <f>4+17+42</f>
         <v>63</v>
       </c>
-      <c r="F78" s="71">
+      <c r="F78" s="70">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="G78" s="64">
+      <c r="G78" s="63">
         <f t="shared" si="2"/>
         <v>101.42</v>
       </c>
-      <c r="H78" s="71" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="72" customFormat="1">
+      <c r="H78" s="70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="71" customFormat="1">
       <c r="A79" s="3">
         <v>44234</v>
       </c>
       <c r="B79" s="4">
         <v>100</v>
       </c>
-      <c r="C79" s="72">
-        <v>0</v>
-      </c>
-      <c r="D79" s="72">
+      <c r="C79" s="71">
+        <v>0</v>
+      </c>
+      <c r="D79" s="71">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="E79" s="72">
+      <c r="E79" s="71">
         <f>50.5</f>
         <v>50.5</v>
       </c>
-      <c r="F79" s="72">
-        <v>0</v>
-      </c>
-      <c r="G79" s="64">
+      <c r="F79" s="71">
+        <v>0</v>
+      </c>
+      <c r="G79" s="63">
         <f t="shared" si="2"/>
         <v>190.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="72" customFormat="1">
+    <row r="80" spans="1:8" s="71" customFormat="1">
       <c r="A80" s="3">
         <v>44235</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
       </c>
-      <c r="C80" s="72">
-        <v>0</v>
-      </c>
-      <c r="D80" s="72">
+      <c r="C80" s="71">
+        <v>0</v>
+      </c>
+      <c r="D80" s="71">
         <f>17</f>
         <v>17</v>
       </c>
-      <c r="E80" s="72">
+      <c r="E80" s="71">
         <f>2+66</f>
         <v>68</v>
       </c>
-      <c r="F80" s="72">
-        <v>0</v>
-      </c>
-      <c r="G80" s="64">
+      <c r="F80" s="71">
+        <v>0</v>
+      </c>
+      <c r="G80" s="63">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="72" customFormat="1">
+    <row r="81" spans="1:8" s="71" customFormat="1">
       <c r="A81" s="3">
         <v>44236</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
       </c>
-      <c r="C81" s="72">
-        <v>0</v>
-      </c>
-      <c r="D81" s="72">
+      <c r="C81" s="71">
+        <v>0</v>
+      </c>
+      <c r="D81" s="71">
         <f>43+31.7</f>
         <v>74.7</v>
       </c>
-      <c r="E81" s="72">
+      <c r="E81" s="71">
         <f>64.5+5+6.5</f>
         <v>76</v>
       </c>
-      <c r="F81" s="72">
-        <v>0</v>
-      </c>
-      <c r="G81" s="64">
+      <c r="F81" s="71">
+        <v>0</v>
+      </c>
+      <c r="G81" s="63">
         <f t="shared" si="2"/>
         <v>150.69999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="72" customFormat="1" ht="44">
+    <row r="82" spans="1:8" s="71" customFormat="1" ht="44">
       <c r="A82" s="3">
         <v>44237</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
       </c>
-      <c r="C82" s="72">
-        <v>0</v>
-      </c>
-      <c r="D82" s="72">
-        <v>0</v>
-      </c>
-      <c r="E82" s="72">
+      <c r="C82" s="71">
+        <v>0</v>
+      </c>
+      <c r="D82" s="71">
+        <v>0</v>
+      </c>
+      <c r="E82" s="71">
         <f>11+1</f>
         <v>12</v>
       </c>
-      <c r="F82" s="72">
+      <c r="F82" s="71">
         <f>25.6+101.4+14.5+187+35.3+75.3</f>
         <v>439.1</v>
       </c>
-      <c r="G82" s="64">
+      <c r="G82" s="63">
         <f t="shared" si="2"/>
         <v>451.1</v>
       </c>
-      <c r="H82" s="72" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="H82" s="71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A83" s="3">
         <v>44238</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
       </c>
-      <c r="C83" s="72">
-        <v>0</v>
-      </c>
-      <c r="D83" s="72">
-        <v>0</v>
-      </c>
-      <c r="E83" s="72">
-        <v>0</v>
-      </c>
-      <c r="F83" s="72">
-        <v>0</v>
-      </c>
-      <c r="G83" s="64">
+      <c r="C83" s="71">
+        <v>0</v>
+      </c>
+      <c r="D83" s="71">
+        <v>0</v>
+      </c>
+      <c r="E83" s="71">
+        <v>0</v>
+      </c>
+      <c r="F83" s="71">
+        <v>0</v>
+      </c>
+      <c r="G83" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H83" s="72" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="H83" s="71" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A84" s="3">
         <v>44239</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
       </c>
-      <c r="C84" s="72">
-        <v>0</v>
-      </c>
-      <c r="D84" s="72">
-        <v>0</v>
-      </c>
-      <c r="E84" s="72">
-        <v>0</v>
-      </c>
-      <c r="F84" s="72">
-        <v>0</v>
-      </c>
-      <c r="G84" s="64">
+      <c r="C84" s="71">
+        <v>0</v>
+      </c>
+      <c r="D84" s="71">
+        <v>0</v>
+      </c>
+      <c r="E84" s="71">
+        <v>0</v>
+      </c>
+      <c r="F84" s="71">
+        <v>0</v>
+      </c>
+      <c r="G84" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H84" s="72" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="72" customFormat="1" ht="66">
+      <c r="H84" s="71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="71" customFormat="1" ht="66">
       <c r="A85" s="3">
         <v>44240</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
       </c>
-      <c r="C85" s="72">
-        <v>0</v>
-      </c>
-      <c r="D85" s="72">
-        <v>0</v>
-      </c>
-      <c r="E85" s="72">
+      <c r="C85" s="71">
+        <v>0</v>
+      </c>
+      <c r="D85" s="71">
+        <v>0</v>
+      </c>
+      <c r="E85" s="71">
         <f>9.6+110</f>
         <v>119.6</v>
       </c>
-      <c r="F85" s="72">
-        <v>0</v>
-      </c>
-      <c r="G85" s="64">
+      <c r="F85" s="71">
+        <v>0</v>
+      </c>
+      <c r="G85" s="63">
         <f t="shared" si="2"/>
         <v>119.6</v>
       </c>
-      <c r="H85" s="72" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="H85" s="71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A86" s="3">
         <v>44241</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
       </c>
-      <c r="C86" s="72">
-        <v>0</v>
-      </c>
-      <c r="D86" s="72">
+      <c r="C86" s="71">
+        <v>0</v>
+      </c>
+      <c r="D86" s="71">
         <f>33.99</f>
         <v>33.99</v>
       </c>
-      <c r="E86" s="72">
+      <c r="E86" s="71">
         <f>64.5</f>
         <v>64.5</v>
       </c>
-      <c r="F86" s="72">
-        <v>0</v>
-      </c>
-      <c r="G86" s="64">
+      <c r="F86" s="71">
+        <v>0</v>
+      </c>
+      <c r="G86" s="63">
         <f t="shared" si="2"/>
         <v>98.490000000000009</v>
       </c>
-      <c r="H86" s="72" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="H86" s="71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A87" s="3">
         <v>44242</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
       </c>
-      <c r="C87" s="72">
-        <v>0</v>
-      </c>
-      <c r="D87" s="72">
+      <c r="C87" s="71">
+        <v>0</v>
+      </c>
+      <c r="D87" s="71">
         <v>39.49</v>
       </c>
-      <c r="E87" s="72">
+      <c r="E87" s="71">
         <v>62</v>
       </c>
-      <c r="F87" s="72">
-        <v>0</v>
-      </c>
-      <c r="G87" s="64">
+      <c r="F87" s="71">
+        <v>0</v>
+      </c>
+      <c r="G87" s="63">
         <f t="shared" si="2"/>
         <v>101.49000000000001</v>
       </c>
-      <c r="H87" s="72" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="72" customFormat="1" ht="44">
+      <c r="H87" s="71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="71" customFormat="1" ht="44">
       <c r="A88" s="3">
         <v>44243</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
       </c>
-      <c r="C88" s="72">
-        <v>0</v>
-      </c>
-      <c r="D88" s="72">
+      <c r="C88" s="71">
+        <v>0</v>
+      </c>
+      <c r="D88" s="71">
         <v>17</v>
       </c>
-      <c r="E88" s="72">
+      <c r="E88" s="71">
         <f>62.5+3.5</f>
         <v>66</v>
       </c>
-      <c r="F88" s="72">
+      <c r="F88" s="71">
         <v>32.9</v>
       </c>
-      <c r="G88" s="64">
+      <c r="G88" s="63">
         <f t="shared" si="2"/>
         <v>115.9</v>
       </c>
-      <c r="H88" s="72" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="72" customFormat="1">
+      <c r="H88" s="71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="71" customFormat="1">
       <c r="A89" s="3">
         <v>44244</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
       </c>
-      <c r="C89" s="72">
-        <v>0</v>
-      </c>
-      <c r="D89" s="72">
+      <c r="C89" s="71">
+        <v>0</v>
+      </c>
+      <c r="D89" s="71">
         <f>16.14</f>
         <v>16.14</v>
       </c>
-      <c r="E89" s="72">
+      <c r="E89" s="71">
         <f>2.5+49.5</f>
         <v>52</v>
       </c>
-      <c r="F89" s="72">
-        <v>0</v>
-      </c>
-      <c r="G89" s="64">
+      <c r="F89" s="71">
+        <v>0</v>
+      </c>
+      <c r="G89" s="63">
         <f t="shared" si="2"/>
         <v>68.14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="72" customFormat="1">
+    <row r="90" spans="1:8" s="71" customFormat="1">
       <c r="A90" s="3">
         <v>44245</v>
       </c>
       <c r="B90" s="4">
         <v>0</v>
       </c>
-      <c r="C90" s="72">
-        <v>0</v>
-      </c>
-      <c r="D90" s="72">
+      <c r="C90" s="71">
+        <v>0</v>
+      </c>
+      <c r="D90" s="71">
         <f>38.4</f>
         <v>38.4</v>
       </c>
-      <c r="E90" s="72">
+      <c r="E90" s="71">
         <f>2+59.5</f>
         <v>61.5</v>
       </c>
-      <c r="F90" s="72">
-        <v>0</v>
-      </c>
-      <c r="G90" s="64">
+      <c r="F90" s="71">
+        <v>0</v>
+      </c>
+      <c r="G90" s="63">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="72" customFormat="1" ht="22">
+    <row r="91" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A91" s="3">
         <v>44246</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
       </c>
-      <c r="C91" s="72">
-        <v>0</v>
-      </c>
-      <c r="D91" s="72">
+      <c r="C91" s="71">
+        <v>0</v>
+      </c>
+      <c r="D91" s="71">
         <f>38.5</f>
         <v>38.5</v>
       </c>
-      <c r="E91" s="72">
+      <c r="E91" s="71">
         <f>23+49.5</f>
         <v>72.5</v>
       </c>
-      <c r="F91" s="72">
-        <v>0</v>
-      </c>
-      <c r="G91" s="64">
+      <c r="F91" s="71">
+        <v>0</v>
+      </c>
+      <c r="G91" s="63">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="H91" s="72" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="72" customFormat="1" ht="22">
+      <c r="H91" s="71" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A92" s="3">
         <v>44247</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
       </c>
-      <c r="C92" s="72">
-        <v>0</v>
-      </c>
-      <c r="D92" s="72">
+      <c r="C92" s="71">
+        <v>0</v>
+      </c>
+      <c r="D92" s="71">
         <f>37</f>
         <v>37</v>
       </c>
-      <c r="E92" s="72">
+      <c r="E92" s="71">
         <f>2+56</f>
         <v>58</v>
       </c>
-      <c r="F92" s="72">
-        <v>0</v>
-      </c>
-      <c r="G92" s="64">
+      <c r="F92" s="71">
+        <v>0</v>
+      </c>
+      <c r="G92" s="63">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H92" s="72" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="72" customFormat="1">
+      <c r="H92" s="71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="71" customFormat="1">
       <c r="A93" s="3">
         <v>44248</v>
       </c>
       <c r="B93" s="4">
         <v>0</v>
       </c>
-      <c r="C93" s="72">
-        <v>0</v>
-      </c>
-      <c r="D93" s="72">
+      <c r="C93" s="71">
+        <v>0</v>
+      </c>
+      <c r="D93" s="71">
         <v>38.75</v>
       </c>
-      <c r="E93" s="72">
+      <c r="E93" s="71">
         <f>25.5+35.5</f>
         <v>61</v>
       </c>
-      <c r="F93" s="72">
-        <v>0</v>
-      </c>
-      <c r="G93" s="64">
+      <c r="F93" s="71">
+        <v>0</v>
+      </c>
+      <c r="G93" s="63">
         <f t="shared" si="2"/>
         <v>99.75</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="72" customFormat="1" ht="22">
+    <row r="94" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A94" s="3">
         <v>44249</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
       </c>
-      <c r="C94" s="72">
-        <v>0</v>
-      </c>
-      <c r="D94" s="72">
-        <v>0</v>
-      </c>
-      <c r="E94" s="72">
-        <v>0</v>
-      </c>
-      <c r="F94" s="72">
-        <v>0</v>
-      </c>
-      <c r="G94" s="64">
+      <c r="C94" s="71">
+        <v>0</v>
+      </c>
+      <c r="D94" s="71">
+        <v>0</v>
+      </c>
+      <c r="E94" s="71">
+        <v>0</v>
+      </c>
+      <c r="F94" s="71">
+        <v>0</v>
+      </c>
+      <c r="G94" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H94" s="72" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="72" customFormat="1">
+      <c r="H94" s="71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="71" customFormat="1">
       <c r="A95" s="3">
         <v>44250</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
       </c>
-      <c r="C95" s="72">
-        <v>0</v>
-      </c>
-      <c r="D95" s="72">
+      <c r="C95" s="71">
+        <v>0</v>
+      </c>
+      <c r="D95" s="71">
         <v>35.049999999999997</v>
       </c>
-      <c r="E95" s="72">
+      <c r="E95" s="71">
         <f>51</f>
         <v>51</v>
       </c>
-      <c r="F95" s="72">
-        <v>0</v>
-      </c>
-      <c r="G95" s="64">
+      <c r="F95" s="71">
+        <v>0</v>
+      </c>
+      <c r="G95" s="63">
         <f t="shared" si="2"/>
         <v>86.05</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="72" customFormat="1">
+    <row r="96" spans="1:8" s="71" customFormat="1">
       <c r="A96" s="3">
         <v>44251</v>
       </c>
       <c r="B96" s="4">
         <v>100</v>
       </c>
-      <c r="C96" s="72">
-        <v>0</v>
-      </c>
-      <c r="D96" s="72">
+      <c r="C96" s="71">
+        <v>0</v>
+      </c>
+      <c r="D96" s="71">
         <f>15.19</f>
         <v>15.19</v>
       </c>
-      <c r="E96" s="72">
+      <c r="E96" s="71">
         <f>1+60</f>
         <v>61</v>
       </c>
-      <c r="F96" s="72">
-        <v>0</v>
-      </c>
-      <c r="G96" s="64">
+      <c r="F96" s="71">
+        <v>0</v>
+      </c>
+      <c r="G96" s="63">
         <f t="shared" si="2"/>
         <v>176.19</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="72" customFormat="1" ht="22">
+    <row r="97" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A97" s="3">
         <v>44252</v>
       </c>
       <c r="B97" s="4">
         <v>0</v>
       </c>
-      <c r="C97" s="72">
-        <v>0</v>
-      </c>
-      <c r="D97" s="72">
+      <c r="C97" s="71">
+        <v>0</v>
+      </c>
+      <c r="D97" s="71">
         <f>35.05</f>
         <v>35.049999999999997</v>
       </c>
-      <c r="E97" s="72">
+      <c r="E97" s="71">
         <f>59.5</f>
         <v>59.5</v>
       </c>
-      <c r="F97" s="72">
-        <v>0</v>
-      </c>
-      <c r="G97" s="64">
+      <c r="F97" s="71">
+        <v>0</v>
+      </c>
+      <c r="G97" s="63">
         <f t="shared" si="2"/>
         <v>94.55</v>
       </c>
-      <c r="H97" s="72" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="72" customFormat="1" ht="44">
+      <c r="H97" s="71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="71" customFormat="1" ht="44">
       <c r="A98" s="3">
         <v>44253</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
       </c>
-      <c r="C98" s="72">
-        <v>0</v>
-      </c>
-      <c r="D98" s="72">
-        <v>0</v>
-      </c>
-      <c r="E98" s="72">
-        <v>0</v>
-      </c>
-      <c r="F98" s="72">
+      <c r="C98" s="71">
+        <v>0</v>
+      </c>
+      <c r="D98" s="71">
+        <v>0</v>
+      </c>
+      <c r="E98" s="71">
+        <v>0</v>
+      </c>
+      <c r="F98" s="71">
         <f>8.9</f>
         <v>8.9</v>
       </c>
-      <c r="G98" s="64">
+      <c r="G98" s="63">
         <f t="shared" si="2"/>
         <v>8.9</v>
       </c>
-      <c r="H98" s="72" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="72" customFormat="1">
+      <c r="H98" s="71" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="71" customFormat="1">
       <c r="A99" s="3">
         <v>44254</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
       </c>
-      <c r="C99" s="72">
-        <v>0</v>
-      </c>
-      <c r="D99" s="72">
+      <c r="C99" s="71">
+        <v>0</v>
+      </c>
+      <c r="D99" s="71">
         <f>17.2</f>
         <v>17.2</v>
       </c>
-      <c r="E99" s="72">
+      <c r="E99" s="71">
         <f>12+42.5</f>
         <v>54.5</v>
       </c>
-      <c r="F99" s="72">
-        <v>0</v>
-      </c>
-      <c r="G99" s="64">
-        <f t="shared" si="2"/>
+      <c r="F99" s="71">
+        <v>0</v>
+      </c>
+      <c r="G99" s="63">
+        <f>SUM(B99:F99)</f>
         <v>71.7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:8" s="74" customFormat="1">
+      <c r="A100" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="D100" s="74">
+        <f>17.5+39</f>
+        <v>56.5</v>
+      </c>
+      <c r="E100" s="74">
+        <f>59.5</f>
+        <v>59.5</v>
+      </c>
+      <c r="G100" s="63">
+        <f t="shared" ref="G100:G123" si="3">SUM(B100:F100)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="74" customFormat="1">
+      <c r="A101" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="E101" s="74">
+        <f>72.9+60.5</f>
+        <v>133.4</v>
+      </c>
+      <c r="G101" s="63">
+        <f t="shared" si="3"/>
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="74" customFormat="1">
+      <c r="A102" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="E102" s="74">
+        <f>56</f>
+        <v>56</v>
+      </c>
+      <c r="G102" s="63">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="74" customFormat="1">
+      <c r="A103" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="E103" s="74">
+        <f>4.6+59.5+1</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G103" s="63">
+        <f t="shared" si="3"/>
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="74" customFormat="1">
+      <c r="A104" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="D104" s="74">
+        <f>16.49</f>
+        <v>16.489999999999998</v>
+      </c>
+      <c r="E104" s="74">
+        <f>53</f>
+        <v>53</v>
+      </c>
+      <c r="G104" s="63">
+        <f t="shared" si="3"/>
+        <v>69.489999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="74" customFormat="1">
+      <c r="A105" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="E105" s="74">
+        <f>21.28+2.5+55.5</f>
+        <v>79.28</v>
+      </c>
+      <c r="G105" s="63">
+        <f t="shared" si="3"/>
+        <v>79.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="74" customFormat="1">
+      <c r="A106" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="E106" s="74">
+        <f>4.6+62.5</f>
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G106" s="63">
+        <f t="shared" si="3"/>
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="74" customFormat="1">
+      <c r="A107" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="E107" s="74">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G107" s="63">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="74" customFormat="1" ht="22">
+      <c r="A108" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="D108" s="74">
+        <f>17.5+40</f>
+        <v>57.5</v>
+      </c>
+      <c r="E108" s="74">
+        <f>15+29</f>
+        <v>44</v>
+      </c>
+      <c r="G108" s="63">
+        <f t="shared" si="3"/>
+        <v>101.5</v>
+      </c>
+      <c r="H108" s="74" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="74" customFormat="1">
+      <c r="A109" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="E109" s="74">
+        <f>4.6+2+54+2.5</f>
+        <v>63.1</v>
+      </c>
+      <c r="G109" s="63">
+        <f t="shared" si="3"/>
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="74" customFormat="1">
+      <c r="A110" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="E110" s="74">
+        <f>1+44</f>
+        <v>45</v>
+      </c>
+      <c r="G110" s="63">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="74" customFormat="1">
+      <c r="A111" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="D111" s="74">
+        <f>44.1</f>
+        <v>44.1</v>
+      </c>
+      <c r="E111" s="74">
+        <f>39.3</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G111" s="63">
+        <f t="shared" si="3"/>
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="74" customFormat="1" ht="22">
+      <c r="A112" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="D112" s="74">
+        <f>37.12</f>
+        <v>37.119999999999997</v>
+      </c>
+      <c r="E112" s="74">
+        <f>1+56.5</f>
+        <v>57.5</v>
+      </c>
+      <c r="G112" s="63">
+        <f t="shared" si="3"/>
+        <v>94.62</v>
+      </c>
+      <c r="H112" s="74" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="74" customFormat="1">
+      <c r="A113" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B113" s="4">
+        <v>100</v>
+      </c>
+      <c r="E113" s="74">
+        <f>52.5+2+4.6+8</f>
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G113" s="63">
+        <f t="shared" si="3"/>
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="74" customFormat="1" ht="44">
+      <c r="A114" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="D114" s="74">
+        <f>38+46.06</f>
+        <v>84.06</v>
+      </c>
+      <c r="E114" s="74">
+        <f>58</f>
+        <v>58</v>
+      </c>
+      <c r="G114" s="63">
+        <f t="shared" si="3"/>
+        <v>142.06</v>
+      </c>
+      <c r="H114" s="74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="74" customFormat="1" ht="22">
+      <c r="A115" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="D115" s="74">
+        <f>18.2</f>
+        <v>18.2</v>
+      </c>
+      <c r="E115" s="74">
+        <f>5.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="F115" s="74">
+        <f>33.9</f>
+        <v>33.9</v>
+      </c>
+      <c r="G115" s="63">
+        <f t="shared" si="3"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="H115" s="74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="74" customFormat="1" ht="22">
+      <c r="A116" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="D116" s="74">
+        <f>21</f>
+        <v>21</v>
+      </c>
+      <c r="E116" s="74">
+        <f>16+52</f>
+        <v>68</v>
+      </c>
+      <c r="G116" s="63">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="H116" s="74" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="74" customFormat="1">
+      <c r="A117" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="D117" s="74">
+        <f>44.82</f>
+        <v>44.82</v>
+      </c>
+      <c r="E117" s="74">
+        <f>38+14+1</f>
+        <v>53</v>
+      </c>
+      <c r="G117" s="63">
+        <f t="shared" si="3"/>
+        <v>97.82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="74" customFormat="1" ht="22" customHeight="1">
+      <c r="A118" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="74">
+        <v>0</v>
+      </c>
+      <c r="D118" s="74">
+        <f>42+17.2</f>
+        <v>59.2</v>
+      </c>
+      <c r="E118" s="74">
+        <f>2.3+1+30</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F118" s="74">
+        <v>452</v>
+      </c>
+      <c r="G118" s="63">
+        <f t="shared" si="3"/>
+        <v>544.5</v>
+      </c>
+      <c r="H118" s="74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="74" customFormat="1" ht="22" customHeight="1">
+      <c r="A119" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="G119" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="74" customFormat="1" ht="22" customHeight="1">
+      <c r="A120" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="G120" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="74" customFormat="1">
+      <c r="A121" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="G121" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="74" customFormat="1">
+      <c r="A122" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="G122" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="74" customFormat="1">
+      <c r="A123" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="G123" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A124" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="7">
-        <f>SUM(B2:B99)</f>
-        <v>520</v>
-      </c>
-      <c r="C100" s="7">
-        <f>SUM(C2:C99)</f>
+      <c r="B124" s="7">
+        <f>SUM(B2:B123)</f>
+        <v>620</v>
+      </c>
+      <c r="C124" s="7">
+        <f>SUM(C2:C123)</f>
         <v>72</v>
       </c>
-      <c r="D100" s="7">
-        <f>SUM(D2:D99)</f>
-        <v>3265.43</v>
-      </c>
-      <c r="E100" s="7">
-        <f>SUM(E2:E99)</f>
-        <v>4339.8</v>
-      </c>
-      <c r="F100" s="7">
-        <f>SUM(F2:F99)</f>
-        <v>1954.71</v>
-      </c>
-      <c r="G100" s="65">
-        <f>SUM(G2:G99)</f>
-        <v>10151.939999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="3"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="3"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="3"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="3"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="3"/>
+      <c r="D124" s="7">
+        <f>SUM(D2:D123)</f>
+        <v>3704.4199999999992</v>
+      </c>
+      <c r="E124" s="7">
+        <f>SUM(E2:E123)</f>
+        <v>5388.9800000000014</v>
+      </c>
+      <c r="F124" s="7">
+        <f>SUM(F2:F123)</f>
+        <v>2440.61</v>
+      </c>
+      <c r="G124" s="64">
+        <f>SUM(G2:G123)</f>
+        <v>12226.01</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10684,11 +11983,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E0B49D-7F4A-134E-A0C6-BDA1D38BDBD2}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -10707,22 +12006,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
@@ -10730,16 +12029,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="24">
         <v>44167</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44">
@@ -10747,19 +12046,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="25">
         <v>0.33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="154">
@@ -10770,19 +12069,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="25">
         <v>5.5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66">
@@ -10790,22 +12089,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="25">
         <v>2.5</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="171" customHeight="1">
@@ -10813,22 +12112,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="25">
         <v>9.5</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="31" customFormat="1" ht="66">
@@ -10836,226 +12135,289 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>223</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>224</v>
       </c>
       <c r="D7" s="25">
         <v>2.5</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>225</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="110">
       <c r="A8" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="25">
         <v>5.5</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="330">
       <c r="A9" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="25">
         <v>10.5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66">
-      <c r="A10" s="52" t="s">
-        <v>232</v>
+      <c r="A10" s="51" t="s">
+        <v>231</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" s="25">
         <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>273</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="53" customFormat="1" ht="154">
-      <c r="A11" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="52" customFormat="1" ht="154">
+      <c r="A11" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>293</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>294</v>
       </c>
       <c r="D11" s="25">
         <v>13.5</v>
       </c>
-      <c r="E11" s="53" t="s">
-        <v>295</v>
+      <c r="E11" s="52" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="308">
-      <c r="A12" s="83" t="s">
-        <v>218</v>
+      <c r="A12" s="85" t="s">
+        <v>217</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D12" s="25">
         <v>20.5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>526</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="74" customFormat="1" ht="66">
-      <c r="A13" s="83"/>
-      <c r="B13" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>522</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="73" customFormat="1" ht="66">
+      <c r="A13" s="85"/>
+      <c r="B13" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="68" customFormat="1" ht="44">
+      <c r="A14" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" s="61" customFormat="1" ht="88">
+      <c r="A15" s="85"/>
+      <c r="B15" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="198">
+      <c r="A16" s="85"/>
+      <c r="B16" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="88">
+      <c r="A17" s="85"/>
+      <c r="B17" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22">
+      <c r="A18" s="85" t="s">
+        <v>514</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22">
+      <c r="A19" s="85"/>
+      <c r="B19" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22">
+      <c r="A20" s="85"/>
+      <c r="B20" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="C13" s="74" t="s">
-        <v>522</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="69" customFormat="1" ht="44">
-      <c r="A14" s="83" t="s">
-        <v>434</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" s="62" customFormat="1" ht="88">
-      <c r="A15" s="83"/>
-      <c r="B15" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="198">
-      <c r="A16" s="83"/>
-      <c r="B16" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="88">
-      <c r="A17" s="83"/>
-      <c r="B17" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22">
-      <c r="A18" s="83" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22">
-      <c r="A19" s="83"/>
-      <c r="B19" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22">
-      <c r="A20" s="83"/>
-      <c r="B20" s="11" t="s">
-        <v>521</v>
+    </row>
+    <row r="21" spans="1:6" ht="22">
+      <c r="A21" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22">
+      <c r="A22" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="78" customFormat="1" ht="22">
+      <c r="A23" s="85" t="s">
+        <v>542</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" ht="44">
+      <c r="A24" s="85"/>
+      <c r="B24" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="44">
+      <c r="A25" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="22">
+      <c r="A26" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11066,7 +12428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80050F6-DCA8-6F49-85E6-701F85802663}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -11078,13 +12440,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -11093,66 +12455,66 @@
     </row>
     <row r="2" spans="1:10" ht="66">
       <c r="A2" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="27">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66">
       <c r="A3" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>152</v>
       </c>
       <c r="C3" s="27">
         <v>100</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="44">
       <c r="A4" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="27">
         <v>33292.050000000003</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>275</v>
+      <c r="D4" s="56" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="44">
       <c r="A5" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>262</v>
-      </c>
       <c r="C5" s="27">
         <v>0</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="198">
       <c r="A6" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C6" s="27">
         <v>80</v>

--- a/装修费用明细.xlsx
+++ b/装修费用明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghao/Desktop/zx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4D9F4-7089-814B-88D3-5B40C94AC872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9B936-F448-1343-AF74-2E9F7F63A37D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="27200" windowHeight="17540" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F96C3ACB-6BF3-7543-938C-F8A111EEAE27}"/>
   </bookViews>
   <sheets>
     <sheet name="硬装费用明细" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="687">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,10 +2041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材料费12071.77+人工费7342.5（包一个管200人工费*2+一个卫生间防水600人工费*2+贴瓷砖50一平*76.7平+地面找平25一平*77.7平-抹零35）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙*学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2086,10 +2082,6 @@
   </si>
   <si>
     <t>楼下建材店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料量按散工要求购买4175(=4015-15(抹零)+45+60+50+15+5)，余料退货退款497，实际用料总费用 3678(=4175-497) , 空开856.87，水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)，空开费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2383,10 +2375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材料费770+运费80+人工费700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>散工+业主(自己搬运上楼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2407,10 +2395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石膏局部找平，腻子，乳胶漆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买多两个没法退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2606,10 +2590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订金1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卫生间和卧室门量尺，安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2622,10 +2602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订金10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实木番龙眼木地板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2646,14 +2622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1099/扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1529/扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宜居木门, 白色平板含标准五金(三合页、分体门把手)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2726,7 +2694,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2100(订金500)</t>
+    <t>逛家博会，淘小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝味鸭脖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;买堵漏王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fresh面霜*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;定过门石，交订金(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;买大白建材( 不含乳胶漆)              &lt;&lt;安装过门石并付尾款，买牙线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;全屋定制第一次核对设计方案          &gt;&gt;卧室卫生间门交尾款                     &lt;&lt;吊顶结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始吊顶，给师傅买可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防尘膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电管标签贴纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共4卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料量按散工要求购买4175(=4015-15(抹零)+45+60+50+15+5)，余料退货退款497，实际用料总费用 3678(=4175-497) , 空开856.87，水电人工费3500, 水钻眼440(460=13x30+70，实付440)，清渣费20(13袋垃圾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料费723（=770-余料退货退款87+退货运费40）+上料运费80+人工费700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1099/扇，每扇门高度220cm以内超尺费100/扇，门宽度超20cm超尺费用20/cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1529/扇，每扇门高度220cm以内超尺费100/扇，门宽度超20cm超尺费用20/cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①销售承诺315活动全年价格最低且在订货单上备注全年报价，但是家博会卧室门报价999，卫生间门报价1390，存在678的差价；店方在用手机录制销售报价的石锤情况下依然以销售口误为由退回部分差价: 四扇卧室门差价400元 ②同样的品牌在不同卖场的代理商报价有所不同，记得货比三家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间过门石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英石，奥博尔-1614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福家居建材市场，欧宝家橱柜理石，摊位1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120/米（30cm宽度以内），测量安装费200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2m*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨虹，2kg装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①理石需要背米数:单条长度不足1.2m按1.2m计算价格              ②安装时一定要在场：工人安装非常敷衍，切割比较随意；填的水泥一定要足够，不然容易崩断 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量尺，安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理石费288+测量安装费200+堵漏王20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福家居建材市场，欧宝家橱柜理石，摊位1-8+业主(堵漏王)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个卫生间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①理石量尺需要根据门的要求来做，需要考虑的因素：卫生间内/外开门，是否带耳朵，高于内部地面的高度等 ②自己提前用堵漏王在门口处再做一层防水，安装工人是不会做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7764(=8164-退差价400)（包量尺安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室门4扇，卫生间门2扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金1000【已支付】+尾款6764【已支付】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高强粉刷石膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄层粉刷石膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高强石膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳角条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴角条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三寸刷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十公分网绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大滚刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小滚刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分色纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180号砂纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美巢QN600GQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美巢QN600BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美巢800GQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海礁王新生态白胶无甲醛无苯低挥发性有机化合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三角建材市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40/袋，20kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28/袋，标称50kg，实称40kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55/袋，18kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理墙体，一遍墙固，阴阳角石膏找直，凹凸不平的面粉刷石膏找平，开裂风险大的墙部分挂网，墙体交界处和开槽处2层绷带，2遍腻子，打磨，乳胶漆一遍底漆两遍面漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料费2500(包运费)+上楼费80+人工费7000+乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳胶漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;开始大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金1000【已支付】+尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金10000【已支付】+尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料费12201.77+人工费7342.5（包一个管200人工费*2+一个卫生间防水600人工费*2+贴瓷砖50一平*76.7平+地面找平25一平*77.7平-抹零35）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金500【已支付】+ 尾款1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订金200【已支付】+ 尾款288【已支付】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌橱柜-桔家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2738,7 +3010,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2896,6 +3168,14 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2957,7 +3237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3198,6 +3478,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3210,6 +3505,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3217,13 +3515,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3995,12 +4290,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1C161-75F4-7C4B-8CB2-C8EB52272EAD}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.6640625" defaultRowHeight="21"/>
@@ -4185,7 +4480,7 @@
         <v>250</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>491</v>
+        <v>623</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -4198,7 +4493,7 @@
         <v>8494.869999999999</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I6" s="5">
         <v>8489.8700000000008</v>
@@ -4208,7 +4503,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="154" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="84" t="s">
         <v>432</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4218,7 +4513,7 @@
         <v>475</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>479</v>
+        <v>683</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>14</v>
@@ -4227,20 +4522,20 @@
         <v>2</v>
       </c>
       <c r="G7" s="86">
-        <f>12071.77+7342.5</f>
-        <v>19414.27</v>
+        <f>12201.77+7342.5</f>
+        <v>19544.27</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I7" s="86">
         <f>G7</f>
-        <v>19414.27</v>
-      </c>
-      <c r="J7" s="86"/>
+        <v>19544.27</v>
+      </c>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:10" ht="88">
-      <c r="A8" s="79"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="5" t="s">
         <v>463</v>
       </c>
@@ -4257,10 +4552,10 @@
       <c r="G8" s="86"/>
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="88">
-      <c r="A9" s="79"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="5" t="s">
         <v>472</v>
       </c>
@@ -4272,15 +4567,15 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G9" s="86"/>
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:10" s="69" customFormat="1" ht="88">
-      <c r="A10" s="86"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="69" t="s">
         <v>473</v>
       </c>
@@ -4292,146 +4587,234 @@
         <v>14</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-    </row>
-    <row r="11" spans="1:10" s="69" customFormat="1" ht="66">
-      <c r="A11" s="69" t="s">
-        <v>511</v>
-      </c>
-      <c r="B11" s="69" t="s">
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" s="81" customFormat="1" ht="22">
+      <c r="A11" s="84"/>
+      <c r="B11" s="81" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:10" s="69" customFormat="1" ht="88">
+      <c r="A12" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>530</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>532</v>
-      </c>
-      <c r="E11" s="69" t="s">
+      <c r="G12" s="69">
+        <f>723+80+700</f>
+        <v>1503</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="I12" s="69">
+        <f>G12</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="69" customFormat="1" ht="132">
+      <c r="A13" s="69" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>678</v>
+      </c>
+      <c r="E13" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="69" t="s">
-        <v>534</v>
-      </c>
-      <c r="G11" s="69">
-        <f>770+80+700</f>
-        <v>1550</v>
-      </c>
-      <c r="I11" s="69">
-        <f>G11</f>
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="69" customFormat="1" ht="22">
-      <c r="A12" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="B12" s="69" t="s">
+      <c r="G13" s="69">
+        <f>2500+80+7000</f>
+        <v>9580</v>
+      </c>
+      <c r="I13" s="93">
+        <f>9580+3500</f>
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="69" customFormat="1" ht="88">
+      <c r="A14" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" ht="88">
-      <c r="A13" s="69" t="s">
+      <c r="B14" s="69" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>575</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="I14" s="93">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="69" customFormat="1" ht="44">
+      <c r="A15" s="83" t="s">
+        <v>549</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>640</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="G15" s="69">
+        <v>7764</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>642</v>
+      </c>
+      <c r="I15" s="69">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="69" customFormat="1" ht="66">
+      <c r="A16" s="83"/>
+      <c r="B16" s="69" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>586</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>582</v>
+      </c>
+      <c r="G16" s="69">
+        <v>2100</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>684</v>
+      </c>
+      <c r="I16" s="69">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="69" customFormat="1" ht="44">
+      <c r="A17" s="69" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>583</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="I17" s="93">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="69" customFormat="1" ht="132">
+      <c r="A18" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>578</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>579</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>580</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" ht="22">
-      <c r="A14" s="86" t="s">
-        <v>553</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>589</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>545</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>586</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="69" customFormat="1" ht="66">
-      <c r="A15" s="86"/>
-      <c r="B15" s="69" t="s">
-        <v>590</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>591</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>586</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="44">
-      <c r="A16" s="69" t="s">
-        <v>548</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>581</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>587</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="69" customFormat="1" ht="22">
-      <c r="A17" s="69" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" ht="22">
-      <c r="A18" s="69" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="17" customFormat="1" ht="22">
-      <c r="A19" s="17" t="s">
+      <c r="B18" s="69" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>636</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>638</v>
+      </c>
+      <c r="G18" s="69">
+        <f>288+200+20</f>
+        <v>508</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>685</v>
+      </c>
+      <c r="I18" s="69">
+        <v>508</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="69" customFormat="1" ht="22">
+      <c r="A19" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="I19" s="93">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="17" customFormat="1" ht="22">
+      <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="17">
-        <f>SUM(I2:I16)</f>
-        <v>35215.14</v>
+      <c r="I20" s="17">
+        <f>SUM(I2:I19)</f>
+        <v>149450.14000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4440,11 +4823,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1F9F4-DFD8-BD4E-8A63-048432AB3CEF}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="21"/>
@@ -4453,15 +4836,17 @@
     <col min="2" max="2" width="18" style="77"/>
     <col min="3" max="3" width="24.1640625" style="30" customWidth="1"/>
     <col min="4" max="4" width="18" style="30"/>
-    <col min="5" max="5" width="18" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="18" style="30"/>
+    <col min="5" max="5" width="19.83203125" style="30" customWidth="1"/>
+    <col min="6" max="9" width="18" style="30"/>
+    <col min="10" max="10" width="36" style="30" customWidth="1"/>
+    <col min="11" max="16384" width="18" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="49" customFormat="1" ht="22">
       <c r="A1" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="82" t="s">
         <v>310</v>
       </c>
       <c r="C1" s="49" t="s">
@@ -4493,12 +4878,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="22" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="B2" s="81">
-        <f>SUM(I2:I19)</f>
-        <v>1778.7</v>
+      <c r="A2" s="86" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="86">
+        <f>SUM(I2:I22)</f>
+        <v>1958.04</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>133</v>
@@ -4524,8 +4909,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="22">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="30" t="s">
         <v>136</v>
       </c>
@@ -4550,8 +4935,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="22">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="30" t="s">
         <v>138</v>
       </c>
@@ -4573,8 +4958,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="22">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="30" t="s">
         <v>177</v>
       </c>
@@ -4594,13 +4979,13 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="87">
         <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="66">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="30" t="s">
         <v>179</v>
       </c>
@@ -4620,11 +5005,11 @@
         <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
-      <c r="I6" s="82"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="44">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="30" t="s">
         <v>181</v>
       </c>
@@ -4644,11 +5029,11 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-      <c r="I7" s="82"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:11" ht="66">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="30" t="s">
         <v>183</v>
       </c>
@@ -4673,8 +5058,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="22">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="30" t="s">
         <v>185</v>
       </c>
@@ -4699,8 +5084,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="66">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="30" t="s">
         <v>192</v>
       </c>
@@ -4725,8 +5110,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="22">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="30" t="s">
         <v>201</v>
       </c>
@@ -4748,8 +5133,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="22">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="30" t="s">
         <v>202</v>
       </c>
@@ -4771,8 +5156,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="22">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="30" t="s">
         <v>203</v>
       </c>
@@ -4797,8 +5182,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="22">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="30" t="s">
         <v>206</v>
       </c>
@@ -4823,8 +5208,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="57" customFormat="1" ht="22">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="57" t="s">
         <v>207</v>
       </c>
@@ -4849,8 +5234,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="44">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="30" t="s">
         <v>254</v>
       </c>
@@ -4871,8 +5256,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="44">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="30" t="s">
         <v>256</v>
       </c>
@@ -4896,8 +5281,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="44">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="30" t="s">
         <v>258</v>
       </c>
@@ -4918,8 +5303,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="75" customFormat="1" ht="44">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="75" t="s">
         <v>284</v>
       </c>
@@ -4939,2756 +5324,3329 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="75" customFormat="1">
-      <c r="A20" s="87" t="s">
-        <v>541</v>
-      </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-    </row>
-    <row r="21" spans="1:9" ht="44">
-      <c r="A21" s="81" t="s">
+    <row r="20" spans="1:9" s="80" customFormat="1" ht="22">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="80" t="s">
+        <v>618</v>
+      </c>
+      <c r="E20" s="80">
+        <v>1688</v>
+      </c>
+      <c r="F20" s="80">
+        <v>120</v>
+      </c>
+      <c r="G20" s="92">
+        <v>1</v>
+      </c>
+      <c r="H20" s="80">
+        <v>120</v>
+      </c>
+      <c r="I20" s="80">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="80" customFormat="1" ht="22">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="80" t="s">
+        <v>619</v>
+      </c>
+      <c r="E21" s="80">
+        <v>1688</v>
+      </c>
+      <c r="F21" s="80">
+        <v>24.3</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>621</v>
+      </c>
+      <c r="H21" s="80">
+        <v>24.3</v>
+      </c>
+      <c r="I21" s="80">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="80" customFormat="1" ht="22">
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="80" t="s">
+        <v>620</v>
+      </c>
+      <c r="E22" s="80">
+        <v>1688</v>
+      </c>
+      <c r="F22" s="80">
+        <v>35.04</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>622</v>
+      </c>
+      <c r="H22" s="80">
+        <v>35.04</v>
+      </c>
+      <c r="I22" s="80">
+        <v>35.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="75" customFormat="1">
+      <c r="A23" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:9" ht="44">
+      <c r="A24" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="81">
-        <f>SUM(I21:I28)</f>
+      <c r="B24" s="86">
+        <f>SUM(I24:I31)</f>
         <v>479</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C24" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D24" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="30">
-        <v>80</v>
-      </c>
-      <c r="H21" s="30">
-        <v>48</v>
-      </c>
-      <c r="I21" s="50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="44">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="30">
-        <v>3</v>
-      </c>
-      <c r="H22" s="30">
-        <v>78</v>
-      </c>
-      <c r="I22" s="50">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="44">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="30">
-        <v>20</v>
-      </c>
-      <c r="H23" s="30">
-        <v>100</v>
-      </c>
-      <c r="I23" s="50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="44">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="30">
-        <v>4</v>
+      <c r="F24" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="G24" s="30">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H24" s="30">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I24" s="50">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="44">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="30" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>312</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="30">
-        <v>1</v>
+      <c r="F25" s="30" t="s">
+        <v>238</v>
       </c>
       <c r="G25" s="30">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H25" s="30">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I25" s="50">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="44">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G26" s="30">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H26" s="30">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I26" s="50">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="44">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F27" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="30">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H27" s="30">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I27" s="50">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="44">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="44">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="48">
-        <v>2.5</v>
-      </c>
-      <c r="H28" s="48">
-        <v>62</v>
-      </c>
-      <c r="I28" s="48">
-        <v>62</v>
+      <c r="F28" s="30">
+        <v>1</v>
+      </c>
+      <c r="G28" s="30">
+        <v>50</v>
+      </c>
+      <c r="H28" s="30">
+        <v>50</v>
+      </c>
+      <c r="I28" s="50">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="44">
-      <c r="A29" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="81">
-        <f>SUM(I29:I54)</f>
-        <v>2021</v>
-      </c>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F29" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="30">
+        <v>3</v>
+      </c>
+      <c r="H29" s="30">
+        <v>78</v>
+      </c>
+      <c r="I29" s="50">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="44">
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="30">
+        <v>20</v>
+      </c>
+      <c r="H30" s="30">
+        <v>40</v>
+      </c>
+      <c r="I30" s="50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="44">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="H31" s="48">
+        <v>62</v>
+      </c>
+      <c r="I31" s="48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="44">
+      <c r="A32" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="86">
+        <f>SUM(I32:I57)</f>
+        <v>2021</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G32" s="30">
         <v>5</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H32" s="30">
         <f>60*5</f>
         <v>300</v>
       </c>
-      <c r="I29" s="57">
-        <f>H29</f>
+      <c r="I32" s="57">
+        <f>H32</f>
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="44">
-      <c r="A30" s="80"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="30" t="s">
+    <row r="33" spans="1:10" ht="44">
+      <c r="A33" s="85"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D33" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E33" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F33" s="30">
         <v>7</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G33" s="30">
         <f>30-19</f>
         <v>11</v>
       </c>
-      <c r="H30" s="30">
-        <f>F30*G30</f>
+      <c r="H33" s="30">
+        <f>F33*G33</f>
         <v>77</v>
       </c>
-      <c r="I30" s="57">
-        <f t="shared" ref="I30:I84" si="1">H30</f>
+      <c r="I33" s="57">
+        <f t="shared" ref="I33:I87" si="1">H33</f>
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="44">
-      <c r="A31" s="80"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="30" t="s">
+    <row r="34" spans="1:10" ht="44">
+      <c r="A34" s="85"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D34" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E34" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F34" s="30">
         <v>7</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G34" s="30">
         <v>10</v>
       </c>
-      <c r="H31" s="30">
-        <f>F31*G31</f>
+      <c r="H34" s="30">
+        <f>F34*G34</f>
         <v>70</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I34" s="57">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="44">
-      <c r="A32" s="80"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="30" t="s">
+    <row r="35" spans="1:10" ht="44">
+      <c r="A35" s="85"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D35" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F35" s="30">
         <v>6</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G35" s="30">
         <v>4</v>
       </c>
-      <c r="H32" s="30">
-        <f t="shared" ref="H32:H35" si="2">F32*G32</f>
+      <c r="H35" s="30">
+        <f t="shared" ref="H35:H38" si="2">F35*G35</f>
         <v>24</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I35" s="57">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="44">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="30" t="s">
+    <row r="36" spans="1:10" ht="44">
+      <c r="A36" s="85"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D36" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E36" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F36" s="30">
         <v>5</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G36" s="30">
         <f>6-7</f>
         <v>-1</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H36" s="30">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I36" s="57">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="J33" s="65" t="s">
+      <c r="J36" s="65" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="44">
-      <c r="A34" s="80"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="30" t="s">
+    <row r="37" spans="1:10" ht="44">
+      <c r="A37" s="85"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E37" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F37" s="30">
         <v>4.5</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G37" s="30">
         <f>4-2</f>
         <v>2</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H37" s="30">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I37" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="44">
-      <c r="A35" s="80"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="30" t="s">
+    <row r="38" spans="1:10" ht="44">
+      <c r="A38" s="85"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D38" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E38" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F38" s="30">
         <v>4.5</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G38" s="30">
         <v>2</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H38" s="30">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I38" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="44">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="30" t="s">
+    <row r="39" spans="1:10" ht="44">
+      <c r="A39" s="85"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E39" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F39" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G39" s="30">
         <f>5+6</f>
         <v>11</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H39" s="30">
         <v>44</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I39" s="57">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="44">
-      <c r="A37" s="80"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="30" t="s">
+    <row r="40" spans="1:10" ht="44">
+      <c r="A40" s="85"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D40" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E40" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F40" s="30">
         <v>115</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G40" s="30">
         <v>1</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H40" s="30">
         <f>115</f>
         <v>115</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I40" s="57">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="44">
-      <c r="A38" s="80"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="30" t="s">
+    <row r="41" spans="1:10" ht="44">
+      <c r="A41" s="85"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D41" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E41" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F41" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G41" s="30">
         <f>18+1</f>
         <v>19</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H41" s="30">
         <f>35*19</f>
         <v>665</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I41" s="57">
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="44">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="30" t="s">
+    <row r="42" spans="1:10" ht="44">
+      <c r="A42" s="85"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D42" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E42" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F42" s="30">
         <v>4</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G42" s="30">
         <f>60-30</f>
         <v>30</v>
       </c>
-      <c r="H39" s="30">
-        <f>F39*G39</f>
+      <c r="H42" s="30">
+        <f>F42*G42</f>
         <v>120</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I42" s="57">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="44">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="30" t="s">
+    <row r="43" spans="1:10" ht="44">
+      <c r="A43" s="85"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D43" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E43" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F43" s="30">
         <v>3</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G43" s="30">
         <f>15-10</f>
         <v>5</v>
       </c>
-      <c r="H40" s="30">
-        <f t="shared" ref="H40:H47" si="3">F40*G40</f>
+      <c r="H43" s="30">
+        <f t="shared" ref="H43:H50" si="3">F43*G43</f>
         <v>15</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I43" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J43" s="30" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="44">
-      <c r="A41" s="80"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="30" t="s">
+    <row r="44" spans="1:10" ht="44">
+      <c r="A44" s="85"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D44" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E44" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F44" s="30">
         <v>4</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G44" s="30">
         <f>15-8</f>
         <v>7</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H44" s="30">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I44" s="57">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="44">
-      <c r="A42" s="80"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="30" t="s">
+    <row r="45" spans="1:10" ht="44">
+      <c r="A45" s="85"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D45" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F45" s="30">
         <v>3</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G45" s="30">
         <v>6</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H45" s="30">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I45" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="44">
-      <c r="A43" s="80"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="30" t="s">
+    <row r="46" spans="1:10" ht="44">
+      <c r="A46" s="85"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D46" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E46" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F46" s="30">
         <v>18</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G46" s="30">
         <v>12</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H46" s="30">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I46" s="57">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="44">
-      <c r="A44" s="80"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="30" t="s">
+    <row r="47" spans="1:10" ht="44">
+      <c r="A47" s="85"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D47" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F47" s="30">
         <v>18</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G47" s="30">
         <v>3</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H47" s="30">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I47" s="57">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="44">
-      <c r="A45" s="80"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="30" t="s">
+    <row r="48" spans="1:10" ht="44">
+      <c r="A48" s="85"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D48" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E48" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F48" s="30">
         <v>40</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G48" s="30">
         <v>2</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H48" s="30">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I48" s="57">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="44">
-      <c r="A46" s="80"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="30" t="s">
+    <row r="49" spans="1:9" ht="44">
+      <c r="A49" s="85"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E49" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F49" s="30">
         <v>1</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G49" s="30">
         <f>12-5</f>
         <v>7</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H49" s="30">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I49" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="44">
-      <c r="A47" s="80"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="30" t="s">
+    <row r="50" spans="1:9" ht="44">
+      <c r="A50" s="85"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E50" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F50" s="30">
         <v>12</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G50" s="30">
         <v>3</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H50" s="30">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I50" s="57">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="44">
-      <c r="A48" s="80"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="30" t="s">
+    <row r="51" spans="1:9" ht="44">
+      <c r="A51" s="85"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E51" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F51" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G51" s="30">
         <v>2</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H51" s="30">
         <f>10*2</f>
         <v>20</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I51" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="44">
-      <c r="A49" s="80"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="30" t="s">
+    <row r="52" spans="1:9" ht="44">
+      <c r="A52" s="85"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E52" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F52" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G52" s="30">
         <f>13+8+3</f>
         <v>24</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H52" s="30">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="I49" s="57">
+      <c r="I52" s="57">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="44">
-      <c r="A50" s="80"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="30" t="s">
+    <row r="53" spans="1:9" ht="44">
+      <c r="A53" s="85"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E53" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F53" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G53" s="30">
         <f>13-4</f>
         <v>9</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H53" s="30">
         <f>3*9</f>
         <v>27</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I53" s="57">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="44">
-      <c r="A51" s="80"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="30" t="s">
+    <row r="54" spans="1:9" ht="44">
+      <c r="A54" s="85"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E54" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F54" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G54" s="30">
         <v>1</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H54" s="30">
         <f>5*1</f>
         <v>5</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I54" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="44">
-      <c r="A52" s="80"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="30" t="s">
+    <row r="55" spans="1:9" ht="44">
+      <c r="A55" s="85"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E55" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F55" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G55" s="30">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H55" s="30">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I55" s="57">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="44">
-      <c r="A53" s="80"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="30" t="s">
+    <row r="56" spans="1:9" ht="44">
+      <c r="A56" s="85"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E56" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F56" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="G53" s="30">
-        <v>0</v>
-      </c>
-      <c r="H53" s="30">
-        <v>0</v>
-      </c>
-      <c r="I53" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="44">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="30" t="s">
+      <c r="G56" s="30">
+        <v>0</v>
+      </c>
+      <c r="H56" s="30">
+        <v>0</v>
+      </c>
+      <c r="I56" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="44">
+      <c r="A57" s="85"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E57" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F57" s="30">
         <v>3</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G57" s="30">
         <v>1</v>
       </c>
-      <c r="H54" s="30">
-        <f>F54*G54</f>
+      <c r="H57" s="30">
+        <f>F57*G57</f>
         <v>3</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I57" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="44">
-      <c r="A55" s="80" t="s">
+    <row r="58" spans="1:9" ht="44">
+      <c r="A58" s="85" t="s">
         <v>355</v>
       </c>
-      <c r="B55" s="81">
-        <f>SUM(I55:I64)</f>
+      <c r="B58" s="86">
+        <f>SUM(I58:I67)</f>
         <v>78</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C58" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E58" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F58" s="30">
         <v>15</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G58" s="30">
         <v>1</v>
       </c>
-      <c r="H55" s="30">
-        <f>F55*G55</f>
+      <c r="H58" s="30">
+        <f>F58*G58</f>
         <v>15</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I58" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="44">
-      <c r="A56" s="80"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="30" t="s">
+    <row r="59" spans="1:9" ht="44">
+      <c r="A59" s="85"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E59" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F59" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G59" s="30">
         <v>0.2</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H59" s="30">
         <v>3</v>
       </c>
-      <c r="I56" s="57">
+      <c r="I59" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="44">
-      <c r="A57" s="80"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="30" t="s">
+    <row r="60" spans="1:9" ht="44">
+      <c r="A60" s="85"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E60" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F60" s="30">
         <v>2</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G60" s="30">
         <v>1</v>
       </c>
-      <c r="H57" s="30">
-        <f t="shared" ref="H57:H83" si="4">F57*G57</f>
+      <c r="H60" s="30">
+        <f t="shared" ref="H60:H86" si="4">F60*G60</f>
         <v>2</v>
       </c>
-      <c r="I57" s="57">
+      <c r="I60" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="44">
-      <c r="A58" s="80"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="30" t="s">
+    <row r="61" spans="1:9" ht="44">
+      <c r="A61" s="85"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E61" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F61" s="30">
         <v>2</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G61" s="30">
         <v>1</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H61" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I61" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="44">
-      <c r="A59" s="80"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="30" t="s">
+    <row r="62" spans="1:9" ht="44">
+      <c r="A62" s="85"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E62" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F62" s="30">
         <v>2</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G62" s="30">
         <f>5-1</f>
         <v>4</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H62" s="30">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I59" s="57">
+      <c r="I62" s="57">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="44">
-      <c r="A60" s="80"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="30" t="s">
+    <row r="63" spans="1:9" ht="44">
+      <c r="A63" s="85"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E63" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F63" s="30">
         <v>3</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G63" s="30">
         <v>1</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H63" s="30">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I60" s="57">
+      <c r="I63" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="44">
-      <c r="A61" s="80"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="30" t="s">
+    <row r="64" spans="1:9" ht="44">
+      <c r="A64" s="85"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E64" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F64" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G64" s="30">
         <v>3</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H64" s="30">
         <f>6*3</f>
         <v>18</v>
       </c>
-      <c r="I61" s="57">
+      <c r="I64" s="57">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="44">
-      <c r="A62" s="80"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="30" t="s">
+    <row r="65" spans="1:9" ht="44">
+      <c r="A65" s="85"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F65" s="30">
         <v>2</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G65" s="30">
         <v>1</v>
       </c>
-      <c r="H62" s="30">
-        <f>F62*G62</f>
+      <c r="H65" s="30">
+        <f>F65*G65</f>
         <v>2</v>
       </c>
-      <c r="I62" s="57">
-        <f>H62</f>
+      <c r="I65" s="57">
+        <f>H65</f>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="44">
-      <c r="A63" s="80"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="30" t="s">
+    <row r="66" spans="1:9" ht="44">
+      <c r="A66" s="85"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F66" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G66" s="30">
         <f>1-1</f>
         <v>0</v>
       </c>
-      <c r="H63" s="30">
-        <v>0</v>
-      </c>
-      <c r="I63" s="57">
-        <f>H63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="44">
-      <c r="A64" s="80"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="30" t="s">
+      <c r="H66" s="30">
+        <v>0</v>
+      </c>
+      <c r="I66" s="57">
+        <f>H66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="44">
+      <c r="A67" s="85"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F67" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G67" s="30">
         <v>1</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H67" s="30">
         <v>25</v>
       </c>
-      <c r="I64" s="57">
+      <c r="I67" s="57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="22">
-      <c r="A65" s="81" t="s">
+    <row r="68" spans="1:9" ht="22">
+      <c r="A68" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="B65" s="81">
-        <f>SUM(I65:I84)</f>
+      <c r="B68" s="86">
+        <f>SUM(I68:I87)</f>
         <v>2473.87</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C68" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D68" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E68" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H65" s="57">
+      <c r="H68" s="57">
         <v>856.87</v>
       </c>
-      <c r="I65" s="60">
+      <c r="I68" s="60">
         <v>856.87</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="44">
-      <c r="A66" s="81"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="30" t="s">
+    <row r="69" spans="1:9" ht="44">
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G69" s="30">
         <v>3</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <f>222*3</f>
         <v>666</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I69" s="57">
         <f t="shared" si="1"/>
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="44">
-      <c r="A67" s="81"/>
-      <c r="B67" s="81"/>
-      <c r="C67" s="30" t="s">
+    <row r="70" spans="1:9" ht="44">
+      <c r="A70" s="86"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E70" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F70" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G70" s="30">
         <v>4</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H70" s="30">
         <f>145*4</f>
         <v>580</v>
       </c>
-      <c r="I67" s="57">
+      <c r="I70" s="57">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="44">
-      <c r="A68" s="81"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="30" t="s">
+    <row r="71" spans="1:9" ht="44">
+      <c r="A71" s="86"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F71" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G71" s="30">
         <v>25</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H71" s="30">
         <f>75</f>
         <v>75</v>
       </c>
-      <c r="I68" s="57">
+      <c r="I71" s="57">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="44">
-      <c r="A69" s="81"/>
-      <c r="B69" s="81"/>
-      <c r="C69" s="30" t="s">
+    <row r="72" spans="1:9" ht="44">
+      <c r="A72" s="86"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E72" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F69" s="30">
+      <c r="F72" s="30">
         <v>0.4</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G72" s="30">
         <v>40</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H72" s="30">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I69" s="57">
+      <c r="I72" s="57">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="44">
-      <c r="A70" s="81"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="30" t="s">
+    <row r="73" spans="1:9" ht="44">
+      <c r="A73" s="86"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E73" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F73" s="30">
         <v>0.4</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G73" s="30">
         <f>150-90</f>
         <v>60</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H73" s="30">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I70" s="57">
+      <c r="I73" s="57">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="44">
-      <c r="A71" s="81"/>
-      <c r="B71" s="81"/>
-      <c r="C71" s="30" t="s">
+    <row r="74" spans="1:9" ht="44">
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E74" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F74" s="30">
         <v>1</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G74" s="30">
         <f>30+10</f>
         <v>40</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H74" s="30">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I71" s="57">
+      <c r="I74" s="57">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="44">
-      <c r="A72" s="81"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="30" t="s">
+    <row r="75" spans="1:9" ht="44">
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E75" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F75" s="30">
         <v>1</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G75" s="30">
         <v>50</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H75" s="30">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I75" s="57">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="44">
-      <c r="A73" s="81"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="30" t="s">
+    <row r="76" spans="1:9" ht="44">
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E76" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F76" s="30">
         <v>0.5</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G76" s="30">
         <v>10</v>
       </c>
-      <c r="H73" s="30">
+      <c r="H76" s="30">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I73" s="57">
+      <c r="I76" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="44">
-      <c r="A74" s="81"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="30" t="s">
+    <row r="77" spans="1:9" ht="44">
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F77" s="30">
         <v>15</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G77" s="30">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H77" s="30">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I77" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="44">
-      <c r="A75" s="81"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="30" t="s">
+    <row r="78" spans="1:9" ht="44">
+      <c r="A78" s="86"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E78" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F78" s="30">
         <v>15</v>
       </c>
-      <c r="G75" s="30">
+      <c r="G78" s="30">
         <v>2</v>
       </c>
-      <c r="H75" s="30">
+      <c r="H78" s="30">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I75" s="57">
+      <c r="I78" s="57">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="44">
-      <c r="A76" s="81"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="30" t="s">
+    <row r="79" spans="1:9" ht="44">
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F79" s="30">
         <v>2</v>
       </c>
-      <c r="G76" s="30">
+      <c r="G79" s="30">
         <f>2-1</f>
         <v>1</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H79" s="30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I76" s="57">
+      <c r="I79" s="57">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="44">
-      <c r="A77" s="81"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="30" t="s">
+    <row r="80" spans="1:9" ht="44">
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G80" s="30">
         <v>11</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>10</v>
       </c>
-      <c r="I77" s="57">
+      <c r="I80" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="44">
-      <c r="A78" s="81"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="79" t="s">
+    <row r="81" spans="1:10" ht="44">
+      <c r="A81" s="86"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D78" s="80"/>
-      <c r="E78" s="30" t="s">
+      <c r="D81" s="85"/>
+      <c r="E81" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F81" s="30">
         <v>5</v>
       </c>
-      <c r="G78" s="30">
+      <c r="G81" s="30">
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="H78" s="30">
+      <c r="H81" s="30">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I78" s="57">
+      <c r="I81" s="57">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="22">
-      <c r="A79" s="81"/>
-      <c r="B79" s="81"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="F79" s="30">
+    <row r="82" spans="1:10" ht="22">
+      <c r="A82" s="86"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F82" s="30">
         <v>5</v>
       </c>
-      <c r="G79" s="30">
+      <c r="G82" s="30">
         <v>1</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H82" s="30">
         <v>5</v>
       </c>
-      <c r="I79" s="72">
+      <c r="I82" s="72">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="44">
-      <c r="A80" s="81"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="30" t="s">
+    <row r="83" spans="1:10" ht="44">
+      <c r="A83" s="86"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D83" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E83" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F83" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="G80" s="30">
+      <c r="G83" s="30">
         <v>35</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H83" s="30">
         <v>9</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I83" s="57">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="44">
-      <c r="A81" s="81"/>
-      <c r="B81" s="81"/>
-      <c r="C81" s="30" t="s">
+    <row r="84" spans="1:10" ht="44">
+      <c r="A84" s="86"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E84" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F84" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G84" s="30">
         <v>10</v>
       </c>
-      <c r="H81" s="30">
+      <c r="H84" s="30">
         <f>1*10</f>
         <v>10</v>
       </c>
-      <c r="I81" s="57">
+      <c r="I84" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="44">
-      <c r="A82" s="81"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="30" t="s">
+    <row r="85" spans="1:10" ht="44">
+      <c r="A85" s="86"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E85" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F82" s="30">
+      <c r="F85" s="30">
         <v>5</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G85" s="30">
         <v>4</v>
       </c>
-      <c r="H82" s="30">
+      <c r="H85" s="30">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I82" s="57">
+      <c r="I85" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="44">
-      <c r="A83" s="81"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="30" t="s">
+    <row r="86" spans="1:10" ht="44">
+      <c r="A86" s="86"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E86" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="F83" s="30">
-        <v>0</v>
-      </c>
-      <c r="G83" s="30">
+      <c r="F86" s="30">
+        <v>0</v>
+      </c>
+      <c r="G86" s="30">
         <v>1</v>
       </c>
-      <c r="H83" s="30">
+      <c r="H86" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I83" s="57">
+      <c r="I86" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="48" customFormat="1" ht="44">
-      <c r="A84" s="81"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="48" t="s">
+    <row r="87" spans="1:10" s="48" customFormat="1" ht="44">
+      <c r="A87" s="86"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E87" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F87" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="G84" s="48">
+      <c r="G87" s="48">
         <v>4</v>
       </c>
-      <c r="H84" s="48">
+      <c r="H87" s="48">
         <f>5*4</f>
         <v>20</v>
       </c>
-      <c r="I84" s="48">
+      <c r="I87" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="57" customFormat="1" ht="110">
-      <c r="A85" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="B85" s="81">
-        <f>SUM(I87:I114)+SUM(I85)+6650</f>
-        <v>12071.77</v>
-      </c>
-      <c r="C85" s="57" t="s">
+    <row r="88" spans="1:10" s="57" customFormat="1" ht="110">
+      <c r="A88" s="86" t="s">
+        <v>547</v>
+      </c>
+      <c r="B88" s="86">
+        <f>SUM(I90:I118)+SUM(I88)+6650</f>
+        <v>12201.77</v>
+      </c>
+      <c r="C88" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="E85" s="57" t="s">
+      <c r="E88" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="F85" s="57" t="s">
+      <c r="F88" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="H85" s="57">
+      <c r="H88" s="57">
         <f>23+27+13+20+12+18+20</f>
         <v>133</v>
       </c>
-      <c r="I85" s="57">
-        <f>H85</f>
+      <c r="I88" s="57">
+        <f>H88</f>
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="60" customFormat="1" ht="308">
-      <c r="A86" s="81"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="60" t="s">
+    <row r="89" spans="1:10" s="60" customFormat="1" ht="308">
+      <c r="A89" s="86"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="D86" s="60" t="s">
+      <c r="D89" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="E86" s="69">
+      <c r="E89" s="69">
         <v>1688</v>
       </c>
-      <c r="F86" s="60" t="s">
+      <c r="F89" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="G86" s="60" t="s">
+      <c r="G89" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="H86" s="60" t="s">
+      <c r="H89" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="I86" s="60" t="s">
+      <c r="I89" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="J86" s="60" t="s">
+      <c r="J89" s="60" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="60" customFormat="1" ht="88">
-      <c r="A87" s="81"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="60" t="s">
+    <row r="90" spans="1:10" s="60" customFormat="1" ht="88">
+      <c r="A90" s="86"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="D87" s="60" t="s">
+      <c r="D90" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="E87" s="69">
+      <c r="E90" s="69">
         <v>1688</v>
       </c>
-      <c r="G87" s="60" t="s">
+      <c r="G90" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="H87" s="60">
+      <c r="H90" s="60">
         <v>3.6</v>
       </c>
-      <c r="I87" s="60">
+      <c r="I90" s="60">
         <v>3.6</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="60" customFormat="1" ht="88">
-      <c r="A88" s="81"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="60" t="s">
+    <row r="91" spans="1:10" s="60" customFormat="1" ht="88">
+      <c r="A91" s="86"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="D88" s="60" t="s">
+      <c r="D91" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="E88" s="69" t="s">
+      <c r="E91" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="F88" s="60" t="s">
+      <c r="F91" s="60" t="s">
         <v>423</v>
-      </c>
-      <c r="G88" s="60">
-        <v>1</v>
-      </c>
-      <c r="H88" s="60">
-        <v>200</v>
-      </c>
-      <c r="I88" s="60">
-        <v>200</v>
-      </c>
-      <c r="J88" s="60" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="60" customFormat="1" ht="44">
-      <c r="A89" s="81"/>
-      <c r="B89" s="81"/>
-      <c r="C89" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="E89" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="F89" s="60">
-        <v>5</v>
-      </c>
-      <c r="G89" s="60">
-        <v>1</v>
-      </c>
-      <c r="H89" s="60">
-        <v>5</v>
-      </c>
-      <c r="I89" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="60" customFormat="1" ht="66">
-      <c r="A90" s="81"/>
-      <c r="B90" s="81"/>
-      <c r="C90" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="D90" s="60" t="s">
-        <v>459</v>
-      </c>
-      <c r="E90" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="F90" s="60" t="s">
-        <v>460</v>
-      </c>
-      <c r="G90" s="60">
-        <v>2</v>
-      </c>
-      <c r="H90" s="60">
-        <v>1600</v>
-      </c>
-      <c r="I90" s="60">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="60" customFormat="1" ht="66">
-      <c r="A91" s="81"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="60" t="s">
-        <v>455</v>
-      </c>
-      <c r="D91" s="60" t="s">
-        <v>454</v>
-      </c>
-      <c r="E91" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F91" s="60">
-        <v>59</v>
       </c>
       <c r="G91" s="60">
         <v>1</v>
       </c>
       <c r="H91" s="60">
+        <v>200</v>
+      </c>
+      <c r="I91" s="60">
+        <v>200</v>
+      </c>
+      <c r="J91" s="60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="60" customFormat="1" ht="44">
+      <c r="A92" s="86"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="E92" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="60">
+        <v>5</v>
+      </c>
+      <c r="G92" s="60">
+        <v>1</v>
+      </c>
+      <c r="H92" s="60">
+        <v>5</v>
+      </c>
+      <c r="I92" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="60" customFormat="1" ht="66">
+      <c r="A93" s="86"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="D93" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="E93" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="G93" s="60">
+        <v>2</v>
+      </c>
+      <c r="H93" s="60">
+        <v>1600</v>
+      </c>
+      <c r="I93" s="60">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="60" customFormat="1" ht="66">
+      <c r="A94" s="86"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="D94" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="E94" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="60">
         <v>59</v>
       </c>
-      <c r="I91" s="60">
+      <c r="G94" s="60">
+        <v>1</v>
+      </c>
+      <c r="H94" s="60">
         <v>59</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" s="67" customFormat="1" ht="44">
-      <c r="A92" s="81"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="67" t="s">
+      <c r="I94" s="60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="67" customFormat="1" ht="44">
+      <c r="A95" s="86"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="67" t="s">
         <v>456</v>
       </c>
-      <c r="D92" s="67" t="s">
+      <c r="D95" s="67" t="s">
         <v>457</v>
       </c>
-      <c r="E92" s="69" t="s">
+      <c r="E95" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="67">
+      <c r="F95" s="67">
         <v>20</v>
-      </c>
-      <c r="G92" s="67">
-        <v>1</v>
-      </c>
-      <c r="H92" s="67">
-        <v>20</v>
-      </c>
-      <c r="I92" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="67" customFormat="1" ht="22">
-      <c r="A93" s="81"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="E93" s="69">
-        <v>1688</v>
-      </c>
-      <c r="F93" s="67">
-        <v>8.86</v>
-      </c>
-      <c r="G93" s="67">
-        <v>1</v>
-      </c>
-      <c r="H93" s="67">
-        <v>8.86</v>
-      </c>
-      <c r="I93" s="67">
-        <f>H93</f>
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="67" customFormat="1" ht="22">
-      <c r="A94" s="81"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="E94" s="69">
-        <v>1688</v>
-      </c>
-      <c r="F94" s="67">
-        <v>13</v>
-      </c>
-      <c r="G94" s="67">
-        <v>1</v>
-      </c>
-      <c r="H94" s="67">
-        <v>13</v>
-      </c>
-      <c r="I94" s="67">
-        <f t="shared" ref="I94:I95" si="5">H94</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="67" customFormat="1" ht="44">
-      <c r="A95" s="81"/>
-      <c r="B95" s="81"/>
-      <c r="C95" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="E95" s="69">
-        <v>1688</v>
-      </c>
-      <c r="F95" s="67">
-        <v>9.31</v>
       </c>
       <c r="G95" s="67">
         <v>1</v>
       </c>
       <c r="H95" s="67">
+        <v>20</v>
+      </c>
+      <c r="I95" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="67" customFormat="1" ht="22">
+      <c r="A96" s="86"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="67" t="s">
+        <v>476</v>
+      </c>
+      <c r="E96" s="69">
+        <v>1688</v>
+      </c>
+      <c r="F96" s="67">
+        <v>8.86</v>
+      </c>
+      <c r="G96" s="67">
+        <v>1</v>
+      </c>
+      <c r="H96" s="67">
+        <v>8.86</v>
+      </c>
+      <c r="I96" s="67">
+        <f>H96</f>
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="67" customFormat="1" ht="22">
+      <c r="A97" s="86"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="E97" s="69">
+        <v>1688</v>
+      </c>
+      <c r="F97" s="67">
+        <v>13</v>
+      </c>
+      <c r="G97" s="67">
+        <v>1</v>
+      </c>
+      <c r="H97" s="67">
+        <v>13</v>
+      </c>
+      <c r="I97" s="67">
+        <f t="shared" ref="I97:I98" si="5">H97</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="67" customFormat="1" ht="44">
+      <c r="A98" s="86"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="E98" s="69">
+        <v>1688</v>
+      </c>
+      <c r="F98" s="67">
         <v>9.31</v>
       </c>
-      <c r="I95" s="67">
+      <c r="G98" s="67">
+        <v>1</v>
+      </c>
+      <c r="H98" s="67">
+        <v>9.31</v>
+      </c>
+      <c r="I98" s="67">
         <f t="shared" si="5"/>
         <v>9.31</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="60" customFormat="1" ht="44">
-      <c r="A96" s="81"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="60" t="s">
+    <row r="99" spans="1:10" s="60" customFormat="1" ht="44">
+      <c r="A99" s="86"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="60" t="s">
         <v>431</v>
       </c>
-      <c r="E96" s="69" t="s">
+      <c r="E99" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="F96" s="60">
+      <c r="F99" s="60">
         <v>25</v>
       </c>
-      <c r="G96" s="60">
+      <c r="G99" s="60">
         <v>3</v>
       </c>
-      <c r="H96" s="60">
+      <c r="H99" s="60">
         <v>75</v>
       </c>
-      <c r="I96" s="60">
+      <c r="I99" s="60">
         <v>75</v>
       </c>
-      <c r="J96" s="60" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="60" customFormat="1" ht="66">
-      <c r="A97" s="81"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="60" t="s">
+      <c r="J99" s="60" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="60" customFormat="1" ht="66">
+      <c r="A100" s="86"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="E97" s="60" t="s">
+      <c r="E100" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="F97" s="60" t="s">
+      <c r="F100" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="G97" s="60">
+      <c r="G100" s="60">
         <v>2</v>
       </c>
-      <c r="H97" s="60">
+      <c r="H100" s="60">
         <v>24</v>
       </c>
-      <c r="I97" s="60">
+      <c r="I100" s="60">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="44">
-      <c r="A98" s="81"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="30" t="s">
+    <row r="101" spans="1:10" ht="44">
+      <c r="A101" s="86"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D101" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E101" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F101" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="G98" s="30">
+      <c r="G101" s="30">
         <v>1</v>
       </c>
-      <c r="H98" s="30">
+      <c r="H101" s="30">
         <v>80</v>
       </c>
-      <c r="I98" s="57">
+      <c r="I101" s="57">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="44">
-      <c r="A99" s="81"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="30" t="s">
+    <row r="102" spans="1:10" ht="44">
+      <c r="A102" s="86"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E102" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F102" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="G99" s="30">
+      <c r="G102" s="30">
         <v>1</v>
       </c>
-      <c r="H99" s="30">
+      <c r="H102" s="30">
         <v>7</v>
       </c>
-      <c r="I99" s="67">
+      <c r="I102" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="44">
-      <c r="A100" s="81"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="79" t="s">
+    <row r="103" spans="1:10" ht="44">
+      <c r="A103" s="86"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="D100" s="79" t="s">
+      <c r="D103" s="84" t="s">
         <v>312</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G100" s="30">
-        <v>10</v>
-      </c>
-      <c r="H100" s="30">
-        <v>265</v>
-      </c>
-      <c r="I100" s="57">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="44">
-      <c r="A101" s="81"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="G101" s="30">
-        <v>20</v>
-      </c>
-      <c r="H101" s="30">
-        <v>520</v>
-      </c>
-      <c r="I101" s="60">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="44">
-      <c r="A102" s="81"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="G102" s="30">
-        <v>15</v>
-      </c>
-      <c r="H102" s="30">
-        <v>390</v>
-      </c>
-      <c r="I102" s="67">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="44">
-      <c r="A103" s="81"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="D103" s="79" t="s">
-        <v>240</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G103" s="30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H103" s="30">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="I103" s="57">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="44">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="79"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="44">
+      <c r="A104" s="86"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
       <c r="E104" s="30" t="s">
         <v>424</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G104" s="30">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H104" s="30">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="I104" s="60">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="44">
-      <c r="A105" s="81"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="79"/>
-      <c r="D105" s="79"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="44">
+      <c r="A105" s="86"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
       <c r="E105" s="30" t="s">
         <v>424</v>
       </c>
       <c r="F105" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="G105" s="30">
+        <v>15</v>
+      </c>
+      <c r="H105" s="30">
+        <v>390</v>
+      </c>
+      <c r="I105" s="67">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="44">
+      <c r="A106" s="86"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G106" s="30">
+        <v>20</v>
+      </c>
+      <c r="H106" s="30">
+        <v>110</v>
+      </c>
+      <c r="I106" s="57">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="44">
+      <c r="A107" s="86"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="F107" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="G105" s="30">
-        <v>100</v>
-      </c>
-      <c r="H105" s="30">
-        <v>500</v>
-      </c>
-      <c r="I105" s="67">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="66">
-      <c r="A106" s="81"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="G106" s="30">
-        <v>63</v>
-      </c>
-      <c r="H106" s="30">
-        <v>-130</v>
-      </c>
-      <c r="I106" s="67">
-        <v>-130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="44">
-      <c r="A107" s="81"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="D107" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>315</v>
-      </c>
       <c r="G107" s="30">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H107" s="30">
-        <v>50</v>
-      </c>
-      <c r="I107" s="57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="44">
-      <c r="A108" s="81"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="79"/>
+        <v>600</v>
+      </c>
+      <c r="I107" s="60">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="44">
+      <c r="A108" s="86"/>
+      <c r="B108" s="86"/>
+      <c r="C108" s="84"/>
+      <c r="D108" s="84"/>
       <c r="E108" s="30" t="s">
         <v>424</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G108" s="30">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H108" s="30">
-        <v>12</v>
-      </c>
-      <c r="I108" s="60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="44">
-      <c r="A109" s="81"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="79"/>
-      <c r="D109" s="79"/>
+        <v>500</v>
+      </c>
+      <c r="I108" s="67">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="66">
+      <c r="A109" s="86"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="84"/>
       <c r="E109" s="30" t="s">
-        <v>234</v>
+        <v>424</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="G109" s="30">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="H109" s="30">
-        <v>2</v>
+        <v>-130</v>
       </c>
       <c r="I109" s="67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="44">
-      <c r="A110" s="81"/>
-      <c r="B110" s="81"/>
-      <c r="C110" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>319</v>
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="44">
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
+      <c r="C110" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="84" t="s">
+        <v>235</v>
       </c>
       <c r="E110" s="30" t="s">
         <v>234</v>
       </c>
       <c r="F110" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G110" s="30">
+        <v>50</v>
+      </c>
+      <c r="H110" s="30">
+        <v>50</v>
+      </c>
+      <c r="I110" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="44">
+      <c r="A111" s="86"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="G111" s="30">
+        <v>20</v>
+      </c>
+      <c r="H111" s="30">
+        <v>12</v>
+      </c>
+      <c r="I111" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="44">
+      <c r="A112" s="86"/>
+      <c r="B112" s="86"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="G112" s="30">
+        <v>4</v>
+      </c>
+      <c r="H112" s="30">
+        <v>2</v>
+      </c>
+      <c r="I112" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="44">
+      <c r="A113" s="86"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F113" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="G110" s="30">
+      <c r="G113" s="30">
         <v>60</v>
       </c>
-      <c r="H110" s="30">
+      <c r="H113" s="30">
         <v>300</v>
       </c>
-      <c r="I110" s="57">
+      <c r="I113" s="57">
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="44">
-      <c r="A111" s="81"/>
-      <c r="B111" s="81"/>
-      <c r="C111" s="30" t="s">
+    <row r="114" spans="1:9" ht="44">
+      <c r="A114" s="86"/>
+      <c r="B114" s="86"/>
+      <c r="C114" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D114" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E114" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F114" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="G111" s="30">
+      <c r="G114" s="30">
         <v>4</v>
       </c>
-      <c r="H111" s="30">
+      <c r="H114" s="30">
         <v>140</v>
       </c>
-      <c r="I111" s="57">
+      <c r="I114" s="57">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="60" customFormat="1" ht="44">
-      <c r="A112" s="81"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="60" t="s">
+    <row r="115" spans="1:9" s="60" customFormat="1" ht="44">
+      <c r="A115" s="86"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="60" t="s">
+      <c r="D115" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="E112" s="60" t="s">
+      <c r="E115" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="F112" s="60" t="s">
+      <c r="F115" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="G112" s="60">
+      <c r="G115" s="60">
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="H112" s="60">
+      <c r="H115" s="60">
         <f>70+42</f>
         <v>112</v>
       </c>
-      <c r="I112" s="60">
-        <f>H112</f>
+      <c r="I115" s="60">
+        <f>H115</f>
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="60" customFormat="1" ht="66">
-      <c r="A113" s="81"/>
-      <c r="B113" s="81"/>
-      <c r="C113" s="60" t="s">
+    <row r="116" spans="1:9" s="60" customFormat="1" ht="66">
+      <c r="A116" s="86"/>
+      <c r="B116" s="86"/>
+      <c r="C116" s="60" t="s">
         <v>465</v>
       </c>
-      <c r="D113" s="60" t="s">
+      <c r="D116" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="E113" s="60" t="s">
+      <c r="E116" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="G113" s="60" t="s">
+      <c r="G116" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="H113" s="60">
+      <c r="H116" s="60">
         <f>356+38-82</f>
         <v>312</v>
       </c>
-      <c r="I113" s="60">
+      <c r="I116" s="60">
         <v>312</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="57" customFormat="1" ht="44">
-      <c r="A114" s="81"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="57" t="s">
+    <row r="117" spans="1:9" s="57" customFormat="1" ht="44">
+      <c r="A117" s="86"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="E114" s="57" t="s">
+      <c r="E117" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F117" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="G114" s="57">
+      <c r="G117" s="57">
         <v>20</v>
       </c>
-      <c r="H114" s="57">
+      <c r="H117" s="57">
         <v>10</v>
       </c>
-      <c r="I114" s="57">
+      <c r="I117" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="66">
-      <c r="A115" s="81"/>
-      <c r="B115" s="81"/>
-      <c r="C115" s="30" t="s">
+    <row r="118" spans="1:9" ht="66">
+      <c r="A118" s="86"/>
+      <c r="B118" s="86"/>
+      <c r="C118" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D118" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E118" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="F115" s="30">
+      <c r="F118" s="30">
         <v>130</v>
       </c>
-      <c r="G115" s="30">
+      <c r="G118" s="30">
         <v>1</v>
       </c>
-      <c r="H115" s="30">
+      <c r="H118" s="30">
         <v>130</v>
       </c>
-      <c r="I115" s="30">
+      <c r="I118" s="30">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="66">
-      <c r="A116" s="80" t="s">
+    <row r="119" spans="1:9" ht="66">
+      <c r="A119" s="85" t="s">
+        <v>550</v>
+      </c>
+      <c r="B119" s="85">
+        <v>683</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="G119" s="30">
+        <v>8</v>
+      </c>
+      <c r="H119" s="30">
+        <v>148</v>
+      </c>
+      <c r="I119" s="85">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="66">
+      <c r="A120" s="85"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="B116" s="80">
-        <v>770</v>
-      </c>
-      <c r="C116" s="30" t="s">
+      <c r="D120" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="G120" s="30">
+        <v>15</v>
+      </c>
+      <c r="H120" s="30">
+        <v>180</v>
+      </c>
+      <c r="I120" s="85"/>
+    </row>
+    <row r="121" spans="1:9" ht="66">
+      <c r="A121" s="85"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F121" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="G121" s="30">
+        <v>10</v>
+      </c>
+      <c r="H121" s="30">
+        <v>90</v>
+      </c>
+      <c r="I121" s="85"/>
+    </row>
+    <row r="122" spans="1:9" ht="66">
+      <c r="A122" s="85"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="G122" s="30">
+        <v>3</v>
+      </c>
+      <c r="H122" s="30">
+        <v>12</v>
+      </c>
+      <c r="I122" s="85"/>
+    </row>
+    <row r="123" spans="1:9" ht="66">
+      <c r="A123" s="85"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D123" s="69"/>
+      <c r="E123" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F123" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="G123" s="30">
+        <v>50</v>
+      </c>
+      <c r="H123" s="30">
+        <v>15</v>
+      </c>
+      <c r="I123" s="85"/>
+    </row>
+    <row r="124" spans="1:9" ht="66">
+      <c r="A124" s="85"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="E124" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="F124" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="G124" s="30">
+        <v>2</v>
+      </c>
+      <c r="H124" s="30">
+        <v>30</v>
+      </c>
+      <c r="I124" s="85"/>
+    </row>
+    <row r="125" spans="1:9" ht="66">
+      <c r="A125" s="85"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="E116" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="G116" s="30">
-        <v>8</v>
-      </c>
-      <c r="H116" s="30">
-        <v>148</v>
-      </c>
-      <c r="I116" s="80">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="66">
-      <c r="A117" s="80"/>
-      <c r="B117" s="80"/>
-      <c r="C117" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E117" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="G117" s="30">
-        <v>20</v>
-      </c>
-      <c r="H117" s="30">
-        <v>240</v>
-      </c>
-      <c r="I117" s="80"/>
-    </row>
-    <row r="118" spans="1:9" ht="66">
-      <c r="A118" s="80"/>
-      <c r="B118" s="80"/>
-      <c r="C118" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="G118" s="30">
-        <v>10</v>
-      </c>
-      <c r="H118" s="30">
-        <v>90</v>
-      </c>
-      <c r="I118" s="80"/>
-    </row>
-    <row r="119" spans="1:9" ht="66">
-      <c r="A119" s="80"/>
-      <c r="B119" s="80"/>
-      <c r="C119" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E119" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="G119" s="30">
-        <v>6</v>
-      </c>
-      <c r="H119" s="30">
-        <v>24</v>
-      </c>
-      <c r="I119" s="80"/>
-    </row>
-    <row r="120" spans="1:9" ht="66">
-      <c r="A120" s="80"/>
-      <c r="B120" s="80"/>
-      <c r="C120" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D120" s="69"/>
-      <c r="E120" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="G120" s="30">
-        <v>50</v>
-      </c>
-      <c r="H120" s="30">
-        <v>15</v>
-      </c>
-      <c r="I120" s="80"/>
-    </row>
-    <row r="121" spans="1:9" ht="66">
-      <c r="A121" s="80"/>
-      <c r="B121" s="80"/>
-      <c r="C121" s="30" t="s">
-        <v>562</v>
-      </c>
-      <c r="E121" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="G121" s="30">
-        <v>2</v>
-      </c>
-      <c r="H121" s="30">
-        <v>30</v>
-      </c>
-      <c r="I121" s="80"/>
-    </row>
-    <row r="122" spans="1:9" ht="66">
-      <c r="A122" s="80"/>
-      <c r="B122" s="80"/>
-      <c r="C122" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="E122" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="G122" s="30">
-        <v>2</v>
-      </c>
-      <c r="H122" s="30">
-        <v>30</v>
-      </c>
-      <c r="I122" s="80"/>
-    </row>
-    <row r="123" spans="1:9" ht="66">
-      <c r="A123" s="80"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="E123" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="F123" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="G123" s="30">
-        <v>1</v>
-      </c>
-      <c r="H123" s="30">
-        <v>12</v>
-      </c>
-      <c r="I123" s="80"/>
-    </row>
-    <row r="124" spans="1:9" ht="66">
-      <c r="A124" s="80"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="E124" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="F124" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="G124" s="30">
-        <v>60</v>
-      </c>
-      <c r="H124" s="30">
-        <v>6</v>
-      </c>
-      <c r="I124" s="80"/>
-    </row>
-    <row r="125" spans="1:9" ht="66">
-      <c r="A125" s="80"/>
-      <c r="B125" s="80"/>
-      <c r="C125" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>565</v>
-      </c>
       <c r="E125" s="65" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F125" s="30" t="s">
         <v>566</v>
       </c>
       <c r="G125" s="30">
+        <v>1</v>
+      </c>
+      <c r="H125" s="30">
+        <v>15</v>
+      </c>
+      <c r="I125" s="85"/>
+    </row>
+    <row r="126" spans="1:9" ht="66">
+      <c r="A126" s="85"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="E126" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="G126" s="30">
+        <v>1</v>
+      </c>
+      <c r="H126" s="30">
         <v>12</v>
       </c>
-      <c r="H125" s="30">
+      <c r="I126" s="85"/>
+    </row>
+    <row r="127" spans="1:9" ht="66">
+      <c r="A127" s="85"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E127" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="F127" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="G127" s="30">
+        <v>60</v>
+      </c>
+      <c r="H127" s="30">
+        <v>6</v>
+      </c>
+      <c r="I127" s="85"/>
+    </row>
+    <row r="128" spans="1:9" ht="66">
+      <c r="A128" s="85"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="E128" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="F128" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="G128" s="30">
+        <v>12</v>
+      </c>
+      <c r="H128" s="30">
         <v>192</v>
       </c>
-      <c r="I125" s="80"/>
-    </row>
-    <row r="126" spans="1:9" ht="88">
-      <c r="A126" s="80" t="s">
+      <c r="I128" s="85"/>
+    </row>
+    <row r="129" spans="1:10" ht="88">
+      <c r="A129" s="85" t="s">
+        <v>538</v>
+      </c>
+      <c r="B129" s="85"/>
+      <c r="C129" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="22">
+      <c r="A130" s="85"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="22">
+      <c r="A131" s="85"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="30" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="132">
+      <c r="A132" s="85" t="s">
+        <v>549</v>
+      </c>
+      <c r="B132" s="85">
+        <f>SUM(I132:I134)</f>
+        <v>9864</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="G132" s="30">
+        <v>4</v>
+      </c>
+      <c r="H132" s="30">
+        <f>1099*4+100*4+20*5.5</f>
+        <v>4906</v>
+      </c>
+      <c r="I132" s="30">
+        <v>4506</v>
+      </c>
+      <c r="J132" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="132">
+      <c r="A133" s="85"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="G133" s="30">
+        <v>2</v>
+      </c>
+      <c r="H133" s="30">
+        <f>1529*2+100*2</f>
+        <v>3258</v>
+      </c>
+      <c r="I133" s="30">
+        <v>3258</v>
+      </c>
+      <c r="J133" s="84"/>
+    </row>
+    <row r="134" spans="1:10" ht="154">
+      <c r="A134" s="85"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="G134" s="30">
+        <v>1</v>
+      </c>
+      <c r="H134" s="30">
+        <v>2250</v>
+      </c>
+      <c r="I134" s="30">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="44" customHeight="1">
+      <c r="A135" s="86" t="s">
+        <v>544</v>
+      </c>
+      <c r="B135" s="85"/>
+      <c r="C135" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="44" customHeight="1">
+      <c r="A136" s="86"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="132">
+      <c r="A137" s="86" t="s">
         <v>542</v>
       </c>
-      <c r="B126" s="80"/>
-      <c r="C126" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="22">
-      <c r="A127" s="80"/>
-      <c r="B127" s="80"/>
-      <c r="C127" s="30" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="22">
-      <c r="A128" s="80"/>
-      <c r="B128" s="80"/>
-      <c r="C128" s="30" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="88">
-      <c r="A129" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="B129" s="80"/>
-      <c r="C129" s="30" t="s">
+      <c r="B137" s="85">
+        <f>SUM(I137:I138)</f>
+        <v>308</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="E137" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="G137" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="H137" s="30">
+        <f>2.4*120</f>
+        <v>288</v>
+      </c>
+      <c r="I137" s="30">
+        <v>288</v>
+      </c>
+      <c r="J137" s="30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="44">
+      <c r="A138" s="86"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F138" s="30">
+        <v>20</v>
+      </c>
+      <c r="G138" s="30">
+        <v>1</v>
+      </c>
+      <c r="H138" s="30">
+        <v>20</v>
+      </c>
+      <c r="I138" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="22">
+      <c r="A139" s="76" t="s">
         <v>543</v>
       </c>
-      <c r="D129" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="E129" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>598</v>
-      </c>
-      <c r="G129" s="30">
+    </row>
+    <row r="140" spans="1:10" ht="44" customHeight="1">
+      <c r="A140" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="B140" s="85">
+        <f>SUM(I140:I156)</f>
+        <v>2500</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E140" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F140" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="G140" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="110">
-      <c r="A130" s="80"/>
-      <c r="B130" s="80"/>
-      <c r="C130" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="D130" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="E130" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="G130" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="154">
-      <c r="A131" s="80"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="D131" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="E131" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="G131" s="30">
+      <c r="H140" s="30">
+        <v>160</v>
+      </c>
+      <c r="I140" s="30">
+        <f>H140</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="44" customHeight="1">
+      <c r="A141" s="85"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E141" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="G141" s="30">
+        <v>4</v>
+      </c>
+      <c r="H141" s="30">
+        <v>160</v>
+      </c>
+      <c r="I141" s="30">
+        <f t="shared" ref="I141:I146" si="6">H141</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="74" customHeight="1">
+      <c r="A142" s="85"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="E142" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F142" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="G142" s="30">
+        <v>6</v>
+      </c>
+      <c r="H142" s="30">
+        <f>6*28</f>
+        <v>168</v>
+      </c>
+      <c r="I142" s="30">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="44" customHeight="1">
+      <c r="A143" s="85"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="G143" s="30">
+        <v>24</v>
+      </c>
+      <c r="H143" s="30">
+        <f>24*55</f>
+        <v>1320</v>
+      </c>
+      <c r="I143" s="30">
+        <f t="shared" si="6"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="44" customHeight="1">
+      <c r="A144" s="85"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="E144" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F144" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G144" s="30">
+        <v>40</v>
+      </c>
+      <c r="H144" s="30">
+        <v>40</v>
+      </c>
+      <c r="I144" s="30">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="44" customHeight="1">
+      <c r="A145" s="85"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="E145" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F145" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G145" s="30">
+        <v>60</v>
+      </c>
+      <c r="H145" s="30">
+        <v>60</v>
+      </c>
+      <c r="I145" s="30">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="44" customHeight="1">
+      <c r="A146" s="85"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="D146" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E146" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="G146" s="30">
         <v>1</v>
       </c>
-      <c r="H131" s="30">
-        <v>2250</v>
-      </c>
-      <c r="I131" s="30">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="44">
-      <c r="A132" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="B132" s="80"/>
-      <c r="C132" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="44">
-      <c r="A133" s="81"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E133" s="30" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="22">
-      <c r="A134" s="76" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="22">
-      <c r="A135" s="76" t="s">
-        <v>547</v>
+      <c r="H146" s="30">
+        <v>130</v>
+      </c>
+      <c r="I146" s="30">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="44" customHeight="1">
+      <c r="A147" s="85"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="E147" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F147" s="30">
+        <v>3</v>
+      </c>
+      <c r="G147" s="30">
+        <v>3</v>
+      </c>
+      <c r="H147" s="30">
+        <v>9</v>
+      </c>
+      <c r="I147" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="44" customHeight="1">
+      <c r="A148" s="85"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="E148" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F148" s="30">
+        <v>3</v>
+      </c>
+      <c r="G148" s="30">
+        <v>3</v>
+      </c>
+      <c r="H148" s="30">
+        <v>9</v>
+      </c>
+      <c r="I148" s="30">
+        <f>H148</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="44" customHeight="1">
+      <c r="A149" s="85"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="E149" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="G149" s="30">
+        <v>1</v>
+      </c>
+      <c r="H149" s="30">
+        <v>75</v>
+      </c>
+      <c r="I149" s="30">
+        <f t="shared" ref="I149:I156" si="7">H149</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="44" customHeight="1">
+      <c r="A150" s="85"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="E150" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F150" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="G150" s="30">
+        <v>1</v>
+      </c>
+      <c r="H150" s="30">
+        <v>8</v>
+      </c>
+      <c r="I150" s="30">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="44" customHeight="1">
+      <c r="A151" s="85"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E151" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="G151" s="30">
+        <v>1</v>
+      </c>
+      <c r="H151" s="30">
+        <v>7</v>
+      </c>
+      <c r="I151" s="30">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="88">
+      <c r="A152" s="85"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E152" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F152" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="G152" s="30">
+        <v>3</v>
+      </c>
+      <c r="H152" s="30">
+        <f>85*3</f>
+        <v>255</v>
+      </c>
+      <c r="I152" s="30">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="44" customHeight="1">
+      <c r="A153" s="85"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F153" s="30">
+        <v>7</v>
+      </c>
+      <c r="G153" s="30">
+        <v>3</v>
+      </c>
+      <c r="H153" s="30">
+        <v>21</v>
+      </c>
+      <c r="I153" s="30">
+        <f>H153</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="44" customHeight="1">
+      <c r="A154" s="85"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="E154" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F154" s="30">
+        <v>3</v>
+      </c>
+      <c r="G154" s="30">
+        <v>3</v>
+      </c>
+      <c r="H154" s="30">
+        <v>9</v>
+      </c>
+      <c r="I154" s="30">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="44" customHeight="1">
+      <c r="A155" s="85"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="E155" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F155" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="G155" s="30">
+        <v>15</v>
+      </c>
+      <c r="H155" s="30">
+        <f>15*1.2</f>
+        <v>18</v>
+      </c>
+      <c r="I155" s="30">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="44" customHeight="1">
+      <c r="A156" s="85"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E156" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="G156" s="30">
+        <v>30</v>
+      </c>
+      <c r="H156" s="30">
+        <v>60</v>
+      </c>
+      <c r="I156" s="30">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="22">
+      <c r="A157" s="85"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="30" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="36">
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B140:B157"/>
+    <mergeCell ref="A140:A157"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="A88:A118"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B68:B87"/>
+    <mergeCell ref="A68:A87"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B57"/>
+    <mergeCell ref="A32:A57"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="I119:I128"/>
+    <mergeCell ref="A119:A128"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="B129:B131"/>
     <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="I116:I125"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B29:B54"/>
-    <mergeCell ref="A29:A54"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="A85:A115"/>
-    <mergeCell ref="B85:B115"/>
-    <mergeCell ref="B65:B84"/>
-    <mergeCell ref="A65:A84"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="C100:C102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7699,9 +8657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E235C1-DC55-A14E-BC0A-3D4AFF249CBD}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21"/>
@@ -8309,7 +9267,7 @@
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" ht="22">
       <c r="A16" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>98</v>
@@ -8742,10 +9700,10 @@
     </row>
     <row r="41" spans="1:13" s="74" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="74" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
@@ -8790,10 +9748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7191D9C8-28F9-4B4B-848D-0A0BF1EBDEF6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="21"/>
@@ -8817,10 +9775,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="90" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -8828,8 +9786,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="85"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
@@ -8875,21 +9833,32 @@
         <v>432</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C9" s="9">
         <v>19889959688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10" s="9">
+        <v>18841129373</v>
       </c>
     </row>
   </sheetData>
@@ -8907,12 +9876,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A8AAFD-7008-5A46-95A3-812D9F73CD1C}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D31" sqref="D31"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="21"/>
@@ -9075,7 +10044,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="66">
+    <row r="7" spans="1:10" ht="44">
       <c r="A7" s="3">
         <v>44162</v>
       </c>
@@ -10387,7 +11356,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="66">
+    <row r="58" spans="1:8" ht="44">
       <c r="A58" s="3">
         <v>44213</v>
       </c>
@@ -10413,7 +11382,7 @@
         <v>114.7</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -10442,7 +11411,7 @@
         <v>166.31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="44">
+    <row r="60" spans="1:8" ht="22">
       <c r="A60" s="3">
         <v>44215</v>
       </c>
@@ -10495,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="44">
+    <row r="62" spans="1:8" ht="22">
       <c r="A62" s="3">
         <v>44217</v>
       </c>
@@ -10521,7 +11490,7 @@
         <v>100.89999999999999</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -10548,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="66">
+    <row r="64" spans="1:8" ht="44">
       <c r="A64" s="3">
         <v>44219</v>
       </c>
@@ -10575,7 +11544,7 @@
         <v>188.51</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -10626,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="44">
+    <row r="67" spans="1:8" ht="22">
       <c r="A67" s="3">
         <v>44222</v>
       </c>
@@ -10681,7 +11650,7 @@
         <v>152.70999999999998</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="70" customFormat="1">
@@ -10706,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="63">
-        <f t="shared" ref="G69:G99" si="2">SUM(B69:F69)</f>
+        <f t="shared" ref="G69:G98" si="2">SUM(B69:F69)</f>
         <v>188.23</v>
       </c>
     </row>
@@ -10796,7 +11765,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="70" customFormat="1" ht="44">
+    <row r="73" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A73" s="3">
         <v>44228</v>
       </c>
@@ -10822,7 +11791,7 @@
         <v>116.6</v>
       </c>
       <c r="H73" s="70" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="70" customFormat="1" ht="22">
@@ -10850,7 +11819,7 @@
         <v>138.5</v>
       </c>
       <c r="H74" s="70" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="70" customFormat="1" ht="22">
@@ -10879,7 +11848,7 @@
         <v>106.61</v>
       </c>
       <c r="H75" s="70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="70" customFormat="1" ht="22">
@@ -10909,7 +11878,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="70" customFormat="1" ht="44">
+    <row r="77" spans="1:8" s="70" customFormat="1" ht="22">
       <c r="A77" s="3">
         <v>44232</v>
       </c>
@@ -11072,7 +12041,7 @@
         <v>451.1</v>
       </c>
       <c r="H82" s="71" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="71" customFormat="1" ht="22">
@@ -11099,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="71" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="71" customFormat="1" ht="22">
@@ -11126,10 +12095,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="71" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="71" customFormat="1" ht="66">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="71" customFormat="1" ht="44">
       <c r="A85" s="3">
         <v>44240</v>
       </c>
@@ -11154,7 +12123,7 @@
         <v>119.6</v>
       </c>
       <c r="H85" s="71" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="71" customFormat="1" ht="22">
@@ -11183,7 +12152,7 @@
         <v>98.490000000000009</v>
       </c>
       <c r="H86" s="71" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="71" customFormat="1" ht="22">
@@ -11210,10 +12179,10 @@
         <v>101.49000000000001</v>
       </c>
       <c r="H87" s="71" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="71" customFormat="1" ht="44">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A88" s="3">
         <v>44243</v>
       </c>
@@ -11238,7 +12207,7 @@
         <v>115.9</v>
       </c>
       <c r="H88" s="71" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="71" customFormat="1">
@@ -11319,7 +12288,7 @@
         <v>111</v>
       </c>
       <c r="H91" s="71" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="71" customFormat="1" ht="22">
@@ -11348,7 +12317,7 @@
         <v>95</v>
       </c>
       <c r="H92" s="71" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="71" customFormat="1">
@@ -11400,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="71" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="71" customFormat="1">
@@ -11480,10 +12449,10 @@
         <v>94.55</v>
       </c>
       <c r="H97" s="71" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="71" customFormat="1" ht="44">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="71" customFormat="1" ht="22">
       <c r="A98" s="3">
         <v>44253</v>
       </c>
@@ -11508,7 +12477,7 @@
         <v>8.9</v>
       </c>
       <c r="H98" s="71" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="71" customFormat="1">
@@ -11541,7 +12510,12 @@
       <c r="A100" s="3">
         <v>44255</v>
       </c>
-      <c r="B100" s="4"/>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="74">
+        <v>0</v>
+      </c>
       <c r="D100" s="74">
         <f>17.5+39</f>
         <v>56.5</v>
@@ -11550,8 +12524,11 @@
         <f>59.5</f>
         <v>59.5</v>
       </c>
+      <c r="F100" s="79">
+        <v>0</v>
+      </c>
       <c r="G100" s="63">
-        <f t="shared" ref="G100:G123" si="3">SUM(B100:F100)</f>
+        <f t="shared" ref="G100:G129" si="3">SUM(B100:F100)</f>
         <v>116</v>
       </c>
     </row>
@@ -11559,25 +12536,47 @@
       <c r="A101" s="3">
         <v>44256</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="74">
+        <v>6</v>
+      </c>
+      <c r="D101" s="74">
+        <v>0</v>
+      </c>
       <c r="E101" s="74">
         <f>72.9+60.5</f>
         <v>133.4</v>
       </c>
+      <c r="F101" s="79">
+        <v>0</v>
+      </c>
       <c r="G101" s="63">
         <f t="shared" si="3"/>
-        <v>133.4</v>
+        <v>139.4</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="74" customFormat="1">
       <c r="A102" s="3">
         <v>44257</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="74">
+        <v>0</v>
+      </c>
+      <c r="D102" s="79">
+        <v>0</v>
+      </c>
       <c r="E102" s="74">
         <f>56</f>
         <v>56</v>
       </c>
+      <c r="F102" s="79">
+        <v>0</v>
+      </c>
       <c r="G102" s="63">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -11587,11 +12586,22 @@
       <c r="A103" s="3">
         <v>44258</v>
       </c>
-      <c r="B103" s="4"/>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="79">
+        <v>0</v>
+      </c>
+      <c r="D103" s="79">
+        <v>0</v>
+      </c>
       <c r="E103" s="74">
         <f>4.6+59.5+1</f>
         <v>65.099999999999994</v>
       </c>
+      <c r="F103" s="79">
+        <v>0</v>
+      </c>
       <c r="G103" s="63">
         <f t="shared" si="3"/>
         <v>65.099999999999994</v>
@@ -11601,7 +12611,12 @@
       <c r="A104" s="3">
         <v>44259</v>
       </c>
-      <c r="B104" s="4"/>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104" s="79">
+        <v>0</v>
+      </c>
       <c r="D104" s="74">
         <f>16.49</f>
         <v>16.489999999999998</v>
@@ -11610,6 +12625,9 @@
         <f>53</f>
         <v>53</v>
       </c>
+      <c r="F104" s="79">
+        <v>0</v>
+      </c>
       <c r="G104" s="63">
         <f t="shared" si="3"/>
         <v>69.489999999999995</v>
@@ -11619,25 +12637,47 @@
       <c r="A105" s="3">
         <v>44260</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="79">
+        <v>0</v>
+      </c>
+      <c r="D105" s="74">
+        <v>14.42</v>
+      </c>
       <c r="E105" s="74">
         <f>21.28+2.5+55.5</f>
         <v>79.28</v>
       </c>
+      <c r="F105" s="79">
+        <v>0</v>
+      </c>
       <c r="G105" s="63">
         <f t="shared" si="3"/>
-        <v>79.28</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="74" customFormat="1">
       <c r="A106" s="3">
         <v>44261</v>
       </c>
-      <c r="B106" s="4"/>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="79">
+        <v>0</v>
+      </c>
+      <c r="D106" s="74">
+        <v>0</v>
+      </c>
       <c r="E106" s="74">
         <f>4.6+62.5</f>
         <v>67.099999999999994</v>
       </c>
+      <c r="F106" s="79">
+        <v>0</v>
+      </c>
       <c r="G106" s="63">
         <f t="shared" si="3"/>
         <v>67.099999999999994</v>
@@ -11647,21 +12687,37 @@
       <c r="A107" s="3">
         <v>44262</v>
       </c>
-      <c r="B107" s="4"/>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="79">
+        <v>0</v>
+      </c>
+      <c r="D107" s="74">
+        <v>31</v>
+      </c>
       <c r="E107" s="74">
         <f>2</f>
         <v>2</v>
       </c>
+      <c r="F107" s="79">
+        <v>0</v>
+      </c>
       <c r="G107" s="63">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="74" customFormat="1" ht="22">
       <c r="A108" s="3">
         <v>44263</v>
       </c>
-      <c r="B108" s="4"/>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="79">
+        <v>0</v>
+      </c>
       <c r="D108" s="74">
         <f>17.5+40</f>
         <v>57.5</v>
@@ -11670,37 +12726,62 @@
         <f>15+29</f>
         <v>44</v>
       </c>
+      <c r="F108" s="79">
+        <v>0</v>
+      </c>
       <c r="G108" s="63">
         <f t="shared" si="3"/>
         <v>101.5</v>
       </c>
       <c r="H108" s="74" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="74" customFormat="1">
       <c r="A109" s="3">
         <v>44264</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="74">
+        <v>12</v>
+      </c>
+      <c r="D109" s="74">
+        <v>0</v>
+      </c>
       <c r="E109" s="74">
         <f>4.6+2+54+2.5</f>
         <v>63.1</v>
       </c>
+      <c r="F109" s="79">
+        <v>0</v>
+      </c>
       <c r="G109" s="63">
         <f t="shared" si="3"/>
-        <v>63.1</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="74" customFormat="1">
       <c r="A110" s="3">
         <v>44265</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="74">
+        <v>0</v>
+      </c>
+      <c r="D110" s="74">
+        <v>0</v>
+      </c>
       <c r="E110" s="74">
         <f>1+44</f>
         <v>45</v>
       </c>
+      <c r="F110" s="79">
+        <v>0</v>
+      </c>
       <c r="G110" s="63">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -11710,7 +12791,12 @@
       <c r="A111" s="3">
         <v>44266</v>
       </c>
-      <c r="B111" s="4"/>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="79">
+        <v>0</v>
+      </c>
       <c r="D111" s="74">
         <f>44.1</f>
         <v>44.1</v>
@@ -11719,6 +12805,9 @@
         <f>39.3</f>
         <v>39.299999999999997</v>
       </c>
+      <c r="F111" s="79">
+        <v>0</v>
+      </c>
       <c r="G111" s="63">
         <f t="shared" si="3"/>
         <v>83.4</v>
@@ -11728,7 +12817,12 @@
       <c r="A112" s="3">
         <v>44267</v>
       </c>
-      <c r="B112" s="4"/>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="79">
+        <v>0</v>
+      </c>
       <c r="D112" s="74">
         <f>37.12</f>
         <v>37.119999999999997</v>
@@ -11737,12 +12831,15 @@
         <f>1+56.5</f>
         <v>57.5</v>
       </c>
+      <c r="F112" s="79">
+        <v>0</v>
+      </c>
       <c r="G112" s="63">
         <f t="shared" si="3"/>
         <v>94.62</v>
       </c>
       <c r="H112" s="74" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="74" customFormat="1">
@@ -11752,10 +12849,19 @@
       <c r="B113" s="4">
         <v>100</v>
       </c>
+      <c r="C113" s="79">
+        <v>0</v>
+      </c>
+      <c r="D113" s="74">
+        <v>0</v>
+      </c>
       <c r="E113" s="74">
         <f>52.5+2+4.6+8</f>
         <v>67.099999999999994</v>
       </c>
+      <c r="F113" s="79">
+        <v>0</v>
+      </c>
       <c r="G113" s="63">
         <f t="shared" si="3"/>
         <v>167.1</v>
@@ -11765,7 +12871,12 @@
       <c r="A114" s="3">
         <v>44269</v>
       </c>
-      <c r="B114" s="4"/>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="79">
+        <v>0</v>
+      </c>
       <c r="D114" s="74">
         <f>38+46.06</f>
         <v>84.06</v>
@@ -11774,19 +12885,27 @@
         <f>58</f>
         <v>58</v>
       </c>
+      <c r="F114" s="74">
+        <v>0</v>
+      </c>
       <c r="G114" s="63">
         <f t="shared" si="3"/>
         <v>142.06</v>
       </c>
       <c r="H114" s="74" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="74" customFormat="1" ht="22">
       <c r="A115" s="3">
         <v>44270</v>
       </c>
-      <c r="B115" s="4"/>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="79">
+        <v>0</v>
+      </c>
       <c r="D115" s="74">
         <f>18.2</f>
         <v>18.2</v>
@@ -11804,35 +12923,48 @@
         <v>57.599999999999994</v>
       </c>
       <c r="H115" s="74" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="74" customFormat="1" ht="22">
       <c r="A116" s="3">
         <v>44271</v>
       </c>
-      <c r="B116" s="4"/>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="79">
+        <v>0</v>
+      </c>
       <c r="D116" s="74">
         <f>21</f>
         <v>21</v>
       </c>
       <c r="E116" s="74">
-        <f>16+52</f>
-        <v>68</v>
+        <f>16+52+14</f>
+        <v>82</v>
+      </c>
+      <c r="F116" s="74">
+        <v>0</v>
       </c>
       <c r="G116" s="63">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H116" s="74" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="74" customFormat="1">
       <c r="A117" s="3">
         <v>44272</v>
       </c>
-      <c r="B117" s="4"/>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="79">
+        <v>0</v>
+      </c>
       <c r="D117" s="74">
         <f>44.82</f>
         <v>44.82</v>
@@ -11841,6 +12973,9 @@
         <f>38+14+1</f>
         <v>53</v>
       </c>
+      <c r="F117" s="74">
+        <v>0</v>
+      </c>
       <c r="G117" s="63">
         <f t="shared" si="3"/>
         <v>97.82</v>
@@ -11853,7 +12988,7 @@
       <c r="B118" s="4">
         <v>0</v>
       </c>
-      <c r="C118" s="74">
+      <c r="C118" s="79">
         <v>0</v>
       </c>
       <c r="D118" s="74">
@@ -11872,108 +13007,353 @@
         <v>544.5</v>
       </c>
       <c r="H118" s="74" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="74" customFormat="1" ht="22" customHeight="1">
       <c r="A119" s="3">
         <v>44274</v>
       </c>
-      <c r="B119" s="4"/>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="79">
+        <v>0</v>
+      </c>
+      <c r="D119" s="74">
+        <f>47.5</f>
+        <v>47.5</v>
+      </c>
+      <c r="E119" s="74">
+        <f>54.5+7.5+1+13.8+36+19.2</f>
+        <v>132</v>
+      </c>
+      <c r="F119" s="74">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="G119" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>182.5</v>
+      </c>
+      <c r="H119" s="74" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="74" customFormat="1" ht="22" customHeight="1">
       <c r="A120" s="3">
         <v>44275</v>
       </c>
-      <c r="B120" s="4"/>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="79">
+        <v>0</v>
+      </c>
+      <c r="D120" s="74">
+        <f>38.7</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E120" s="74">
+        <f>4.6+13+1+14.5+28+19</f>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F120" s="74">
+        <v>0</v>
+      </c>
       <c r="G120" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="74" customFormat="1">
+        <v>118.8</v>
+      </c>
+      <c r="H120" s="74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="74" customFormat="1" ht="22">
       <c r="A121" s="3">
         <v>44276</v>
       </c>
-      <c r="B121" s="4"/>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="74">
+        <v>10</v>
+      </c>
+      <c r="D121" s="74">
+        <v>0</v>
+      </c>
+      <c r="E121" s="74">
+        <f>3.5+54+9.5</f>
+        <v>67</v>
+      </c>
+      <c r="F121" s="74">
+        <v>800</v>
+      </c>
       <c r="G121" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="74" customFormat="1">
+        <v>877</v>
+      </c>
+      <c r="H121" s="74" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="74" customFormat="1" ht="66">
       <c r="A122" s="3">
         <v>44277</v>
       </c>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="74">
+        <v>6</v>
+      </c>
+      <c r="D122" s="74">
+        <f>42.8+11.6</f>
+        <v>54.4</v>
+      </c>
+      <c r="E122" s="74">
+        <f>17+9+18.4</f>
+        <v>44.4</v>
+      </c>
+      <c r="F122" s="74">
+        <v>0</v>
+      </c>
       <c r="G122" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="74" customFormat="1">
+        <v>104.8</v>
+      </c>
+      <c r="H122" s="74" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="74" customFormat="1" ht="22">
       <c r="A123" s="3">
         <v>44278</v>
       </c>
-      <c r="B123" s="4"/>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123" s="74">
+        <v>0</v>
+      </c>
+      <c r="D123" s="74">
+        <f>17.9</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E123" s="74">
+        <f>59.5+7.2</f>
+        <v>66.7</v>
+      </c>
+      <c r="F123" s="74">
+        <v>0</v>
+      </c>
       <c r="G123" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1" ht="22">
-      <c r="A124" s="6" t="s">
+        <v>84.6</v>
+      </c>
+      <c r="H123" s="74" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="79" customFormat="1">
+      <c r="A124" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="79">
+        <v>0</v>
+      </c>
+      <c r="D124" s="79">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="E124" s="79">
+        <f>6+59.5</f>
+        <v>65.5</v>
+      </c>
+      <c r="F124" s="79">
+        <v>0</v>
+      </c>
+      <c r="G124" s="63">
+        <f t="shared" si="3"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="79" customFormat="1" ht="44">
+      <c r="A125" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125" s="79">
+        <v>0</v>
+      </c>
+      <c r="D125" s="79">
+        <v>36.75</v>
+      </c>
+      <c r="E125" s="79">
+        <f>16.4+2+1+17.5</f>
+        <v>36.9</v>
+      </c>
+      <c r="F125" s="79">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G125" s="63">
+        <f t="shared" si="3"/>
+        <v>83.65</v>
+      </c>
+      <c r="H125" s="79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="79" customFormat="1" ht="22">
+      <c r="A126" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="79">
+        <v>12</v>
+      </c>
+      <c r="D126" s="79">
+        <f>19.1</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E126" s="79">
+        <f>1+53.5</f>
+        <v>54.5</v>
+      </c>
+      <c r="F126" s="79">
+        <f>19.5</f>
+        <v>19.5</v>
+      </c>
+      <c r="G126" s="63">
+        <f t="shared" si="3"/>
+        <v>105.1</v>
+      </c>
+      <c r="H126" s="79" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="79" customFormat="1">
+      <c r="A127" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="79">
+        <v>0</v>
+      </c>
+      <c r="D127" s="79">
+        <v>0</v>
+      </c>
+      <c r="E127" s="79">
+        <v>0</v>
+      </c>
+      <c r="F127" s="79">
+        <v>0</v>
+      </c>
+      <c r="G127" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="79" customFormat="1" ht="22">
+      <c r="A128" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="79">
+        <v>0</v>
+      </c>
+      <c r="D128" s="79">
+        <v>0</v>
+      </c>
+      <c r="E128" s="79">
+        <f>7.1+10</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F128" s="79">
+        <v>175</v>
+      </c>
+      <c r="G128" s="63">
+        <f t="shared" si="3"/>
+        <v>192.1</v>
+      </c>
+      <c r="H128" s="79" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="79" customFormat="1" ht="22">
+      <c r="A129" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="G129" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="79" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1" ht="22">
+      <c r="A130" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="7">
-        <f>SUM(B2:B123)</f>
+      <c r="B130" s="7">
+        <f>SUM(B2:B129)</f>
         <v>620</v>
       </c>
-      <c r="C124" s="7">
-        <f>SUM(C2:C123)</f>
-        <v>72</v>
-      </c>
-      <c r="D124" s="7">
-        <f>SUM(D2:D123)</f>
-        <v>3704.4199999999992</v>
-      </c>
-      <c r="E124" s="7">
-        <f>SUM(E2:E123)</f>
-        <v>5388.9800000000014</v>
-      </c>
-      <c r="F124" s="7">
-        <f>SUM(F2:F123)</f>
-        <v>2440.61</v>
-      </c>
-      <c r="G124" s="64">
-        <f>SUM(G2:G123)</f>
-        <v>12226.01</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="3"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="3"/>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="C130" s="7">
+        <f>SUM(C2:C129)</f>
+        <v>118</v>
+      </c>
+      <c r="D130" s="7">
+        <f>SUM(D2:D129)</f>
+        <v>3983.1899999999991</v>
+      </c>
+      <c r="E130" s="7">
+        <f>SUM(E2:E129)</f>
+        <v>5967.1800000000012</v>
+      </c>
+      <c r="F130" s="7">
+        <f>SUM(F2:F129)</f>
+        <v>3448.11</v>
+      </c>
+      <c r="G130" s="64">
+        <f>SUM(G2:G129)</f>
+        <v>14136.48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11986,8 +13366,8 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="21"/>
@@ -12240,58 +13620,58 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="308">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="91" t="s">
         <v>217</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D12" s="25">
         <v>20.5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G12" s="52" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="73" customFormat="1" ht="66">
-      <c r="A13" s="85"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="73" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="F13" s="66" t="s">
-        <v>521</v>
-      </c>
     </row>
     <row r="14" spans="1:7" s="68" customFormat="1" ht="44">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="91" t="s">
         <v>432</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" ht="88">
-      <c r="A15" s="85"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="61" t="s">
         <v>433</v>
       </c>
@@ -12301,115 +13681,115 @@
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="198">
-      <c r="A16" s="85"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F16" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="88">
+      <c r="A17" s="91"/>
+      <c r="B17" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="C17" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="88">
-      <c r="A17" s="85"/>
-      <c r="B17" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>525</v>
-      </c>
     </row>
     <row r="18" spans="1:6" ht="22">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="91" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22">
+      <c r="A19" s="91"/>
+      <c r="B19" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B18" s="11" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="22">
+      <c r="A20" s="91"/>
+      <c r="B20" s="11" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22">
-      <c r="A19" s="85"/>
-      <c r="B19" s="11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22">
-      <c r="A20" s="85"/>
-      <c r="B20" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22">
       <c r="A21" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22">
       <c r="A22" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="78" customFormat="1" ht="22">
-      <c r="A23" s="85" t="s">
-        <v>542</v>
+      <c r="A23" s="91" t="s">
+        <v>538</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="44">
-      <c r="A24" s="85"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="44">
       <c r="A25" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="22">
       <c r="A26" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
